--- a/BASE - VENDA E REGISTRO.xlsx
+++ b/BASE - VENDA E REGISTRO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viana e Moura\Dropbox\PLANEJAMENTO\Scripts\MÓDULO VENDAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viana e Moura\Dropbox\PLANEJAMENTO\Scripts\MÓDULO VENDAS\MODULO_VENDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE729FAE-888A-4788-ADCC-9E47DA3B8D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218A41C5-7C15-4A89-A732-F2A81EA5BD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0382C43D-564D-4A4C-8EAB-6952E70C6A7B}"/>
   </bookViews>
@@ -325,9 +325,6 @@
     <t>GA</t>
   </si>
   <si>
-    <t>SÃO VICENTE III (ETAPA 2) COND MERID (E)-09</t>
-  </si>
-  <si>
     <t xml:space="preserve">Módulo 09 </t>
   </si>
   <si>
@@ -389,6 +386,9 @@
   </si>
   <si>
     <t>Módulo 13</t>
+  </si>
+  <si>
+    <t>SÃO VICENTE III-MERID(E)-09</t>
   </si>
 </sst>
 </file>
@@ -489,10 +489,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
+      <u/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -656,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -673,18 +675,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -776,62 +766,26 @@
     <xf numFmtId="14" fontId="12" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -1242,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DB70CC-ACBF-416D-B448-0645472647BA}">
-  <dimension ref="A2:AN20"/>
+  <dimension ref="A2:AN23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="10.8" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1318,234 +1272,234 @@
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="K3" s="10" t="s">
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="K3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="P3" s="9" t="s">
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="P3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="U3" s="10" t="s">
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="U3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Z3" s="10" t="s">
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Z3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AE3" s="10" t="s">
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AE3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AJ3" s="10" t="s">
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AJ3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="11"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="42"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="P4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="14" t="s">
+      <c r="U4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="V4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="W4" s="14" t="s">
+      <c r="W4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="X4" s="14" t="s">
+      <c r="X4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="14" t="s">
+      <c r="Z4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="14" t="s">
+      <c r="AA4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AB4" s="14" t="s">
+      <c r="AB4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AC4" s="14" t="s">
+      <c r="AC4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AE4" s="14" t="s">
+      <c r="AE4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AF4" s="14" t="s">
+      <c r="AF4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AG4" s="14" t="s">
+      <c r="AG4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="14" t="s">
+      <c r="AH4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AJ4" s="14" t="s">
+      <c r="AJ4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AK4" s="14" t="s">
+      <c r="AK4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AL4" s="14" t="s">
+      <c r="AL4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AM4" s="14" t="s">
+      <c r="AM4" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="R5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="S5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="U5" s="16" t="s">
+      <c r="U5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="V5" s="16" t="s">
+      <c r="V5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="W5" s="16" t="s">
+      <c r="W5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="X5" s="16" t="s">
+      <c r="X5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="Z5" s="16" t="s">
+      <c r="Z5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AA5" s="16" t="s">
+      <c r="AA5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AB5" s="16" t="s">
+      <c r="AB5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AC5" s="16" t="s">
+      <c r="AC5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AE5" s="16" t="s">
+      <c r="AE5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AF5" s="16" t="s">
+      <c r="AF5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AG5" s="16" t="s">
+      <c r="AG5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AH5" s="16" t="s">
+      <c r="AH5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AJ5" s="16" t="s">
+      <c r="AJ5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AK5" s="16" t="s">
+      <c r="AK5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AL5" s="16" t="s">
+      <c r="AL5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AM5" s="16" t="s">
+      <c r="AM5" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1561,1768 +1515,1771 @@
       <c r="AM6" s="2"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="M7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="18" t="s">
+      <c r="N7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="18" t="s">
+      <c r="P7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="18" t="s">
+      <c r="Q7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="R7" s="18" t="s">
+      <c r="R7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="S7" s="18" t="s">
+      <c r="S7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="U7" s="18" t="s">
+      <c r="U7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="V7" s="18" t="s">
+      <c r="V7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="W7" s="18" t="s">
+      <c r="W7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="X7" s="18" t="s">
+      <c r="X7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="Z7" s="18" t="s">
+      <c r="Z7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AA7" s="18" t="s">
+      <c r="AA7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AB7" s="18" t="s">
+      <c r="AB7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AC7" s="18" t="s">
+      <c r="AC7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AE7" s="18" t="s">
+      <c r="AE7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AF7" s="18" t="s">
+      <c r="AF7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AG7" s="18" t="s">
+      <c r="AG7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AH7" s="18" t="s">
+      <c r="AH7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AJ7" s="18" t="s">
+      <c r="AJ7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AK7" s="18" t="s">
+      <c r="AK7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AL7" s="18" t="s">
+      <c r="AL7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AM7" s="18" t="s">
+      <c r="AM7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AN7" s="19" t="s">
+      <c r="AN7" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:40" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
+    <row r="8" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="17">
         <v>255</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="19">
         <f t="shared" ref="F8:F20" si="0">IFERROR(WORKDAY(G8,(-$I$2+1)),"-")</f>
         <v>45624</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="20">
         <f t="shared" ref="G8:G20" si="1">IFERROR(WORKDAY(K8,-1),"-")</f>
         <v>45650</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="21">
         <v>45658</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="21">
         <f t="shared" ref="I8:I15" si="2">WORKDAY(H8,$I$2-1)</f>
         <v>45684</v>
       </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="27">
+      <c r="J8" s="22"/>
+      <c r="K8" s="23">
         <f t="shared" ref="K8:K20" si="3">IFERROR(WORKDAY(L8,(-$N$2+1)),"-")</f>
         <v>45651</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="19">
         <f t="shared" ref="L8:L20" si="4">IFERROR(WORKDAY(P8,-1),"-")</f>
         <v>45673</v>
       </c>
-      <c r="M8" s="28">
+      <c r="M8" s="24">
         <v>45687</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="24">
         <v>45707</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="27">
+      <c r="O8" s="22"/>
+      <c r="P8" s="23">
         <f t="shared" ref="P8:P20" si="5">IFERROR(WORKDAY(Q8,(-$S$2+1)),"-")</f>
         <v>45674</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="19">
         <f t="shared" ref="Q8:Q20" si="6">IFERROR(WORKDAY(Z8,-1),"-")</f>
         <v>45782</v>
       </c>
-      <c r="R8" s="28">
+      <c r="R8" s="24">
         <f t="shared" ref="R8:R20" si="7">WORKDAY.INTL(N8,1)</f>
         <v>45708</v>
       </c>
-      <c r="S8" s="28">
+      <c r="S8" s="24">
         <v>45800</v>
       </c>
-      <c r="T8" s="26"/>
-      <c r="U8" s="27">
+      <c r="T8" s="22"/>
+      <c r="U8" s="23">
         <f t="shared" ref="U8:U20" si="8">IFERROR(WORKDAY(V8,(-$X$2+1)),"-")</f>
         <v>45674</v>
       </c>
-      <c r="V8" s="23">
+      <c r="V8" s="19">
         <f t="shared" ref="V8:V20" si="9">IFERROR(WORKDAY(Z8,-1),"-")</f>
         <v>45782</v>
       </c>
-      <c r="W8" s="28">
+      <c r="W8" s="24">
         <v>45537</v>
       </c>
-      <c r="X8" s="28">
+      <c r="X8" s="24">
         <v>45686</v>
       </c>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="27">
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="23">
         <f t="shared" ref="Z8:Z20" si="10">IFERROR(WORKDAY(AA8,(-$AC$2+1)),"-")</f>
         <v>45783</v>
       </c>
-      <c r="AA8" s="23">
+      <c r="AA8" s="19">
         <f t="shared" ref="AA8:AA20" si="11">IFERROR(WORKDAY(AE8,-1),"-")</f>
         <v>45790</v>
       </c>
-      <c r="AB8" s="28">
+      <c r="AB8" s="24">
         <v>45800</v>
       </c>
-      <c r="AC8" s="28">
+      <c r="AC8" s="24">
         <v>45800</v>
       </c>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="27">
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="23">
         <f t="shared" ref="AE8:AE20" si="12">IFERROR(WORKDAY(AF8,(-$AH$2+1)),"-")</f>
         <v>45791</v>
       </c>
-      <c r="AF8" s="29">
+      <c r="AF8" s="25">
         <f t="shared" ref="AF8:AF20" si="13">IFERROR(WORKDAY(AJ8,-1),"-")</f>
         <v>45813</v>
       </c>
-      <c r="AG8" s="30">
+      <c r="AG8" s="26">
         <v>45803</v>
       </c>
-      <c r="AH8" s="31">
+      <c r="AH8" s="27">
         <v>45819</v>
       </c>
-      <c r="AI8" s="26"/>
-      <c r="AJ8" s="27">
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="23">
         <f t="shared" ref="AJ8:AJ20" si="14">IFERROR(WORKDAY(AK8,(-$AM$2+1)),"-")</f>
         <v>45814</v>
       </c>
-      <c r="AK8" s="32">
+      <c r="AK8" s="28">
         <v>45839</v>
       </c>
-      <c r="AL8" s="33">
+      <c r="AL8" s="29">
         <f t="shared" ref="AL8:AL20" si="15">WORKDAY.INTL(AH8,1)</f>
         <v>45820</v>
       </c>
-      <c r="AM8" s="34">
+      <c r="AM8" s="30">
         <v>45834</v>
       </c>
-      <c r="AN8" s="21">
+      <c r="AN8" s="17">
         <f t="shared" ref="AN8:AN20" si="16">IFERROR(AM8-AK8,"-")</f>
         <v>-5</v>
       </c>
     </row>
-    <row r="9" spans="1:40" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
+    <row r="9" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="21">
+      <c r="E9" s="17">
         <v>31</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="19">
         <f t="shared" si="0"/>
         <v>45624</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="20">
         <f t="shared" si="1"/>
         <v>45650</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="21">
         <v>45658</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="21">
         <f t="shared" si="2"/>
         <v>45684</v>
       </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="27">
+      <c r="J9" s="22"/>
+      <c r="K9" s="23">
         <f t="shared" si="3"/>
         <v>45651</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="19">
         <f t="shared" si="4"/>
         <v>45673</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M9" s="24">
         <v>45663</v>
       </c>
-      <c r="N9" s="28">
+      <c r="N9" s="24">
         <v>45681</v>
       </c>
-      <c r="O9" s="26"/>
-      <c r="P9" s="27">
+      <c r="O9" s="22"/>
+      <c r="P9" s="23">
         <f t="shared" si="5"/>
         <v>45674</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="19">
         <f t="shared" si="6"/>
         <v>45782</v>
       </c>
-      <c r="R9" s="35">
+      <c r="R9" s="31">
         <f t="shared" si="7"/>
         <v>45684</v>
       </c>
-      <c r="S9" s="36">
+      <c r="S9" s="32">
         <f t="shared" ref="S9:S20" si="17">WORKDAY(R9,$S$2-1)</f>
         <v>45790</v>
       </c>
-      <c r="T9" s="26"/>
-      <c r="U9" s="27">
+      <c r="T9" s="22"/>
+      <c r="U9" s="23">
         <f t="shared" si="8"/>
         <v>45674</v>
       </c>
-      <c r="V9" s="23">
+      <c r="V9" s="19">
         <f t="shared" si="9"/>
         <v>45782</v>
       </c>
-      <c r="W9" s="35">
+      <c r="W9" s="31">
         <f t="shared" ref="W9:W20" si="18">WORKDAY.INTL(N9,1)</f>
         <v>45684</v>
       </c>
-      <c r="X9" s="36">
+      <c r="X9" s="32">
         <f t="shared" ref="X9:X20" si="19">WORKDAY(W9,$X$2-1)</f>
         <v>45790</v>
       </c>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="27">
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="23">
         <f t="shared" si="10"/>
         <v>45783</v>
       </c>
-      <c r="AA9" s="23">
+      <c r="AA9" s="19">
         <f t="shared" si="11"/>
         <v>45790</v>
       </c>
-      <c r="AB9" s="35">
+      <c r="AB9" s="31">
         <f t="shared" ref="AB9:AB20" si="20">WORKDAY.INTL(X9,1)</f>
         <v>45791</v>
       </c>
-      <c r="AC9" s="36">
+      <c r="AC9" s="32">
         <f t="shared" ref="AC9:AC20" si="21">WORKDAY(AB9,$AC$2-1)</f>
         <v>45798</v>
       </c>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="27">
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="23">
         <f t="shared" si="12"/>
         <v>45791</v>
       </c>
-      <c r="AF9" s="29">
+      <c r="AF9" s="25">
         <f t="shared" si="13"/>
         <v>45813</v>
       </c>
-      <c r="AG9" s="35">
+      <c r="AG9" s="31">
         <f t="shared" ref="AG9:AG20" si="22">WORKDAY.INTL(AC9,1)</f>
         <v>45799</v>
       </c>
-      <c r="AH9" s="36">
+      <c r="AH9" s="32">
         <f t="shared" ref="AH9:AH20" si="23">IFERROR(WORKDAY(AC9,($AH$2)),"-")</f>
         <v>45821</v>
       </c>
-      <c r="AI9" s="26"/>
-      <c r="AJ9" s="27">
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="23">
         <f t="shared" si="14"/>
         <v>45814</v>
       </c>
-      <c r="AK9" s="32">
+      <c r="AK9" s="28">
         <v>45839</v>
       </c>
-      <c r="AL9" s="35">
+      <c r="AL9" s="31">
         <f t="shared" si="15"/>
         <v>45824</v>
       </c>
-      <c r="AM9" s="36">
+      <c r="AM9" s="32">
         <f t="shared" ref="AM9:AM20" si="24">IFERROR(WORKDAY(AH9,($AM$2)),"-")</f>
         <v>45847</v>
       </c>
-      <c r="AN9" s="21">
+      <c r="AN9" s="17">
         <f t="shared" si="16"/>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
+    <row r="10" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="21">
+      <c r="E10" s="17">
         <v>250</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="19">
         <f t="shared" si="0"/>
         <v>45657</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="20">
         <f t="shared" si="1"/>
         <v>45681</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="21">
         <v>45658</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="21">
         <f t="shared" si="2"/>
         <v>45684</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27">
+      <c r="J10" s="22"/>
+      <c r="K10" s="23">
         <f t="shared" si="3"/>
         <v>45684</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="19">
         <f t="shared" si="4"/>
         <v>45706</v>
       </c>
-      <c r="M10" s="28">
+      <c r="M10" s="24">
         <v>45687</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="24">
         <v>45707</v>
       </c>
-      <c r="O10" s="26"/>
-      <c r="P10" s="27">
+      <c r="O10" s="22"/>
+      <c r="P10" s="23">
         <f t="shared" si="5"/>
         <v>45707</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q10" s="19">
         <f t="shared" si="6"/>
         <v>45813</v>
       </c>
-      <c r="R10" s="35">
+      <c r="R10" s="31">
         <f t="shared" si="7"/>
         <v>45708</v>
       </c>
-      <c r="S10" s="36">
+      <c r="S10" s="32">
         <f t="shared" si="17"/>
         <v>45814</v>
       </c>
-      <c r="T10" s="26"/>
-      <c r="U10" s="27">
+      <c r="T10" s="22"/>
+      <c r="U10" s="23">
         <f t="shared" si="8"/>
         <v>45707</v>
       </c>
-      <c r="V10" s="23">
+      <c r="V10" s="19">
         <f t="shared" si="9"/>
         <v>45813</v>
       </c>
-      <c r="W10" s="35">
+      <c r="W10" s="31">
         <f t="shared" si="18"/>
         <v>45708</v>
       </c>
-      <c r="X10" s="36">
+      <c r="X10" s="32">
         <f t="shared" si="19"/>
         <v>45814</v>
       </c>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="27">
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="23">
         <f t="shared" si="10"/>
         <v>45814</v>
       </c>
-      <c r="AA10" s="23">
+      <c r="AA10" s="19">
         <f t="shared" si="11"/>
         <v>45821</v>
       </c>
-      <c r="AB10" s="35">
+      <c r="AB10" s="31">
         <f t="shared" si="20"/>
         <v>45817</v>
       </c>
-      <c r="AC10" s="36">
+      <c r="AC10" s="32">
         <f t="shared" si="21"/>
         <v>45824</v>
       </c>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="27">
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="23">
         <f t="shared" si="12"/>
         <v>45824</v>
       </c>
-      <c r="AF10" s="29">
+      <c r="AF10" s="25">
         <f t="shared" si="13"/>
         <v>45846</v>
       </c>
-      <c r="AG10" s="35">
+      <c r="AG10" s="31">
         <f t="shared" si="22"/>
         <v>45825</v>
       </c>
-      <c r="AH10" s="36">
+      <c r="AH10" s="32">
         <f t="shared" si="23"/>
         <v>45847</v>
       </c>
-      <c r="AI10" s="26"/>
-      <c r="AJ10" s="27">
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="23">
         <f t="shared" si="14"/>
         <v>45847</v>
       </c>
-      <c r="AK10" s="32">
+      <c r="AK10" s="28">
         <v>45870</v>
       </c>
-      <c r="AL10" s="35">
+      <c r="AL10" s="31">
         <f t="shared" si="15"/>
         <v>45848</v>
       </c>
-      <c r="AM10" s="36">
+      <c r="AM10" s="32">
         <f t="shared" si="24"/>
         <v>45873</v>
       </c>
-      <c r="AN10" s="21">
+      <c r="AN10" s="17">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="17">
         <v>362</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="19">
         <f t="shared" si="0"/>
         <v>45686</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="20">
         <f t="shared" si="1"/>
         <v>45712</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="21">
         <v>45716</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="21">
         <f t="shared" si="2"/>
         <v>45742</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27">
+      <c r="J11" s="22"/>
+      <c r="K11" s="23">
         <f t="shared" si="3"/>
         <v>45713</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="19">
         <f t="shared" si="4"/>
         <v>45735</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="24">
         <v>45700</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="24">
         <v>45737</v>
       </c>
-      <c r="O11" s="26"/>
-      <c r="P11" s="27">
+      <c r="O11" s="22"/>
+      <c r="P11" s="23">
         <f t="shared" si="5"/>
         <v>45736</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="Q11" s="19">
         <f t="shared" si="6"/>
         <v>45842</v>
       </c>
-      <c r="R11" s="35">
+      <c r="R11" s="31">
         <f t="shared" si="7"/>
         <v>45740</v>
       </c>
-      <c r="S11" s="36">
+      <c r="S11" s="32">
         <f t="shared" si="17"/>
         <v>45846</v>
       </c>
-      <c r="T11" s="26"/>
-      <c r="U11" s="27">
+      <c r="T11" s="22"/>
+      <c r="U11" s="23">
         <f t="shared" si="8"/>
         <v>45736</v>
       </c>
-      <c r="V11" s="23">
+      <c r="V11" s="19">
         <f t="shared" si="9"/>
         <v>45842</v>
       </c>
-      <c r="W11" s="35">
+      <c r="W11" s="31">
         <f t="shared" si="18"/>
         <v>45740</v>
       </c>
-      <c r="X11" s="36">
+      <c r="X11" s="32">
         <f t="shared" si="19"/>
         <v>45846</v>
       </c>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="27">
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="23">
         <f t="shared" si="10"/>
         <v>45845</v>
       </c>
-      <c r="AA11" s="23">
+      <c r="AA11" s="19">
         <f t="shared" si="11"/>
         <v>45852</v>
       </c>
-      <c r="AB11" s="35">
+      <c r="AB11" s="31">
         <f t="shared" si="20"/>
         <v>45847</v>
       </c>
-      <c r="AC11" s="36">
+      <c r="AC11" s="32">
         <f t="shared" si="21"/>
         <v>45854</v>
       </c>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="27">
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="23">
         <f t="shared" si="12"/>
         <v>45853</v>
       </c>
-      <c r="AF11" s="23">
+      <c r="AF11" s="19">
         <f t="shared" si="13"/>
         <v>45875</v>
       </c>
-      <c r="AG11" s="35">
+      <c r="AG11" s="31">
         <f t="shared" si="22"/>
         <v>45855</v>
       </c>
-      <c r="AH11" s="36">
+      <c r="AH11" s="32">
         <f t="shared" si="23"/>
         <v>45877</v>
       </c>
-      <c r="AI11" s="26"/>
-      <c r="AJ11" s="27">
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="23">
         <f t="shared" si="14"/>
         <v>45876</v>
       </c>
-      <c r="AK11" s="32">
+      <c r="AK11" s="28">
         <v>45901</v>
       </c>
-      <c r="AL11" s="35">
+      <c r="AL11" s="31">
         <f t="shared" si="15"/>
         <v>45880</v>
       </c>
-      <c r="AM11" s="36">
+      <c r="AM11" s="32">
         <f t="shared" si="24"/>
         <v>45903</v>
       </c>
-      <c r="AN11" s="37">
+      <c r="AN11" s="33">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="17">
         <v>377</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="19">
         <f t="shared" si="0"/>
         <v>45686</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="20">
         <f t="shared" si="1"/>
         <v>45712</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="21">
         <v>45716</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="21">
         <f t="shared" si="2"/>
         <v>45742</v>
       </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27">
+      <c r="J12" s="22"/>
+      <c r="K12" s="23">
         <f t="shared" si="3"/>
         <v>45713</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="19">
         <f t="shared" si="4"/>
         <v>45735</v>
       </c>
-      <c r="M12" s="28">
+      <c r="M12" s="24">
         <v>45761</v>
       </c>
-      <c r="N12" s="28">
+      <c r="N12" s="24">
         <v>45800</v>
       </c>
-      <c r="O12" s="26"/>
-      <c r="P12" s="27">
+      <c r="O12" s="22"/>
+      <c r="P12" s="23">
         <f t="shared" si="5"/>
         <v>45736</v>
       </c>
-      <c r="Q12" s="23">
+      <c r="Q12" s="19">
         <f t="shared" si="6"/>
         <v>45842</v>
       </c>
-      <c r="R12" s="35">
+      <c r="R12" s="31">
         <f t="shared" si="7"/>
         <v>45803</v>
       </c>
-      <c r="S12" s="36">
+      <c r="S12" s="32">
         <f t="shared" si="17"/>
         <v>45909</v>
       </c>
-      <c r="T12" s="26"/>
-      <c r="U12" s="27">
+      <c r="T12" s="22"/>
+      <c r="U12" s="23">
         <f t="shared" si="8"/>
         <v>45736</v>
       </c>
-      <c r="V12" s="23">
+      <c r="V12" s="19">
         <f t="shared" si="9"/>
         <v>45842</v>
       </c>
-      <c r="W12" s="35">
+      <c r="W12" s="31">
         <f t="shared" si="18"/>
         <v>45803</v>
       </c>
-      <c r="X12" s="36">
+      <c r="X12" s="32">
         <f t="shared" si="19"/>
         <v>45909</v>
       </c>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="27">
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="23">
         <f t="shared" si="10"/>
         <v>45845</v>
       </c>
-      <c r="AA12" s="23">
+      <c r="AA12" s="19">
         <f t="shared" si="11"/>
         <v>45852</v>
       </c>
-      <c r="AB12" s="35">
+      <c r="AB12" s="31">
         <f t="shared" si="20"/>
         <v>45910</v>
       </c>
-      <c r="AC12" s="36">
+      <c r="AC12" s="32">
         <f t="shared" si="21"/>
         <v>45917</v>
       </c>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="27">
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="23">
         <f t="shared" si="12"/>
         <v>45853</v>
       </c>
-      <c r="AF12" s="23">
+      <c r="AF12" s="19">
         <f t="shared" si="13"/>
         <v>45875</v>
       </c>
-      <c r="AG12" s="35">
+      <c r="AG12" s="31">
         <f t="shared" si="22"/>
         <v>45918</v>
       </c>
-      <c r="AH12" s="36">
+      <c r="AH12" s="32">
         <f t="shared" si="23"/>
         <v>45940</v>
       </c>
-      <c r="AI12" s="26"/>
-      <c r="AJ12" s="27">
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="23">
         <f t="shared" si="14"/>
         <v>45876</v>
       </c>
-      <c r="AK12" s="32">
+      <c r="AK12" s="28">
         <v>45901</v>
       </c>
-      <c r="AL12" s="35">
+      <c r="AL12" s="31">
         <f t="shared" si="15"/>
         <v>45943</v>
       </c>
-      <c r="AM12" s="36">
+      <c r="AM12" s="32">
         <f t="shared" si="24"/>
         <v>45966</v>
       </c>
-      <c r="AN12" s="37">
+      <c r="AN12" s="33">
         <f t="shared" si="16"/>
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="22" t="s">
+      <c r="C13" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="17">
         <v>145</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="19">
         <f t="shared" si="0"/>
         <v>45686</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="20">
         <f t="shared" si="1"/>
         <v>45712</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="21">
         <v>45658</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="21">
         <f t="shared" si="2"/>
         <v>45684</v>
       </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="27">
+      <c r="J13" s="22"/>
+      <c r="K13" s="23">
         <f t="shared" si="3"/>
         <v>45713</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="19">
         <f t="shared" si="4"/>
         <v>45735</v>
       </c>
-      <c r="M13" s="28">
+      <c r="M13" s="24">
         <v>45740</v>
       </c>
-      <c r="N13" s="28">
+      <c r="N13" s="24">
         <v>45785</v>
       </c>
-      <c r="O13" s="26"/>
-      <c r="P13" s="27">
+      <c r="O13" s="22"/>
+      <c r="P13" s="23">
         <f t="shared" si="5"/>
         <v>45736</v>
       </c>
-      <c r="Q13" s="23">
+      <c r="Q13" s="19">
         <f t="shared" si="6"/>
         <v>45842</v>
       </c>
-      <c r="R13" s="35">
+      <c r="R13" s="31">
         <f t="shared" si="7"/>
         <v>45786</v>
       </c>
-      <c r="S13" s="36">
+      <c r="S13" s="32">
         <f t="shared" si="17"/>
         <v>45894</v>
       </c>
-      <c r="T13" s="26"/>
-      <c r="U13" s="27">
+      <c r="T13" s="22"/>
+      <c r="U13" s="23">
         <f t="shared" si="8"/>
         <v>45736</v>
       </c>
-      <c r="V13" s="23">
+      <c r="V13" s="19">
         <f t="shared" si="9"/>
         <v>45842</v>
       </c>
-      <c r="W13" s="35">
+      <c r="W13" s="31">
         <f t="shared" si="18"/>
         <v>45786</v>
       </c>
-      <c r="X13" s="36">
+      <c r="X13" s="32">
         <f t="shared" si="19"/>
         <v>45894</v>
       </c>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="27">
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="23">
         <f t="shared" si="10"/>
         <v>45845</v>
       </c>
-      <c r="AA13" s="23">
+      <c r="AA13" s="19">
         <f t="shared" si="11"/>
         <v>45852</v>
       </c>
-      <c r="AB13" s="35">
+      <c r="AB13" s="31">
         <f t="shared" si="20"/>
         <v>45895</v>
       </c>
-      <c r="AC13" s="36">
+      <c r="AC13" s="32">
         <f t="shared" si="21"/>
         <v>45902</v>
       </c>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="27">
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="23">
         <f t="shared" si="12"/>
         <v>45853</v>
       </c>
-      <c r="AF13" s="23">
+      <c r="AF13" s="19">
         <f t="shared" si="13"/>
         <v>45875</v>
       </c>
-      <c r="AG13" s="35">
+      <c r="AG13" s="31">
         <f t="shared" si="22"/>
         <v>45903</v>
       </c>
-      <c r="AH13" s="36">
+      <c r="AH13" s="32">
         <f t="shared" si="23"/>
         <v>45925</v>
       </c>
-      <c r="AI13" s="26"/>
-      <c r="AJ13" s="27">
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="23">
         <f t="shared" si="14"/>
         <v>45876</v>
       </c>
-      <c r="AK13" s="32">
+      <c r="AK13" s="28">
         <v>45901</v>
       </c>
-      <c r="AL13" s="35">
+      <c r="AL13" s="31">
         <f t="shared" si="15"/>
         <v>45926</v>
       </c>
-      <c r="AM13" s="36">
+      <c r="AM13" s="32">
         <f t="shared" si="24"/>
         <v>45951</v>
       </c>
-      <c r="AN13" s="21">
+      <c r="AN13" s="17">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="D14" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="21">
+      <c r="E14" s="17">
         <v>61</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="19">
         <f t="shared" si="0"/>
         <v>45749</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="20">
         <f t="shared" si="1"/>
         <v>45775</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="21">
         <v>45658</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="21">
         <f t="shared" si="2"/>
         <v>45684</v>
       </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="27">
+      <c r="J14" s="22"/>
+      <c r="K14" s="23">
         <f t="shared" si="3"/>
         <v>45776</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="19">
         <f t="shared" si="4"/>
         <v>45798</v>
       </c>
-      <c r="M14" s="38">
+      <c r="M14" s="34">
         <v>45817</v>
       </c>
-      <c r="N14" s="39">
+      <c r="N14" s="35">
         <v>45828</v>
       </c>
-      <c r="O14" s="26"/>
-      <c r="P14" s="27">
+      <c r="O14" s="22"/>
+      <c r="P14" s="23">
         <f t="shared" si="5"/>
         <v>45799</v>
       </c>
-      <c r="Q14" s="23">
+      <c r="Q14" s="19">
         <f t="shared" si="6"/>
         <v>45905</v>
       </c>
-      <c r="R14" s="35">
+      <c r="R14" s="31">
         <f t="shared" si="7"/>
         <v>45831</v>
       </c>
-      <c r="S14" s="36">
+      <c r="S14" s="32">
         <f t="shared" si="17"/>
         <v>45937</v>
       </c>
-      <c r="T14" s="26"/>
-      <c r="U14" s="27">
+      <c r="T14" s="22"/>
+      <c r="U14" s="23">
         <f t="shared" si="8"/>
         <v>45799</v>
       </c>
-      <c r="V14" s="23">
+      <c r="V14" s="19">
         <f t="shared" si="9"/>
         <v>45905</v>
       </c>
-      <c r="W14" s="35">
+      <c r="W14" s="31">
         <f t="shared" si="18"/>
         <v>45831</v>
       </c>
-      <c r="X14" s="36">
+      <c r="X14" s="32">
         <f t="shared" si="19"/>
         <v>45937</v>
       </c>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="27">
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="23">
         <f t="shared" si="10"/>
         <v>45908</v>
       </c>
-      <c r="AA14" s="23">
+      <c r="AA14" s="19">
         <f t="shared" si="11"/>
         <v>45915</v>
       </c>
-      <c r="AB14" s="35">
+      <c r="AB14" s="31">
         <f t="shared" si="20"/>
         <v>45938</v>
       </c>
-      <c r="AC14" s="36">
+      <c r="AC14" s="32">
         <f t="shared" si="21"/>
         <v>45945</v>
       </c>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="27">
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="23">
         <f t="shared" si="12"/>
         <v>45916</v>
       </c>
-      <c r="AF14" s="23">
+      <c r="AF14" s="19">
         <f t="shared" si="13"/>
         <v>45938</v>
       </c>
-      <c r="AG14" s="35">
+      <c r="AG14" s="31">
         <f t="shared" si="22"/>
         <v>45946</v>
       </c>
-      <c r="AH14" s="36">
+      <c r="AH14" s="32">
         <f t="shared" si="23"/>
         <v>45968</v>
       </c>
-      <c r="AI14" s="26"/>
-      <c r="AJ14" s="27">
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="23">
         <f t="shared" si="14"/>
         <v>45939</v>
       </c>
-      <c r="AK14" s="32">
+      <c r="AK14" s="28">
         <v>45964</v>
       </c>
-      <c r="AL14" s="35">
+      <c r="AL14" s="31">
         <f t="shared" si="15"/>
         <v>45971</v>
       </c>
-      <c r="AM14" s="36">
+      <c r="AM14" s="32">
         <f t="shared" si="24"/>
         <v>45994</v>
       </c>
-      <c r="AN14" s="21">
+      <c r="AN14" s="17">
         <f t="shared" si="16"/>
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="D15" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="21">
+      <c r="E15" s="17">
         <v>128</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="19">
         <f t="shared" si="0"/>
         <v>45749</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="20">
         <f t="shared" si="1"/>
         <v>45775</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="21">
         <v>45658</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="21">
         <f t="shared" si="2"/>
         <v>45684</v>
       </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="27">
+      <c r="J15" s="22"/>
+      <c r="K15" s="23">
         <f t="shared" si="3"/>
         <v>45776</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="19">
         <f t="shared" si="4"/>
         <v>45798</v>
       </c>
-      <c r="M15" s="28">
+      <c r="M15" s="24">
         <v>45767</v>
       </c>
-      <c r="N15" s="28">
+      <c r="N15" s="24">
         <v>45814</v>
       </c>
-      <c r="O15" s="26"/>
-      <c r="P15" s="27">
+      <c r="O15" s="22"/>
+      <c r="P15" s="23">
         <f t="shared" si="5"/>
         <v>45799</v>
       </c>
-      <c r="Q15" s="23">
+      <c r="Q15" s="19">
         <f t="shared" si="6"/>
         <v>45905</v>
       </c>
-      <c r="R15" s="35">
+      <c r="R15" s="31">
         <f t="shared" si="7"/>
         <v>45817</v>
       </c>
-      <c r="S15" s="36">
+      <c r="S15" s="32">
         <f t="shared" si="17"/>
         <v>45923</v>
       </c>
-      <c r="T15" s="26"/>
-      <c r="U15" s="27">
+      <c r="T15" s="22"/>
+      <c r="U15" s="23">
         <f t="shared" si="8"/>
         <v>45799</v>
       </c>
-      <c r="V15" s="23">
+      <c r="V15" s="19">
         <f t="shared" si="9"/>
         <v>45905</v>
       </c>
-      <c r="W15" s="35">
+      <c r="W15" s="31">
         <f t="shared" si="18"/>
         <v>45817</v>
       </c>
-      <c r="X15" s="36">
+      <c r="X15" s="32">
         <f t="shared" si="19"/>
         <v>45923</v>
       </c>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="27">
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="23">
         <f t="shared" si="10"/>
         <v>45908</v>
       </c>
-      <c r="AA15" s="23">
+      <c r="AA15" s="19">
         <f t="shared" si="11"/>
         <v>45915</v>
       </c>
-      <c r="AB15" s="35">
+      <c r="AB15" s="31">
         <f t="shared" si="20"/>
         <v>45924</v>
       </c>
-      <c r="AC15" s="36">
+      <c r="AC15" s="32">
         <f t="shared" si="21"/>
         <v>45931</v>
       </c>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="27">
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="23">
         <f t="shared" si="12"/>
         <v>45916</v>
       </c>
-      <c r="AF15" s="23">
+      <c r="AF15" s="19">
         <f t="shared" si="13"/>
         <v>45938</v>
       </c>
-      <c r="AG15" s="35">
+      <c r="AG15" s="31">
         <f t="shared" si="22"/>
         <v>45932</v>
       </c>
-      <c r="AH15" s="36">
+      <c r="AH15" s="32">
         <f t="shared" si="23"/>
         <v>45954</v>
       </c>
-      <c r="AI15" s="26"/>
-      <c r="AJ15" s="27">
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="23">
         <f t="shared" si="14"/>
         <v>45939</v>
       </c>
-      <c r="AK15" s="32">
+      <c r="AK15" s="28">
         <v>45964</v>
       </c>
-      <c r="AL15" s="35">
+      <c r="AL15" s="31">
         <f t="shared" si="15"/>
         <v>45957</v>
       </c>
-      <c r="AM15" s="36">
+      <c r="AM15" s="32">
         <f t="shared" si="24"/>
         <v>45980</v>
       </c>
-      <c r="AN15" s="21">
+      <c r="AN15" s="17">
         <f t="shared" si="16"/>
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="17">
         <v>166</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="19">
         <f t="shared" si="0"/>
         <v>45777</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="20">
         <f t="shared" si="1"/>
         <v>45803</v>
       </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="27">
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="23">
         <f t="shared" si="3"/>
         <v>45804</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="19">
         <f t="shared" si="4"/>
         <v>45826</v>
       </c>
-      <c r="M16" s="41"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="27">
+      <c r="M16" s="37"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="23">
         <f t="shared" si="5"/>
         <v>45827</v>
       </c>
-      <c r="Q16" s="23">
+      <c r="Q16" s="19">
         <f t="shared" si="6"/>
         <v>45933</v>
       </c>
-      <c r="R16" s="35">
+      <c r="R16" s="31">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="S16" s="36">
+      <c r="S16" s="32">
         <f t="shared" si="17"/>
         <v>108</v>
       </c>
-      <c r="T16" s="26"/>
-      <c r="U16" s="27">
+      <c r="T16" s="22"/>
+      <c r="U16" s="23">
         <f t="shared" si="8"/>
         <v>45827</v>
       </c>
-      <c r="V16" s="23">
+      <c r="V16" s="19">
         <f t="shared" si="9"/>
         <v>45933</v>
       </c>
-      <c r="W16" s="35">
+      <c r="W16" s="31">
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="X16" s="36">
+      <c r="X16" s="32">
         <f t="shared" si="19"/>
         <v>108</v>
       </c>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="27">
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="23">
         <f t="shared" si="10"/>
         <v>45936</v>
       </c>
-      <c r="AA16" s="23">
+      <c r="AA16" s="19">
         <f t="shared" si="11"/>
         <v>45943</v>
       </c>
-      <c r="AB16" s="35">
+      <c r="AB16" s="31">
         <f t="shared" si="20"/>
         <v>109</v>
       </c>
-      <c r="AC16" s="36">
+      <c r="AC16" s="32">
         <f t="shared" si="21"/>
         <v>116</v>
       </c>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="27">
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="23">
         <f t="shared" si="12"/>
         <v>45944</v>
       </c>
-      <c r="AF16" s="23">
+      <c r="AF16" s="19">
         <f t="shared" si="13"/>
         <v>45966</v>
       </c>
-      <c r="AG16" s="35">
+      <c r="AG16" s="31">
         <f t="shared" si="22"/>
         <v>117</v>
       </c>
-      <c r="AH16" s="36">
+      <c r="AH16" s="32">
         <f t="shared" si="23"/>
         <v>139</v>
       </c>
-      <c r="AI16" s="26"/>
-      <c r="AJ16" s="27">
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="23">
         <f t="shared" si="14"/>
         <v>45967</v>
       </c>
-      <c r="AK16" s="42">
+      <c r="AK16" s="38">
         <v>45992</v>
       </c>
-      <c r="AL16" s="35">
+      <c r="AL16" s="31">
         <f t="shared" si="15"/>
         <v>142</v>
       </c>
-      <c r="AM16" s="36">
+      <c r="AM16" s="32">
         <f t="shared" si="24"/>
         <v>165</v>
       </c>
-      <c r="AN16" s="37">
+      <c r="AN16" s="33">
         <f t="shared" si="16"/>
         <v>-45827</v>
       </c>
     </row>
     <row r="17" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="22" t="s">
+      <c r="C17" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="17">
         <v>0</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="19">
         <f t="shared" si="0"/>
         <v>45810</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="20">
         <f t="shared" si="1"/>
         <v>45834</v>
       </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27">
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23">
         <f t="shared" si="3"/>
         <v>45835</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="19">
         <f t="shared" si="4"/>
         <v>45859</v>
       </c>
-      <c r="M17" s="41"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="27">
+      <c r="M17" s="37"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="23">
         <f t="shared" si="5"/>
         <v>45860</v>
       </c>
-      <c r="Q17" s="23">
+      <c r="Q17" s="19">
         <f t="shared" si="6"/>
         <v>45966</v>
       </c>
-      <c r="R17" s="35">
+      <c r="R17" s="31">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="S17" s="36">
+      <c r="S17" s="32">
         <f t="shared" si="17"/>
         <v>108</v>
       </c>
-      <c r="T17" s="26"/>
-      <c r="U17" s="27">
+      <c r="T17" s="22"/>
+      <c r="U17" s="23">
         <f t="shared" si="8"/>
         <v>45860</v>
       </c>
-      <c r="V17" s="23">
+      <c r="V17" s="19">
         <f t="shared" si="9"/>
         <v>45966</v>
       </c>
-      <c r="W17" s="35">
+      <c r="W17" s="31">
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="X17" s="36">
+      <c r="X17" s="32">
         <f t="shared" si="19"/>
         <v>108</v>
       </c>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="27">
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="23">
         <f t="shared" si="10"/>
         <v>45967</v>
       </c>
-      <c r="AA17" s="23">
+      <c r="AA17" s="19">
         <f t="shared" si="11"/>
         <v>45974</v>
       </c>
-      <c r="AB17" s="35">
+      <c r="AB17" s="31">
         <f t="shared" si="20"/>
         <v>109</v>
       </c>
-      <c r="AC17" s="36">
+      <c r="AC17" s="32">
         <f t="shared" si="21"/>
         <v>116</v>
       </c>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="27">
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="23">
         <f t="shared" si="12"/>
         <v>45975</v>
       </c>
-      <c r="AF17" s="23">
+      <c r="AF17" s="19">
         <f t="shared" si="13"/>
         <v>45999</v>
       </c>
-      <c r="AG17" s="35">
+      <c r="AG17" s="31">
         <f t="shared" si="22"/>
         <v>117</v>
       </c>
-      <c r="AH17" s="36">
+      <c r="AH17" s="32">
         <f t="shared" si="23"/>
         <v>139</v>
       </c>
-      <c r="AI17" s="26"/>
-      <c r="AJ17" s="27">
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="23">
         <f t="shared" si="14"/>
         <v>46000</v>
       </c>
-      <c r="AK17" s="44">
+      <c r="AK17" s="40">
         <v>46023</v>
       </c>
-      <c r="AL17" s="35">
+      <c r="AL17" s="31">
         <f t="shared" si="15"/>
         <v>142</v>
       </c>
-      <c r="AM17" s="36">
+      <c r="AM17" s="32">
         <f t="shared" si="24"/>
         <v>165</v>
       </c>
-      <c r="AN17" s="21">
+      <c r="AN17" s="17">
         <f t="shared" si="16"/>
         <v>-45858</v>
       </c>
     </row>
     <row r="18" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="21">
+      <c r="C18" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="17">
         <v>0</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="19">
         <f t="shared" si="0"/>
         <v>45810</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="20">
         <f t="shared" si="1"/>
         <v>45834</v>
       </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27">
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23">
         <f t="shared" si="3"/>
         <v>45835</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="19">
         <f t="shared" si="4"/>
         <v>45859</v>
       </c>
-      <c r="M18" s="41"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="27">
+      <c r="M18" s="37"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="23">
         <f t="shared" si="5"/>
         <v>45860</v>
       </c>
-      <c r="Q18" s="23">
+      <c r="Q18" s="19">
         <f t="shared" si="6"/>
         <v>45966</v>
       </c>
-      <c r="R18" s="35">
+      <c r="R18" s="31">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="S18" s="36">
+      <c r="S18" s="32">
         <f t="shared" si="17"/>
         <v>108</v>
       </c>
-      <c r="T18" s="26"/>
-      <c r="U18" s="27">
+      <c r="T18" s="22"/>
+      <c r="U18" s="23">
         <f t="shared" si="8"/>
         <v>45860</v>
       </c>
-      <c r="V18" s="23">
+      <c r="V18" s="19">
         <f t="shared" si="9"/>
         <v>45966</v>
       </c>
-      <c r="W18" s="35">
+      <c r="W18" s="31">
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="X18" s="36">
+      <c r="X18" s="32">
         <f t="shared" si="19"/>
         <v>108</v>
       </c>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="27">
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="23">
         <f t="shared" si="10"/>
         <v>45967</v>
       </c>
-      <c r="AA18" s="23">
+      <c r="AA18" s="19">
         <f t="shared" si="11"/>
         <v>45974</v>
       </c>
-      <c r="AB18" s="35">
+      <c r="AB18" s="31">
         <f t="shared" si="20"/>
         <v>109</v>
       </c>
-      <c r="AC18" s="36">
+      <c r="AC18" s="32">
         <f t="shared" si="21"/>
         <v>116</v>
       </c>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="27">
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="23">
         <f t="shared" si="12"/>
         <v>45975</v>
       </c>
-      <c r="AF18" s="23">
+      <c r="AF18" s="19">
         <f t="shared" si="13"/>
         <v>45999</v>
       </c>
-      <c r="AG18" s="35">
+      <c r="AG18" s="31">
         <f t="shared" si="22"/>
         <v>117</v>
       </c>
-      <c r="AH18" s="36">
+      <c r="AH18" s="32">
         <f t="shared" si="23"/>
         <v>139</v>
       </c>
-      <c r="AI18" s="26"/>
-      <c r="AJ18" s="27">
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="23">
         <f t="shared" si="14"/>
         <v>46000</v>
       </c>
-      <c r="AK18" s="44">
+      <c r="AK18" s="40">
         <v>46023</v>
       </c>
-      <c r="AL18" s="35">
+      <c r="AL18" s="31">
         <f t="shared" si="15"/>
         <v>142</v>
       </c>
-      <c r="AM18" s="36">
+      <c r="AM18" s="32">
         <f t="shared" si="24"/>
         <v>165</v>
       </c>
-      <c r="AN18" s="21">
+      <c r="AN18" s="17">
         <f t="shared" si="16"/>
         <v>-45858</v>
       </c>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="21">
+      <c r="C19" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="17">
         <v>0</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="19">
         <f t="shared" si="0"/>
         <v>45840</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="20">
         <f t="shared" si="1"/>
         <v>45866</v>
       </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="27">
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23">
         <f t="shared" si="3"/>
         <v>45867</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="19">
         <f t="shared" si="4"/>
         <v>45889</v>
       </c>
-      <c r="M19" s="41"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="27">
+      <c r="M19" s="37"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="23">
         <f t="shared" si="5"/>
         <v>45890</v>
       </c>
-      <c r="Q19" s="23">
+      <c r="Q19" s="19">
         <f t="shared" si="6"/>
         <v>45996</v>
       </c>
-      <c r="R19" s="35">
+      <c r="R19" s="31">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="S19" s="36">
+      <c r="S19" s="32">
         <f t="shared" si="17"/>
         <v>108</v>
       </c>
-      <c r="T19" s="26"/>
-      <c r="U19" s="27">
+      <c r="T19" s="22"/>
+      <c r="U19" s="23">
         <f t="shared" si="8"/>
         <v>45890</v>
       </c>
-      <c r="V19" s="23">
+      <c r="V19" s="19">
         <f t="shared" si="9"/>
         <v>45996</v>
       </c>
-      <c r="W19" s="35">
+      <c r="W19" s="31">
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="X19" s="36">
+      <c r="X19" s="32">
         <f t="shared" si="19"/>
         <v>108</v>
       </c>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="27">
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="23">
         <f t="shared" si="10"/>
         <v>45999</v>
       </c>
-      <c r="AA19" s="23">
+      <c r="AA19" s="19">
         <f t="shared" si="11"/>
         <v>46006</v>
       </c>
-      <c r="AB19" s="35">
+      <c r="AB19" s="31">
         <f t="shared" si="20"/>
         <v>109</v>
       </c>
-      <c r="AC19" s="36">
+      <c r="AC19" s="32">
         <f t="shared" si="21"/>
         <v>116</v>
       </c>
-      <c r="AD19" s="26"/>
-      <c r="AE19" s="27">
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="23">
         <f t="shared" si="12"/>
         <v>46007</v>
       </c>
-      <c r="AF19" s="23">
+      <c r="AF19" s="19">
         <f t="shared" si="13"/>
         <v>46029</v>
       </c>
-      <c r="AG19" s="35">
+      <c r="AG19" s="31">
         <f t="shared" si="22"/>
         <v>117</v>
       </c>
-      <c r="AH19" s="36">
+      <c r="AH19" s="32">
         <f t="shared" si="23"/>
         <v>139</v>
       </c>
-      <c r="AI19" s="26"/>
-      <c r="AJ19" s="27">
+      <c r="AI19" s="22"/>
+      <c r="AJ19" s="23">
         <f t="shared" si="14"/>
         <v>46030</v>
       </c>
-      <c r="AK19" s="44">
+      <c r="AK19" s="40">
         <v>46054</v>
       </c>
-      <c r="AL19" s="35">
+      <c r="AL19" s="31">
         <f t="shared" si="15"/>
         <v>142</v>
       </c>
-      <c r="AM19" s="36">
+      <c r="AM19" s="32">
         <f t="shared" si="24"/>
         <v>165</v>
       </c>
-      <c r="AN19" s="21">
+      <c r="AN19" s="17">
         <f t="shared" si="16"/>
         <v>-45889</v>
       </c>
     </row>
     <row r="20" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="43" t="s">
+      <c r="B20" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="21">
+      <c r="E20" s="17">
         <v>0</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="19">
         <f t="shared" si="0"/>
         <v>45868</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="20">
         <f t="shared" si="1"/>
         <v>45894</v>
       </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27">
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23">
         <f t="shared" si="3"/>
         <v>45895</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L20" s="19">
         <f t="shared" si="4"/>
         <v>45917</v>
       </c>
-      <c r="M20" s="41"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="27">
+      <c r="M20" s="37"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="23">
         <f t="shared" si="5"/>
         <v>45918</v>
       </c>
-      <c r="Q20" s="23">
+      <c r="Q20" s="19">
         <f t="shared" si="6"/>
         <v>46024</v>
       </c>
-      <c r="R20" s="35">
+      <c r="R20" s="31">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="S20" s="36">
+      <c r="S20" s="32">
         <f t="shared" si="17"/>
         <v>108</v>
       </c>
-      <c r="T20" s="26"/>
-      <c r="U20" s="27">
+      <c r="T20" s="22"/>
+      <c r="U20" s="23">
         <f t="shared" si="8"/>
         <v>45918</v>
       </c>
-      <c r="V20" s="23">
+      <c r="V20" s="19">
         <f t="shared" si="9"/>
         <v>46024</v>
       </c>
-      <c r="W20" s="35">
+      <c r="W20" s="31">
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="X20" s="36">
+      <c r="X20" s="32">
         <f t="shared" si="19"/>
         <v>108</v>
       </c>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="27">
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="23">
         <f t="shared" si="10"/>
         <v>46027</v>
       </c>
-      <c r="AA20" s="23">
+      <c r="AA20" s="19">
         <f t="shared" si="11"/>
         <v>46034</v>
       </c>
-      <c r="AB20" s="35">
+      <c r="AB20" s="31">
         <f t="shared" si="20"/>
         <v>109</v>
       </c>
-      <c r="AC20" s="36">
+      <c r="AC20" s="32">
         <f t="shared" si="21"/>
         <v>116</v>
       </c>
-      <c r="AD20" s="26"/>
-      <c r="AE20" s="27">
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="23">
         <f t="shared" si="12"/>
         <v>46035</v>
       </c>
-      <c r="AF20" s="23">
+      <c r="AF20" s="19">
         <f t="shared" si="13"/>
         <v>46057</v>
       </c>
-      <c r="AG20" s="35">
+      <c r="AG20" s="31">
         <f t="shared" si="22"/>
         <v>117</v>
       </c>
-      <c r="AH20" s="36">
+      <c r="AH20" s="32">
         <f t="shared" si="23"/>
         <v>139</v>
       </c>
-      <c r="AI20" s="26"/>
-      <c r="AJ20" s="27">
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="23">
         <f t="shared" si="14"/>
         <v>46058</v>
       </c>
-      <c r="AK20" s="44">
+      <c r="AK20" s="40">
         <v>46082</v>
       </c>
-      <c r="AL20" s="35">
+      <c r="AL20" s="31">
         <f t="shared" si="15"/>
         <v>142</v>
       </c>
-      <c r="AM20" s="36">
+      <c r="AM20" s="32">
         <f t="shared" si="24"/>
         <v>165</v>
       </c>
-      <c r="AN20" s="21">
+      <c r="AN20" s="17">
         <f t="shared" si="16"/>
         <v>-45917</v>
       </c>
+    </row>
+    <row r="23" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="E23" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/BASE - VENDA E REGISTRO.xlsx
+++ b/BASE - VENDA E REGISTRO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viana e Moura\Dropbox\PLANEJAMENTO\Scripts\MÓDULO VENDAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows Lite BR\Documents\GitHub\Modulo vendas\MODULO_VENDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1A3454-29C2-4E84-9A5B-54FE9251B86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44944BD-1D83-4468-A3C5-B2DCCE19F1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0382C43D-564D-4A4C-8EAB-6952E70C6A7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0382C43D-564D-4A4C-8EAB-6952E70C6A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="PLANEJADOR MÓDULOS" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -55,119 +44,236 @@
   <commentList>
     <comment ref="AF8" authorId="0" shapeId="0" xr:uid="{51ED2484-CE0B-44FF-A61D-A19E4C7E7DB6}">
       <text>
-        <t xml:space="preserve">[Comentário encadeado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+        </r>
       </text>
     </comment>
     <comment ref="AF9" authorId="1" shapeId="0" xr:uid="{03021709-DEC3-44A5-AE72-803EED822B67}">
       <text>
-        <t xml:space="preserve">[Comentário encadeado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+        </r>
       </text>
     </comment>
     <comment ref="AF10" authorId="2" shapeId="0" xr:uid="{D0495507-0286-41F8-9655-EBE1A88A5CED}">
       <text>
-        <t xml:space="preserve">[Comentário encadeado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+        </r>
       </text>
     </comment>
     <comment ref="AF11" authorId="3" shapeId="0" xr:uid="{06E4A422-21B1-4772-8FC4-6BF7E06DD2CF}">
       <text>
-        <t xml:space="preserve">[Comentário encadeado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+        </r>
       </text>
     </comment>
     <comment ref="AF12" authorId="4" shapeId="0" xr:uid="{B2876A8D-2B3C-4706-A73E-D1E05F477ED1}">
       <text>
-        <t xml:space="preserve">[Comentário encadeado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+        </r>
       </text>
     </comment>
     <comment ref="AF13" authorId="5" shapeId="0" xr:uid="{9BBE32ED-FEF0-41C2-9D69-4477B77E38F2}">
       <text>
-        <t xml:space="preserve">[Comentário encadeado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+        </r>
       </text>
     </comment>
     <comment ref="AF14" authorId="6" shapeId="0" xr:uid="{EC7A9C17-A806-4874-8E80-66CEF220B036}">
       <text>
-        <t xml:space="preserve">[Comentário encadeado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+        </r>
       </text>
     </comment>
     <comment ref="AF15" authorId="7" shapeId="0" xr:uid="{2769160F-FFFC-4439-8CA2-C5483683AAF9}">
       <text>
-        <t xml:space="preserve">[Comentário encadeado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+        </r>
       </text>
     </comment>
     <comment ref="AF16" authorId="8" shapeId="0" xr:uid="{60F6F99F-B349-499C-AA61-71869D265E84}">
       <text>
-        <t xml:space="preserve">[Comentário encadeado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+        </r>
       </text>
     </comment>
     <comment ref="AF17" authorId="9" shapeId="0" xr:uid="{A0E88111-CC74-4065-97F4-CAC088A6ED25}">
       <text>
-        <t xml:space="preserve">[Comentário encadeado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+        </r>
       </text>
     </comment>
     <comment ref="AF18" authorId="10" shapeId="0" xr:uid="{CCAABD6A-E19C-4482-9BEB-05EE5A671926}">
       <text>
-        <t xml:space="preserve">[Comentário encadeado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+        </r>
       </text>
     </comment>
     <comment ref="AF19" authorId="11" shapeId="0" xr:uid="{7EEE39AD-570A-47F3-B230-60ACEA5EB8C2}">
       <text>
-        <t xml:space="preserve">[Comentário encadeado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+        </r>
       </text>
     </comment>
     <comment ref="AF20" authorId="12" shapeId="0" xr:uid="{6A15733F-C58F-4FEF-A5A3-EBD2C18EA5C5}">
       <text>
-        <t xml:space="preserve">[Comentário encadeado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -388,14 +494,14 @@
     <t>PJ.REAL.TÉRMINO</t>
   </si>
   <si>
-    <t>SÃO VICENTE III (ETAPA 2) COND MERID (E)-09</t>
+    <t>SÃO VICENTE III-MERID(E)-09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,12 +593,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -771,24 +871,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -1201,49 +1284,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DB70CC-ACBF-416D-B448-0645472647BA}">
   <dimension ref="A2:AN20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H24:H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="10.8" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="11.25" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.5546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="0.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="3" customWidth="1"/>
     <col min="5" max="6" width="8" style="3" customWidth="1"/>
-    <col min="7" max="8" width="8.77734375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="8.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="12" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="1.5546875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="1.5703125" style="5" customWidth="1"/>
     <col min="11" max="11" width="12" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="13" width="8.44140625" style="2" customWidth="1"/>
+    <col min="12" max="13" width="8.42578125" style="2" customWidth="1"/>
     <col min="14" max="14" width="12" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="1.21875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="1.28515625" style="5" customWidth="1"/>
     <col min="16" max="16" width="12" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="18" width="8.77734375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="12.5546875" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="1.21875" style="5" customWidth="1"/>
-    <col min="21" max="21" width="12.5546875" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="23" width="8.77734375" style="2" customWidth="1"/>
-    <col min="24" max="24" width="12.5546875" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="1.21875" style="5" customWidth="1"/>
-    <col min="26" max="26" width="12.5546875" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="28" width="8.44140625" style="2" customWidth="1"/>
-    <col min="29" max="29" width="8.44140625" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="1.21875" style="5" customWidth="1"/>
-    <col min="31" max="31" width="8.44140625" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="33" width="8.44140625" style="2" customWidth="1"/>
-    <col min="34" max="34" width="8.44140625" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="1.21875" style="5" customWidth="1"/>
-    <col min="36" max="36" width="8.44140625" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="37" max="38" width="8.44140625" style="2" customWidth="1"/>
-    <col min="39" max="39" width="8.44140625" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="18" width="8.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="1.28515625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="23" width="8.7109375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="1.28515625" style="5" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="28" width="8.42578125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="8.42578125" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="1.28515625" style="5" customWidth="1"/>
+    <col min="31" max="31" width="8.42578125" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="33" width="8.42578125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="8.42578125" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="1.28515625" style="5" customWidth="1"/>
+    <col min="36" max="36" width="8.42578125" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="38" width="8.42578125" style="2" customWidth="1"/>
+    <col min="39" max="39" width="8.42578125" style="5" customWidth="1" outlineLevel="1"/>
     <col min="40" max="40" width="6" style="5" customWidth="1"/>
-    <col min="41" max="45" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="46" max="16384" width="8.5546875" style="5"/>
+    <col min="41" max="45" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="46" max="16384" width="8.5703125" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:40" ht="11.4" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" ht="12" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="I2" s="4">
         <v>17</v>
@@ -1271,7 +1354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="40" t="s">
         <v>0</v>
@@ -1322,7 +1405,7 @@
       <c r="AL3" s="38"/>
       <c r="AM3" s="39"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -1413,7 +1496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -1504,7 +1587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="S6" s="2"/>
       <c r="U6" s="2"/>
       <c r="X6" s="2"/>
@@ -1515,7 +1598,7 @@
       <c r="AJ6" s="2"/>
       <c r="AM6" s="2"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>11</v>
       </c>
@@ -1616,7 +1699,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
         <v>40</v>
       </c>
@@ -1740,7 +1823,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="17" t="s">
         <v>43</v>
       </c>
@@ -1872,7 +1955,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="17" t="s">
         <v>40</v>
       </c>
@@ -2004,7 +2087,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B11" s="17" t="s">
         <v>47</v>
       </c>
@@ -2136,7 +2219,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B12" s="17" t="s">
         <v>49</v>
       </c>
@@ -2268,7 +2351,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B13" s="17" t="s">
         <v>43</v>
       </c>
@@ -2400,7 +2483,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="s">
         <v>52</v>
       </c>
@@ -2532,7 +2615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B15" s="17" t="s">
         <v>55</v>
       </c>
@@ -2664,7 +2747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
         <v>58</v>
       </c>
@@ -2787,7 +2870,7 @@
         <v>-45841</v>
       </c>
     </row>
-    <row r="17" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B17" s="17" t="s">
         <v>40</v>
       </c>
@@ -2910,7 +2993,7 @@
         <v>-45872</v>
       </c>
     </row>
-    <row r="18" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B18" s="17" t="s">
         <v>43</v>
       </c>
@@ -3033,7 +3116,7 @@
         <v>-45872</v>
       </c>
     </row>
-    <row r="19" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B19" s="17" t="s">
         <v>40</v>
       </c>
@@ -3156,7 +3239,7 @@
         <v>-45901</v>
       </c>
     </row>
-    <row r="20" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B20" s="17" t="s">
         <v>52</v>
       </c>

--- a/BASE - VENDA E REGISTRO.xlsx
+++ b/BASE - VENDA E REGISTRO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows Lite BR\Documents\GitHub\Modulo vendas\MODULO_VENDAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viana e Moura\Dropbox\PLANEJAMENTO\Scripts\MÓDULO VENDAS\MODULO_VENDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44944BD-1D83-4468-A3C5-B2DCCE19F1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CF225D-F59B-4EF4-8154-D294DF60EFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0382C43D-564D-4A4C-8EAB-6952E70C6A7B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0382C43D-564D-4A4C-8EAB-6952E70C6A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="PLANEJADOR MÓDULOS" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -44,236 +55,119 @@
   <commentList>
     <comment ref="AF8" authorId="0" shapeId="0" xr:uid="{51ED2484-CE0B-44FF-A61D-A19E4C7E7DB6}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Comentário encadeado]
+        <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
-        </r>
       </text>
     </comment>
     <comment ref="AF9" authorId="1" shapeId="0" xr:uid="{03021709-DEC3-44A5-AE72-803EED822B67}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Comentário encadeado]
+        <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
-        </r>
       </text>
     </comment>
     <comment ref="AF10" authorId="2" shapeId="0" xr:uid="{D0495507-0286-41F8-9655-EBE1A88A5CED}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Comentário encadeado]
+        <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
-        </r>
       </text>
     </comment>
     <comment ref="AF11" authorId="3" shapeId="0" xr:uid="{06E4A422-21B1-4772-8FC4-6BF7E06DD2CF}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Comentário encadeado]
+        <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
-        </r>
       </text>
     </comment>
     <comment ref="AF12" authorId="4" shapeId="0" xr:uid="{B2876A8D-2B3C-4706-A73E-D1E05F477ED1}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Comentário encadeado]
+        <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
-        </r>
       </text>
     </comment>
     <comment ref="AF13" authorId="5" shapeId="0" xr:uid="{9BBE32ED-FEF0-41C2-9D69-4477B77E38F2}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Comentário encadeado]
+        <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
-        </r>
       </text>
     </comment>
     <comment ref="AF14" authorId="6" shapeId="0" xr:uid="{EC7A9C17-A806-4874-8E80-66CEF220B036}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Comentário encadeado]
+        <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
-        </r>
       </text>
     </comment>
     <comment ref="AF15" authorId="7" shapeId="0" xr:uid="{2769160F-FFFC-4439-8CA2-C5483683AAF9}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Comentário encadeado]
+        <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
-        </r>
       </text>
     </comment>
     <comment ref="AF16" authorId="8" shapeId="0" xr:uid="{60F6F99F-B349-499C-AA61-71869D265E84}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Comentário encadeado]
+        <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
-        </r>
       </text>
     </comment>
     <comment ref="AF17" authorId="9" shapeId="0" xr:uid="{A0E88111-CC74-4065-97F4-CAC088A6ED25}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Comentário encadeado]
+        <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
-        </r>
       </text>
     </comment>
     <comment ref="AF18" authorId="10" shapeId="0" xr:uid="{CCAABD6A-E19C-4482-9BEB-05EE5A671926}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Comentário encadeado]
+        <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
-        </r>
       </text>
     </comment>
     <comment ref="AF19" authorId="11" shapeId="0" xr:uid="{7EEE39AD-570A-47F3-B230-60ACEA5EB8C2}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Comentário encadeado]
+        <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
-        </r>
       </text>
     </comment>
     <comment ref="AF20" authorId="12" shapeId="0" xr:uid="{6A15733F-C58F-4FEF-A5A3-EBD2C18EA5C5}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Comentário encadeado]
+        <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -1284,49 +1178,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DB70CC-ACBF-416D-B448-0645472647BA}">
   <dimension ref="A2:AN20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AF21" sqref="AF21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="11.25" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="10.8" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="0.5546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="3" customWidth="1"/>
     <col min="5" max="6" width="8" style="3" customWidth="1"/>
-    <col min="7" max="8" width="8.7109375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="8.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="12" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="1.5703125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="1.5546875" style="5" customWidth="1"/>
     <col min="11" max="11" width="12" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="13" width="8.42578125" style="2" customWidth="1"/>
+    <col min="12" max="13" width="8.44140625" style="2" customWidth="1"/>
     <col min="14" max="14" width="12" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="1.28515625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="1.33203125" style="5" customWidth="1"/>
     <col min="16" max="16" width="12" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="18" width="8.7109375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="1.28515625" style="5" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="23" width="8.7109375" style="2" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="1.28515625" style="5" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="28" width="8.42578125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="8.42578125" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="1.28515625" style="5" customWidth="1"/>
-    <col min="31" max="31" width="8.42578125" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="33" width="8.42578125" style="2" customWidth="1"/>
-    <col min="34" max="34" width="8.42578125" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="1.28515625" style="5" customWidth="1"/>
-    <col min="36" max="36" width="8.42578125" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="37" max="38" width="8.42578125" style="2" customWidth="1"/>
-    <col min="39" max="39" width="8.42578125" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="18" width="8.6640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="1.33203125" style="5" customWidth="1"/>
+    <col min="21" max="21" width="12.5546875" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="23" width="8.6640625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="12.5546875" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="1.33203125" style="5" customWidth="1"/>
+    <col min="26" max="26" width="12.5546875" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="28" width="8.44140625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="8.44140625" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="1.33203125" style="5" customWidth="1"/>
+    <col min="31" max="31" width="8.44140625" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="33" width="8.44140625" style="2" customWidth="1"/>
+    <col min="34" max="34" width="8.44140625" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="1.33203125" style="5" customWidth="1"/>
+    <col min="36" max="36" width="8.44140625" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="38" width="8.44140625" style="2" customWidth="1"/>
+    <col min="39" max="39" width="8.44140625" style="5" customWidth="1" outlineLevel="1"/>
     <col min="40" max="40" width="6" style="5" customWidth="1"/>
-    <col min="41" max="45" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="46" max="16384" width="8.5703125" style="5"/>
+    <col min="41" max="45" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="46" max="16384" width="8.5546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:40" ht="12" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" ht="11.4" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="I2" s="4">
         <v>17</v>
@@ -1354,7 +1248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="40" t="s">
         <v>0</v>
@@ -1405,7 +1299,7 @@
       <c r="AL3" s="38"/>
       <c r="AM3" s="39"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -1496,7 +1390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -1587,7 +1481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S6" s="2"/>
       <c r="U6" s="2"/>
       <c r="X6" s="2"/>
@@ -1598,7 +1492,7 @@
       <c r="AJ6" s="2"/>
       <c r="AM6" s="2"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>11</v>
       </c>
@@ -1699,7 +1593,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
         <v>40</v>
       </c>
@@ -1823,7 +1717,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
         <v>43</v>
       </c>
@@ -1955,7 +1849,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
         <v>40</v>
       </c>
@@ -2087,7 +1981,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
         <v>47</v>
       </c>
@@ -2219,7 +2113,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
         <v>49</v>
       </c>
@@ -2351,7 +2245,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
         <v>43</v>
       </c>
@@ -2483,7 +2377,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
         <v>52</v>
       </c>
@@ -2498,11 +2392,11 @@
       </c>
       <c r="F14" s="19">
         <f t="shared" si="0"/>
-        <v>45758</v>
+        <v>45813</v>
       </c>
       <c r="G14" s="20">
         <f t="shared" si="9"/>
-        <v>45782</v>
+        <v>45835</v>
       </c>
       <c r="H14" s="21">
         <v>45658</v>
@@ -2514,11 +2408,11 @@
       <c r="J14" s="22"/>
       <c r="K14" s="23">
         <f t="shared" si="2"/>
-        <v>45783</v>
+        <v>45838</v>
       </c>
       <c r="L14" s="19">
         <f t="shared" si="3"/>
-        <v>45805</v>
+        <v>45860</v>
       </c>
       <c r="M14" s="31">
         <v>45817</v>
@@ -2529,11 +2423,11 @@
       <c r="O14" s="22"/>
       <c r="P14" s="23">
         <f t="shared" si="4"/>
-        <v>45806</v>
+        <v>45861</v>
       </c>
       <c r="Q14" s="19">
         <f t="shared" si="10"/>
-        <v>45915</v>
+        <v>45968</v>
       </c>
       <c r="R14" s="28">
         <f t="shared" si="5"/>
@@ -2546,11 +2440,11 @@
       <c r="T14" s="22"/>
       <c r="U14" s="23">
         <f t="shared" si="6"/>
-        <v>45806</v>
+        <v>45861</v>
       </c>
       <c r="V14" s="19">
         <f t="shared" si="12"/>
-        <v>45915</v>
+        <v>45968</v>
       </c>
       <c r="W14" s="28">
         <f t="shared" si="13"/>
@@ -2563,11 +2457,11 @@
       <c r="Y14" s="22"/>
       <c r="Z14" s="23">
         <f t="shared" si="15"/>
-        <v>45916</v>
+        <v>45971</v>
       </c>
       <c r="AA14" s="19">
         <f t="shared" si="16"/>
-        <v>45936</v>
+        <v>45989</v>
       </c>
       <c r="AB14" s="28">
         <f t="shared" si="17"/>
@@ -2579,8 +2473,7 @@
       </c>
       <c r="AD14" s="22"/>
       <c r="AE14" s="23">
-        <f t="shared" si="19"/>
-        <v>45937</v>
+        <v>45992</v>
       </c>
       <c r="AF14" s="25">
         <v>45964</v>
@@ -2615,7 +2508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
         <v>55</v>
       </c>
@@ -2747,7 +2640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
         <v>58</v>
       </c>
@@ -2870,7 +2763,7 @@
         <v>-45841</v>
       </c>
     </row>
-    <row r="17" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
         <v>40</v>
       </c>
@@ -2993,7 +2886,7 @@
         <v>-45872</v>
       </c>
     </row>
-    <row r="18" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
         <v>43</v>
       </c>
@@ -3116,7 +3009,7 @@
         <v>-45872</v>
       </c>
     </row>
-    <row r="19" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B19" s="17" t="s">
         <v>40</v>
       </c>
@@ -3239,7 +3132,7 @@
         <v>-45901</v>
       </c>
     </row>
-    <row r="20" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
         <v>52</v>
       </c>

--- a/BASE - VENDA E REGISTRO.xlsx
+++ b/BASE - VENDA E REGISTRO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viana e Moura\Dropbox\PLANEJAMENTO\Scripts\MÓDULO VENDAS\MODULO_VENDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CF225D-F59B-4EF4-8154-D294DF60EFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61859730-EC81-4A23-B6B1-184B3A585DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0382C43D-564D-4A4C-8EAB-6952E70C6A7B}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0382C43D-564D-4A4C-8EAB-6952E70C6A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="PLANEJADOR MÓDULOS" sheetId="1" r:id="rId1"/>
@@ -395,7 +395,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,6 +484,14 @@
     <font>
       <sz val="8"/>
       <color rgb="FF0070C0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -650,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -759,6 +767,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1176,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DB70CC-ACBF-416D-B448-0645472647BA}">
-  <dimension ref="A2:AN20"/>
+  <dimension ref="A2:AN27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AF21" sqref="AF21"/>
+      <selection activeCell="AG27" sqref="AG27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="10.8" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1608,11 +1619,11 @@
       </c>
       <c r="F8" s="19">
         <f t="shared" ref="F8:F20" si="0">IFERROR(WORKDAY(G8,(-$I$2+1)),"-")</f>
-        <v>45456</v>
+        <v>45660</v>
       </c>
       <c r="G8" s="20">
         <f>IFERROR(WORKDAY(K8,-1),"-")</f>
-        <v>45478</v>
+        <v>45684</v>
       </c>
       <c r="H8" s="21">
         <v>45658</v>
@@ -1624,11 +1635,11 @@
       <c r="J8" s="22"/>
       <c r="K8" s="23">
         <f t="shared" ref="K8:K20" si="2">IFERROR(WORKDAY(L8,(-$N$2+1)),"-")</f>
-        <v>45481</v>
+        <v>45685</v>
       </c>
       <c r="L8" s="19">
         <f t="shared" ref="L8:L20" si="3">IFERROR(WORKDAY(P8,-1),"-")</f>
-        <v>45503</v>
+        <v>45707</v>
       </c>
       <c r="M8" s="24">
         <v>45687</v>
@@ -1639,11 +1650,11 @@
       <c r="O8" s="22"/>
       <c r="P8" s="23">
         <f t="shared" ref="P8:P20" si="4">IFERROR(WORKDAY(Q8,(-$S$2+1)),"-")</f>
-        <v>45504</v>
+        <v>45708</v>
       </c>
       <c r="Q8" s="19">
         <f>IFERROR(WORKDAY(Z8,-1),"-")</f>
-        <v>45611</v>
+        <v>45817</v>
       </c>
       <c r="R8" s="24">
         <f t="shared" ref="R8:R20" si="5">WORKDAY.INTL(N8,1)</f>
@@ -1655,11 +1666,11 @@
       <c r="T8" s="22"/>
       <c r="U8" s="23">
         <f t="shared" ref="U8:U20" si="6">IFERROR(WORKDAY(V8,(-$X$2+1)),"-")</f>
-        <v>45504</v>
+        <v>45708</v>
       </c>
       <c r="V8" s="19">
         <f>IFERROR(WORKDAY(Z8,-1),"-")</f>
-        <v>45611</v>
+        <v>45817</v>
       </c>
       <c r="W8" s="24">
         <v>45537</v>
@@ -1670,11 +1681,11 @@
       <c r="Y8" s="22"/>
       <c r="Z8" s="23">
         <f>IFERROR(WORKDAY(AA8,(-$AC$2+1)),"-")</f>
-        <v>45614</v>
+        <v>45818</v>
       </c>
       <c r="AA8" s="19">
         <f>IFERROR(WORKDAY(AE8,-1),"-")</f>
-        <v>45632</v>
+        <v>45838</v>
       </c>
       <c r="AB8" s="24">
         <v>45800</v>
@@ -1684,11 +1695,10 @@
       </c>
       <c r="AD8" s="22"/>
       <c r="AE8" s="23">
-        <f>IFERROR(WORKDAY(AF8,(-$AH$2+1)),"-")</f>
-        <v>45635</v>
+        <v>45839</v>
       </c>
       <c r="AF8" s="25">
-        <v>45660</v>
+        <v>45992</v>
       </c>
       <c r="AG8" s="26">
         <f t="shared" ref="AG8:AG20" si="7">WORKDAY.INTL(AC8,1)</f>
@@ -1700,11 +1710,11 @@
       <c r="AI8" s="22"/>
       <c r="AJ8" s="23">
         <f>IFERROR(WORKDAY(AF8,1),"-")</f>
-        <v>45663</v>
+        <v>45993</v>
       </c>
       <c r="AK8" s="19">
         <f>IFERROR(WORKDAY(AJ8,($AM$2-1)),"-")</f>
-        <v>45681</v>
+        <v>46013</v>
       </c>
       <c r="AL8" s="26">
         <v>45800</v>
@@ -1714,7 +1724,7 @@
       </c>
       <c r="AN8" s="17">
         <f t="shared" ref="AN8:AN20" si="8">IFERROR(AM8-AK8,"-")</f>
-        <v>119</v>
+        <v>-213</v>
       </c>
     </row>
     <row r="9" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1732,11 +1742,11 @@
       </c>
       <c r="F9" s="19">
         <f t="shared" si="0"/>
-        <v>45635</v>
+        <v>45660</v>
       </c>
       <c r="G9" s="20">
         <f t="shared" ref="G9:G20" si="9">IFERROR(WORKDAY(K9,-1),"-")</f>
-        <v>45657</v>
+        <v>45684</v>
       </c>
       <c r="H9" s="21">
         <v>45658</v>
@@ -1748,11 +1758,11 @@
       <c r="J9" s="22"/>
       <c r="K9" s="23">
         <f t="shared" si="2"/>
-        <v>45658</v>
+        <v>45685</v>
       </c>
       <c r="L9" s="19">
         <f t="shared" si="3"/>
-        <v>45680</v>
+        <v>45707</v>
       </c>
       <c r="M9" s="24">
         <v>45663</v>
@@ -1763,11 +1773,11 @@
       <c r="O9" s="22"/>
       <c r="P9" s="23">
         <f t="shared" si="4"/>
-        <v>45681</v>
+        <v>45708</v>
       </c>
       <c r="Q9" s="19">
         <f t="shared" ref="Q9:Q20" si="10">IFERROR(WORKDAY(Z9,-1),"-")</f>
-        <v>45790</v>
+        <v>45817</v>
       </c>
       <c r="R9" s="28">
         <f t="shared" si="5"/>
@@ -1780,11 +1790,11 @@
       <c r="T9" s="22"/>
       <c r="U9" s="23">
         <f t="shared" si="6"/>
-        <v>45681</v>
+        <v>45708</v>
       </c>
       <c r="V9" s="19">
         <f t="shared" ref="V9:V20" si="12">IFERROR(WORKDAY(Z9,-1),"-")</f>
-        <v>45790</v>
+        <v>45817</v>
       </c>
       <c r="W9" s="28">
         <f t="shared" ref="W9:W20" si="13">WORKDAY.INTL(N9,1)</f>
@@ -1797,11 +1807,11 @@
       <c r="Y9" s="22"/>
       <c r="Z9" s="23">
         <f t="shared" ref="Z9:Z20" si="15">IFERROR(WORKDAY(AA9,(-$AC$2+1)),"-")</f>
-        <v>45791</v>
+        <v>45818</v>
       </c>
       <c r="AA9" s="19">
         <f t="shared" ref="AA9:AA20" si="16">IFERROR(WORKDAY(AE9,-1),"-")</f>
-        <v>45811</v>
+        <v>45838</v>
       </c>
       <c r="AB9" s="28">
         <f t="shared" ref="AB9:AB20" si="17">WORKDAY.INTL(X9,1)</f>
@@ -1813,40 +1823,39 @@
       </c>
       <c r="AD9" s="22"/>
       <c r="AE9" s="23">
-        <f t="shared" ref="AE9:AE20" si="19">IFERROR(WORKDAY(AF9,(-$AH$2+1)),"-")</f>
-        <v>45812</v>
+        <v>45839</v>
       </c>
       <c r="AF9" s="25">
-        <v>45839</v>
+        <v>45901</v>
       </c>
       <c r="AG9" s="28">
         <f t="shared" si="7"/>
         <v>45813</v>
       </c>
       <c r="AH9" s="29">
-        <f t="shared" ref="AH9:AH20" si="20">IFERROR(WORKDAY(AC9,($AM$2)),"-")</f>
+        <f t="shared" ref="AH9:AH20" si="19">IFERROR(WORKDAY(AC9,($AM$2)),"-")</f>
         <v>45833</v>
       </c>
       <c r="AI9" s="22"/>
       <c r="AJ9" s="23">
-        <f t="shared" ref="AJ9:AJ20" si="21">IFERROR(WORKDAY(AF9,1),"-")</f>
-        <v>45840</v>
+        <f t="shared" ref="AJ9:AJ20" si="20">IFERROR(WORKDAY(AF9,1),"-")</f>
+        <v>45902</v>
       </c>
       <c r="AK9" s="19">
-        <f t="shared" ref="AK9:AK20" si="22">IFERROR(WORKDAY(AJ9,($AM$2-1)),"-")</f>
-        <v>45860</v>
+        <f t="shared" ref="AK9:AK20" si="21">IFERROR(WORKDAY(AJ9,($AM$2-1)),"-")</f>
+        <v>45922</v>
       </c>
       <c r="AL9" s="28">
-        <f t="shared" ref="AL9:AL20" si="23">WORKDAY.INTL(AH9,1)</f>
+        <f t="shared" ref="AL9:AL20" si="22">WORKDAY.INTL(AH9,1)</f>
         <v>45834</v>
       </c>
       <c r="AM9" s="29">
-        <f t="shared" ref="AM9:AM20" si="24">WORKDAY(AL9,$AC$2-1)</f>
+        <f t="shared" ref="AM9:AM20" si="23">WORKDAY(AL9,$AC$2-1)</f>
         <v>45854</v>
       </c>
       <c r="AN9" s="17">
         <f t="shared" si="8"/>
-        <v>-6</v>
+        <v>-68</v>
       </c>
     </row>
     <row r="10" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1864,11 +1873,11 @@
       </c>
       <c r="F10" s="19">
         <f t="shared" si="0"/>
-        <v>45666</v>
+        <v>45722</v>
       </c>
       <c r="G10" s="20">
         <f t="shared" si="9"/>
-        <v>45688</v>
+        <v>45744</v>
       </c>
       <c r="H10" s="21">
         <v>45658</v>
@@ -1880,11 +1889,11 @@
       <c r="J10" s="22"/>
       <c r="K10" s="23">
         <f t="shared" si="2"/>
-        <v>45691</v>
+        <v>45747</v>
       </c>
       <c r="L10" s="19">
         <f t="shared" si="3"/>
-        <v>45713</v>
+        <v>45769</v>
       </c>
       <c r="M10" s="24">
         <v>45687</v>
@@ -1895,11 +1904,11 @@
       <c r="O10" s="22"/>
       <c r="P10" s="23">
         <f t="shared" si="4"/>
-        <v>45714</v>
+        <v>45770</v>
       </c>
       <c r="Q10" s="19">
         <f t="shared" si="10"/>
-        <v>45821</v>
+        <v>45877</v>
       </c>
       <c r="R10" s="28">
         <f t="shared" si="5"/>
@@ -1912,11 +1921,11 @@
       <c r="T10" s="22"/>
       <c r="U10" s="23">
         <f t="shared" si="6"/>
-        <v>45714</v>
+        <v>45770</v>
       </c>
       <c r="V10" s="19">
         <f t="shared" si="12"/>
-        <v>45821</v>
+        <v>45877</v>
       </c>
       <c r="W10" s="28">
         <f t="shared" si="13"/>
@@ -1929,11 +1938,11 @@
       <c r="Y10" s="22"/>
       <c r="Z10" s="23">
         <f t="shared" si="15"/>
-        <v>45824</v>
+        <v>45880</v>
       </c>
       <c r="AA10" s="19">
         <f t="shared" si="16"/>
-        <v>45842</v>
+        <v>45898</v>
       </c>
       <c r="AB10" s="28">
         <f t="shared" si="17"/>
@@ -1945,40 +1954,39 @@
       </c>
       <c r="AD10" s="22"/>
       <c r="AE10" s="23">
-        <f t="shared" si="19"/>
-        <v>45845</v>
+        <v>45901</v>
       </c>
       <c r="AF10" s="25">
-        <v>45870</v>
+        <v>45992</v>
       </c>
       <c r="AG10" s="28">
         <f t="shared" si="7"/>
         <v>45839</v>
       </c>
       <c r="AH10" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>45859</v>
       </c>
       <c r="AI10" s="22"/>
       <c r="AJ10" s="23">
+        <f t="shared" si="20"/>
+        <v>45993</v>
+      </c>
+      <c r="AK10" s="19">
         <f t="shared" si="21"/>
-        <v>45873</v>
-      </c>
-      <c r="AK10" s="19">
+        <v>46013</v>
+      </c>
+      <c r="AL10" s="28">
         <f t="shared" si="22"/>
-        <v>45891</v>
-      </c>
-      <c r="AL10" s="28">
+        <v>45860</v>
+      </c>
+      <c r="AM10" s="29">
         <f t="shared" si="23"/>
-        <v>45860</v>
-      </c>
-      <c r="AM10" s="29">
-        <f t="shared" si="24"/>
         <v>45880</v>
       </c>
       <c r="AN10" s="17">
         <f t="shared" si="8"/>
-        <v>-11</v>
+        <v>-133</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
@@ -1996,11 +2004,11 @@
       </c>
       <c r="F11" s="19">
         <f t="shared" si="0"/>
-        <v>45695</v>
+        <v>45813</v>
       </c>
       <c r="G11" s="20">
         <f t="shared" si="9"/>
-        <v>45719</v>
+        <v>45835</v>
       </c>
       <c r="H11" s="21">
         <v>45716</v>
@@ -2012,11 +2020,11 @@
       <c r="J11" s="22"/>
       <c r="K11" s="23">
         <f t="shared" si="2"/>
-        <v>45720</v>
+        <v>45838</v>
       </c>
       <c r="L11" s="19">
         <f t="shared" si="3"/>
-        <v>45742</v>
+        <v>45860</v>
       </c>
       <c r="M11" s="24">
         <v>45700</v>
@@ -2027,11 +2035,11 @@
       <c r="O11" s="22"/>
       <c r="P11" s="23">
         <f t="shared" si="4"/>
-        <v>45743</v>
+        <v>45861</v>
       </c>
       <c r="Q11" s="19">
         <f t="shared" si="10"/>
-        <v>45852</v>
+        <v>45968</v>
       </c>
       <c r="R11" s="28">
         <f t="shared" si="5"/>
@@ -2044,11 +2052,11 @@
       <c r="T11" s="22"/>
       <c r="U11" s="23">
         <f t="shared" si="6"/>
-        <v>45743</v>
+        <v>45861</v>
       </c>
       <c r="V11" s="19">
         <f t="shared" si="12"/>
-        <v>45852</v>
+        <v>45968</v>
       </c>
       <c r="W11" s="28">
         <f t="shared" si="13"/>
@@ -2061,11 +2069,11 @@
       <c r="Y11" s="22"/>
       <c r="Z11" s="23">
         <f t="shared" si="15"/>
-        <v>45853</v>
+        <v>45971</v>
       </c>
       <c r="AA11" s="19">
         <f t="shared" si="16"/>
-        <v>45873</v>
+        <v>45989</v>
       </c>
       <c r="AB11" s="28">
         <f t="shared" si="17"/>
@@ -2077,40 +2085,39 @@
       </c>
       <c r="AD11" s="22"/>
       <c r="AE11" s="23">
-        <f t="shared" si="19"/>
-        <v>45874</v>
+        <v>45992</v>
       </c>
       <c r="AF11" s="25">
-        <v>45901</v>
+        <v>45992</v>
       </c>
       <c r="AG11" s="28">
         <f t="shared" si="7"/>
         <v>45869</v>
       </c>
       <c r="AH11" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>45889</v>
       </c>
       <c r="AI11" s="22"/>
       <c r="AJ11" s="23">
+        <f t="shared" si="20"/>
+        <v>45993</v>
+      </c>
+      <c r="AK11" s="19">
         <f t="shared" si="21"/>
-        <v>45902</v>
-      </c>
-      <c r="AK11" s="19">
+        <v>46013</v>
+      </c>
+      <c r="AL11" s="28">
         <f t="shared" si="22"/>
-        <v>45922</v>
-      </c>
-      <c r="AL11" s="28">
+        <v>45890</v>
+      </c>
+      <c r="AM11" s="29">
         <f t="shared" si="23"/>
-        <v>45890</v>
-      </c>
-      <c r="AM11" s="29">
-        <f t="shared" si="24"/>
         <v>45910</v>
       </c>
       <c r="AN11" s="30">
         <f t="shared" si="8"/>
-        <v>-12</v>
+        <v>-103</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
@@ -2128,11 +2135,11 @@
       </c>
       <c r="F12" s="19">
         <f t="shared" si="0"/>
-        <v>45695</v>
+        <v>45813</v>
       </c>
       <c r="G12" s="20">
         <f t="shared" si="9"/>
-        <v>45719</v>
+        <v>45835</v>
       </c>
       <c r="H12" s="21">
         <v>45716</v>
@@ -2144,11 +2151,11 @@
       <c r="J12" s="22"/>
       <c r="K12" s="23">
         <f t="shared" si="2"/>
-        <v>45720</v>
+        <v>45838</v>
       </c>
       <c r="L12" s="19">
         <f t="shared" si="3"/>
-        <v>45742</v>
+        <v>45860</v>
       </c>
       <c r="M12" s="24">
         <v>45761</v>
@@ -2159,11 +2166,11 @@
       <c r="O12" s="22"/>
       <c r="P12" s="23">
         <f t="shared" si="4"/>
-        <v>45743</v>
+        <v>45861</v>
       </c>
       <c r="Q12" s="19">
         <f t="shared" si="10"/>
-        <v>45852</v>
+        <v>45968</v>
       </c>
       <c r="R12" s="28">
         <f t="shared" si="5"/>
@@ -2176,11 +2183,11 @@
       <c r="T12" s="22"/>
       <c r="U12" s="23">
         <f t="shared" si="6"/>
-        <v>45743</v>
+        <v>45861</v>
       </c>
       <c r="V12" s="19">
         <f t="shared" si="12"/>
-        <v>45852</v>
+        <v>45968</v>
       </c>
       <c r="W12" s="28">
         <f t="shared" si="13"/>
@@ -2193,11 +2200,11 @@
       <c r="Y12" s="22"/>
       <c r="Z12" s="23">
         <f t="shared" si="15"/>
-        <v>45853</v>
+        <v>45971</v>
       </c>
       <c r="AA12" s="19">
         <f t="shared" si="16"/>
-        <v>45873</v>
+        <v>45989</v>
       </c>
       <c r="AB12" s="28">
         <f t="shared" si="17"/>
@@ -2209,40 +2216,39 @@
       </c>
       <c r="AD12" s="22"/>
       <c r="AE12" s="23">
-        <f t="shared" si="19"/>
-        <v>45874</v>
+        <v>45992</v>
       </c>
       <c r="AF12" s="25">
-        <v>45901</v>
+        <v>45992</v>
       </c>
       <c r="AG12" s="28">
         <f t="shared" si="7"/>
         <v>45932</v>
       </c>
       <c r="AH12" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>45952</v>
       </c>
       <c r="AI12" s="22"/>
       <c r="AJ12" s="23">
+        <f t="shared" si="20"/>
+        <v>45993</v>
+      </c>
+      <c r="AK12" s="19">
         <f t="shared" si="21"/>
-        <v>45902</v>
-      </c>
-      <c r="AK12" s="19">
+        <v>46013</v>
+      </c>
+      <c r="AL12" s="28">
         <f t="shared" si="22"/>
-        <v>45922</v>
-      </c>
-      <c r="AL12" s="28">
+        <v>45953</v>
+      </c>
+      <c r="AM12" s="29">
         <f t="shared" si="23"/>
-        <v>45953</v>
-      </c>
-      <c r="AM12" s="29">
-        <f t="shared" si="24"/>
         <v>45973</v>
       </c>
       <c r="AN12" s="30">
         <f t="shared" si="8"/>
-        <v>51</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
@@ -2260,11 +2266,11 @@
       </c>
       <c r="F13" s="19">
         <f t="shared" si="0"/>
-        <v>45695</v>
+        <v>45722</v>
       </c>
       <c r="G13" s="20">
         <f t="shared" si="9"/>
-        <v>45719</v>
+        <v>45744</v>
       </c>
       <c r="H13" s="21">
         <v>45658</v>
@@ -2276,11 +2282,11 @@
       <c r="J13" s="22"/>
       <c r="K13" s="23">
         <f t="shared" si="2"/>
-        <v>45720</v>
+        <v>45747</v>
       </c>
       <c r="L13" s="19">
         <f t="shared" si="3"/>
-        <v>45742</v>
+        <v>45769</v>
       </c>
       <c r="M13" s="24">
         <v>45740</v>
@@ -2291,11 +2297,11 @@
       <c r="O13" s="22"/>
       <c r="P13" s="23">
         <f t="shared" si="4"/>
-        <v>45743</v>
+        <v>45770</v>
       </c>
       <c r="Q13" s="19">
         <f t="shared" si="10"/>
-        <v>45852</v>
+        <v>45877</v>
       </c>
       <c r="R13" s="28">
         <f t="shared" si="5"/>
@@ -2308,11 +2314,11 @@
       <c r="T13" s="22"/>
       <c r="U13" s="23">
         <f t="shared" si="6"/>
-        <v>45743</v>
+        <v>45770</v>
       </c>
       <c r="V13" s="19">
         <f t="shared" si="12"/>
-        <v>45852</v>
+        <v>45877</v>
       </c>
       <c r="W13" s="28">
         <f t="shared" si="13"/>
@@ -2325,11 +2331,11 @@
       <c r="Y13" s="22"/>
       <c r="Z13" s="23">
         <f t="shared" si="15"/>
-        <v>45853</v>
+        <v>45880</v>
       </c>
       <c r="AA13" s="19">
         <f t="shared" si="16"/>
-        <v>45873</v>
+        <v>45898</v>
       </c>
       <c r="AB13" s="28">
         <f t="shared" si="17"/>
@@ -2341,40 +2347,39 @@
       </c>
       <c r="AD13" s="22"/>
       <c r="AE13" s="23">
-        <f t="shared" si="19"/>
-        <v>45874</v>
+        <v>45901</v>
       </c>
       <c r="AF13" s="25">
-        <v>45901</v>
+        <v>45992</v>
       </c>
       <c r="AG13" s="28">
         <f t="shared" si="7"/>
         <v>45917</v>
       </c>
       <c r="AH13" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>45937</v>
       </c>
       <c r="AI13" s="22"/>
       <c r="AJ13" s="23">
+        <f t="shared" si="20"/>
+        <v>45993</v>
+      </c>
+      <c r="AK13" s="19">
         <f t="shared" si="21"/>
-        <v>45902</v>
-      </c>
-      <c r="AK13" s="19">
+        <v>46013</v>
+      </c>
+      <c r="AL13" s="28">
         <f t="shared" si="22"/>
-        <v>45922</v>
-      </c>
-      <c r="AL13" s="28">
+        <v>45938</v>
+      </c>
+      <c r="AM13" s="29">
         <f t="shared" si="23"/>
-        <v>45938</v>
-      </c>
-      <c r="AM13" s="29">
-        <f t="shared" si="24"/>
         <v>45958</v>
       </c>
       <c r="AN13" s="17">
         <f t="shared" si="8"/>
-        <v>36</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
@@ -2476,36 +2481,36 @@
         <v>45992</v>
       </c>
       <c r="AF14" s="25">
-        <v>45964</v>
+        <v>45992</v>
       </c>
       <c r="AG14" s="28">
         <f t="shared" si="7"/>
         <v>45960</v>
       </c>
       <c r="AH14" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>45980</v>
       </c>
       <c r="AI14" s="22"/>
       <c r="AJ14" s="23">
+        <f t="shared" si="20"/>
+        <v>45993</v>
+      </c>
+      <c r="AK14" s="19">
         <f t="shared" si="21"/>
-        <v>45965</v>
-      </c>
-      <c r="AK14" s="19">
+        <v>46013</v>
+      </c>
+      <c r="AL14" s="28">
         <f t="shared" si="22"/>
-        <v>45985</v>
-      </c>
-      <c r="AL14" s="28">
+        <v>45981</v>
+      </c>
+      <c r="AM14" s="29">
         <f t="shared" si="23"/>
-        <v>45981</v>
-      </c>
-      <c r="AM14" s="29">
-        <f t="shared" si="24"/>
         <v>46001</v>
       </c>
       <c r="AN14" s="17">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
@@ -2523,11 +2528,11 @@
       </c>
       <c r="F15" s="19">
         <f t="shared" si="0"/>
-        <v>45758</v>
+        <v>45785</v>
       </c>
       <c r="G15" s="20">
         <f t="shared" si="9"/>
-        <v>45782</v>
+        <v>45807</v>
       </c>
       <c r="H15" s="21">
         <v>45658</v>
@@ -2539,11 +2544,11 @@
       <c r="J15" s="22"/>
       <c r="K15" s="23">
         <f t="shared" si="2"/>
-        <v>45783</v>
+        <v>45810</v>
       </c>
       <c r="L15" s="19">
         <f t="shared" si="3"/>
-        <v>45805</v>
+        <v>45832</v>
       </c>
       <c r="M15" s="24">
         <v>45767</v>
@@ -2554,11 +2559,11 @@
       <c r="O15" s="22"/>
       <c r="P15" s="23">
         <f t="shared" si="4"/>
-        <v>45806</v>
+        <v>45833</v>
       </c>
       <c r="Q15" s="19">
         <f t="shared" si="10"/>
-        <v>45915</v>
+        <v>45940</v>
       </c>
       <c r="R15" s="28">
         <f t="shared" si="5"/>
@@ -2571,11 +2576,11 @@
       <c r="T15" s="22"/>
       <c r="U15" s="23">
         <f t="shared" si="6"/>
-        <v>45806</v>
+        <v>45833</v>
       </c>
       <c r="V15" s="19">
         <f t="shared" si="12"/>
-        <v>45915</v>
+        <v>45940</v>
       </c>
       <c r="W15" s="28">
         <f t="shared" si="13"/>
@@ -2588,11 +2593,11 @@
       <c r="Y15" s="22"/>
       <c r="Z15" s="23">
         <f t="shared" si="15"/>
-        <v>45916</v>
+        <v>45943</v>
       </c>
       <c r="AA15" s="19">
         <f t="shared" si="16"/>
-        <v>45936</v>
+        <v>45961</v>
       </c>
       <c r="AB15" s="28">
         <f t="shared" si="17"/>
@@ -2604,40 +2609,39 @@
       </c>
       <c r="AD15" s="22"/>
       <c r="AE15" s="23">
-        <f t="shared" si="19"/>
-        <v>45937</v>
+        <v>45962</v>
       </c>
       <c r="AF15" s="25">
-        <v>45964</v>
+        <v>45992</v>
       </c>
       <c r="AG15" s="28">
         <f t="shared" si="7"/>
         <v>45946</v>
       </c>
       <c r="AH15" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>45966</v>
       </c>
       <c r="AI15" s="22"/>
       <c r="AJ15" s="23">
+        <f t="shared" si="20"/>
+        <v>45993</v>
+      </c>
+      <c r="AK15" s="19">
         <f t="shared" si="21"/>
-        <v>45965</v>
-      </c>
-      <c r="AK15" s="19">
+        <v>46013</v>
+      </c>
+      <c r="AL15" s="28">
         <f t="shared" si="22"/>
-        <v>45985</v>
-      </c>
-      <c r="AL15" s="28">
+        <v>45967</v>
+      </c>
+      <c r="AM15" s="29">
         <f t="shared" si="23"/>
-        <v>45967</v>
-      </c>
-      <c r="AM15" s="29">
-        <f t="shared" si="24"/>
         <v>45987</v>
       </c>
       <c r="AN15" s="17">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
@@ -2655,33 +2659,33 @@
       </c>
       <c r="F16" s="19">
         <f t="shared" si="0"/>
-        <v>45786</v>
+        <v>45754</v>
       </c>
       <c r="G16" s="20">
         <f t="shared" si="9"/>
-        <v>45810</v>
+        <v>45776</v>
       </c>
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
       <c r="J16" s="22"/>
       <c r="K16" s="23">
         <f t="shared" si="2"/>
-        <v>45811</v>
+        <v>45777</v>
       </c>
       <c r="L16" s="19">
         <f t="shared" si="3"/>
-        <v>45833</v>
+        <v>45799</v>
       </c>
       <c r="M16" s="34"/>
       <c r="N16" s="33"/>
       <c r="O16" s="22"/>
       <c r="P16" s="23">
         <f t="shared" si="4"/>
-        <v>45834</v>
+        <v>45800</v>
       </c>
       <c r="Q16" s="19">
         <f t="shared" si="10"/>
-        <v>45943</v>
+        <v>45909</v>
       </c>
       <c r="R16" s="28">
         <f t="shared" si="5"/>
@@ -2694,11 +2698,11 @@
       <c r="T16" s="22"/>
       <c r="U16" s="23">
         <f t="shared" si="6"/>
-        <v>45834</v>
+        <v>45800</v>
       </c>
       <c r="V16" s="19">
         <f t="shared" si="12"/>
-        <v>45943</v>
+        <v>45909</v>
       </c>
       <c r="W16" s="28">
         <f t="shared" si="13"/>
@@ -2711,11 +2715,11 @@
       <c r="Y16" s="22"/>
       <c r="Z16" s="23">
         <f t="shared" si="15"/>
-        <v>45944</v>
+        <v>45910</v>
       </c>
       <c r="AA16" s="19">
         <f t="shared" si="16"/>
-        <v>45964</v>
+        <v>45930</v>
       </c>
       <c r="AB16" s="28">
         <f t="shared" si="17"/>
@@ -2727,8 +2731,7 @@
       </c>
       <c r="AD16" s="22"/>
       <c r="AE16" s="23">
-        <f t="shared" si="19"/>
-        <v>45965</v>
+        <v>45931</v>
       </c>
       <c r="AF16" s="35">
         <v>45992</v>
@@ -2738,24 +2741,24 @@
         <v>131</v>
       </c>
       <c r="AH16" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>151</v>
       </c>
       <c r="AI16" s="22"/>
       <c r="AJ16" s="23">
+        <f t="shared" si="20"/>
+        <v>45993</v>
+      </c>
+      <c r="AK16" s="19">
         <f t="shared" si="21"/>
-        <v>45993</v>
-      </c>
-      <c r="AK16" s="19">
+        <v>46013</v>
+      </c>
+      <c r="AL16" s="28">
         <f t="shared" si="22"/>
-        <v>46013</v>
-      </c>
-      <c r="AL16" s="28">
+        <v>152</v>
+      </c>
+      <c r="AM16" s="29">
         <f t="shared" si="23"/>
-        <v>152</v>
-      </c>
-      <c r="AM16" s="29">
-        <f t="shared" si="24"/>
         <v>172</v>
       </c>
       <c r="AN16" s="30">
@@ -2778,33 +2781,33 @@
       </c>
       <c r="F17" s="19">
         <f t="shared" si="0"/>
-        <v>45819</v>
+        <v>45876</v>
       </c>
       <c r="G17" s="20">
         <f t="shared" si="9"/>
-        <v>45841</v>
+        <v>45898</v>
       </c>
       <c r="H17" s="33"/>
       <c r="I17" s="33"/>
       <c r="J17" s="22"/>
       <c r="K17" s="23">
         <f t="shared" si="2"/>
-        <v>45842</v>
+        <v>45901</v>
       </c>
       <c r="L17" s="19">
         <f t="shared" si="3"/>
-        <v>45866</v>
+        <v>45923</v>
       </c>
       <c r="M17" s="34"/>
       <c r="N17" s="33"/>
       <c r="O17" s="22"/>
       <c r="P17" s="23">
         <f t="shared" si="4"/>
-        <v>45867</v>
+        <v>45924</v>
       </c>
       <c r="Q17" s="19">
         <f t="shared" si="10"/>
-        <v>45974</v>
+        <v>46031</v>
       </c>
       <c r="R17" s="28">
         <f t="shared" si="5"/>
@@ -2817,11 +2820,11 @@
       <c r="T17" s="22"/>
       <c r="U17" s="23">
         <f t="shared" si="6"/>
-        <v>45867</v>
+        <v>45924</v>
       </c>
       <c r="V17" s="19">
         <f t="shared" si="12"/>
-        <v>45974</v>
+        <v>46031</v>
       </c>
       <c r="W17" s="28">
         <f t="shared" si="13"/>
@@ -2834,11 +2837,11 @@
       <c r="Y17" s="22"/>
       <c r="Z17" s="23">
         <f t="shared" si="15"/>
-        <v>45975</v>
+        <v>46034</v>
       </c>
       <c r="AA17" s="19">
         <f t="shared" si="16"/>
-        <v>45995</v>
+        <v>46052</v>
       </c>
       <c r="AB17" s="28">
         <f t="shared" si="17"/>
@@ -2850,40 +2853,39 @@
       </c>
       <c r="AD17" s="22"/>
       <c r="AE17" s="23">
-        <f t="shared" si="19"/>
-        <v>45996</v>
+        <v>46054</v>
       </c>
       <c r="AF17" s="37">
-        <v>46023</v>
+        <v>46079</v>
       </c>
       <c r="AG17" s="28">
         <f t="shared" si="7"/>
         <v>131</v>
       </c>
       <c r="AH17" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>151</v>
       </c>
       <c r="AI17" s="22"/>
       <c r="AJ17" s="23">
+        <f t="shared" si="20"/>
+        <v>46080</v>
+      </c>
+      <c r="AK17" s="19">
         <f t="shared" si="21"/>
-        <v>46024</v>
-      </c>
-      <c r="AK17" s="19">
+        <v>46100</v>
+      </c>
+      <c r="AL17" s="28">
         <f t="shared" si="22"/>
-        <v>46044</v>
-      </c>
-      <c r="AL17" s="28">
+        <v>152</v>
+      </c>
+      <c r="AM17" s="29">
         <f t="shared" si="23"/>
-        <v>152</v>
-      </c>
-      <c r="AM17" s="29">
-        <f t="shared" si="24"/>
         <v>172</v>
       </c>
       <c r="AN17" s="17">
         <f t="shared" si="8"/>
-        <v>-45872</v>
+        <v>-45928</v>
       </c>
     </row>
     <row r="18" spans="2:40" x14ac:dyDescent="0.25">
@@ -2901,33 +2903,33 @@
       </c>
       <c r="F18" s="19">
         <f t="shared" si="0"/>
-        <v>45819</v>
+        <v>45846</v>
       </c>
       <c r="G18" s="20">
         <f t="shared" si="9"/>
-        <v>45841</v>
+        <v>45868</v>
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
       <c r="J18" s="22"/>
       <c r="K18" s="23">
         <f t="shared" si="2"/>
-        <v>45842</v>
+        <v>45869</v>
       </c>
       <c r="L18" s="19">
         <f t="shared" si="3"/>
-        <v>45866</v>
+        <v>45891</v>
       </c>
       <c r="M18" s="34"/>
       <c r="N18" s="33"/>
       <c r="O18" s="22"/>
       <c r="P18" s="23">
         <f t="shared" si="4"/>
-        <v>45867</v>
+        <v>45894</v>
       </c>
       <c r="Q18" s="19">
         <f t="shared" si="10"/>
-        <v>45974</v>
+        <v>46001</v>
       </c>
       <c r="R18" s="28">
         <f t="shared" si="5"/>
@@ -2940,11 +2942,11 @@
       <c r="T18" s="22"/>
       <c r="U18" s="23">
         <f t="shared" si="6"/>
-        <v>45867</v>
+        <v>45894</v>
       </c>
       <c r="V18" s="19">
         <f t="shared" si="12"/>
-        <v>45974</v>
+        <v>46001</v>
       </c>
       <c r="W18" s="28">
         <f t="shared" si="13"/>
@@ -2957,11 +2959,11 @@
       <c r="Y18" s="22"/>
       <c r="Z18" s="23">
         <f t="shared" si="15"/>
-        <v>45975</v>
+        <v>46002</v>
       </c>
       <c r="AA18" s="19">
         <f t="shared" si="16"/>
-        <v>45995</v>
+        <v>46022</v>
       </c>
       <c r="AB18" s="28">
         <f t="shared" si="17"/>
@@ -2973,40 +2975,39 @@
       </c>
       <c r="AD18" s="22"/>
       <c r="AE18" s="23">
-        <f t="shared" si="19"/>
-        <v>45996</v>
+        <v>46023</v>
       </c>
       <c r="AF18" s="37">
-        <v>46023</v>
+        <v>46050</v>
       </c>
       <c r="AG18" s="28">
         <f t="shared" si="7"/>
         <v>131</v>
       </c>
       <c r="AH18" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>151</v>
       </c>
       <c r="AI18" s="22"/>
       <c r="AJ18" s="23">
+        <f t="shared" si="20"/>
+        <v>46051</v>
+      </c>
+      <c r="AK18" s="19">
         <f t="shared" si="21"/>
-        <v>46024</v>
-      </c>
-      <c r="AK18" s="19">
+        <v>46071</v>
+      </c>
+      <c r="AL18" s="28">
         <f t="shared" si="22"/>
-        <v>46044</v>
-      </c>
-      <c r="AL18" s="28">
+        <v>152</v>
+      </c>
+      <c r="AM18" s="29">
         <f t="shared" si="23"/>
-        <v>152</v>
-      </c>
-      <c r="AM18" s="29">
-        <f t="shared" si="24"/>
         <v>172</v>
       </c>
       <c r="AN18" s="17">
         <f t="shared" si="8"/>
-        <v>-45872</v>
+        <v>-45899</v>
       </c>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.25">
@@ -3024,33 +3025,33 @@
       </c>
       <c r="F19" s="19">
         <f t="shared" si="0"/>
-        <v>45849</v>
+        <v>45904</v>
       </c>
       <c r="G19" s="20">
         <f t="shared" si="9"/>
-        <v>45873</v>
+        <v>45926</v>
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="33"/>
       <c r="J19" s="22"/>
       <c r="K19" s="23">
         <f t="shared" si="2"/>
-        <v>45874</v>
+        <v>45929</v>
       </c>
       <c r="L19" s="19">
         <f t="shared" si="3"/>
-        <v>45896</v>
+        <v>45951</v>
       </c>
       <c r="M19" s="34"/>
       <c r="N19" s="33"/>
       <c r="O19" s="22"/>
       <c r="P19" s="23">
         <f t="shared" si="4"/>
-        <v>45897</v>
+        <v>45952</v>
       </c>
       <c r="Q19" s="19">
         <f t="shared" si="10"/>
-        <v>46006</v>
+        <v>46059</v>
       </c>
       <c r="R19" s="28">
         <f t="shared" si="5"/>
@@ -3063,11 +3064,11 @@
       <c r="T19" s="22"/>
       <c r="U19" s="23">
         <f t="shared" si="6"/>
-        <v>45897</v>
+        <v>45952</v>
       </c>
       <c r="V19" s="19">
         <f t="shared" si="12"/>
-        <v>46006</v>
+        <v>46059</v>
       </c>
       <c r="W19" s="28">
         <f t="shared" si="13"/>
@@ -3080,11 +3081,11 @@
       <c r="Y19" s="22"/>
       <c r="Z19" s="23">
         <f t="shared" si="15"/>
-        <v>46007</v>
+        <v>46062</v>
       </c>
       <c r="AA19" s="19">
         <f t="shared" si="16"/>
-        <v>46027</v>
+        <v>46080</v>
       </c>
       <c r="AB19" s="28">
         <f t="shared" si="17"/>
@@ -3096,40 +3097,39 @@
       </c>
       <c r="AD19" s="22"/>
       <c r="AE19" s="23">
-        <f t="shared" si="19"/>
-        <v>46028</v>
+        <v>46082</v>
       </c>
       <c r="AF19" s="37">
-        <v>46054</v>
+        <v>46107</v>
       </c>
       <c r="AG19" s="28">
         <f t="shared" si="7"/>
         <v>131</v>
       </c>
       <c r="AH19" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>151</v>
       </c>
       <c r="AI19" s="22"/>
       <c r="AJ19" s="23">
+        <f t="shared" si="20"/>
+        <v>46108</v>
+      </c>
+      <c r="AK19" s="19">
         <f t="shared" si="21"/>
-        <v>46055</v>
-      </c>
-      <c r="AK19" s="19">
+        <v>46128</v>
+      </c>
+      <c r="AL19" s="28">
         <f t="shared" si="22"/>
-        <v>46073</v>
-      </c>
-      <c r="AL19" s="28">
+        <v>152</v>
+      </c>
+      <c r="AM19" s="29">
         <f t="shared" si="23"/>
-        <v>152</v>
-      </c>
-      <c r="AM19" s="29">
-        <f t="shared" si="24"/>
         <v>172</v>
       </c>
       <c r="AN19" s="17">
         <f t="shared" si="8"/>
-        <v>-45901</v>
+        <v>-45956</v>
       </c>
     </row>
     <row r="20" spans="2:40" x14ac:dyDescent="0.25">
@@ -3147,33 +3147,33 @@
       </c>
       <c r="F20" s="19">
         <f t="shared" si="0"/>
-        <v>45877</v>
+        <v>45936</v>
       </c>
       <c r="G20" s="20">
         <f t="shared" si="9"/>
-        <v>45901</v>
+        <v>45958</v>
       </c>
       <c r="H20" s="33"/>
       <c r="I20" s="33"/>
       <c r="J20" s="22"/>
       <c r="K20" s="23">
         <f t="shared" si="2"/>
-        <v>45902</v>
+        <v>45959</v>
       </c>
       <c r="L20" s="19">
         <f t="shared" si="3"/>
-        <v>45924</v>
+        <v>45981</v>
       </c>
       <c r="M20" s="34"/>
       <c r="N20" s="33"/>
       <c r="O20" s="22"/>
       <c r="P20" s="23">
         <f t="shared" si="4"/>
-        <v>45925</v>
+        <v>45982</v>
       </c>
       <c r="Q20" s="19">
         <f t="shared" si="10"/>
-        <v>46034</v>
+        <v>46091</v>
       </c>
       <c r="R20" s="28">
         <f t="shared" si="5"/>
@@ -3186,11 +3186,11 @@
       <c r="T20" s="22"/>
       <c r="U20" s="23">
         <f t="shared" si="6"/>
-        <v>45925</v>
+        <v>45982</v>
       </c>
       <c r="V20" s="19">
         <f t="shared" si="12"/>
-        <v>46034</v>
+        <v>46091</v>
       </c>
       <c r="W20" s="28">
         <f t="shared" si="13"/>
@@ -3203,11 +3203,11 @@
       <c r="Y20" s="22"/>
       <c r="Z20" s="23">
         <f t="shared" si="15"/>
-        <v>46035</v>
+        <v>46092</v>
       </c>
       <c r="AA20" s="19">
         <f t="shared" si="16"/>
-        <v>46055</v>
+        <v>46112</v>
       </c>
       <c r="AB20" s="28">
         <f t="shared" si="17"/>
@@ -3219,41 +3219,43 @@
       </c>
       <c r="AD20" s="22"/>
       <c r="AE20" s="23">
-        <f t="shared" si="19"/>
-        <v>46056</v>
+        <v>46113</v>
       </c>
       <c r="AF20" s="37">
-        <v>46082</v>
+        <v>46140</v>
       </c>
       <c r="AG20" s="28">
         <f t="shared" si="7"/>
         <v>131</v>
       </c>
       <c r="AH20" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>151</v>
       </c>
       <c r="AI20" s="22"/>
       <c r="AJ20" s="23">
+        <f t="shared" si="20"/>
+        <v>46141</v>
+      </c>
+      <c r="AK20" s="19">
         <f t="shared" si="21"/>
-        <v>46083</v>
-      </c>
-      <c r="AK20" s="19">
+        <v>46161</v>
+      </c>
+      <c r="AL20" s="28">
         <f t="shared" si="22"/>
-        <v>46101</v>
-      </c>
-      <c r="AL20" s="28">
+        <v>152</v>
+      </c>
+      <c r="AM20" s="29">
         <f t="shared" si="23"/>
-        <v>152</v>
-      </c>
-      <c r="AM20" s="29">
-        <f t="shared" si="24"/>
         <v>172</v>
       </c>
       <c r="AN20" s="17">
         <f t="shared" si="8"/>
-        <v>-45929</v>
-      </c>
+        <v>-45989</v>
+      </c>
+    </row>
+    <row r="27" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AG27" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/BASE - VENDA E REGISTRO.xlsx
+++ b/BASE - VENDA E REGISTRO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viana e Moura\Dropbox\PLANEJAMENTO\Scripts\MÓDULO VENDAS\MODULO_VENDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61859730-EC81-4A23-B6B1-184B3A585DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FDEDF2-8EF7-44F8-A25D-D3A1C54C5340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0382C43D-564D-4A4C-8EAB-6952E70C6A7B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0382C43D-564D-4A4C-8EAB-6952E70C6A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="PLANEJADOR MÓDULOS" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
   <si>
     <t>PROGRAMAÇÃO
  DOCUMENTAÇÕES</t>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>SÃO VICENTE III-MERID(E)-09</t>
+  </si>
+  <si>
+    <t>"-"</t>
   </si>
 </sst>
 </file>
@@ -757,6 +760,9 @@
     <xf numFmtId="14" fontId="12" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -767,9 +773,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1189,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DB70CC-ACBF-416D-B448-0645472647BA}">
   <dimension ref="A2:AN27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AG27" sqref="AG27"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AJ20" sqref="AJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="10.8" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1261,54 +1264,54 @@
     </row>
     <row r="3" spans="1:40" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="K3" s="38" t="s">
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="K3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="P3" s="41" t="s">
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="P3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="U3" s="38" t="s">
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="U3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Z3" s="38" t="s">
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Z3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AE3" s="38" t="s">
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AE3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="39"/>
-      <c r="AJ3" s="38" t="s">
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="40"/>
+      <c r="AJ3" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="40"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -2855,8 +2858,8 @@
       <c r="AE17" s="23">
         <v>46054</v>
       </c>
-      <c r="AF17" s="37">
-        <v>46079</v>
+      <c r="AF17" s="37" t="s">
+        <v>71</v>
       </c>
       <c r="AG17" s="28">
         <f t="shared" si="7"/>
@@ -2867,13 +2870,13 @@
         <v>151</v>
       </c>
       <c r="AI17" s="22"/>
-      <c r="AJ17" s="23">
+      <c r="AJ17" s="23" t="str">
         <f t="shared" si="20"/>
-        <v>46080</v>
-      </c>
-      <c r="AK17" s="19">
+        <v>-</v>
+      </c>
+      <c r="AK17" s="19" t="str">
         <f t="shared" si="21"/>
-        <v>46100</v>
+        <v>-</v>
       </c>
       <c r="AL17" s="28">
         <f t="shared" si="22"/>
@@ -2883,9 +2886,9 @@
         <f t="shared" si="23"/>
         <v>172</v>
       </c>
-      <c r="AN17" s="17">
+      <c r="AN17" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>-45928</v>
+        <v>-</v>
       </c>
     </row>
     <row r="18" spans="2:40" x14ac:dyDescent="0.25">
@@ -2977,8 +2980,8 @@
       <c r="AE18" s="23">
         <v>46023</v>
       </c>
-      <c r="AF18" s="37">
-        <v>46050</v>
+      <c r="AF18" s="37" t="s">
+        <v>71</v>
       </c>
       <c r="AG18" s="28">
         <f t="shared" si="7"/>
@@ -2989,13 +2992,13 @@
         <v>151</v>
       </c>
       <c r="AI18" s="22"/>
-      <c r="AJ18" s="23">
+      <c r="AJ18" s="23" t="str">
         <f t="shared" si="20"/>
-        <v>46051</v>
-      </c>
-      <c r="AK18" s="19">
+        <v>-</v>
+      </c>
+      <c r="AK18" s="19" t="str">
         <f t="shared" si="21"/>
-        <v>46071</v>
+        <v>-</v>
       </c>
       <c r="AL18" s="28">
         <f t="shared" si="22"/>
@@ -3005,9 +3008,9 @@
         <f t="shared" si="23"/>
         <v>172</v>
       </c>
-      <c r="AN18" s="17">
+      <c r="AN18" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>-45899</v>
+        <v>-</v>
       </c>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.25">
@@ -3099,8 +3102,8 @@
       <c r="AE19" s="23">
         <v>46082</v>
       </c>
-      <c r="AF19" s="37">
-        <v>46107</v>
+      <c r="AF19" s="37" t="s">
+        <v>71</v>
       </c>
       <c r="AG19" s="28">
         <f t="shared" si="7"/>
@@ -3111,13 +3114,13 @@
         <v>151</v>
       </c>
       <c r="AI19" s="22"/>
-      <c r="AJ19" s="23">
+      <c r="AJ19" s="23" t="str">
         <f t="shared" si="20"/>
-        <v>46108</v>
-      </c>
-      <c r="AK19" s="19">
+        <v>-</v>
+      </c>
+      <c r="AK19" s="19" t="str">
         <f t="shared" si="21"/>
-        <v>46128</v>
+        <v>-</v>
       </c>
       <c r="AL19" s="28">
         <f t="shared" si="22"/>
@@ -3127,9 +3130,9 @@
         <f t="shared" si="23"/>
         <v>172</v>
       </c>
-      <c r="AN19" s="17">
+      <c r="AN19" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>-45956</v>
+        <v>-</v>
       </c>
     </row>
     <row r="20" spans="2:40" x14ac:dyDescent="0.25">
@@ -3221,8 +3224,8 @@
       <c r="AE20" s="23">
         <v>46113</v>
       </c>
-      <c r="AF20" s="37">
-        <v>46140</v>
+      <c r="AF20" s="37" t="s">
+        <v>71</v>
       </c>
       <c r="AG20" s="28">
         <f t="shared" si="7"/>
@@ -3233,13 +3236,13 @@
         <v>151</v>
       </c>
       <c r="AI20" s="22"/>
-      <c r="AJ20" s="23">
+      <c r="AJ20" s="23" t="str">
         <f t="shared" si="20"/>
-        <v>46141</v>
-      </c>
-      <c r="AK20" s="19">
+        <v>-</v>
+      </c>
+      <c r="AK20" s="19" t="str">
         <f t="shared" si="21"/>
-        <v>46161</v>
+        <v>-</v>
       </c>
       <c r="AL20" s="28">
         <f t="shared" si="22"/>
@@ -3249,13 +3252,13 @@
         <f t="shared" si="23"/>
         <v>172</v>
       </c>
-      <c r="AN20" s="17">
+      <c r="AN20" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>-45989</v>
+        <v>-</v>
       </c>
     </row>
     <row r="27" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="AG27" s="42"/>
+      <c r="AG27" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/BASE - VENDA E REGISTRO.xlsx
+++ b/BASE - VENDA E REGISTRO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viana e Moura\Dropbox\PLANEJAMENTO\Scripts\MÓDULO VENDAS\MODULO_VENDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FDEDF2-8EF7-44F8-A25D-D3A1C54C5340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCE727F-1FBF-4DE3-90E7-683808953806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0382C43D-564D-4A4C-8EAB-6952E70C6A7B}"/>
   </bookViews>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
   <si>
     <t>PROGRAMAÇÃO
  DOCUMENTAÇÕES</t>
@@ -389,9 +389,6 @@
   </si>
   <si>
     <t>SÃO VICENTE III-MERID(E)-09</t>
-  </si>
-  <si>
-    <t>"-"</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1190,7 @@
   <dimension ref="A2:AN27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AJ20" sqref="AJ20"/>
+      <selection activeCell="AE28" sqref="AE28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="10.8" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2858,9 +2855,7 @@
       <c r="AE17" s="23">
         <v>46054</v>
       </c>
-      <c r="AF17" s="37" t="s">
-        <v>71</v>
-      </c>
+      <c r="AF17" s="37"/>
       <c r="AG17" s="28">
         <f t="shared" si="7"/>
         <v>131</v>
@@ -2870,13 +2865,13 @@
         <v>151</v>
       </c>
       <c r="AI17" s="22"/>
-      <c r="AJ17" s="23" t="str">
+      <c r="AJ17" s="23">
         <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="AK17" s="19" t="str">
+        <v>2</v>
+      </c>
+      <c r="AK17" s="19">
         <f t="shared" si="21"/>
-        <v>-</v>
+        <v>20</v>
       </c>
       <c r="AL17" s="28">
         <f t="shared" si="22"/>
@@ -2886,9 +2881,9 @@
         <f t="shared" si="23"/>
         <v>172</v>
       </c>
-      <c r="AN17" s="17" t="str">
+      <c r="AN17" s="17">
         <f t="shared" si="8"/>
-        <v>-</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="2:40" x14ac:dyDescent="0.25">
@@ -2980,9 +2975,7 @@
       <c r="AE18" s="23">
         <v>46023</v>
       </c>
-      <c r="AF18" s="37" t="s">
-        <v>71</v>
-      </c>
+      <c r="AF18" s="37"/>
       <c r="AG18" s="28">
         <f t="shared" si="7"/>
         <v>131</v>
@@ -2992,13 +2985,13 @@
         <v>151</v>
       </c>
       <c r="AI18" s="22"/>
-      <c r="AJ18" s="23" t="str">
+      <c r="AJ18" s="23">
         <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="AK18" s="19" t="str">
+        <v>2</v>
+      </c>
+      <c r="AK18" s="19">
         <f t="shared" si="21"/>
-        <v>-</v>
+        <v>20</v>
       </c>
       <c r="AL18" s="28">
         <f t="shared" si="22"/>
@@ -3008,9 +3001,9 @@
         <f t="shared" si="23"/>
         <v>172</v>
       </c>
-      <c r="AN18" s="17" t="str">
+      <c r="AN18" s="17">
         <f t="shared" si="8"/>
-        <v>-</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.25">
@@ -3102,9 +3095,7 @@
       <c r="AE19" s="23">
         <v>46082</v>
       </c>
-      <c r="AF19" s="37" t="s">
-        <v>71</v>
-      </c>
+      <c r="AF19" s="37"/>
       <c r="AG19" s="28">
         <f t="shared" si="7"/>
         <v>131</v>
@@ -3114,13 +3105,13 @@
         <v>151</v>
       </c>
       <c r="AI19" s="22"/>
-      <c r="AJ19" s="23" t="str">
+      <c r="AJ19" s="23">
         <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="AK19" s="19" t="str">
+        <v>2</v>
+      </c>
+      <c r="AK19" s="19">
         <f t="shared" si="21"/>
-        <v>-</v>
+        <v>20</v>
       </c>
       <c r="AL19" s="28">
         <f t="shared" si="22"/>
@@ -3130,9 +3121,9 @@
         <f t="shared" si="23"/>
         <v>172</v>
       </c>
-      <c r="AN19" s="17" t="str">
+      <c r="AN19" s="17">
         <f t="shared" si="8"/>
-        <v>-</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="2:40" x14ac:dyDescent="0.25">
@@ -3224,9 +3215,7 @@
       <c r="AE20" s="23">
         <v>46113</v>
       </c>
-      <c r="AF20" s="37" t="s">
-        <v>71</v>
-      </c>
+      <c r="AF20" s="37"/>
       <c r="AG20" s="28">
         <f t="shared" si="7"/>
         <v>131</v>
@@ -3236,13 +3225,13 @@
         <v>151</v>
       </c>
       <c r="AI20" s="22"/>
-      <c r="AJ20" s="23" t="str">
+      <c r="AJ20" s="23">
         <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="AK20" s="19" t="str">
+        <v>2</v>
+      </c>
+      <c r="AK20" s="19">
         <f t="shared" si="21"/>
-        <v>-</v>
+        <v>20</v>
       </c>
       <c r="AL20" s="28">
         <f t="shared" si="22"/>
@@ -3252,9 +3241,9 @@
         <f t="shared" si="23"/>
         <v>172</v>
       </c>
-      <c r="AN20" s="17" t="str">
+      <c r="AN20" s="17">
         <f t="shared" si="8"/>
-        <v>-</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="2:40" x14ac:dyDescent="0.25">

--- a/BASE - VENDA E REGISTRO.xlsx
+++ b/BASE - VENDA E REGISTRO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viana e Moura\Dropbox\PLANEJAMENTO\Scripts\MÓDULO VENDAS\MODULO_VENDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCE727F-1FBF-4DE3-90E7-683808953806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F61A6DA-EBC8-430B-9D36-228B854E8C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0382C43D-564D-4A4C-8EAB-6952E70C6A7B}"/>
   </bookViews>
@@ -38,22 +38,22 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={51ED2484-CE0B-44FF-A61D-A19E4C7E7DB6}</author>
-    <author>tc={03021709-DEC3-44A5-AE72-803EED822B67}</author>
-    <author>tc={D0495507-0286-41F8-9655-EBE1A88A5CED}</author>
-    <author>tc={06E4A422-21B1-4772-8FC4-6BF7E06DD2CF}</author>
-    <author>tc={B2876A8D-2B3C-4706-A73E-D1E05F477ED1}</author>
-    <author>tc={9BBE32ED-FEF0-41C2-9D69-4477B77E38F2}</author>
-    <author>tc={EC7A9C17-A806-4874-8E80-66CEF220B036}</author>
-    <author>tc={2769160F-FFFC-4439-8CA2-C5483683AAF9}</author>
-    <author>tc={60F6F99F-B349-499C-AA61-71869D265E84}</author>
-    <author>tc={A0E88111-CC74-4065-97F4-CAC088A6ED25}</author>
-    <author>tc={CCAABD6A-E19C-4482-9BEB-05EE5A671926}</author>
-    <author>tc={7EEE39AD-570A-47F3-B230-60ACEA5EB8C2}</author>
-    <author>tc={6A15733F-C58F-4FEF-A5A3-EBD2C18EA5C5}</author>
+    <author>tc={4384166C-EB2A-4BDF-9716-77B97E84826D}</author>
+    <author>tc={05773916-F138-49C5-9901-5756AC6E6C87}</author>
+    <author>tc={886B6C7A-9F23-4BB8-BEBB-BC6AFF7AF17B}</author>
+    <author>tc={4345F223-4F6C-4072-BEB1-ED4C6C699895}</author>
+    <author>tc={AC7663CD-7695-42F1-8760-507675ED2765}</author>
+    <author>tc={D5518F03-6E84-4476-A65B-11580FDEB27D}</author>
+    <author>tc={3BE8970A-F640-4F06-BFB6-DFC4884D0F79}</author>
+    <author>tc={AD7B5DDD-397C-4241-B263-BFC9EA09B775}</author>
+    <author>tc={F0438435-01F1-412E-B8D4-41A553D7EE9D}</author>
+    <author>tc={474AE626-BDF1-4FB2-879A-A1B26C0B4F4B}</author>
+    <author>tc={2ED57AA0-BF74-4B7F-90EF-DB946F6E643A}</author>
+    <author>tc={B9B60954-86CE-4A90-B859-09043F7F3789}</author>
+    <author>tc={31F43E9F-4424-42AE-B48E-43A4AA1036E7}</author>
   </authors>
   <commentList>
-    <comment ref="AF8" authorId="0" shapeId="0" xr:uid="{51ED2484-CE0B-44FF-A61D-A19E4C7E7DB6}">
+    <comment ref="AF8" authorId="0" shapeId="0" xr:uid="{4384166C-EB2A-4BDF-9716-77B97E84826D}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -62,7 +62,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF9" authorId="1" shapeId="0" xr:uid="{03021709-DEC3-44A5-AE72-803EED822B67}">
+    <comment ref="AF9" authorId="1" shapeId="0" xr:uid="{05773916-F138-49C5-9901-5756AC6E6C87}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -71,7 +71,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF10" authorId="2" shapeId="0" xr:uid="{D0495507-0286-41F8-9655-EBE1A88A5CED}">
+    <comment ref="AF10" authorId="2" shapeId="0" xr:uid="{886B6C7A-9F23-4BB8-BEBB-BC6AFF7AF17B}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -80,7 +80,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF11" authorId="3" shapeId="0" xr:uid="{06E4A422-21B1-4772-8FC4-6BF7E06DD2CF}">
+    <comment ref="AF11" authorId="3" shapeId="0" xr:uid="{4345F223-4F6C-4072-BEB1-ED4C6C699895}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -89,7 +89,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF12" authorId="4" shapeId="0" xr:uid="{B2876A8D-2B3C-4706-A73E-D1E05F477ED1}">
+    <comment ref="AF12" authorId="4" shapeId="0" xr:uid="{AC7663CD-7695-42F1-8760-507675ED2765}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -98,7 +98,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF13" authorId="5" shapeId="0" xr:uid="{9BBE32ED-FEF0-41C2-9D69-4477B77E38F2}">
+    <comment ref="AF13" authorId="5" shapeId="0" xr:uid="{D5518F03-6E84-4476-A65B-11580FDEB27D}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -107,7 +107,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF14" authorId="6" shapeId="0" xr:uid="{EC7A9C17-A806-4874-8E80-66CEF220B036}">
+    <comment ref="AF14" authorId="6" shapeId="0" xr:uid="{3BE8970A-F640-4F06-BFB6-DFC4884D0F79}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -116,7 +116,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF15" authorId="7" shapeId="0" xr:uid="{2769160F-FFFC-4439-8CA2-C5483683AAF9}">
+    <comment ref="AF15" authorId="7" shapeId="0" xr:uid="{AD7B5DDD-397C-4241-B263-BFC9EA09B775}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -125,7 +125,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF16" authorId="8" shapeId="0" xr:uid="{60F6F99F-B349-499C-AA61-71869D265E84}">
+    <comment ref="AF16" authorId="8" shapeId="0" xr:uid="{F0438435-01F1-412E-B8D4-41A553D7EE9D}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -134,7 +134,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF17" authorId="9" shapeId="0" xr:uid="{A0E88111-CC74-4065-97F4-CAC088A6ED25}">
+    <comment ref="AF17" authorId="9" shapeId="0" xr:uid="{474AE626-BDF1-4FB2-879A-A1B26C0B4F4B}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -143,7 +143,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF18" authorId="10" shapeId="0" xr:uid="{CCAABD6A-E19C-4482-9BEB-05EE5A671926}">
+    <comment ref="AF18" authorId="10" shapeId="0" xr:uid="{2ED57AA0-BF74-4B7F-90EF-DB946F6E643A}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -152,7 +152,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF19" authorId="11" shapeId="0" xr:uid="{7EEE39AD-570A-47F3-B230-60ACEA5EB8C2}">
+    <comment ref="AF19" authorId="11" shapeId="0" xr:uid="{B9B60954-86CE-4A90-B859-09043F7F3789}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -161,7 +161,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF20" authorId="12" shapeId="0" xr:uid="{6A15733F-C58F-4FEF-A5A3-EBD2C18EA5C5}">
+    <comment ref="AF20" authorId="12" shapeId="0" xr:uid="{31F43E9F-4424-42AE-B48E-43A4AA1036E7}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -395,7 +395,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,6 +495,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -658,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -772,6 +778,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1130,55 +1137,55 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AF8" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{51ED2484-CE0B-44FF-A61D-A19E4C7E7DB6}">
+  <threadedComment ref="AF8" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{4384166C-EB2A-4BDF-9716-77B97E84826D}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF9" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{03021709-DEC3-44A5-AE72-803EED822B67}">
+  <threadedComment ref="AF9" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{05773916-F138-49C5-9901-5756AC6E6C87}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF10" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{D0495507-0286-41F8-9655-EBE1A88A5CED}">
+  <threadedComment ref="AF10" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{886B6C7A-9F23-4BB8-BEBB-BC6AFF7AF17B}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF11" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{06E4A422-21B1-4772-8FC4-6BF7E06DD2CF}">
+  <threadedComment ref="AF11" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{4345F223-4F6C-4072-BEB1-ED4C6C699895}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF12" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{B2876A8D-2B3C-4706-A73E-D1E05F477ED1}">
+  <threadedComment ref="AF12" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{AC7663CD-7695-42F1-8760-507675ED2765}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF13" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{9BBE32ED-FEF0-41C2-9D69-4477B77E38F2}">
+  <threadedComment ref="AF13" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{D5518F03-6E84-4476-A65B-11580FDEB27D}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF14" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{EC7A9C17-A806-4874-8E80-66CEF220B036}">
+  <threadedComment ref="AF14" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{3BE8970A-F640-4F06-BFB6-DFC4884D0F79}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF15" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{2769160F-FFFC-4439-8CA2-C5483683AAF9}">
+  <threadedComment ref="AF15" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{AD7B5DDD-397C-4241-B263-BFC9EA09B775}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF16" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{60F6F99F-B349-499C-AA61-71869D265E84}">
+  <threadedComment ref="AF16" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{F0438435-01F1-412E-B8D4-41A553D7EE9D}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF17" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{A0E88111-CC74-4065-97F4-CAC088A6ED25}">
+  <threadedComment ref="AF17" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{474AE626-BDF1-4FB2-879A-A1B26C0B4F4B}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF18" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{CCAABD6A-E19C-4482-9BEB-05EE5A671926}">
+  <threadedComment ref="AF18" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{2ED57AA0-BF74-4B7F-90EF-DB946F6E643A}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF19" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{7EEE39AD-570A-47F3-B230-60ACEA5EB8C2}">
+  <threadedComment ref="AF19" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{B9B60954-86CE-4A90-B859-09043F7F3789}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF20" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{6A15733F-C58F-4FEF-A5A3-EBD2C18EA5C5}">
+  <threadedComment ref="AF20" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{31F43E9F-4424-42AE-B48E-43A4AA1036E7}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
@@ -1190,7 +1197,7 @@
   <dimension ref="A2:AN27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AE28" sqref="AE28"/>
+      <selection activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="10.8" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1619,11 +1626,11 @@
       </c>
       <c r="F8" s="19">
         <f t="shared" ref="F8:F20" si="0">IFERROR(WORKDAY(G8,(-$I$2+1)),"-")</f>
-        <v>45660</v>
+        <v>45456</v>
       </c>
       <c r="G8" s="20">
         <f>IFERROR(WORKDAY(K8,-1),"-")</f>
-        <v>45684</v>
+        <v>45478</v>
       </c>
       <c r="H8" s="21">
         <v>45658</v>
@@ -1635,11 +1642,11 @@
       <c r="J8" s="22"/>
       <c r="K8" s="23">
         <f t="shared" ref="K8:K20" si="2">IFERROR(WORKDAY(L8,(-$N$2+1)),"-")</f>
-        <v>45685</v>
+        <v>45481</v>
       </c>
       <c r="L8" s="19">
         <f t="shared" ref="L8:L20" si="3">IFERROR(WORKDAY(P8,-1),"-")</f>
-        <v>45707</v>
+        <v>45503</v>
       </c>
       <c r="M8" s="24">
         <v>45687</v>
@@ -1650,11 +1657,11 @@
       <c r="O8" s="22"/>
       <c r="P8" s="23">
         <f t="shared" ref="P8:P20" si="4">IFERROR(WORKDAY(Q8,(-$S$2+1)),"-")</f>
-        <v>45708</v>
+        <v>45504</v>
       </c>
       <c r="Q8" s="19">
         <f>IFERROR(WORKDAY(Z8,-1),"-")</f>
-        <v>45817</v>
+        <v>45611</v>
       </c>
       <c r="R8" s="24">
         <f t="shared" ref="R8:R20" si="5">WORKDAY.INTL(N8,1)</f>
@@ -1666,11 +1673,11 @@
       <c r="T8" s="22"/>
       <c r="U8" s="23">
         <f t="shared" ref="U8:U20" si="6">IFERROR(WORKDAY(V8,(-$X$2+1)),"-")</f>
-        <v>45708</v>
+        <v>45504</v>
       </c>
       <c r="V8" s="19">
         <f>IFERROR(WORKDAY(Z8,-1),"-")</f>
-        <v>45817</v>
+        <v>45611</v>
       </c>
       <c r="W8" s="24">
         <v>45537</v>
@@ -1681,11 +1688,11 @@
       <c r="Y8" s="22"/>
       <c r="Z8" s="23">
         <f>IFERROR(WORKDAY(AA8,(-$AC$2+1)),"-")</f>
-        <v>45818</v>
+        <v>45614</v>
       </c>
       <c r="AA8" s="19">
         <f>IFERROR(WORKDAY(AE8,-1),"-")</f>
-        <v>45838</v>
+        <v>45632</v>
       </c>
       <c r="AB8" s="24">
         <v>45800</v>
@@ -1695,10 +1702,10 @@
       </c>
       <c r="AD8" s="22"/>
       <c r="AE8" s="23">
-        <v>45839</v>
+        <v>45635</v>
       </c>
       <c r="AF8" s="25">
-        <v>45992</v>
+        <v>45660</v>
       </c>
       <c r="AG8" s="26">
         <f t="shared" ref="AG8:AG20" si="7">WORKDAY.INTL(AC8,1)</f>
@@ -1710,11 +1717,11 @@
       <c r="AI8" s="22"/>
       <c r="AJ8" s="23">
         <f>IFERROR(WORKDAY(AF8,1),"-")</f>
-        <v>45993</v>
+        <v>45663</v>
       </c>
       <c r="AK8" s="19">
         <f>IFERROR(WORKDAY(AJ8,($AM$2-1)),"-")</f>
-        <v>46013</v>
+        <v>45681</v>
       </c>
       <c r="AL8" s="26">
         <v>45800</v>
@@ -1724,7 +1731,7 @@
       </c>
       <c r="AN8" s="17">
         <f t="shared" ref="AN8:AN20" si="8">IFERROR(AM8-AK8,"-")</f>
-        <v>-213</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1742,11 +1749,11 @@
       </c>
       <c r="F9" s="19">
         <f t="shared" si="0"/>
-        <v>45660</v>
+        <v>45635</v>
       </c>
       <c r="G9" s="20">
         <f t="shared" ref="G9:G20" si="9">IFERROR(WORKDAY(K9,-1),"-")</f>
-        <v>45684</v>
+        <v>45657</v>
       </c>
       <c r="H9" s="21">
         <v>45658</v>
@@ -1758,11 +1765,11 @@
       <c r="J9" s="22"/>
       <c r="K9" s="23">
         <f t="shared" si="2"/>
-        <v>45685</v>
+        <v>45658</v>
       </c>
       <c r="L9" s="19">
         <f t="shared" si="3"/>
-        <v>45707</v>
+        <v>45680</v>
       </c>
       <c r="M9" s="24">
         <v>45663</v>
@@ -1773,11 +1780,11 @@
       <c r="O9" s="22"/>
       <c r="P9" s="23">
         <f t="shared" si="4"/>
-        <v>45708</v>
+        <v>45681</v>
       </c>
       <c r="Q9" s="19">
         <f t="shared" ref="Q9:Q20" si="10">IFERROR(WORKDAY(Z9,-1),"-")</f>
-        <v>45817</v>
+        <v>45790</v>
       </c>
       <c r="R9" s="28">
         <f t="shared" si="5"/>
@@ -1790,11 +1797,11 @@
       <c r="T9" s="22"/>
       <c r="U9" s="23">
         <f t="shared" si="6"/>
-        <v>45708</v>
+        <v>45681</v>
       </c>
       <c r="V9" s="19">
         <f t="shared" ref="V9:V20" si="12">IFERROR(WORKDAY(Z9,-1),"-")</f>
-        <v>45817</v>
+        <v>45790</v>
       </c>
       <c r="W9" s="28">
         <f t="shared" ref="W9:W20" si="13">WORKDAY.INTL(N9,1)</f>
@@ -1807,11 +1814,11 @@
       <c r="Y9" s="22"/>
       <c r="Z9" s="23">
         <f t="shared" ref="Z9:Z20" si="15">IFERROR(WORKDAY(AA9,(-$AC$2+1)),"-")</f>
-        <v>45818</v>
+        <v>45791</v>
       </c>
       <c r="AA9" s="19">
         <f t="shared" ref="AA9:AA20" si="16">IFERROR(WORKDAY(AE9,-1),"-")</f>
-        <v>45838</v>
+        <v>45811</v>
       </c>
       <c r="AB9" s="28">
         <f t="shared" ref="AB9:AB20" si="17">WORKDAY.INTL(X9,1)</f>
@@ -1823,10 +1830,10 @@
       </c>
       <c r="AD9" s="22"/>
       <c r="AE9" s="23">
+        <v>45812</v>
+      </c>
+      <c r="AF9" s="25">
         <v>45839</v>
-      </c>
-      <c r="AF9" s="25">
-        <v>45901</v>
       </c>
       <c r="AG9" s="28">
         <f t="shared" si="7"/>
@@ -1839,11 +1846,11 @@
       <c r="AI9" s="22"/>
       <c r="AJ9" s="23">
         <f t="shared" ref="AJ9:AJ20" si="20">IFERROR(WORKDAY(AF9,1),"-")</f>
-        <v>45902</v>
+        <v>45840</v>
       </c>
       <c r="AK9" s="19">
         <f t="shared" ref="AK9:AK20" si="21">IFERROR(WORKDAY(AJ9,($AM$2-1)),"-")</f>
-        <v>45922</v>
+        <v>45860</v>
       </c>
       <c r="AL9" s="28">
         <f t="shared" ref="AL9:AL20" si="22">WORKDAY.INTL(AH9,1)</f>
@@ -1855,7 +1862,7 @@
       </c>
       <c r="AN9" s="17">
         <f t="shared" si="8"/>
-        <v>-68</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="10" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1873,11 +1880,11 @@
       </c>
       <c r="F10" s="19">
         <f t="shared" si="0"/>
-        <v>45722</v>
+        <v>45666</v>
       </c>
       <c r="G10" s="20">
         <f t="shared" si="9"/>
-        <v>45744</v>
+        <v>45688</v>
       </c>
       <c r="H10" s="21">
         <v>45658</v>
@@ -1889,11 +1896,11 @@
       <c r="J10" s="22"/>
       <c r="K10" s="23">
         <f t="shared" si="2"/>
-        <v>45747</v>
+        <v>45691</v>
       </c>
       <c r="L10" s="19">
         <f t="shared" si="3"/>
-        <v>45769</v>
+        <v>45713</v>
       </c>
       <c r="M10" s="24">
         <v>45687</v>
@@ -1904,11 +1911,11 @@
       <c r="O10" s="22"/>
       <c r="P10" s="23">
         <f t="shared" si="4"/>
-        <v>45770</v>
+        <v>45714</v>
       </c>
       <c r="Q10" s="19">
         <f t="shared" si="10"/>
-        <v>45877</v>
+        <v>45821</v>
       </c>
       <c r="R10" s="28">
         <f t="shared" si="5"/>
@@ -1921,11 +1928,11 @@
       <c r="T10" s="22"/>
       <c r="U10" s="23">
         <f t="shared" si="6"/>
-        <v>45770</v>
+        <v>45714</v>
       </c>
       <c r="V10" s="19">
         <f t="shared" si="12"/>
-        <v>45877</v>
+        <v>45821</v>
       </c>
       <c r="W10" s="28">
         <f t="shared" si="13"/>
@@ -1938,11 +1945,11 @@
       <c r="Y10" s="22"/>
       <c r="Z10" s="23">
         <f t="shared" si="15"/>
-        <v>45880</v>
+        <v>45824</v>
       </c>
       <c r="AA10" s="19">
         <f t="shared" si="16"/>
-        <v>45898</v>
+        <v>45842</v>
       </c>
       <c r="AB10" s="28">
         <f t="shared" si="17"/>
@@ -1954,10 +1961,10 @@
       </c>
       <c r="AD10" s="22"/>
       <c r="AE10" s="23">
-        <v>45901</v>
+        <v>45845</v>
       </c>
       <c r="AF10" s="25">
-        <v>45992</v>
+        <v>45870</v>
       </c>
       <c r="AG10" s="28">
         <f t="shared" si="7"/>
@@ -1970,11 +1977,11 @@
       <c r="AI10" s="22"/>
       <c r="AJ10" s="23">
         <f t="shared" si="20"/>
-        <v>45993</v>
+        <v>45873</v>
       </c>
       <c r="AK10" s="19">
         <f t="shared" si="21"/>
-        <v>46013</v>
+        <v>45891</v>
       </c>
       <c r="AL10" s="28">
         <f t="shared" si="22"/>
@@ -1986,7 +1993,7 @@
       </c>
       <c r="AN10" s="17">
         <f t="shared" si="8"/>
-        <v>-133</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
@@ -2004,11 +2011,11 @@
       </c>
       <c r="F11" s="19">
         <f t="shared" si="0"/>
-        <v>45813</v>
+        <v>45695</v>
       </c>
       <c r="G11" s="20">
         <f t="shared" si="9"/>
-        <v>45835</v>
+        <v>45719</v>
       </c>
       <c r="H11" s="21">
         <v>45716</v>
@@ -2020,11 +2027,11 @@
       <c r="J11" s="22"/>
       <c r="K11" s="23">
         <f t="shared" si="2"/>
-        <v>45838</v>
+        <v>45720</v>
       </c>
       <c r="L11" s="19">
         <f t="shared" si="3"/>
-        <v>45860</v>
+        <v>45742</v>
       </c>
       <c r="M11" s="24">
         <v>45700</v>
@@ -2035,11 +2042,11 @@
       <c r="O11" s="22"/>
       <c r="P11" s="23">
         <f t="shared" si="4"/>
-        <v>45861</v>
+        <v>45743</v>
       </c>
       <c r="Q11" s="19">
         <f t="shared" si="10"/>
-        <v>45968</v>
+        <v>45852</v>
       </c>
       <c r="R11" s="28">
         <f t="shared" si="5"/>
@@ -2052,11 +2059,11 @@
       <c r="T11" s="22"/>
       <c r="U11" s="23">
         <f t="shared" si="6"/>
-        <v>45861</v>
+        <v>45743</v>
       </c>
       <c r="V11" s="19">
         <f t="shared" si="12"/>
-        <v>45968</v>
+        <v>45852</v>
       </c>
       <c r="W11" s="28">
         <f t="shared" si="13"/>
@@ -2069,11 +2076,11 @@
       <c r="Y11" s="22"/>
       <c r="Z11" s="23">
         <f t="shared" si="15"/>
-        <v>45971</v>
+        <v>45853</v>
       </c>
       <c r="AA11" s="19">
         <f t="shared" si="16"/>
-        <v>45989</v>
+        <v>45873</v>
       </c>
       <c r="AB11" s="28">
         <f t="shared" si="17"/>
@@ -2085,10 +2092,10 @@
       </c>
       <c r="AD11" s="22"/>
       <c r="AE11" s="23">
-        <v>45992</v>
+        <v>45874</v>
       </c>
       <c r="AF11" s="25">
-        <v>45992</v>
+        <v>45901</v>
       </c>
       <c r="AG11" s="28">
         <f t="shared" si="7"/>
@@ -2101,11 +2108,11 @@
       <c r="AI11" s="22"/>
       <c r="AJ11" s="23">
         <f t="shared" si="20"/>
-        <v>45993</v>
+        <v>45902</v>
       </c>
       <c r="AK11" s="19">
         <f t="shared" si="21"/>
-        <v>46013</v>
+        <v>45922</v>
       </c>
       <c r="AL11" s="28">
         <f t="shared" si="22"/>
@@ -2117,7 +2124,7 @@
       </c>
       <c r="AN11" s="30">
         <f t="shared" si="8"/>
-        <v>-103</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
@@ -2135,11 +2142,11 @@
       </c>
       <c r="F12" s="19">
         <f t="shared" si="0"/>
-        <v>45813</v>
+        <v>45695</v>
       </c>
       <c r="G12" s="20">
         <f t="shared" si="9"/>
-        <v>45835</v>
+        <v>45719</v>
       </c>
       <c r="H12" s="21">
         <v>45716</v>
@@ -2151,11 +2158,11 @@
       <c r="J12" s="22"/>
       <c r="K12" s="23">
         <f t="shared" si="2"/>
-        <v>45838</v>
+        <v>45720</v>
       </c>
       <c r="L12" s="19">
         <f t="shared" si="3"/>
-        <v>45860</v>
+        <v>45742</v>
       </c>
       <c r="M12" s="24">
         <v>45761</v>
@@ -2166,11 +2173,11 @@
       <c r="O12" s="22"/>
       <c r="P12" s="23">
         <f t="shared" si="4"/>
-        <v>45861</v>
+        <v>45743</v>
       </c>
       <c r="Q12" s="19">
         <f t="shared" si="10"/>
-        <v>45968</v>
+        <v>45852</v>
       </c>
       <c r="R12" s="28">
         <f t="shared" si="5"/>
@@ -2183,11 +2190,11 @@
       <c r="T12" s="22"/>
       <c r="U12" s="23">
         <f t="shared" si="6"/>
-        <v>45861</v>
+        <v>45743</v>
       </c>
       <c r="V12" s="19">
         <f t="shared" si="12"/>
-        <v>45968</v>
+        <v>45852</v>
       </c>
       <c r="W12" s="28">
         <f t="shared" si="13"/>
@@ -2200,11 +2207,11 @@
       <c r="Y12" s="22"/>
       <c r="Z12" s="23">
         <f t="shared" si="15"/>
-        <v>45971</v>
+        <v>45853</v>
       </c>
       <c r="AA12" s="19">
         <f t="shared" si="16"/>
-        <v>45989</v>
+        <v>45873</v>
       </c>
       <c r="AB12" s="28">
         <f t="shared" si="17"/>
@@ -2216,10 +2223,10 @@
       </c>
       <c r="AD12" s="22"/>
       <c r="AE12" s="23">
-        <v>45992</v>
+        <v>45874</v>
       </c>
       <c r="AF12" s="25">
-        <v>45992</v>
+        <v>45901</v>
       </c>
       <c r="AG12" s="28">
         <f t="shared" si="7"/>
@@ -2232,11 +2239,11 @@
       <c r="AI12" s="22"/>
       <c r="AJ12" s="23">
         <f t="shared" si="20"/>
-        <v>45993</v>
+        <v>45902</v>
       </c>
       <c r="AK12" s="19">
         <f t="shared" si="21"/>
-        <v>46013</v>
+        <v>45922</v>
       </c>
       <c r="AL12" s="28">
         <f t="shared" si="22"/>
@@ -2248,7 +2255,7 @@
       </c>
       <c r="AN12" s="30">
         <f t="shared" si="8"/>
-        <v>-40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
@@ -2266,11 +2273,11 @@
       </c>
       <c r="F13" s="19">
         <f t="shared" si="0"/>
-        <v>45722</v>
+        <v>45695</v>
       </c>
       <c r="G13" s="20">
         <f t="shared" si="9"/>
-        <v>45744</v>
+        <v>45719</v>
       </c>
       <c r="H13" s="21">
         <v>45658</v>
@@ -2282,11 +2289,11 @@
       <c r="J13" s="22"/>
       <c r="K13" s="23">
         <f t="shared" si="2"/>
-        <v>45747</v>
+        <v>45720</v>
       </c>
       <c r="L13" s="19">
         <f t="shared" si="3"/>
-        <v>45769</v>
+        <v>45742</v>
       </c>
       <c r="M13" s="24">
         <v>45740</v>
@@ -2297,11 +2304,11 @@
       <c r="O13" s="22"/>
       <c r="P13" s="23">
         <f t="shared" si="4"/>
-        <v>45770</v>
+        <v>45743</v>
       </c>
       <c r="Q13" s="19">
         <f t="shared" si="10"/>
-        <v>45877</v>
+        <v>45852</v>
       </c>
       <c r="R13" s="28">
         <f t="shared" si="5"/>
@@ -2314,11 +2321,11 @@
       <c r="T13" s="22"/>
       <c r="U13" s="23">
         <f t="shared" si="6"/>
-        <v>45770</v>
+        <v>45743</v>
       </c>
       <c r="V13" s="19">
         <f t="shared" si="12"/>
-        <v>45877</v>
+        <v>45852</v>
       </c>
       <c r="W13" s="28">
         <f t="shared" si="13"/>
@@ -2331,11 +2338,11 @@
       <c r="Y13" s="22"/>
       <c r="Z13" s="23">
         <f t="shared" si="15"/>
-        <v>45880</v>
+        <v>45853</v>
       </c>
       <c r="AA13" s="19">
         <f t="shared" si="16"/>
-        <v>45898</v>
+        <v>45873</v>
       </c>
       <c r="AB13" s="28">
         <f t="shared" si="17"/>
@@ -2347,10 +2354,10 @@
       </c>
       <c r="AD13" s="22"/>
       <c r="AE13" s="23">
+        <v>45874</v>
+      </c>
+      <c r="AF13" s="25">
         <v>45901</v>
-      </c>
-      <c r="AF13" s="25">
-        <v>45992</v>
       </c>
       <c r="AG13" s="28">
         <f t="shared" si="7"/>
@@ -2363,11 +2370,11 @@
       <c r="AI13" s="22"/>
       <c r="AJ13" s="23">
         <f t="shared" si="20"/>
-        <v>45993</v>
+        <v>45902</v>
       </c>
       <c r="AK13" s="19">
         <f t="shared" si="21"/>
-        <v>46013</v>
+        <v>45922</v>
       </c>
       <c r="AL13" s="28">
         <f t="shared" si="22"/>
@@ -2379,7 +2386,7 @@
       </c>
       <c r="AN13" s="17">
         <f t="shared" si="8"/>
-        <v>-55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
@@ -2397,11 +2404,11 @@
       </c>
       <c r="F14" s="19">
         <f t="shared" si="0"/>
-        <v>45813</v>
+        <v>45758</v>
       </c>
       <c r="G14" s="20">
         <f t="shared" si="9"/>
-        <v>45835</v>
+        <v>45782</v>
       </c>
       <c r="H14" s="21">
         <v>45658</v>
@@ -2413,11 +2420,11 @@
       <c r="J14" s="22"/>
       <c r="K14" s="23">
         <f t="shared" si="2"/>
-        <v>45838</v>
+        <v>45783</v>
       </c>
       <c r="L14" s="19">
         <f t="shared" si="3"/>
-        <v>45860</v>
+        <v>45805</v>
       </c>
       <c r="M14" s="31">
         <v>45817</v>
@@ -2428,11 +2435,11 @@
       <c r="O14" s="22"/>
       <c r="P14" s="23">
         <f t="shared" si="4"/>
-        <v>45861</v>
+        <v>45806</v>
       </c>
       <c r="Q14" s="19">
         <f t="shared" si="10"/>
-        <v>45968</v>
+        <v>45915</v>
       </c>
       <c r="R14" s="28">
         <f t="shared" si="5"/>
@@ -2445,11 +2452,11 @@
       <c r="T14" s="22"/>
       <c r="U14" s="23">
         <f t="shared" si="6"/>
-        <v>45861</v>
+        <v>45806</v>
       </c>
       <c r="V14" s="19">
         <f t="shared" si="12"/>
-        <v>45968</v>
+        <v>45915</v>
       </c>
       <c r="W14" s="28">
         <f t="shared" si="13"/>
@@ -2462,11 +2469,11 @@
       <c r="Y14" s="22"/>
       <c r="Z14" s="23">
         <f t="shared" si="15"/>
-        <v>45971</v>
+        <v>45916</v>
       </c>
       <c r="AA14" s="19">
         <f t="shared" si="16"/>
-        <v>45989</v>
+        <v>45936</v>
       </c>
       <c r="AB14" s="28">
         <f t="shared" si="17"/>
@@ -2478,10 +2485,10 @@
       </c>
       <c r="AD14" s="22"/>
       <c r="AE14" s="23">
-        <v>45992</v>
+        <v>45937</v>
       </c>
       <c r="AF14" s="25">
-        <v>45992</v>
+        <v>45964</v>
       </c>
       <c r="AG14" s="28">
         <f t="shared" si="7"/>
@@ -2494,11 +2501,11 @@
       <c r="AI14" s="22"/>
       <c r="AJ14" s="23">
         <f t="shared" si="20"/>
-        <v>45993</v>
+        <v>45965</v>
       </c>
       <c r="AK14" s="19">
         <f t="shared" si="21"/>
-        <v>46013</v>
+        <v>45985</v>
       </c>
       <c r="AL14" s="28">
         <f t="shared" si="22"/>
@@ -2510,7 +2517,7 @@
       </c>
       <c r="AN14" s="17">
         <f t="shared" si="8"/>
-        <v>-12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
@@ -2528,11 +2535,11 @@
       </c>
       <c r="F15" s="19">
         <f t="shared" si="0"/>
-        <v>45785</v>
+        <v>45758</v>
       </c>
       <c r="G15" s="20">
         <f t="shared" si="9"/>
-        <v>45807</v>
+        <v>45782</v>
       </c>
       <c r="H15" s="21">
         <v>45658</v>
@@ -2544,11 +2551,11 @@
       <c r="J15" s="22"/>
       <c r="K15" s="23">
         <f t="shared" si="2"/>
-        <v>45810</v>
+        <v>45783</v>
       </c>
       <c r="L15" s="19">
         <f t="shared" si="3"/>
-        <v>45832</v>
+        <v>45805</v>
       </c>
       <c r="M15" s="24">
         <v>45767</v>
@@ -2559,11 +2566,11 @@
       <c r="O15" s="22"/>
       <c r="P15" s="23">
         <f t="shared" si="4"/>
-        <v>45833</v>
+        <v>45806</v>
       </c>
       <c r="Q15" s="19">
         <f t="shared" si="10"/>
-        <v>45940</v>
+        <v>45915</v>
       </c>
       <c r="R15" s="28">
         <f t="shared" si="5"/>
@@ -2576,11 +2583,11 @@
       <c r="T15" s="22"/>
       <c r="U15" s="23">
         <f t="shared" si="6"/>
-        <v>45833</v>
+        <v>45806</v>
       </c>
       <c r="V15" s="19">
         <f t="shared" si="12"/>
-        <v>45940</v>
+        <v>45915</v>
       </c>
       <c r="W15" s="28">
         <f t="shared" si="13"/>
@@ -2593,11 +2600,11 @@
       <c r="Y15" s="22"/>
       <c r="Z15" s="23">
         <f t="shared" si="15"/>
-        <v>45943</v>
+        <v>45916</v>
       </c>
       <c r="AA15" s="19">
         <f t="shared" si="16"/>
-        <v>45961</v>
+        <v>45936</v>
       </c>
       <c r="AB15" s="28">
         <f t="shared" si="17"/>
@@ -2609,10 +2616,10 @@
       </c>
       <c r="AD15" s="22"/>
       <c r="AE15" s="23">
-        <v>45962</v>
+        <v>45937</v>
       </c>
       <c r="AF15" s="25">
-        <v>45992</v>
+        <v>45964</v>
       </c>
       <c r="AG15" s="28">
         <f t="shared" si="7"/>
@@ -2625,11 +2632,11 @@
       <c r="AI15" s="22"/>
       <c r="AJ15" s="23">
         <f t="shared" si="20"/>
-        <v>45993</v>
+        <v>45965</v>
       </c>
       <c r="AK15" s="19">
         <f t="shared" si="21"/>
-        <v>46013</v>
+        <v>45985</v>
       </c>
       <c r="AL15" s="28">
         <f t="shared" si="22"/>
@@ -2641,7 +2648,7 @@
       </c>
       <c r="AN15" s="17">
         <f t="shared" si="8"/>
-        <v>-26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
@@ -2659,33 +2666,33 @@
       </c>
       <c r="F16" s="19">
         <f t="shared" si="0"/>
-        <v>45754</v>
+        <v>45786</v>
       </c>
       <c r="G16" s="20">
         <f t="shared" si="9"/>
-        <v>45776</v>
+        <v>45810</v>
       </c>
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
       <c r="J16" s="22"/>
       <c r="K16" s="23">
         <f t="shared" si="2"/>
-        <v>45777</v>
+        <v>45811</v>
       </c>
       <c r="L16" s="19">
         <f t="shared" si="3"/>
-        <v>45799</v>
+        <v>45833</v>
       </c>
       <c r="M16" s="34"/>
       <c r="N16" s="33"/>
       <c r="O16" s="22"/>
       <c r="P16" s="23">
         <f t="shared" si="4"/>
-        <v>45800</v>
+        <v>45834</v>
       </c>
       <c r="Q16" s="19">
         <f t="shared" si="10"/>
-        <v>45909</v>
+        <v>45943</v>
       </c>
       <c r="R16" s="28">
         <f t="shared" si="5"/>
@@ -2698,11 +2705,11 @@
       <c r="T16" s="22"/>
       <c r="U16" s="23">
         <f t="shared" si="6"/>
-        <v>45800</v>
+        <v>45834</v>
       </c>
       <c r="V16" s="19">
         <f t="shared" si="12"/>
-        <v>45909</v>
+        <v>45943</v>
       </c>
       <c r="W16" s="28">
         <f t="shared" si="13"/>
@@ -2715,11 +2722,11 @@
       <c r="Y16" s="22"/>
       <c r="Z16" s="23">
         <f t="shared" si="15"/>
-        <v>45910</v>
+        <v>45944</v>
       </c>
       <c r="AA16" s="19">
         <f t="shared" si="16"/>
-        <v>45930</v>
+        <v>45964</v>
       </c>
       <c r="AB16" s="28">
         <f t="shared" si="17"/>
@@ -2731,7 +2738,7 @@
       </c>
       <c r="AD16" s="22"/>
       <c r="AE16" s="23">
-        <v>45931</v>
+        <v>45965</v>
       </c>
       <c r="AF16" s="35">
         <v>45992</v>
@@ -2781,33 +2788,33 @@
       </c>
       <c r="F17" s="19">
         <f t="shared" si="0"/>
-        <v>45876</v>
+        <v>45819</v>
       </c>
       <c r="G17" s="20">
         <f t="shared" si="9"/>
-        <v>45898</v>
+        <v>45841</v>
       </c>
       <c r="H17" s="33"/>
       <c r="I17" s="33"/>
       <c r="J17" s="22"/>
       <c r="K17" s="23">
         <f t="shared" si="2"/>
-        <v>45901</v>
+        <v>45842</v>
       </c>
       <c r="L17" s="19">
         <f t="shared" si="3"/>
-        <v>45923</v>
+        <v>45866</v>
       </c>
       <c r="M17" s="34"/>
       <c r="N17" s="33"/>
       <c r="O17" s="22"/>
       <c r="P17" s="23">
         <f t="shared" si="4"/>
-        <v>45924</v>
+        <v>45867</v>
       </c>
       <c r="Q17" s="19">
         <f t="shared" si="10"/>
-        <v>46031</v>
+        <v>45974</v>
       </c>
       <c r="R17" s="28">
         <f t="shared" si="5"/>
@@ -2820,11 +2827,11 @@
       <c r="T17" s="22"/>
       <c r="U17" s="23">
         <f t="shared" si="6"/>
-        <v>45924</v>
+        <v>45867</v>
       </c>
       <c r="V17" s="19">
         <f t="shared" si="12"/>
-        <v>46031</v>
+        <v>45974</v>
       </c>
       <c r="W17" s="28">
         <f t="shared" si="13"/>
@@ -2837,11 +2844,11 @@
       <c r="Y17" s="22"/>
       <c r="Z17" s="23">
         <f t="shared" si="15"/>
-        <v>46034</v>
+        <v>45975</v>
       </c>
       <c r="AA17" s="19">
         <f t="shared" si="16"/>
-        <v>46052</v>
+        <v>45995</v>
       </c>
       <c r="AB17" s="28">
         <f t="shared" si="17"/>
@@ -2853,9 +2860,11 @@
       </c>
       <c r="AD17" s="22"/>
       <c r="AE17" s="23">
-        <v>46054</v>
-      </c>
-      <c r="AF17" s="37"/>
+        <v>45996</v>
+      </c>
+      <c r="AF17" s="37">
+        <v>46023</v>
+      </c>
       <c r="AG17" s="28">
         <f t="shared" si="7"/>
         <v>131</v>
@@ -2867,11 +2876,11 @@
       <c r="AI17" s="22"/>
       <c r="AJ17" s="23">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>46024</v>
       </c>
       <c r="AK17" s="19">
         <f t="shared" si="21"/>
-        <v>20</v>
+        <v>46044</v>
       </c>
       <c r="AL17" s="28">
         <f t="shared" si="22"/>
@@ -2883,7 +2892,7 @@
       </c>
       <c r="AN17" s="17">
         <f t="shared" si="8"/>
-        <v>152</v>
+        <v>-45872</v>
       </c>
     </row>
     <row r="18" spans="2:40" x14ac:dyDescent="0.25">
@@ -2901,33 +2910,33 @@
       </c>
       <c r="F18" s="19">
         <f t="shared" si="0"/>
-        <v>45846</v>
+        <v>45819</v>
       </c>
       <c r="G18" s="20">
         <f t="shared" si="9"/>
-        <v>45868</v>
+        <v>45841</v>
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
       <c r="J18" s="22"/>
       <c r="K18" s="23">
         <f t="shared" si="2"/>
-        <v>45869</v>
+        <v>45842</v>
       </c>
       <c r="L18" s="19">
         <f t="shared" si="3"/>
-        <v>45891</v>
+        <v>45866</v>
       </c>
       <c r="M18" s="34"/>
       <c r="N18" s="33"/>
       <c r="O18" s="22"/>
       <c r="P18" s="23">
         <f t="shared" si="4"/>
-        <v>45894</v>
+        <v>45867</v>
       </c>
       <c r="Q18" s="19">
         <f t="shared" si="10"/>
-        <v>46001</v>
+        <v>45974</v>
       </c>
       <c r="R18" s="28">
         <f t="shared" si="5"/>
@@ -2940,11 +2949,11 @@
       <c r="T18" s="22"/>
       <c r="U18" s="23">
         <f t="shared" si="6"/>
-        <v>45894</v>
+        <v>45867</v>
       </c>
       <c r="V18" s="19">
         <f t="shared" si="12"/>
-        <v>46001</v>
+        <v>45974</v>
       </c>
       <c r="W18" s="28">
         <f t="shared" si="13"/>
@@ -2957,11 +2966,11 @@
       <c r="Y18" s="22"/>
       <c r="Z18" s="23">
         <f t="shared" si="15"/>
-        <v>46002</v>
+        <v>45975</v>
       </c>
       <c r="AA18" s="19">
         <f t="shared" si="16"/>
-        <v>46022</v>
+        <v>45995</v>
       </c>
       <c r="AB18" s="28">
         <f t="shared" si="17"/>
@@ -2973,9 +2982,11 @@
       </c>
       <c r="AD18" s="22"/>
       <c r="AE18" s="23">
+        <v>45996</v>
+      </c>
+      <c r="AF18" s="37">
         <v>46023</v>
       </c>
-      <c r="AF18" s="37"/>
       <c r="AG18" s="28">
         <f t="shared" si="7"/>
         <v>131</v>
@@ -2987,11 +2998,11 @@
       <c r="AI18" s="22"/>
       <c r="AJ18" s="23">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>46024</v>
       </c>
       <c r="AK18" s="19">
         <f t="shared" si="21"/>
-        <v>20</v>
+        <v>46044</v>
       </c>
       <c r="AL18" s="28">
         <f t="shared" si="22"/>
@@ -3003,7 +3014,7 @@
       </c>
       <c r="AN18" s="17">
         <f t="shared" si="8"/>
-        <v>152</v>
+        <v>-45872</v>
       </c>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.25">
@@ -3021,33 +3032,33 @@
       </c>
       <c r="F19" s="19">
         <f t="shared" si="0"/>
-        <v>45904</v>
+        <v>45849</v>
       </c>
       <c r="G19" s="20">
         <f t="shared" si="9"/>
-        <v>45926</v>
+        <v>45873</v>
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="33"/>
       <c r="J19" s="22"/>
       <c r="K19" s="23">
         <f t="shared" si="2"/>
-        <v>45929</v>
+        <v>45874</v>
       </c>
       <c r="L19" s="19">
         <f t="shared" si="3"/>
-        <v>45951</v>
+        <v>45896</v>
       </c>
       <c r="M19" s="34"/>
       <c r="N19" s="33"/>
       <c r="O19" s="22"/>
       <c r="P19" s="23">
         <f t="shared" si="4"/>
-        <v>45952</v>
+        <v>45897</v>
       </c>
       <c r="Q19" s="19">
         <f t="shared" si="10"/>
-        <v>46059</v>
+        <v>46006</v>
       </c>
       <c r="R19" s="28">
         <f t="shared" si="5"/>
@@ -3060,11 +3071,11 @@
       <c r="T19" s="22"/>
       <c r="U19" s="23">
         <f t="shared" si="6"/>
-        <v>45952</v>
+        <v>45897</v>
       </c>
       <c r="V19" s="19">
         <f t="shared" si="12"/>
-        <v>46059</v>
+        <v>46006</v>
       </c>
       <c r="W19" s="28">
         <f t="shared" si="13"/>
@@ -3077,11 +3088,11 @@
       <c r="Y19" s="22"/>
       <c r="Z19" s="23">
         <f t="shared" si="15"/>
-        <v>46062</v>
+        <v>46007</v>
       </c>
       <c r="AA19" s="19">
         <f t="shared" si="16"/>
-        <v>46080</v>
+        <v>46027</v>
       </c>
       <c r="AB19" s="28">
         <f t="shared" si="17"/>
@@ -3093,9 +3104,11 @@
       </c>
       <c r="AD19" s="22"/>
       <c r="AE19" s="23">
-        <v>46082</v>
-      </c>
-      <c r="AF19" s="37"/>
+        <v>46028</v>
+      </c>
+      <c r="AF19" s="37">
+        <v>46054</v>
+      </c>
       <c r="AG19" s="28">
         <f t="shared" si="7"/>
         <v>131</v>
@@ -3107,11 +3120,11 @@
       <c r="AI19" s="22"/>
       <c r="AJ19" s="23">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>46055</v>
       </c>
       <c r="AK19" s="19">
         <f t="shared" si="21"/>
-        <v>20</v>
+        <v>46073</v>
       </c>
       <c r="AL19" s="28">
         <f t="shared" si="22"/>
@@ -3123,7 +3136,7 @@
       </c>
       <c r="AN19" s="17">
         <f t="shared" si="8"/>
-        <v>152</v>
+        <v>-45901</v>
       </c>
     </row>
     <row r="20" spans="2:40" x14ac:dyDescent="0.25">
@@ -3141,33 +3154,33 @@
       </c>
       <c r="F20" s="19">
         <f t="shared" si="0"/>
-        <v>45936</v>
+        <v>45877</v>
       </c>
       <c r="G20" s="20">
         <f t="shared" si="9"/>
-        <v>45958</v>
+        <v>45901</v>
       </c>
       <c r="H20" s="33"/>
       <c r="I20" s="33"/>
       <c r="J20" s="22"/>
       <c r="K20" s="23">
         <f t="shared" si="2"/>
-        <v>45959</v>
+        <v>45902</v>
       </c>
       <c r="L20" s="19">
         <f t="shared" si="3"/>
-        <v>45981</v>
+        <v>45924</v>
       </c>
       <c r="M20" s="34"/>
       <c r="N20" s="33"/>
       <c r="O20" s="22"/>
       <c r="P20" s="23">
         <f t="shared" si="4"/>
-        <v>45982</v>
+        <v>45925</v>
       </c>
       <c r="Q20" s="19">
         <f t="shared" si="10"/>
-        <v>46091</v>
+        <v>46034</v>
       </c>
       <c r="R20" s="28">
         <f t="shared" si="5"/>
@@ -3180,11 +3193,11 @@
       <c r="T20" s="22"/>
       <c r="U20" s="23">
         <f t="shared" si="6"/>
-        <v>45982</v>
+        <v>45925</v>
       </c>
       <c r="V20" s="19">
         <f t="shared" si="12"/>
-        <v>46091</v>
+        <v>46034</v>
       </c>
       <c r="W20" s="28">
         <f t="shared" si="13"/>
@@ -3197,11 +3210,11 @@
       <c r="Y20" s="22"/>
       <c r="Z20" s="23">
         <f t="shared" si="15"/>
-        <v>46092</v>
+        <v>46035</v>
       </c>
       <c r="AA20" s="19">
         <f t="shared" si="16"/>
-        <v>46112</v>
+        <v>46055</v>
       </c>
       <c r="AB20" s="28">
         <f t="shared" si="17"/>
@@ -3213,9 +3226,11 @@
       </c>
       <c r="AD20" s="22"/>
       <c r="AE20" s="23">
-        <v>46113</v>
-      </c>
-      <c r="AF20" s="37"/>
+        <v>46056</v>
+      </c>
+      <c r="AF20" s="37">
+        <v>46082</v>
+      </c>
       <c r="AG20" s="28">
         <f t="shared" si="7"/>
         <v>131</v>
@@ -3227,11 +3242,11 @@
       <c r="AI20" s="22"/>
       <c r="AJ20" s="23">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>46083</v>
       </c>
       <c r="AK20" s="19">
         <f t="shared" si="21"/>
-        <v>20</v>
+        <v>46101</v>
       </c>
       <c r="AL20" s="28">
         <f t="shared" si="22"/>
@@ -3243,8 +3258,11 @@
       </c>
       <c r="AN20" s="17">
         <f t="shared" si="8"/>
-        <v>152</v>
-      </c>
+        <v>-45929</v>
+      </c>
+    </row>
+    <row r="22" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AJ22" s="43"/>
     </row>
     <row r="27" spans="2:40" x14ac:dyDescent="0.25">
       <c r="AG27" s="38"/>
@@ -3269,6 +3287,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/BASE - VENDA E REGISTRO.xlsx
+++ b/BASE - VENDA E REGISTRO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viana e Moura\Dropbox\PLANEJAMENTO\Scripts\MÓDULO VENDAS\MODULO_VENDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F61A6DA-EBC8-430B-9D36-228B854E8C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189EE78D-5A13-4745-9521-13F111BB00FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0382C43D-564D-4A4C-8EAB-6952E70C6A7B}"/>
   </bookViews>
@@ -38,22 +38,22 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={4384166C-EB2A-4BDF-9716-77B97E84826D}</author>
-    <author>tc={05773916-F138-49C5-9901-5756AC6E6C87}</author>
-    <author>tc={886B6C7A-9F23-4BB8-BEBB-BC6AFF7AF17B}</author>
-    <author>tc={4345F223-4F6C-4072-BEB1-ED4C6C699895}</author>
-    <author>tc={AC7663CD-7695-42F1-8760-507675ED2765}</author>
-    <author>tc={D5518F03-6E84-4476-A65B-11580FDEB27D}</author>
-    <author>tc={3BE8970A-F640-4F06-BFB6-DFC4884D0F79}</author>
-    <author>tc={AD7B5DDD-397C-4241-B263-BFC9EA09B775}</author>
-    <author>tc={F0438435-01F1-412E-B8D4-41A553D7EE9D}</author>
-    <author>tc={474AE626-BDF1-4FB2-879A-A1B26C0B4F4B}</author>
-    <author>tc={2ED57AA0-BF74-4B7F-90EF-DB946F6E643A}</author>
-    <author>tc={B9B60954-86CE-4A90-B859-09043F7F3789}</author>
-    <author>tc={31F43E9F-4424-42AE-B48E-43A4AA1036E7}</author>
+    <author>tc={C911A1CC-AEAC-49BE-8105-884EF8529DDD}</author>
+    <author>tc={B3CC61C4-8462-4C8B-ACAD-1ED961005EAE}</author>
+    <author>tc={57A877C1-7C92-4C88-BC52-C22A218BCE5C}</author>
+    <author>tc={724F9BDD-1A5F-4D31-9141-82808955489C}</author>
+    <author>tc={07DD4579-01DE-4592-A2E9-9C9F08EDBAC8}</author>
+    <author>tc={8293BAA2-4413-40A4-8BEB-6558A49858DC}</author>
+    <author>tc={0EDE84FB-276E-4E0F-A8BA-6E87B9F0D27D}</author>
+    <author>tc={74000C8F-2D3A-4FFE-919A-2A6536983C2E}</author>
+    <author>tc={FA2E2D81-AED1-47D1-AD38-E7D523ADBFC6}</author>
+    <author>tc={9789D022-FB90-4C0D-922B-2CA42AE79280}</author>
+    <author>tc={F6102217-BFBD-4737-A324-1F048E9188A6}</author>
+    <author>tc={0937FE71-82AB-4E69-B19E-91F226F3D5ED}</author>
+    <author>tc={6C385ECE-9902-4954-928B-11E28070C567}</author>
   </authors>
   <commentList>
-    <comment ref="AF8" authorId="0" shapeId="0" xr:uid="{4384166C-EB2A-4BDF-9716-77B97E84826D}">
+    <comment ref="AF8" authorId="0" shapeId="0" xr:uid="{C911A1CC-AEAC-49BE-8105-884EF8529DDD}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -62,7 +62,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF9" authorId="1" shapeId="0" xr:uid="{05773916-F138-49C5-9901-5756AC6E6C87}">
+    <comment ref="AF9" authorId="1" shapeId="0" xr:uid="{B3CC61C4-8462-4C8B-ACAD-1ED961005EAE}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -71,7 +71,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF10" authorId="2" shapeId="0" xr:uid="{886B6C7A-9F23-4BB8-BEBB-BC6AFF7AF17B}">
+    <comment ref="AF10" authorId="2" shapeId="0" xr:uid="{57A877C1-7C92-4C88-BC52-C22A218BCE5C}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -80,7 +80,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF11" authorId="3" shapeId="0" xr:uid="{4345F223-4F6C-4072-BEB1-ED4C6C699895}">
+    <comment ref="AF11" authorId="3" shapeId="0" xr:uid="{724F9BDD-1A5F-4D31-9141-82808955489C}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -89,7 +89,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF12" authorId="4" shapeId="0" xr:uid="{AC7663CD-7695-42F1-8760-507675ED2765}">
+    <comment ref="AF12" authorId="4" shapeId="0" xr:uid="{07DD4579-01DE-4592-A2E9-9C9F08EDBAC8}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -98,7 +98,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF13" authorId="5" shapeId="0" xr:uid="{D5518F03-6E84-4476-A65B-11580FDEB27D}">
+    <comment ref="AF13" authorId="5" shapeId="0" xr:uid="{8293BAA2-4413-40A4-8BEB-6558A49858DC}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -107,7 +107,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF14" authorId="6" shapeId="0" xr:uid="{3BE8970A-F640-4F06-BFB6-DFC4884D0F79}">
+    <comment ref="AF14" authorId="6" shapeId="0" xr:uid="{0EDE84FB-276E-4E0F-A8BA-6E87B9F0D27D}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -116,7 +116,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF15" authorId="7" shapeId="0" xr:uid="{AD7B5DDD-397C-4241-B263-BFC9EA09B775}">
+    <comment ref="AF15" authorId="7" shapeId="0" xr:uid="{74000C8F-2D3A-4FFE-919A-2A6536983C2E}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -125,7 +125,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF16" authorId="8" shapeId="0" xr:uid="{F0438435-01F1-412E-B8D4-41A553D7EE9D}">
+    <comment ref="AF16" authorId="8" shapeId="0" xr:uid="{FA2E2D81-AED1-47D1-AD38-E7D523ADBFC6}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -134,7 +134,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF17" authorId="9" shapeId="0" xr:uid="{474AE626-BDF1-4FB2-879A-A1B26C0B4F4B}">
+    <comment ref="AF17" authorId="9" shapeId="0" xr:uid="{9789D022-FB90-4C0D-922B-2CA42AE79280}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -143,7 +143,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF18" authorId="10" shapeId="0" xr:uid="{2ED57AA0-BF74-4B7F-90EF-DB946F6E643A}">
+    <comment ref="AF18" authorId="10" shapeId="0" xr:uid="{F6102217-BFBD-4737-A324-1F048E9188A6}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -152,7 +152,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF19" authorId="11" shapeId="0" xr:uid="{B9B60954-86CE-4A90-B859-09043F7F3789}">
+    <comment ref="AF19" authorId="11" shapeId="0" xr:uid="{0937FE71-82AB-4E69-B19E-91F226F3D5ED}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -161,7 +161,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF20" authorId="12" shapeId="0" xr:uid="{31F43E9F-4424-42AE-B48E-43A4AA1036E7}">
+    <comment ref="AF20" authorId="12" shapeId="0" xr:uid="{6C385ECE-9902-4954-928B-11E28070C567}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -395,7 +395,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,6 +502,13 @@
       <name val="Segoe UI"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -548,12 +555,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -566,7 +567,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -724,61 +731,67 @@
     <xf numFmtId="14" fontId="2" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="10" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1137,55 +1150,55 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AF8" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{4384166C-EB2A-4BDF-9716-77B97E84826D}">
+  <threadedComment ref="AF8" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{C911A1CC-AEAC-49BE-8105-884EF8529DDD}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF9" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{05773916-F138-49C5-9901-5756AC6E6C87}">
+  <threadedComment ref="AF9" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{B3CC61C4-8462-4C8B-ACAD-1ED961005EAE}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF10" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{886B6C7A-9F23-4BB8-BEBB-BC6AFF7AF17B}">
+  <threadedComment ref="AF10" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{57A877C1-7C92-4C88-BC52-C22A218BCE5C}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF11" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{4345F223-4F6C-4072-BEB1-ED4C6C699895}">
+  <threadedComment ref="AF11" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{724F9BDD-1A5F-4D31-9141-82808955489C}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF12" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{AC7663CD-7695-42F1-8760-507675ED2765}">
+  <threadedComment ref="AF12" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{07DD4579-01DE-4592-A2E9-9C9F08EDBAC8}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF13" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{D5518F03-6E84-4476-A65B-11580FDEB27D}">
+  <threadedComment ref="AF13" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{8293BAA2-4413-40A4-8BEB-6558A49858DC}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF14" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{3BE8970A-F640-4F06-BFB6-DFC4884D0F79}">
+  <threadedComment ref="AF14" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{0EDE84FB-276E-4E0F-A8BA-6E87B9F0D27D}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF15" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{AD7B5DDD-397C-4241-B263-BFC9EA09B775}">
+  <threadedComment ref="AF15" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{74000C8F-2D3A-4FFE-919A-2A6536983C2E}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF16" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{F0438435-01F1-412E-B8D4-41A553D7EE9D}">
+  <threadedComment ref="AF16" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{FA2E2D81-AED1-47D1-AD38-E7D523ADBFC6}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF17" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{474AE626-BDF1-4FB2-879A-A1B26C0B4F4B}">
+  <threadedComment ref="AF17" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{9789D022-FB90-4C0D-922B-2CA42AE79280}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF18" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{2ED57AA0-BF74-4B7F-90EF-DB946F6E643A}">
+  <threadedComment ref="AF18" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{F6102217-BFBD-4737-A324-1F048E9188A6}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF19" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{B9B60954-86CE-4A90-B859-09043F7F3789}">
+  <threadedComment ref="AF19" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{0937FE71-82AB-4E69-B19E-91F226F3D5ED}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF20" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{31F43E9F-4424-42AE-B48E-43A4AA1036E7}">
+  <threadedComment ref="AF20" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{6C385ECE-9902-4954-928B-11E28070C567}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
@@ -1196,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DB70CC-ACBF-416D-B448-0645472647BA}">
   <dimension ref="A2:AN27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AJ22" sqref="AJ22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF17" sqref="AF17:AF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="10.8" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1268,54 +1281,54 @@
     </row>
     <row r="3" spans="1:40" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="K3" s="39" t="s">
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="K3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="P3" s="42" t="s">
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="P3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="U3" s="39" t="s">
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="U3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Z3" s="39" t="s">
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Z3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AE3" s="39" t="s">
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AE3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="40"/>
-      <c r="AJ3" s="39" t="s">
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="38"/>
+      <c r="AJ3" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="40"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="38"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -1626,11 +1639,11 @@
       </c>
       <c r="F8" s="19">
         <f t="shared" ref="F8:F20" si="0">IFERROR(WORKDAY(G8,(-$I$2+1)),"-")</f>
-        <v>45456</v>
+        <v>45660</v>
       </c>
       <c r="G8" s="20">
         <f>IFERROR(WORKDAY(K8,-1),"-")</f>
-        <v>45478</v>
+        <v>45684</v>
       </c>
       <c r="H8" s="21">
         <v>45658</v>
@@ -1642,11 +1655,11 @@
       <c r="J8" s="22"/>
       <c r="K8" s="23">
         <f t="shared" ref="K8:K20" si="2">IFERROR(WORKDAY(L8,(-$N$2+1)),"-")</f>
-        <v>45481</v>
+        <v>45685</v>
       </c>
       <c r="L8" s="19">
         <f t="shared" ref="L8:L20" si="3">IFERROR(WORKDAY(P8,-1),"-")</f>
-        <v>45503</v>
+        <v>45707</v>
       </c>
       <c r="M8" s="24">
         <v>45687</v>
@@ -1657,11 +1670,11 @@
       <c r="O8" s="22"/>
       <c r="P8" s="23">
         <f t="shared" ref="P8:P20" si="4">IFERROR(WORKDAY(Q8,(-$S$2+1)),"-")</f>
-        <v>45504</v>
+        <v>45708</v>
       </c>
       <c r="Q8" s="19">
         <f>IFERROR(WORKDAY(Z8,-1),"-")</f>
-        <v>45611</v>
+        <v>45817</v>
       </c>
       <c r="R8" s="24">
         <f t="shared" ref="R8:R20" si="5">WORKDAY.INTL(N8,1)</f>
@@ -1673,11 +1686,11 @@
       <c r="T8" s="22"/>
       <c r="U8" s="23">
         <f t="shared" ref="U8:U20" si="6">IFERROR(WORKDAY(V8,(-$X$2+1)),"-")</f>
-        <v>45504</v>
+        <v>45708</v>
       </c>
       <c r="V8" s="19">
         <f>IFERROR(WORKDAY(Z8,-1),"-")</f>
-        <v>45611</v>
+        <v>45817</v>
       </c>
       <c r="W8" s="24">
         <v>45537</v>
@@ -1688,11 +1701,11 @@
       <c r="Y8" s="22"/>
       <c r="Z8" s="23">
         <f>IFERROR(WORKDAY(AA8,(-$AC$2+1)),"-")</f>
-        <v>45614</v>
+        <v>45818</v>
       </c>
       <c r="AA8" s="19">
         <f>IFERROR(WORKDAY(AE8,-1),"-")</f>
-        <v>45632</v>
+        <v>45838</v>
       </c>
       <c r="AB8" s="24">
         <v>45800</v>
@@ -1701,37 +1714,37 @@
         <v>45800</v>
       </c>
       <c r="AD8" s="22"/>
-      <c r="AE8" s="23">
-        <v>45635</v>
-      </c>
-      <c r="AF8" s="25">
-        <v>45660</v>
-      </c>
-      <c r="AG8" s="26">
+      <c r="AE8" s="41">
+        <v>45839</v>
+      </c>
+      <c r="AF8" s="20">
+        <v>45992</v>
+      </c>
+      <c r="AG8" s="25">
         <f t="shared" ref="AG8:AG20" si="7">WORKDAY.INTL(AC8,1)</f>
         <v>45803</v>
       </c>
-      <c r="AH8" s="27">
+      <c r="AH8" s="26">
         <v>45834</v>
       </c>
       <c r="AI8" s="22"/>
       <c r="AJ8" s="23">
         <f>IFERROR(WORKDAY(AF8,1),"-")</f>
-        <v>45663</v>
+        <v>45993</v>
       </c>
       <c r="AK8" s="19">
         <f>IFERROR(WORKDAY(AJ8,($AM$2-1)),"-")</f>
-        <v>45681</v>
-      </c>
-      <c r="AL8" s="26">
+        <v>46013</v>
+      </c>
+      <c r="AL8" s="25">
         <v>45800</v>
       </c>
-      <c r="AM8" s="27">
+      <c r="AM8" s="26">
         <v>45800</v>
       </c>
       <c r="AN8" s="17">
         <f t="shared" ref="AN8:AN20" si="8">IFERROR(AM8-AK8,"-")</f>
-        <v>119</v>
+        <v>-213</v>
       </c>
     </row>
     <row r="9" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1749,11 +1762,11 @@
       </c>
       <c r="F9" s="19">
         <f t="shared" si="0"/>
-        <v>45635</v>
+        <v>45660</v>
       </c>
       <c r="G9" s="20">
         <f t="shared" ref="G9:G20" si="9">IFERROR(WORKDAY(K9,-1),"-")</f>
-        <v>45657</v>
+        <v>45684</v>
       </c>
       <c r="H9" s="21">
         <v>45658</v>
@@ -1765,11 +1778,11 @@
       <c r="J9" s="22"/>
       <c r="K9" s="23">
         <f t="shared" si="2"/>
-        <v>45658</v>
+        <v>45685</v>
       </c>
       <c r="L9" s="19">
         <f t="shared" si="3"/>
-        <v>45680</v>
+        <v>45707</v>
       </c>
       <c r="M9" s="24">
         <v>45663</v>
@@ -1780,89 +1793,89 @@
       <c r="O9" s="22"/>
       <c r="P9" s="23">
         <f t="shared" si="4"/>
-        <v>45681</v>
+        <v>45708</v>
       </c>
       <c r="Q9" s="19">
         <f t="shared" ref="Q9:Q20" si="10">IFERROR(WORKDAY(Z9,-1),"-")</f>
-        <v>45790</v>
-      </c>
-      <c r="R9" s="28">
+        <v>45817</v>
+      </c>
+      <c r="R9" s="27">
         <f t="shared" si="5"/>
         <v>45684</v>
       </c>
-      <c r="S9" s="29">
+      <c r="S9" s="28">
         <f t="shared" ref="S9:S20" si="11">WORKDAY(R9,$S$2-1)</f>
         <v>45791</v>
       </c>
       <c r="T9" s="22"/>
       <c r="U9" s="23">
         <f t="shared" si="6"/>
-        <v>45681</v>
+        <v>45708</v>
       </c>
       <c r="V9" s="19">
         <f t="shared" ref="V9:V20" si="12">IFERROR(WORKDAY(Z9,-1),"-")</f>
-        <v>45790</v>
-      </c>
-      <c r="W9" s="28">
+        <v>45817</v>
+      </c>
+      <c r="W9" s="27">
         <f t="shared" ref="W9:W20" si="13">WORKDAY.INTL(N9,1)</f>
         <v>45684</v>
       </c>
-      <c r="X9" s="29">
+      <c r="X9" s="28">
         <f t="shared" ref="X9:X20" si="14">WORKDAY(W9,$X$2-1)</f>
         <v>45791</v>
       </c>
       <c r="Y9" s="22"/>
       <c r="Z9" s="23">
         <f t="shared" ref="Z9:Z20" si="15">IFERROR(WORKDAY(AA9,(-$AC$2+1)),"-")</f>
-        <v>45791</v>
+        <v>45818</v>
       </c>
       <c r="AA9" s="19">
         <f t="shared" ref="AA9:AA20" si="16">IFERROR(WORKDAY(AE9,-1),"-")</f>
-        <v>45811</v>
-      </c>
-      <c r="AB9" s="28">
+        <v>45838</v>
+      </c>
+      <c r="AB9" s="27">
         <f t="shared" ref="AB9:AB20" si="17">WORKDAY.INTL(X9,1)</f>
         <v>45792</v>
       </c>
-      <c r="AC9" s="29">
+      <c r="AC9" s="28">
         <f t="shared" ref="AC9:AC20" si="18">WORKDAY(AB9,$AC$2-1)</f>
         <v>45812</v>
       </c>
       <c r="AD9" s="22"/>
-      <c r="AE9" s="23">
-        <v>45812</v>
-      </c>
-      <c r="AF9" s="25">
+      <c r="AE9" s="41">
         <v>45839</v>
       </c>
-      <c r="AG9" s="28">
+      <c r="AF9" s="42">
+        <v>45901</v>
+      </c>
+      <c r="AG9" s="27">
         <f t="shared" si="7"/>
         <v>45813</v>
       </c>
-      <c r="AH9" s="29">
+      <c r="AH9" s="28">
         <f t="shared" ref="AH9:AH20" si="19">IFERROR(WORKDAY(AC9,($AM$2)),"-")</f>
         <v>45833</v>
       </c>
       <c r="AI9" s="22"/>
       <c r="AJ9" s="23">
         <f t="shared" ref="AJ9:AJ20" si="20">IFERROR(WORKDAY(AF9,1),"-")</f>
-        <v>45840</v>
+        <v>45902</v>
       </c>
       <c r="AK9" s="19">
         <f t="shared" ref="AK9:AK20" si="21">IFERROR(WORKDAY(AJ9,($AM$2-1)),"-")</f>
-        <v>45860</v>
-      </c>
-      <c r="AL9" s="28">
+        <v>45922</v>
+      </c>
+      <c r="AL9" s="27">
         <f t="shared" ref="AL9:AL20" si="22">WORKDAY.INTL(AH9,1)</f>
         <v>45834</v>
       </c>
-      <c r="AM9" s="29">
+      <c r="AM9" s="28">
         <f t="shared" ref="AM9:AM20" si="23">WORKDAY(AL9,$AC$2-1)</f>
         <v>45854</v>
       </c>
       <c r="AN9" s="17">
         <f t="shared" si="8"/>
-        <v>-6</v>
+        <v>-68</v>
       </c>
     </row>
     <row r="10" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1880,11 +1893,11 @@
       </c>
       <c r="F10" s="19">
         <f t="shared" si="0"/>
-        <v>45666</v>
+        <v>45722</v>
       </c>
       <c r="G10" s="20">
         <f t="shared" si="9"/>
-        <v>45688</v>
+        <v>45744</v>
       </c>
       <c r="H10" s="21">
         <v>45658</v>
@@ -1896,11 +1909,11 @@
       <c r="J10" s="22"/>
       <c r="K10" s="23">
         <f t="shared" si="2"/>
-        <v>45691</v>
+        <v>45747</v>
       </c>
       <c r="L10" s="19">
         <f t="shared" si="3"/>
-        <v>45713</v>
+        <v>45769</v>
       </c>
       <c r="M10" s="24">
         <v>45687</v>
@@ -1911,89 +1924,89 @@
       <c r="O10" s="22"/>
       <c r="P10" s="23">
         <f t="shared" si="4"/>
-        <v>45714</v>
+        <v>45770</v>
       </c>
       <c r="Q10" s="19">
         <f t="shared" si="10"/>
-        <v>45821</v>
-      </c>
-      <c r="R10" s="28">
+        <v>45877</v>
+      </c>
+      <c r="R10" s="27">
         <f t="shared" si="5"/>
         <v>45708</v>
       </c>
-      <c r="S10" s="29">
+      <c r="S10" s="28">
         <f t="shared" si="11"/>
         <v>45817</v>
       </c>
       <c r="T10" s="22"/>
       <c r="U10" s="23">
         <f t="shared" si="6"/>
-        <v>45714</v>
+        <v>45770</v>
       </c>
       <c r="V10" s="19">
         <f t="shared" si="12"/>
-        <v>45821</v>
-      </c>
-      <c r="W10" s="28">
+        <v>45877</v>
+      </c>
+      <c r="W10" s="27">
         <f t="shared" si="13"/>
         <v>45708</v>
       </c>
-      <c r="X10" s="29">
+      <c r="X10" s="28">
         <f t="shared" si="14"/>
         <v>45817</v>
       </c>
       <c r="Y10" s="22"/>
       <c r="Z10" s="23">
         <f t="shared" si="15"/>
-        <v>45824</v>
+        <v>45880</v>
       </c>
       <c r="AA10" s="19">
         <f t="shared" si="16"/>
-        <v>45842</v>
-      </c>
-      <c r="AB10" s="28">
+        <v>45898</v>
+      </c>
+      <c r="AB10" s="27">
         <f t="shared" si="17"/>
         <v>45818</v>
       </c>
-      <c r="AC10" s="29">
+      <c r="AC10" s="28">
         <f t="shared" si="18"/>
         <v>45838</v>
       </c>
       <c r="AD10" s="22"/>
-      <c r="AE10" s="23">
-        <v>45845</v>
-      </c>
-      <c r="AF10" s="25">
-        <v>45870</v>
-      </c>
-      <c r="AG10" s="28">
+      <c r="AE10" s="41">
+        <v>45901</v>
+      </c>
+      <c r="AF10" s="20">
+        <v>45992</v>
+      </c>
+      <c r="AG10" s="27">
         <f t="shared" si="7"/>
         <v>45839</v>
       </c>
-      <c r="AH10" s="29">
+      <c r="AH10" s="28">
         <f t="shared" si="19"/>
         <v>45859</v>
       </c>
       <c r="AI10" s="22"/>
       <c r="AJ10" s="23">
         <f t="shared" si="20"/>
-        <v>45873</v>
+        <v>45993</v>
       </c>
       <c r="AK10" s="19">
         <f t="shared" si="21"/>
-        <v>45891</v>
-      </c>
-      <c r="AL10" s="28">
+        <v>46013</v>
+      </c>
+      <c r="AL10" s="27">
         <f t="shared" si="22"/>
         <v>45860</v>
       </c>
-      <c r="AM10" s="29">
+      <c r="AM10" s="28">
         <f t="shared" si="23"/>
         <v>45880</v>
       </c>
       <c r="AN10" s="17">
         <f t="shared" si="8"/>
-        <v>-11</v>
+        <v>-133</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
@@ -2011,11 +2024,11 @@
       </c>
       <c r="F11" s="19">
         <f t="shared" si="0"/>
-        <v>45695</v>
+        <v>45813</v>
       </c>
       <c r="G11" s="20">
         <f t="shared" si="9"/>
-        <v>45719</v>
+        <v>45835</v>
       </c>
       <c r="H11" s="21">
         <v>45716</v>
@@ -2027,11 +2040,11 @@
       <c r="J11" s="22"/>
       <c r="K11" s="23">
         <f t="shared" si="2"/>
-        <v>45720</v>
+        <v>45838</v>
       </c>
       <c r="L11" s="19">
         <f t="shared" si="3"/>
-        <v>45742</v>
+        <v>45860</v>
       </c>
       <c r="M11" s="24">
         <v>45700</v>
@@ -2042,89 +2055,89 @@
       <c r="O11" s="22"/>
       <c r="P11" s="23">
         <f t="shared" si="4"/>
-        <v>45743</v>
+        <v>45861</v>
       </c>
       <c r="Q11" s="19">
         <f t="shared" si="10"/>
-        <v>45852</v>
-      </c>
-      <c r="R11" s="28">
+        <v>45968</v>
+      </c>
+      <c r="R11" s="27">
         <f t="shared" si="5"/>
         <v>45740</v>
       </c>
-      <c r="S11" s="29">
+      <c r="S11" s="28">
         <f t="shared" si="11"/>
         <v>45847</v>
       </c>
       <c r="T11" s="22"/>
       <c r="U11" s="23">
         <f t="shared" si="6"/>
-        <v>45743</v>
+        <v>45861</v>
       </c>
       <c r="V11" s="19">
         <f t="shared" si="12"/>
-        <v>45852</v>
-      </c>
-      <c r="W11" s="28">
+        <v>45968</v>
+      </c>
+      <c r="W11" s="27">
         <f t="shared" si="13"/>
         <v>45740</v>
       </c>
-      <c r="X11" s="29">
+      <c r="X11" s="28">
         <f t="shared" si="14"/>
         <v>45847</v>
       </c>
       <c r="Y11" s="22"/>
       <c r="Z11" s="23">
         <f t="shared" si="15"/>
-        <v>45853</v>
+        <v>45971</v>
       </c>
       <c r="AA11" s="19">
         <f t="shared" si="16"/>
-        <v>45873</v>
-      </c>
-      <c r="AB11" s="28">
+        <v>45989</v>
+      </c>
+      <c r="AB11" s="27">
         <f t="shared" si="17"/>
         <v>45848</v>
       </c>
-      <c r="AC11" s="29">
+      <c r="AC11" s="28">
         <f t="shared" si="18"/>
         <v>45868</v>
       </c>
       <c r="AD11" s="22"/>
-      <c r="AE11" s="23">
-        <v>45874</v>
-      </c>
-      <c r="AF11" s="25">
-        <v>45901</v>
-      </c>
-      <c r="AG11" s="28">
+      <c r="AE11" s="41">
+        <v>45992</v>
+      </c>
+      <c r="AF11" s="42">
+        <v>45992</v>
+      </c>
+      <c r="AG11" s="27">
         <f t="shared" si="7"/>
         <v>45869</v>
       </c>
-      <c r="AH11" s="29">
+      <c r="AH11" s="28">
         <f t="shared" si="19"/>
         <v>45889</v>
       </c>
       <c r="AI11" s="22"/>
       <c r="AJ11" s="23">
         <f t="shared" si="20"/>
-        <v>45902</v>
+        <v>45993</v>
       </c>
       <c r="AK11" s="19">
         <f t="shared" si="21"/>
-        <v>45922</v>
-      </c>
-      <c r="AL11" s="28">
+        <v>46013</v>
+      </c>
+      <c r="AL11" s="27">
         <f t="shared" si="22"/>
         <v>45890</v>
       </c>
-      <c r="AM11" s="29">
+      <c r="AM11" s="28">
         <f t="shared" si="23"/>
         <v>45910</v>
       </c>
-      <c r="AN11" s="30">
+      <c r="AN11" s="29">
         <f t="shared" si="8"/>
-        <v>-12</v>
+        <v>-103</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
@@ -2142,11 +2155,11 @@
       </c>
       <c r="F12" s="19">
         <f t="shared" si="0"/>
-        <v>45695</v>
+        <v>45813</v>
       </c>
       <c r="G12" s="20">
         <f t="shared" si="9"/>
-        <v>45719</v>
+        <v>45835</v>
       </c>
       <c r="H12" s="21">
         <v>45716</v>
@@ -2158,11 +2171,11 @@
       <c r="J12" s="22"/>
       <c r="K12" s="23">
         <f t="shared" si="2"/>
-        <v>45720</v>
+        <v>45838</v>
       </c>
       <c r="L12" s="19">
         <f t="shared" si="3"/>
-        <v>45742</v>
+        <v>45860</v>
       </c>
       <c r="M12" s="24">
         <v>45761</v>
@@ -2173,89 +2186,89 @@
       <c r="O12" s="22"/>
       <c r="P12" s="23">
         <f t="shared" si="4"/>
-        <v>45743</v>
+        <v>45861</v>
       </c>
       <c r="Q12" s="19">
         <f t="shared" si="10"/>
-        <v>45852</v>
-      </c>
-      <c r="R12" s="28">
+        <v>45968</v>
+      </c>
+      <c r="R12" s="27">
         <f t="shared" si="5"/>
         <v>45803</v>
       </c>
-      <c r="S12" s="29">
+      <c r="S12" s="28">
         <f t="shared" si="11"/>
         <v>45910</v>
       </c>
       <c r="T12" s="22"/>
       <c r="U12" s="23">
         <f t="shared" si="6"/>
-        <v>45743</v>
+        <v>45861</v>
       </c>
       <c r="V12" s="19">
         <f t="shared" si="12"/>
-        <v>45852</v>
-      </c>
-      <c r="W12" s="28">
+        <v>45968</v>
+      </c>
+      <c r="W12" s="27">
         <f t="shared" si="13"/>
         <v>45803</v>
       </c>
-      <c r="X12" s="29">
+      <c r="X12" s="28">
         <f t="shared" si="14"/>
         <v>45910</v>
       </c>
       <c r="Y12" s="22"/>
       <c r="Z12" s="23">
         <f t="shared" si="15"/>
-        <v>45853</v>
+        <v>45971</v>
       </c>
       <c r="AA12" s="19">
         <f t="shared" si="16"/>
-        <v>45873</v>
-      </c>
-      <c r="AB12" s="28">
+        <v>45989</v>
+      </c>
+      <c r="AB12" s="27">
         <f t="shared" si="17"/>
         <v>45911</v>
       </c>
-      <c r="AC12" s="29">
+      <c r="AC12" s="28">
         <f t="shared" si="18"/>
         <v>45931</v>
       </c>
       <c r="AD12" s="22"/>
-      <c r="AE12" s="23">
-        <v>45874</v>
-      </c>
-      <c r="AF12" s="25">
-        <v>45901</v>
-      </c>
-      <c r="AG12" s="28">
+      <c r="AE12" s="41">
+        <v>45992</v>
+      </c>
+      <c r="AF12" s="20">
+        <v>45992</v>
+      </c>
+      <c r="AG12" s="27">
         <f t="shared" si="7"/>
         <v>45932</v>
       </c>
-      <c r="AH12" s="29">
+      <c r="AH12" s="28">
         <f t="shared" si="19"/>
         <v>45952</v>
       </c>
       <c r="AI12" s="22"/>
       <c r="AJ12" s="23">
         <f t="shared" si="20"/>
-        <v>45902</v>
+        <v>45993</v>
       </c>
       <c r="AK12" s="19">
         <f t="shared" si="21"/>
-        <v>45922</v>
-      </c>
-      <c r="AL12" s="28">
+        <v>46013</v>
+      </c>
+      <c r="AL12" s="27">
         <f t="shared" si="22"/>
         <v>45953</v>
       </c>
-      <c r="AM12" s="29">
+      <c r="AM12" s="28">
         <f t="shared" si="23"/>
         <v>45973</v>
       </c>
-      <c r="AN12" s="30">
+      <c r="AN12" s="29">
         <f t="shared" si="8"/>
-        <v>51</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
@@ -2273,11 +2286,11 @@
       </c>
       <c r="F13" s="19">
         <f t="shared" si="0"/>
-        <v>45695</v>
+        <v>45722</v>
       </c>
       <c r="G13" s="20">
         <f t="shared" si="9"/>
-        <v>45719</v>
+        <v>45744</v>
       </c>
       <c r="H13" s="21">
         <v>45658</v>
@@ -2289,11 +2302,11 @@
       <c r="J13" s="22"/>
       <c r="K13" s="23">
         <f t="shared" si="2"/>
-        <v>45720</v>
+        <v>45747</v>
       </c>
       <c r="L13" s="19">
         <f t="shared" si="3"/>
-        <v>45742</v>
+        <v>45769</v>
       </c>
       <c r="M13" s="24">
         <v>45740</v>
@@ -2304,89 +2317,89 @@
       <c r="O13" s="22"/>
       <c r="P13" s="23">
         <f t="shared" si="4"/>
-        <v>45743</v>
+        <v>45770</v>
       </c>
       <c r="Q13" s="19">
         <f t="shared" si="10"/>
-        <v>45852</v>
-      </c>
-      <c r="R13" s="28">
+        <v>45877</v>
+      </c>
+      <c r="R13" s="27">
         <f t="shared" si="5"/>
         <v>45786</v>
       </c>
-      <c r="S13" s="29">
+      <c r="S13" s="28">
         <f t="shared" si="11"/>
         <v>45895</v>
       </c>
       <c r="T13" s="22"/>
       <c r="U13" s="23">
         <f t="shared" si="6"/>
-        <v>45743</v>
+        <v>45770</v>
       </c>
       <c r="V13" s="19">
         <f t="shared" si="12"/>
-        <v>45852</v>
-      </c>
-      <c r="W13" s="28">
+        <v>45877</v>
+      </c>
+      <c r="W13" s="27">
         <f t="shared" si="13"/>
         <v>45786</v>
       </c>
-      <c r="X13" s="29">
+      <c r="X13" s="28">
         <f t="shared" si="14"/>
         <v>45895</v>
       </c>
       <c r="Y13" s="22"/>
       <c r="Z13" s="23">
         <f t="shared" si="15"/>
-        <v>45853</v>
+        <v>45880</v>
       </c>
       <c r="AA13" s="19">
         <f t="shared" si="16"/>
-        <v>45873</v>
-      </c>
-      <c r="AB13" s="28">
+        <v>45898</v>
+      </c>
+      <c r="AB13" s="27">
         <f t="shared" si="17"/>
         <v>45896</v>
       </c>
-      <c r="AC13" s="29">
+      <c r="AC13" s="28">
         <f t="shared" si="18"/>
         <v>45916</v>
       </c>
       <c r="AD13" s="22"/>
-      <c r="AE13" s="23">
-        <v>45874</v>
-      </c>
-      <c r="AF13" s="25">
+      <c r="AE13" s="41">
         <v>45901</v>
       </c>
-      <c r="AG13" s="28">
+      <c r="AF13" s="42">
+        <v>45992</v>
+      </c>
+      <c r="AG13" s="27">
         <f t="shared" si="7"/>
         <v>45917</v>
       </c>
-      <c r="AH13" s="29">
+      <c r="AH13" s="28">
         <f t="shared" si="19"/>
         <v>45937</v>
       </c>
       <c r="AI13" s="22"/>
       <c r="AJ13" s="23">
         <f t="shared" si="20"/>
-        <v>45902</v>
+        <v>45993</v>
       </c>
       <c r="AK13" s="19">
         <f t="shared" si="21"/>
-        <v>45922</v>
-      </c>
-      <c r="AL13" s="28">
+        <v>46013</v>
+      </c>
+      <c r="AL13" s="27">
         <f t="shared" si="22"/>
         <v>45938</v>
       </c>
-      <c r="AM13" s="29">
+      <c r="AM13" s="28">
         <f t="shared" si="23"/>
         <v>45958</v>
       </c>
       <c r="AN13" s="17">
         <f t="shared" si="8"/>
-        <v>36</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
@@ -2404,11 +2417,11 @@
       </c>
       <c r="F14" s="19">
         <f t="shared" si="0"/>
-        <v>45758</v>
+        <v>45813</v>
       </c>
       <c r="G14" s="20">
         <f t="shared" si="9"/>
-        <v>45782</v>
+        <v>45835</v>
       </c>
       <c r="H14" s="21">
         <v>45658</v>
@@ -2420,104 +2433,104 @@
       <c r="J14" s="22"/>
       <c r="K14" s="23">
         <f t="shared" si="2"/>
-        <v>45783</v>
+        <v>45838</v>
       </c>
       <c r="L14" s="19">
         <f t="shared" si="3"/>
-        <v>45805</v>
-      </c>
-      <c r="M14" s="31">
+        <v>45860</v>
+      </c>
+      <c r="M14" s="30">
         <v>45817</v>
       </c>
-      <c r="N14" s="32">
+      <c r="N14" s="31">
         <v>45828</v>
       </c>
       <c r="O14" s="22"/>
       <c r="P14" s="23">
         <f t="shared" si="4"/>
-        <v>45806</v>
+        <v>45861</v>
       </c>
       <c r="Q14" s="19">
         <f t="shared" si="10"/>
-        <v>45915</v>
-      </c>
-      <c r="R14" s="28">
+        <v>45968</v>
+      </c>
+      <c r="R14" s="27">
         <f t="shared" si="5"/>
         <v>45831</v>
       </c>
-      <c r="S14" s="29">
+      <c r="S14" s="28">
         <f t="shared" si="11"/>
         <v>45938</v>
       </c>
       <c r="T14" s="22"/>
       <c r="U14" s="23">
         <f t="shared" si="6"/>
-        <v>45806</v>
+        <v>45861</v>
       </c>
       <c r="V14" s="19">
         <f t="shared" si="12"/>
-        <v>45915</v>
-      </c>
-      <c r="W14" s="28">
+        <v>45968</v>
+      </c>
+      <c r="W14" s="27">
         <f t="shared" si="13"/>
         <v>45831</v>
       </c>
-      <c r="X14" s="29">
+      <c r="X14" s="28">
         <f t="shared" si="14"/>
         <v>45938</v>
       </c>
       <c r="Y14" s="22"/>
       <c r="Z14" s="23">
         <f t="shared" si="15"/>
-        <v>45916</v>
+        <v>45971</v>
       </c>
       <c r="AA14" s="19">
         <f t="shared" si="16"/>
-        <v>45936</v>
-      </c>
-      <c r="AB14" s="28">
+        <v>45989</v>
+      </c>
+      <c r="AB14" s="27">
         <f t="shared" si="17"/>
         <v>45939</v>
       </c>
-      <c r="AC14" s="29">
+      <c r="AC14" s="28">
         <f t="shared" si="18"/>
         <v>45959</v>
       </c>
       <c r="AD14" s="22"/>
-      <c r="AE14" s="23">
-        <v>45937</v>
-      </c>
-      <c r="AF14" s="25">
-        <v>45964</v>
-      </c>
-      <c r="AG14" s="28">
+      <c r="AE14" s="41">
+        <v>45992</v>
+      </c>
+      <c r="AF14" s="20">
+        <v>45992</v>
+      </c>
+      <c r="AG14" s="27">
         <f t="shared" si="7"/>
         <v>45960</v>
       </c>
-      <c r="AH14" s="29">
+      <c r="AH14" s="28">
         <f t="shared" si="19"/>
         <v>45980</v>
       </c>
       <c r="AI14" s="22"/>
       <c r="AJ14" s="23">
         <f t="shared" si="20"/>
-        <v>45965</v>
+        <v>45993</v>
       </c>
       <c r="AK14" s="19">
         <f t="shared" si="21"/>
-        <v>45985</v>
-      </c>
-      <c r="AL14" s="28">
+        <v>46013</v>
+      </c>
+      <c r="AL14" s="27">
         <f t="shared" si="22"/>
         <v>45981</v>
       </c>
-      <c r="AM14" s="29">
+      <c r="AM14" s="28">
         <f t="shared" si="23"/>
         <v>46001</v>
       </c>
       <c r="AN14" s="17">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
@@ -2535,11 +2548,11 @@
       </c>
       <c r="F15" s="19">
         <f t="shared" si="0"/>
-        <v>45758</v>
+        <v>45785</v>
       </c>
       <c r="G15" s="20">
         <f t="shared" si="9"/>
-        <v>45782</v>
+        <v>45807</v>
       </c>
       <c r="H15" s="21">
         <v>45658</v>
@@ -2551,11 +2564,11 @@
       <c r="J15" s="22"/>
       <c r="K15" s="23">
         <f t="shared" si="2"/>
-        <v>45783</v>
+        <v>45810</v>
       </c>
       <c r="L15" s="19">
         <f t="shared" si="3"/>
-        <v>45805</v>
+        <v>45832</v>
       </c>
       <c r="M15" s="24">
         <v>45767</v>
@@ -2566,89 +2579,89 @@
       <c r="O15" s="22"/>
       <c r="P15" s="23">
         <f t="shared" si="4"/>
-        <v>45806</v>
+        <v>45833</v>
       </c>
       <c r="Q15" s="19">
         <f t="shared" si="10"/>
-        <v>45915</v>
-      </c>
-      <c r="R15" s="28">
+        <v>45940</v>
+      </c>
+      <c r="R15" s="27">
         <f t="shared" si="5"/>
         <v>45817</v>
       </c>
-      <c r="S15" s="29">
+      <c r="S15" s="28">
         <f t="shared" si="11"/>
         <v>45924</v>
       </c>
       <c r="T15" s="22"/>
       <c r="U15" s="23">
         <f t="shared" si="6"/>
-        <v>45806</v>
+        <v>45833</v>
       </c>
       <c r="V15" s="19">
         <f t="shared" si="12"/>
-        <v>45915</v>
-      </c>
-      <c r="W15" s="28">
+        <v>45940</v>
+      </c>
+      <c r="W15" s="27">
         <f t="shared" si="13"/>
         <v>45817</v>
       </c>
-      <c r="X15" s="29">
+      <c r="X15" s="28">
         <f t="shared" si="14"/>
         <v>45924</v>
       </c>
       <c r="Y15" s="22"/>
       <c r="Z15" s="23">
         <f t="shared" si="15"/>
-        <v>45916</v>
+        <v>45943</v>
       </c>
       <c r="AA15" s="19">
         <f t="shared" si="16"/>
-        <v>45936</v>
-      </c>
-      <c r="AB15" s="28">
+        <v>45961</v>
+      </c>
+      <c r="AB15" s="27">
         <f t="shared" si="17"/>
         <v>45925</v>
       </c>
-      <c r="AC15" s="29">
+      <c r="AC15" s="28">
         <f t="shared" si="18"/>
         <v>45945</v>
       </c>
       <c r="AD15" s="22"/>
-      <c r="AE15" s="23">
-        <v>45937</v>
-      </c>
-      <c r="AF15" s="25">
-        <v>45964</v>
-      </c>
-      <c r="AG15" s="28">
+      <c r="AE15" s="41">
+        <v>45962</v>
+      </c>
+      <c r="AF15" s="42">
+        <v>45992</v>
+      </c>
+      <c r="AG15" s="27">
         <f t="shared" si="7"/>
         <v>45946</v>
       </c>
-      <c r="AH15" s="29">
+      <c r="AH15" s="28">
         <f t="shared" si="19"/>
         <v>45966</v>
       </c>
       <c r="AI15" s="22"/>
       <c r="AJ15" s="23">
         <f t="shared" si="20"/>
-        <v>45965</v>
+        <v>45993</v>
       </c>
       <c r="AK15" s="19">
         <f t="shared" si="21"/>
-        <v>45985</v>
-      </c>
-      <c r="AL15" s="28">
+        <v>46013</v>
+      </c>
+      <c r="AL15" s="27">
         <f t="shared" si="22"/>
         <v>45967</v>
       </c>
-      <c r="AM15" s="29">
+      <c r="AM15" s="28">
         <f t="shared" si="23"/>
         <v>45987</v>
       </c>
       <c r="AN15" s="17">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
@@ -2666,88 +2679,88 @@
       </c>
       <c r="F16" s="19">
         <f t="shared" si="0"/>
-        <v>45786</v>
+        <v>45754</v>
       </c>
       <c r="G16" s="20">
         <f t="shared" si="9"/>
-        <v>45810</v>
-      </c>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+        <v>45776</v>
+      </c>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
       <c r="J16" s="22"/>
       <c r="K16" s="23">
         <f t="shared" si="2"/>
-        <v>45811</v>
+        <v>45777</v>
       </c>
       <c r="L16" s="19">
         <f t="shared" si="3"/>
-        <v>45833</v>
-      </c>
-      <c r="M16" s="34"/>
-      <c r="N16" s="33"/>
+        <v>45799</v>
+      </c>
+      <c r="M16" s="33"/>
+      <c r="N16" s="32"/>
       <c r="O16" s="22"/>
       <c r="P16" s="23">
         <f t="shared" si="4"/>
-        <v>45834</v>
+        <v>45800</v>
       </c>
       <c r="Q16" s="19">
         <f t="shared" si="10"/>
-        <v>45943</v>
-      </c>
-      <c r="R16" s="28">
+        <v>45909</v>
+      </c>
+      <c r="R16" s="27">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="S16" s="29">
+      <c r="S16" s="28">
         <f t="shared" si="11"/>
         <v>109</v>
       </c>
       <c r="T16" s="22"/>
       <c r="U16" s="23">
         <f t="shared" si="6"/>
-        <v>45834</v>
+        <v>45800</v>
       </c>
       <c r="V16" s="19">
         <f t="shared" si="12"/>
-        <v>45943</v>
-      </c>
-      <c r="W16" s="28">
+        <v>45909</v>
+      </c>
+      <c r="W16" s="27">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="X16" s="29">
+      <c r="X16" s="28">
         <f t="shared" si="14"/>
         <v>109</v>
       </c>
       <c r="Y16" s="22"/>
       <c r="Z16" s="23">
         <f t="shared" si="15"/>
-        <v>45944</v>
+        <v>45910</v>
       </c>
       <c r="AA16" s="19">
         <f t="shared" si="16"/>
-        <v>45964</v>
-      </c>
-      <c r="AB16" s="28">
+        <v>45930</v>
+      </c>
+      <c r="AB16" s="27">
         <f t="shared" si="17"/>
         <v>110</v>
       </c>
-      <c r="AC16" s="29">
+      <c r="AC16" s="28">
         <f t="shared" si="18"/>
         <v>130</v>
       </c>
       <c r="AD16" s="22"/>
-      <c r="AE16" s="23">
-        <v>45965</v>
-      </c>
-      <c r="AF16" s="35">
+      <c r="AE16" s="41">
+        <v>45931</v>
+      </c>
+      <c r="AF16" s="20">
         <v>45992</v>
       </c>
-      <c r="AG16" s="28">
+      <c r="AG16" s="27">
         <f t="shared" si="7"/>
         <v>131</v>
       </c>
-      <c r="AH16" s="29">
+      <c r="AH16" s="28">
         <f t="shared" si="19"/>
         <v>151</v>
       </c>
@@ -2760,15 +2773,15 @@
         <f t="shared" si="21"/>
         <v>46013</v>
       </c>
-      <c r="AL16" s="28">
+      <c r="AL16" s="27">
         <f t="shared" si="22"/>
         <v>152</v>
       </c>
-      <c r="AM16" s="29">
+      <c r="AM16" s="28">
         <f t="shared" si="23"/>
         <v>172</v>
       </c>
-      <c r="AN16" s="30">
+      <c r="AN16" s="29">
         <f t="shared" si="8"/>
         <v>-45841</v>
       </c>
@@ -2777,7 +2790,7 @@
       <c r="B17" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="34" t="s">
         <v>60</v>
       </c>
       <c r="D17" s="18" t="s">
@@ -2788,118 +2801,119 @@
       </c>
       <c r="F17" s="19">
         <f t="shared" si="0"/>
-        <v>45819</v>
+        <v>45876</v>
       </c>
       <c r="G17" s="20">
         <f t="shared" si="9"/>
-        <v>45841</v>
-      </c>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
+        <v>45898</v>
+      </c>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
       <c r="J17" s="22"/>
       <c r="K17" s="23">
         <f t="shared" si="2"/>
-        <v>45842</v>
+        <v>45901</v>
       </c>
       <c r="L17" s="19">
         <f t="shared" si="3"/>
-        <v>45866</v>
-      </c>
-      <c r="M17" s="34"/>
-      <c r="N17" s="33"/>
+        <v>45923</v>
+      </c>
+      <c r="M17" s="33"/>
+      <c r="N17" s="32"/>
       <c r="O17" s="22"/>
       <c r="P17" s="23">
         <f t="shared" si="4"/>
-        <v>45867</v>
+        <v>45924</v>
       </c>
       <c r="Q17" s="19">
         <f t="shared" si="10"/>
-        <v>45974</v>
-      </c>
-      <c r="R17" s="28">
+        <v>46031</v>
+      </c>
+      <c r="R17" s="27">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="S17" s="29">
+      <c r="S17" s="28">
         <f t="shared" si="11"/>
         <v>109</v>
       </c>
       <c r="T17" s="22"/>
       <c r="U17" s="23">
         <f t="shared" si="6"/>
-        <v>45867</v>
+        <v>45924</v>
       </c>
       <c r="V17" s="19">
         <f t="shared" si="12"/>
-        <v>45974</v>
-      </c>
-      <c r="W17" s="28">
+        <v>46031</v>
+      </c>
+      <c r="W17" s="27">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="X17" s="29">
+      <c r="X17" s="28">
         <f t="shared" si="14"/>
         <v>109</v>
       </c>
       <c r="Y17" s="22"/>
       <c r="Z17" s="23">
         <f t="shared" si="15"/>
-        <v>45975</v>
+        <v>46034</v>
       </c>
       <c r="AA17" s="19">
         <f t="shared" si="16"/>
-        <v>45995</v>
-      </c>
-      <c r="AB17" s="28">
+        <v>46052</v>
+      </c>
+      <c r="AB17" s="27">
         <f t="shared" si="17"/>
         <v>110</v>
       </c>
-      <c r="AC17" s="29">
+      <c r="AC17" s="28">
         <f t="shared" si="18"/>
         <v>130</v>
       </c>
       <c r="AD17" s="22"/>
-      <c r="AE17" s="23">
-        <v>45996</v>
-      </c>
-      <c r="AF17" s="37">
-        <v>46023</v>
-      </c>
-      <c r="AG17" s="28">
+      <c r="AE17" s="43">
+        <v>46054</v>
+      </c>
+      <c r="AF17" s="44">
+        <f>IFERROR(WORKDAY(AE17,($V$2-1)),"-")</f>
+        <v>46052</v>
+      </c>
+      <c r="AG17" s="27">
         <f t="shared" si="7"/>
         <v>131</v>
       </c>
-      <c r="AH17" s="29">
+      <c r="AH17" s="28">
         <f t="shared" si="19"/>
         <v>151</v>
       </c>
       <c r="AI17" s="22"/>
       <c r="AJ17" s="23">
         <f t="shared" si="20"/>
-        <v>46024</v>
+        <v>46055</v>
       </c>
       <c r="AK17" s="19">
         <f t="shared" si="21"/>
-        <v>46044</v>
-      </c>
-      <c r="AL17" s="28">
+        <v>46073</v>
+      </c>
+      <c r="AL17" s="27">
         <f t="shared" si="22"/>
         <v>152</v>
       </c>
-      <c r="AM17" s="29">
+      <c r="AM17" s="28">
         <f t="shared" si="23"/>
         <v>172</v>
       </c>
       <c r="AN17" s="17">
         <f t="shared" si="8"/>
-        <v>-45872</v>
+        <v>-45901</v>
       </c>
     </row>
     <row r="18" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="34" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="18" t="s">
@@ -2910,118 +2924,119 @@
       </c>
       <c r="F18" s="19">
         <f t="shared" si="0"/>
-        <v>45819</v>
+        <v>45846</v>
       </c>
       <c r="G18" s="20">
         <f t="shared" si="9"/>
-        <v>45841</v>
-      </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
+        <v>45868</v>
+      </c>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="22"/>
       <c r="K18" s="23">
         <f t="shared" si="2"/>
-        <v>45842</v>
+        <v>45869</v>
       </c>
       <c r="L18" s="19">
         <f t="shared" si="3"/>
-        <v>45866</v>
-      </c>
-      <c r="M18" s="34"/>
-      <c r="N18" s="33"/>
+        <v>45891</v>
+      </c>
+      <c r="M18" s="33"/>
+      <c r="N18" s="32"/>
       <c r="O18" s="22"/>
       <c r="P18" s="23">
         <f t="shared" si="4"/>
-        <v>45867</v>
+        <v>45894</v>
       </c>
       <c r="Q18" s="19">
         <f t="shared" si="10"/>
-        <v>45974</v>
-      </c>
-      <c r="R18" s="28">
+        <v>46001</v>
+      </c>
+      <c r="R18" s="27">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="S18" s="29">
+      <c r="S18" s="28">
         <f t="shared" si="11"/>
         <v>109</v>
       </c>
       <c r="T18" s="22"/>
       <c r="U18" s="23">
         <f t="shared" si="6"/>
-        <v>45867</v>
+        <v>45894</v>
       </c>
       <c r="V18" s="19">
         <f t="shared" si="12"/>
-        <v>45974</v>
-      </c>
-      <c r="W18" s="28">
+        <v>46001</v>
+      </c>
+      <c r="W18" s="27">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="X18" s="29">
+      <c r="X18" s="28">
         <f t="shared" si="14"/>
         <v>109</v>
       </c>
       <c r="Y18" s="22"/>
       <c r="Z18" s="23">
         <f t="shared" si="15"/>
-        <v>45975</v>
+        <v>46002</v>
       </c>
       <c r="AA18" s="19">
         <f t="shared" si="16"/>
-        <v>45995</v>
-      </c>
-      <c r="AB18" s="28">
+        <v>46022</v>
+      </c>
+      <c r="AB18" s="27">
         <f t="shared" si="17"/>
         <v>110</v>
       </c>
-      <c r="AC18" s="29">
+      <c r="AC18" s="28">
         <f t="shared" si="18"/>
         <v>130</v>
       </c>
       <c r="AD18" s="22"/>
-      <c r="AE18" s="23">
-        <v>45996</v>
-      </c>
-      <c r="AF18" s="37">
+      <c r="AE18" s="43">
         <v>46023</v>
       </c>
-      <c r="AG18" s="28">
+      <c r="AF18" s="45">
+        <f>IFERROR(WORKDAY(AE18,($V$2-1)),"-")</f>
+        <v>46022</v>
+      </c>
+      <c r="AG18" s="27">
         <f t="shared" si="7"/>
         <v>131</v>
       </c>
-      <c r="AH18" s="29">
+      <c r="AH18" s="28">
         <f t="shared" si="19"/>
         <v>151</v>
       </c>
       <c r="AI18" s="22"/>
       <c r="AJ18" s="23">
         <f t="shared" si="20"/>
-        <v>46024</v>
+        <v>46023</v>
       </c>
       <c r="AK18" s="19">
         <f t="shared" si="21"/>
-        <v>46044</v>
-      </c>
-      <c r="AL18" s="28">
+        <v>46043</v>
+      </c>
+      <c r="AL18" s="27">
         <f t="shared" si="22"/>
         <v>152</v>
       </c>
-      <c r="AM18" s="29">
+      <c r="AM18" s="28">
         <f t="shared" si="23"/>
         <v>172</v>
       </c>
       <c r="AN18" s="17">
         <f t="shared" si="8"/>
-        <v>-45872</v>
+        <v>-45871</v>
       </c>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B19" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="34" t="s">
         <v>62</v>
       </c>
       <c r="D19" s="18" t="s">
@@ -3032,118 +3047,119 @@
       </c>
       <c r="F19" s="19">
         <f t="shared" si="0"/>
-        <v>45849</v>
+        <v>45904</v>
       </c>
       <c r="G19" s="20">
         <f t="shared" si="9"/>
-        <v>45873</v>
-      </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
+        <v>45926</v>
+      </c>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
       <c r="J19" s="22"/>
       <c r="K19" s="23">
         <f t="shared" si="2"/>
-        <v>45874</v>
+        <v>45929</v>
       </c>
       <c r="L19" s="19">
         <f t="shared" si="3"/>
-        <v>45896</v>
-      </c>
-      <c r="M19" s="34"/>
-      <c r="N19" s="33"/>
+        <v>45951</v>
+      </c>
+      <c r="M19" s="33"/>
+      <c r="N19" s="32"/>
       <c r="O19" s="22"/>
       <c r="P19" s="23">
         <f t="shared" si="4"/>
-        <v>45897</v>
+        <v>45952</v>
       </c>
       <c r="Q19" s="19">
         <f t="shared" si="10"/>
-        <v>46006</v>
-      </c>
-      <c r="R19" s="28">
+        <v>46059</v>
+      </c>
+      <c r="R19" s="27">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="S19" s="29">
+      <c r="S19" s="28">
         <f t="shared" si="11"/>
         <v>109</v>
       </c>
       <c r="T19" s="22"/>
       <c r="U19" s="23">
         <f t="shared" si="6"/>
-        <v>45897</v>
+        <v>45952</v>
       </c>
       <c r="V19" s="19">
         <f t="shared" si="12"/>
-        <v>46006</v>
-      </c>
-      <c r="W19" s="28">
+        <v>46059</v>
+      </c>
+      <c r="W19" s="27">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="X19" s="29">
+      <c r="X19" s="28">
         <f t="shared" si="14"/>
         <v>109</v>
       </c>
       <c r="Y19" s="22"/>
       <c r="Z19" s="23">
         <f t="shared" si="15"/>
-        <v>46007</v>
+        <v>46062</v>
       </c>
       <c r="AA19" s="19">
         <f t="shared" si="16"/>
-        <v>46027</v>
-      </c>
-      <c r="AB19" s="28">
+        <v>46080</v>
+      </c>
+      <c r="AB19" s="27">
         <f t="shared" si="17"/>
         <v>110</v>
       </c>
-      <c r="AC19" s="29">
+      <c r="AC19" s="28">
         <f t="shared" si="18"/>
         <v>130</v>
       </c>
       <c r="AD19" s="22"/>
-      <c r="AE19" s="23">
-        <v>46028</v>
-      </c>
-      <c r="AF19" s="37">
-        <v>46054</v>
-      </c>
-      <c r="AG19" s="28">
+      <c r="AE19" s="43">
+        <v>46082</v>
+      </c>
+      <c r="AF19" s="44">
+        <f>IFERROR(WORKDAY(AE19,($V$2-1)),"-")</f>
+        <v>46080</v>
+      </c>
+      <c r="AG19" s="27">
         <f t="shared" si="7"/>
         <v>131</v>
       </c>
-      <c r="AH19" s="29">
+      <c r="AH19" s="28">
         <f t="shared" si="19"/>
         <v>151</v>
       </c>
       <c r="AI19" s="22"/>
       <c r="AJ19" s="23">
         <f t="shared" si="20"/>
-        <v>46055</v>
+        <v>46083</v>
       </c>
       <c r="AK19" s="19">
         <f t="shared" si="21"/>
-        <v>46073</v>
-      </c>
-      <c r="AL19" s="28">
+        <v>46101</v>
+      </c>
+      <c r="AL19" s="27">
         <f t="shared" si="22"/>
         <v>152</v>
       </c>
-      <c r="AM19" s="29">
+      <c r="AM19" s="28">
         <f t="shared" si="23"/>
         <v>172</v>
       </c>
       <c r="AN19" s="17">
         <f t="shared" si="8"/>
-        <v>-45901</v>
+        <v>-45929</v>
       </c>
     </row>
     <row r="20" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="34" t="s">
         <v>63</v>
       </c>
       <c r="D20" s="18" t="s">
@@ -3154,118 +3170,119 @@
       </c>
       <c r="F20" s="19">
         <f t="shared" si="0"/>
-        <v>45877</v>
+        <v>45936</v>
       </c>
       <c r="G20" s="20">
         <f t="shared" si="9"/>
-        <v>45901</v>
-      </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
+        <v>45958</v>
+      </c>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
       <c r="J20" s="22"/>
       <c r="K20" s="23">
         <f t="shared" si="2"/>
-        <v>45902</v>
+        <v>45959</v>
       </c>
       <c r="L20" s="19">
         <f t="shared" si="3"/>
-        <v>45924</v>
-      </c>
-      <c r="M20" s="34"/>
-      <c r="N20" s="33"/>
+        <v>45981</v>
+      </c>
+      <c r="M20" s="33"/>
+      <c r="N20" s="32"/>
       <c r="O20" s="22"/>
       <c r="P20" s="23">
         <f t="shared" si="4"/>
-        <v>45925</v>
+        <v>45982</v>
       </c>
       <c r="Q20" s="19">
         <f t="shared" si="10"/>
-        <v>46034</v>
-      </c>
-      <c r="R20" s="28">
+        <v>46091</v>
+      </c>
+      <c r="R20" s="27">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="S20" s="29">
+      <c r="S20" s="28">
         <f t="shared" si="11"/>
         <v>109</v>
       </c>
       <c r="T20" s="22"/>
       <c r="U20" s="23">
         <f t="shared" si="6"/>
-        <v>45925</v>
+        <v>45982</v>
       </c>
       <c r="V20" s="19">
         <f t="shared" si="12"/>
-        <v>46034</v>
-      </c>
-      <c r="W20" s="28">
+        <v>46091</v>
+      </c>
+      <c r="W20" s="27">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="X20" s="29">
+      <c r="X20" s="28">
         <f t="shared" si="14"/>
         <v>109</v>
       </c>
       <c r="Y20" s="22"/>
       <c r="Z20" s="23">
         <f t="shared" si="15"/>
-        <v>46035</v>
+        <v>46092</v>
       </c>
       <c r="AA20" s="19">
         <f t="shared" si="16"/>
-        <v>46055</v>
-      </c>
-      <c r="AB20" s="28">
+        <v>46112</v>
+      </c>
+      <c r="AB20" s="27">
         <f t="shared" si="17"/>
         <v>110</v>
       </c>
-      <c r="AC20" s="29">
+      <c r="AC20" s="28">
         <f t="shared" si="18"/>
         <v>130</v>
       </c>
       <c r="AD20" s="22"/>
-      <c r="AE20" s="23">
-        <v>46056</v>
-      </c>
-      <c r="AF20" s="37">
-        <v>46082</v>
-      </c>
-      <c r="AG20" s="28">
+      <c r="AE20" s="43">
+        <v>46113</v>
+      </c>
+      <c r="AF20" s="45">
+        <f>IFERROR(WORKDAY(AE20,($V$2-1)),"-")</f>
+        <v>46112</v>
+      </c>
+      <c r="AG20" s="27">
         <f t="shared" si="7"/>
         <v>131</v>
       </c>
-      <c r="AH20" s="29">
+      <c r="AH20" s="28">
         <f t="shared" si="19"/>
         <v>151</v>
       </c>
       <c r="AI20" s="22"/>
       <c r="AJ20" s="23">
         <f t="shared" si="20"/>
-        <v>46083</v>
+        <v>46113</v>
       </c>
       <c r="AK20" s="19">
         <f t="shared" si="21"/>
-        <v>46101</v>
-      </c>
-      <c r="AL20" s="28">
+        <v>46133</v>
+      </c>
+      <c r="AL20" s="27">
         <f t="shared" si="22"/>
         <v>152</v>
       </c>
-      <c r="AM20" s="29">
+      <c r="AM20" s="28">
         <f t="shared" si="23"/>
         <v>172</v>
       </c>
       <c r="AN20" s="17">
         <f t="shared" si="8"/>
-        <v>-45929</v>
+        <v>-45961</v>
       </c>
     </row>
     <row r="22" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="AJ22" s="43"/>
+      <c r="AJ22" s="36"/>
     </row>
     <row r="27" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="AG27" s="38"/>
+      <c r="AG27" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/BASE - VENDA E REGISTRO.xlsx
+++ b/BASE - VENDA E REGISTRO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viana e Moura\Dropbox\PLANEJAMENTO\Scripts\MÓDULO VENDAS\MODULO_VENDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A800E563-5F6B-43C5-AEED-41AC48BCF02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3A37FC-6D94-4742-B452-35236E51848F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0382C43D-564D-4A4C-8EAB-6952E70C6A7B}"/>
   </bookViews>
@@ -38,22 +38,22 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={C911A1CC-AEAC-49BE-8105-884EF8529DDD}</author>
-    <author>tc={B3CC61C4-8462-4C8B-ACAD-1ED961005EAE}</author>
-    <author>tc={57A877C1-7C92-4C88-BC52-C22A218BCE5C}</author>
-    <author>tc={724F9BDD-1A5F-4D31-9141-82808955489C}</author>
-    <author>tc={07DD4579-01DE-4592-A2E9-9C9F08EDBAC8}</author>
-    <author>tc={8293BAA2-4413-40A4-8BEB-6558A49858DC}</author>
-    <author>tc={0EDE84FB-276E-4E0F-A8BA-6E87B9F0D27D}</author>
-    <author>tc={74000C8F-2D3A-4FFE-919A-2A6536983C2E}</author>
-    <author>tc={FA2E2D81-AED1-47D1-AD38-E7D523ADBFC6}</author>
-    <author>tc={9789D022-FB90-4C0D-922B-2CA42AE79280}</author>
-    <author>tc={F6102217-BFBD-4737-A324-1F048E9188A6}</author>
-    <author>tc={0937FE71-82AB-4E69-B19E-91F226F3D5ED}</author>
-    <author>tc={6C385ECE-9902-4954-928B-11E28070C567}</author>
+    <author>tc={64C1BE5F-3B21-46A9-912D-BC6237B8F3BD}</author>
+    <author>tc={F07C3986-992A-49B4-9099-36179A205B10}</author>
+    <author>tc={7BB92C6B-510F-41CC-A281-B200B1D6EF2F}</author>
+    <author>tc={D461A7FE-4226-4AC9-8F28-8F092FA68E16}</author>
+    <author>tc={78DCD198-61EE-4B44-966D-78CE912CF39D}</author>
+    <author>tc={0D624D39-907B-4540-95DD-A42A5A0D6DEF}</author>
+    <author>tc={EF2EF806-B000-4CE1-97C4-272F2316BB4C}</author>
+    <author>tc={26978B93-E6DC-4F4B-AA2B-D3A72F3B5357}</author>
+    <author>tc={2D69A969-3FF2-4990-8182-9EEEA11AA936}</author>
+    <author>tc={21312E6B-7745-4342-8533-2166A8CDBD06}</author>
+    <author>tc={EA071F7E-C58E-48AD-B264-77B51E1EBC01}</author>
+    <author>tc={CE8386D1-95FD-4C29-BBA1-FD3C9A618362}</author>
+    <author>tc={699F754B-E105-4B79-9FF6-55B295FEA897}</author>
   </authors>
   <commentList>
-    <comment ref="AF8" authorId="0" shapeId="0" xr:uid="{C911A1CC-AEAC-49BE-8105-884EF8529DDD}">
+    <comment ref="AF8" authorId="0" shapeId="0" xr:uid="{64C1BE5F-3B21-46A9-912D-BC6237B8F3BD}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -62,7 +62,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF9" authorId="1" shapeId="0" xr:uid="{B3CC61C4-8462-4C8B-ACAD-1ED961005EAE}">
+    <comment ref="AF9" authorId="1" shapeId="0" xr:uid="{F07C3986-992A-49B4-9099-36179A205B10}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -71,7 +71,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF10" authorId="2" shapeId="0" xr:uid="{57A877C1-7C92-4C88-BC52-C22A218BCE5C}">
+    <comment ref="AF10" authorId="2" shapeId="0" xr:uid="{7BB92C6B-510F-41CC-A281-B200B1D6EF2F}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -80,7 +80,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF11" authorId="3" shapeId="0" xr:uid="{724F9BDD-1A5F-4D31-9141-82808955489C}">
+    <comment ref="AF11" authorId="3" shapeId="0" xr:uid="{D461A7FE-4226-4AC9-8F28-8F092FA68E16}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -89,7 +89,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF12" authorId="4" shapeId="0" xr:uid="{07DD4579-01DE-4592-A2E9-9C9F08EDBAC8}">
+    <comment ref="AF12" authorId="4" shapeId="0" xr:uid="{78DCD198-61EE-4B44-966D-78CE912CF39D}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -98,7 +98,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF13" authorId="5" shapeId="0" xr:uid="{8293BAA2-4413-40A4-8BEB-6558A49858DC}">
+    <comment ref="AF13" authorId="5" shapeId="0" xr:uid="{0D624D39-907B-4540-95DD-A42A5A0D6DEF}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -107,7 +107,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF14" authorId="6" shapeId="0" xr:uid="{0EDE84FB-276E-4E0F-A8BA-6E87B9F0D27D}">
+    <comment ref="AF14" authorId="6" shapeId="0" xr:uid="{EF2EF806-B000-4CE1-97C4-272F2316BB4C}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -116,7 +116,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF15" authorId="7" shapeId="0" xr:uid="{74000C8F-2D3A-4FFE-919A-2A6536983C2E}">
+    <comment ref="AF15" authorId="7" shapeId="0" xr:uid="{26978B93-E6DC-4F4B-AA2B-D3A72F3B5357}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -125,7 +125,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF16" authorId="8" shapeId="0" xr:uid="{FA2E2D81-AED1-47D1-AD38-E7D523ADBFC6}">
+    <comment ref="AF16" authorId="8" shapeId="0" xr:uid="{2D69A969-3FF2-4990-8182-9EEEA11AA936}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -134,7 +134,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF17" authorId="9" shapeId="0" xr:uid="{9789D022-FB90-4C0D-922B-2CA42AE79280}">
+    <comment ref="AF17" authorId="9" shapeId="0" xr:uid="{21312E6B-7745-4342-8533-2166A8CDBD06}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -143,7 +143,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF18" authorId="10" shapeId="0" xr:uid="{F6102217-BFBD-4737-A324-1F048E9188A6}">
+    <comment ref="AF18" authorId="10" shapeId="0" xr:uid="{EA071F7E-C58E-48AD-B264-77B51E1EBC01}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -152,7 +152,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF19" authorId="11" shapeId="0" xr:uid="{0937FE71-82AB-4E69-B19E-91F226F3D5ED}">
+    <comment ref="AF19" authorId="11" shapeId="0" xr:uid="{CE8386D1-95FD-4C29-BBA1-FD3C9A618362}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -161,7 +161,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF20" authorId="12" shapeId="0" xr:uid="{6C385ECE-9902-4954-928B-11E28070C567}">
+    <comment ref="AF20" authorId="12" shapeId="0" xr:uid="{699F754B-E105-4B79-9FF6-55B295FEA897}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -395,7 +395,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,6 +502,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1144,55 +1150,55 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AF8" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{C911A1CC-AEAC-49BE-8105-884EF8529DDD}">
+  <threadedComment ref="AF8" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{64C1BE5F-3B21-46A9-912D-BC6237B8F3BD}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF9" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{B3CC61C4-8462-4C8B-ACAD-1ED961005EAE}">
+  <threadedComment ref="AF9" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{F07C3986-992A-49B4-9099-36179A205B10}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF10" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{57A877C1-7C92-4C88-BC52-C22A218BCE5C}">
+  <threadedComment ref="AF10" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{7BB92C6B-510F-41CC-A281-B200B1D6EF2F}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF11" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{724F9BDD-1A5F-4D31-9141-82808955489C}">
+  <threadedComment ref="AF11" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{D461A7FE-4226-4AC9-8F28-8F092FA68E16}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF12" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{07DD4579-01DE-4592-A2E9-9C9F08EDBAC8}">
+  <threadedComment ref="AF12" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{78DCD198-61EE-4B44-966D-78CE912CF39D}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF13" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{8293BAA2-4413-40A4-8BEB-6558A49858DC}">
+  <threadedComment ref="AF13" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{0D624D39-907B-4540-95DD-A42A5A0D6DEF}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF14" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{0EDE84FB-276E-4E0F-A8BA-6E87B9F0D27D}">
+  <threadedComment ref="AF14" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{EF2EF806-B000-4CE1-97C4-272F2316BB4C}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF15" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{74000C8F-2D3A-4FFE-919A-2A6536983C2E}">
+  <threadedComment ref="AF15" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{26978B93-E6DC-4F4B-AA2B-D3A72F3B5357}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF16" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{FA2E2D81-AED1-47D1-AD38-E7D523ADBFC6}">
+  <threadedComment ref="AF16" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{2D69A969-3FF2-4990-8182-9EEEA11AA936}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF17" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{9789D022-FB90-4C0D-922B-2CA42AE79280}">
+  <threadedComment ref="AF17" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{21312E6B-7745-4342-8533-2166A8CDBD06}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF18" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{F6102217-BFBD-4737-A324-1F048E9188A6}">
+  <threadedComment ref="AF18" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{EA071F7E-C58E-48AD-B264-77B51E1EBC01}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF19" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{0937FE71-82AB-4E69-B19E-91F226F3D5ED}">
+  <threadedComment ref="AF19" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{CE8386D1-95FD-4C29-BBA1-FD3C9A618362}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF20" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{6C385ECE-9902-4954-928B-11E28070C567}">
+  <threadedComment ref="AF20" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{699F754B-E105-4B79-9FF6-55B295FEA897}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
@@ -1203,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DB70CC-ACBF-416D-B448-0645472647BA}">
   <dimension ref="A2:AN27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AJ26" sqref="AJ26"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="10.8" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2870,7 +2876,8 @@
         <v>46054</v>
       </c>
       <c r="AF17" s="40">
-        <v>46079</v>
+        <f>IFERROR(WORKDAY(AE17,($V$2-1)),"-")</f>
+        <v>46052</v>
       </c>
       <c r="AG17" s="27">
         <f t="shared" si="7"/>
@@ -2883,11 +2890,11 @@
       <c r="AI17" s="22"/>
       <c r="AJ17" s="23">
         <f t="shared" si="20"/>
-        <v>46080</v>
+        <v>46055</v>
       </c>
       <c r="AK17" s="19">
         <f t="shared" si="21"/>
-        <v>46100</v>
+        <v>46073</v>
       </c>
       <c r="AL17" s="27">
         <f t="shared" si="22"/>
@@ -2899,7 +2906,7 @@
       </c>
       <c r="AN17" s="17">
         <f t="shared" si="8"/>
-        <v>-45928</v>
+        <v>-45901</v>
       </c>
     </row>
     <row r="18" spans="2:40" x14ac:dyDescent="0.25">
@@ -2992,7 +2999,8 @@
         <v>46023</v>
       </c>
       <c r="AF18" s="41">
-        <v>46050</v>
+        <f>IFERROR(WORKDAY(AE18,($V$2-1)),"-")</f>
+        <v>46022</v>
       </c>
       <c r="AG18" s="27">
         <f t="shared" si="7"/>
@@ -3005,11 +3013,11 @@
       <c r="AI18" s="22"/>
       <c r="AJ18" s="23">
         <f t="shared" si="20"/>
-        <v>46051</v>
+        <v>46023</v>
       </c>
       <c r="AK18" s="19">
         <f t="shared" si="21"/>
-        <v>46071</v>
+        <v>46043</v>
       </c>
       <c r="AL18" s="27">
         <f t="shared" si="22"/>
@@ -3021,7 +3029,7 @@
       </c>
       <c r="AN18" s="17">
         <f t="shared" si="8"/>
-        <v>-45899</v>
+        <v>-45871</v>
       </c>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.25">
@@ -3114,7 +3122,8 @@
         <v>46082</v>
       </c>
       <c r="AF19" s="40">
-        <v>46107</v>
+        <f>IFERROR(WORKDAY(AE19,($V$2-1)),"-")</f>
+        <v>46080</v>
       </c>
       <c r="AG19" s="27">
         <f t="shared" si="7"/>
@@ -3127,11 +3136,11 @@
       <c r="AI19" s="22"/>
       <c r="AJ19" s="23">
         <f t="shared" si="20"/>
-        <v>46108</v>
+        <v>46083</v>
       </c>
       <c r="AK19" s="19">
         <f t="shared" si="21"/>
-        <v>46128</v>
+        <v>46101</v>
       </c>
       <c r="AL19" s="27">
         <f t="shared" si="22"/>
@@ -3143,7 +3152,7 @@
       </c>
       <c r="AN19" s="17">
         <f t="shared" si="8"/>
-        <v>-45956</v>
+        <v>-45929</v>
       </c>
     </row>
     <row r="20" spans="2:40" x14ac:dyDescent="0.25">
@@ -3236,7 +3245,8 @@
         <v>46113</v>
       </c>
       <c r="AF20" s="41">
-        <v>46140</v>
+        <f>IFERROR(WORKDAY(AE20,($V$2-1)),"-")</f>
+        <v>46112</v>
       </c>
       <c r="AG20" s="27">
         <f t="shared" si="7"/>
@@ -3249,11 +3259,11 @@
       <c r="AI20" s="22"/>
       <c r="AJ20" s="23">
         <f t="shared" si="20"/>
-        <v>46141</v>
+        <v>46113</v>
       </c>
       <c r="AK20" s="19">
         <f t="shared" si="21"/>
-        <v>46161</v>
+        <v>46133</v>
       </c>
       <c r="AL20" s="27">
         <f t="shared" si="22"/>
@@ -3265,7 +3275,7 @@
       </c>
       <c r="AN20" s="17">
         <f t="shared" si="8"/>
-        <v>-45989</v>
+        <v>-45961</v>
       </c>
     </row>
     <row r="22" spans="2:40" x14ac:dyDescent="0.25">

--- a/BASE - VENDA E REGISTRO.xlsx
+++ b/BASE - VENDA E REGISTRO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viana e Moura\Dropbox\PLANEJAMENTO\Scripts\MÓDULO VENDAS\MODULO_VENDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3A37FC-6D94-4742-B452-35236E51848F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E243650-FF9D-411B-8ACE-2F6CDD744A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0382C43D-564D-4A4C-8EAB-6952E70C6A7B}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0382C43D-564D-4A4C-8EAB-6952E70C6A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="PLANEJADOR MÓDULOS" sheetId="1" r:id="rId1"/>
@@ -395,7 +395,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,12 +502,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1209,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DB70CC-ACBF-416D-B448-0645472647BA}">
   <dimension ref="A2:AN27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AJ22" sqref="AJ22"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AE26" sqref="AE26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="10.8" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2876,8 +2870,7 @@
         <v>46054</v>
       </c>
       <c r="AF17" s="40">
-        <f>IFERROR(WORKDAY(AE17,($V$2-1)),"-")</f>
-        <v>46052</v>
+        <v>46054</v>
       </c>
       <c r="AG17" s="27">
         <f t="shared" si="7"/>
@@ -2999,8 +2992,7 @@
         <v>46023</v>
       </c>
       <c r="AF18" s="41">
-        <f>IFERROR(WORKDAY(AE18,($V$2-1)),"-")</f>
-        <v>46022</v>
+        <v>46023</v>
       </c>
       <c r="AG18" s="27">
         <f t="shared" si="7"/>
@@ -3013,11 +3005,11 @@
       <c r="AI18" s="22"/>
       <c r="AJ18" s="23">
         <f t="shared" si="20"/>
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="AK18" s="19">
         <f t="shared" si="21"/>
-        <v>46043</v>
+        <v>46044</v>
       </c>
       <c r="AL18" s="27">
         <f t="shared" si="22"/>
@@ -3029,7 +3021,7 @@
       </c>
       <c r="AN18" s="17">
         <f t="shared" si="8"/>
-        <v>-45871</v>
+        <v>-45872</v>
       </c>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.25">
@@ -3122,8 +3114,7 @@
         <v>46082</v>
       </c>
       <c r="AF19" s="40">
-        <f>IFERROR(WORKDAY(AE19,($V$2-1)),"-")</f>
-        <v>46080</v>
+        <v>46082</v>
       </c>
       <c r="AG19" s="27">
         <f t="shared" si="7"/>
@@ -3245,8 +3236,7 @@
         <v>46113</v>
       </c>
       <c r="AF20" s="41">
-        <f>IFERROR(WORKDAY(AE20,($V$2-1)),"-")</f>
-        <v>46112</v>
+        <v>46113</v>
       </c>
       <c r="AG20" s="27">
         <f t="shared" si="7"/>
@@ -3259,11 +3249,11 @@
       <c r="AI20" s="22"/>
       <c r="AJ20" s="23">
         <f t="shared" si="20"/>
-        <v>46113</v>
+        <v>46114</v>
       </c>
       <c r="AK20" s="19">
         <f t="shared" si="21"/>
-        <v>46133</v>
+        <v>46134</v>
       </c>
       <c r="AL20" s="27">
         <f t="shared" si="22"/>
@@ -3275,7 +3265,7 @@
       </c>
       <c r="AN20" s="17">
         <f t="shared" si="8"/>
-        <v>-45961</v>
+        <v>-45962</v>
       </c>
     </row>
     <row r="22" spans="2:40" x14ac:dyDescent="0.25">

--- a/BASE - VENDA E REGISTRO.xlsx
+++ b/BASE - VENDA E REGISTRO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viana e Moura\Dropbox\PLANEJAMENTO\Scripts\MÓDULO VENDAS\MODULO_VENDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E243650-FF9D-411B-8ACE-2F6CDD744A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4637A4F9-E3D0-4ECC-886F-6A88F8AB52CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0382C43D-564D-4A4C-8EAB-6952E70C6A7B}"/>
   </bookViews>
@@ -1204,7 +1204,7 @@
   <dimension ref="A2:AN27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AE26" sqref="AE26"/>
+      <selection activeCell="AJ8" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="10.8" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1712,7 +1712,7 @@
         <v>45839</v>
       </c>
       <c r="AF8" s="20">
-        <v>45992</v>
+        <v>45866</v>
       </c>
       <c r="AG8" s="25">
         <f t="shared" ref="AG8:AG20" si="7">WORKDAY.INTL(AC8,1)</f>
@@ -1724,11 +1724,11 @@
       <c r="AI8" s="22"/>
       <c r="AJ8" s="23">
         <f>IFERROR(WORKDAY(AF8,1),"-")</f>
-        <v>45993</v>
+        <v>45867</v>
       </c>
       <c r="AK8" s="19">
         <f>IFERROR(WORKDAY(AJ8,($AM$2-1)),"-")</f>
-        <v>46013</v>
+        <v>45887</v>
       </c>
       <c r="AL8" s="25">
         <v>45800</v>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="AN8" s="17">
         <f t="shared" ref="AN8:AN20" si="8">IFERROR(AM8-AK8,"-")</f>
-        <v>-213</v>
+        <v>-87</v>
       </c>
     </row>
     <row r="9" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1840,7 +1840,7 @@
         <v>45839</v>
       </c>
       <c r="AF9" s="38">
-        <v>45901</v>
+        <v>45866</v>
       </c>
       <c r="AG9" s="27">
         <f t="shared" si="7"/>
@@ -1853,11 +1853,11 @@
       <c r="AI9" s="22"/>
       <c r="AJ9" s="23">
         <f t="shared" ref="AJ9:AJ20" si="20">IFERROR(WORKDAY(AF9,1),"-")</f>
-        <v>45902</v>
+        <v>45867</v>
       </c>
       <c r="AK9" s="19">
         <f t="shared" ref="AK9:AK20" si="21">IFERROR(WORKDAY(AJ9,($AM$2-1)),"-")</f>
-        <v>45922</v>
+        <v>45887</v>
       </c>
       <c r="AL9" s="27">
         <f t="shared" ref="AL9:AL20" si="22">WORKDAY.INTL(AH9,1)</f>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="AN9" s="17">
         <f t="shared" si="8"/>
-        <v>-68</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="10" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -1971,7 +1971,7 @@
         <v>45901</v>
       </c>
       <c r="AF10" s="20">
-        <v>45992</v>
+        <v>45926</v>
       </c>
       <c r="AG10" s="27">
         <f t="shared" si="7"/>
@@ -1984,11 +1984,11 @@
       <c r="AI10" s="22"/>
       <c r="AJ10" s="23">
         <f t="shared" si="20"/>
-        <v>45993</v>
+        <v>45929</v>
       </c>
       <c r="AK10" s="19">
         <f t="shared" si="21"/>
-        <v>46013</v>
+        <v>45947</v>
       </c>
       <c r="AL10" s="27">
         <f t="shared" si="22"/>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="AN10" s="17">
         <f t="shared" si="8"/>
-        <v>-133</v>
+        <v>-67</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
@@ -2102,7 +2102,7 @@
         <v>45992</v>
       </c>
       <c r="AF11" s="38">
-        <v>45992</v>
+        <v>46017</v>
       </c>
       <c r="AG11" s="27">
         <f t="shared" si="7"/>
@@ -2115,11 +2115,11 @@
       <c r="AI11" s="22"/>
       <c r="AJ11" s="23">
         <f t="shared" si="20"/>
-        <v>45993</v>
+        <v>46020</v>
       </c>
       <c r="AK11" s="19">
         <f t="shared" si="21"/>
-        <v>46013</v>
+        <v>46038</v>
       </c>
       <c r="AL11" s="27">
         <f t="shared" si="22"/>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="AN11" s="29">
         <f t="shared" si="8"/>
-        <v>-103</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
@@ -2233,7 +2233,7 @@
         <v>45992</v>
       </c>
       <c r="AF12" s="20">
-        <v>45992</v>
+        <v>46017</v>
       </c>
       <c r="AG12" s="27">
         <f t="shared" si="7"/>
@@ -2246,11 +2246,11 @@
       <c r="AI12" s="22"/>
       <c r="AJ12" s="23">
         <f t="shared" si="20"/>
-        <v>45993</v>
+        <v>46020</v>
       </c>
       <c r="AK12" s="19">
         <f t="shared" si="21"/>
-        <v>46013</v>
+        <v>46038</v>
       </c>
       <c r="AL12" s="27">
         <f t="shared" si="22"/>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="AN12" s="29">
         <f t="shared" si="8"/>
-        <v>-40</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
@@ -2364,7 +2364,7 @@
         <v>45901</v>
       </c>
       <c r="AF13" s="38">
-        <v>45992</v>
+        <v>45926</v>
       </c>
       <c r="AG13" s="27">
         <f t="shared" si="7"/>
@@ -2377,11 +2377,11 @@
       <c r="AI13" s="22"/>
       <c r="AJ13" s="23">
         <f t="shared" si="20"/>
-        <v>45993</v>
+        <v>45929</v>
       </c>
       <c r="AK13" s="19">
         <f t="shared" si="21"/>
-        <v>46013</v>
+        <v>45947</v>
       </c>
       <c r="AL13" s="27">
         <f t="shared" si="22"/>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="AN13" s="17">
         <f t="shared" si="8"/>
-        <v>-55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
@@ -2495,7 +2495,7 @@
         <v>45992</v>
       </c>
       <c r="AF14" s="20">
-        <v>45992</v>
+        <v>46017</v>
       </c>
       <c r="AG14" s="27">
         <f t="shared" si="7"/>
@@ -2508,11 +2508,11 @@
       <c r="AI14" s="22"/>
       <c r="AJ14" s="23">
         <f t="shared" si="20"/>
-        <v>45993</v>
+        <v>46020</v>
       </c>
       <c r="AK14" s="19">
         <f t="shared" si="21"/>
-        <v>46013</v>
+        <v>46038</v>
       </c>
       <c r="AL14" s="27">
         <f t="shared" si="22"/>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="AN14" s="17">
         <f t="shared" si="8"/>
-        <v>-12</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
@@ -2626,7 +2626,7 @@
         <v>45962</v>
       </c>
       <c r="AF15" s="38">
-        <v>45992</v>
+        <v>45988</v>
       </c>
       <c r="AG15" s="27">
         <f t="shared" si="7"/>
@@ -2639,11 +2639,11 @@
       <c r="AI15" s="22"/>
       <c r="AJ15" s="23">
         <f t="shared" si="20"/>
-        <v>45993</v>
+        <v>45989</v>
       </c>
       <c r="AK15" s="19">
         <f t="shared" si="21"/>
-        <v>46013</v>
+        <v>46009</v>
       </c>
       <c r="AL15" s="27">
         <f t="shared" si="22"/>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="AN15" s="17">
         <f t="shared" si="8"/>
-        <v>-26</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
@@ -2748,7 +2748,7 @@
         <v>45931</v>
       </c>
       <c r="AF16" s="20">
-        <v>45992</v>
+        <v>45958</v>
       </c>
       <c r="AG16" s="27">
         <f t="shared" si="7"/>
@@ -2761,11 +2761,11 @@
       <c r="AI16" s="22"/>
       <c r="AJ16" s="23">
         <f t="shared" si="20"/>
-        <v>45993</v>
+        <v>45959</v>
       </c>
       <c r="AK16" s="19">
         <f t="shared" si="21"/>
-        <v>46013</v>
+        <v>45979</v>
       </c>
       <c r="AL16" s="27">
         <f t="shared" si="22"/>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="AN16" s="29">
         <f t="shared" si="8"/>
-        <v>-45841</v>
+        <v>-45807</v>
       </c>
     </row>
     <row r="17" spans="2:40" x14ac:dyDescent="0.25">
@@ -2870,7 +2870,7 @@
         <v>46054</v>
       </c>
       <c r="AF17" s="40">
-        <v>46054</v>
+        <v>46079</v>
       </c>
       <c r="AG17" s="27">
         <f t="shared" si="7"/>
@@ -2883,11 +2883,11 @@
       <c r="AI17" s="22"/>
       <c r="AJ17" s="23">
         <f t="shared" si="20"/>
-        <v>46055</v>
+        <v>46080</v>
       </c>
       <c r="AK17" s="19">
         <f t="shared" si="21"/>
-        <v>46073</v>
+        <v>46100</v>
       </c>
       <c r="AL17" s="27">
         <f t="shared" si="22"/>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="AN17" s="17">
         <f t="shared" si="8"/>
-        <v>-45901</v>
+        <v>-45928</v>
       </c>
     </row>
     <row r="18" spans="2:40" x14ac:dyDescent="0.25">
@@ -2992,7 +2992,7 @@
         <v>46023</v>
       </c>
       <c r="AF18" s="41">
-        <v>46023</v>
+        <v>46050</v>
       </c>
       <c r="AG18" s="27">
         <f t="shared" si="7"/>
@@ -3005,11 +3005,11 @@
       <c r="AI18" s="22"/>
       <c r="AJ18" s="23">
         <f t="shared" si="20"/>
-        <v>46024</v>
+        <v>46051</v>
       </c>
       <c r="AK18" s="19">
         <f t="shared" si="21"/>
-        <v>46044</v>
+        <v>46071</v>
       </c>
       <c r="AL18" s="27">
         <f t="shared" si="22"/>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="AN18" s="17">
         <f t="shared" si="8"/>
-        <v>-45872</v>
+        <v>-45899</v>
       </c>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.25">
@@ -3039,33 +3039,33 @@
       </c>
       <c r="F19" s="19">
         <f t="shared" si="0"/>
-        <v>45904</v>
+        <v>45936</v>
       </c>
       <c r="G19" s="20">
         <f t="shared" si="9"/>
-        <v>45926</v>
+        <v>45958</v>
       </c>
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
       <c r="J19" s="22"/>
       <c r="K19" s="23">
         <f t="shared" si="2"/>
-        <v>45929</v>
+        <v>45959</v>
       </c>
       <c r="L19" s="19">
         <f t="shared" si="3"/>
-        <v>45951</v>
+        <v>45981</v>
       </c>
       <c r="M19" s="33"/>
       <c r="N19" s="32"/>
       <c r="O19" s="22"/>
       <c r="P19" s="23">
         <f t="shared" si="4"/>
-        <v>45952</v>
+        <v>45982</v>
       </c>
       <c r="Q19" s="19">
         <f t="shared" si="10"/>
-        <v>46059</v>
+        <v>46091</v>
       </c>
       <c r="R19" s="27">
         <f t="shared" si="5"/>
@@ -3078,11 +3078,11 @@
       <c r="T19" s="22"/>
       <c r="U19" s="23">
         <f t="shared" si="6"/>
-        <v>45952</v>
+        <v>45982</v>
       </c>
       <c r="V19" s="19">
         <f t="shared" si="12"/>
-        <v>46059</v>
+        <v>46091</v>
       </c>
       <c r="W19" s="27">
         <f t="shared" si="13"/>
@@ -3095,11 +3095,11 @@
       <c r="Y19" s="22"/>
       <c r="Z19" s="23">
         <f t="shared" si="15"/>
-        <v>46062</v>
+        <v>46092</v>
       </c>
       <c r="AA19" s="19">
         <f t="shared" si="16"/>
-        <v>46080</v>
+        <v>46112</v>
       </c>
       <c r="AB19" s="27">
         <f t="shared" si="17"/>
@@ -3111,10 +3111,10 @@
       </c>
       <c r="AD19" s="22"/>
       <c r="AE19" s="39">
-        <v>46082</v>
+        <v>46113</v>
       </c>
       <c r="AF19" s="40">
-        <v>46082</v>
+        <v>46140</v>
       </c>
       <c r="AG19" s="27">
         <f t="shared" si="7"/>
@@ -3127,11 +3127,11 @@
       <c r="AI19" s="22"/>
       <c r="AJ19" s="23">
         <f t="shared" si="20"/>
-        <v>46083</v>
+        <v>46141</v>
       </c>
       <c r="AK19" s="19">
         <f t="shared" si="21"/>
-        <v>46101</v>
+        <v>46161</v>
       </c>
       <c r="AL19" s="27">
         <f t="shared" si="22"/>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="AN19" s="17">
         <f t="shared" si="8"/>
-        <v>-45929</v>
+        <v>-45989</v>
       </c>
     </row>
     <row r="20" spans="2:40" x14ac:dyDescent="0.25">
@@ -3236,7 +3236,7 @@
         <v>46113</v>
       </c>
       <c r="AF20" s="41">
-        <v>46113</v>
+        <v>46140</v>
       </c>
       <c r="AG20" s="27">
         <f t="shared" si="7"/>
@@ -3249,11 +3249,11 @@
       <c r="AI20" s="22"/>
       <c r="AJ20" s="23">
         <f t="shared" si="20"/>
-        <v>46114</v>
+        <v>46141</v>
       </c>
       <c r="AK20" s="19">
         <f t="shared" si="21"/>
-        <v>46134</v>
+        <v>46161</v>
       </c>
       <c r="AL20" s="27">
         <f t="shared" si="22"/>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="AN20" s="17">
         <f t="shared" si="8"/>
-        <v>-45962</v>
+        <v>-45989</v>
       </c>
     </row>
     <row r="22" spans="2:40" x14ac:dyDescent="0.25">

--- a/BASE - VENDA E REGISTRO.xlsx
+++ b/BASE - VENDA E REGISTRO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viana e Moura\Dropbox\PLANEJAMENTO\Scripts\MÓDULO VENDAS\MODULO_VENDAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viana e Moura\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4637A4F9-E3D0-4ECC-886F-6A88F8AB52CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6663E612-9C48-4ABE-BD76-2EA1EFDB11DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0382C43D-564D-4A4C-8EAB-6952E70C6A7B}"/>
   </bookViews>
@@ -38,22 +38,35 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={64C1BE5F-3B21-46A9-912D-BC6237B8F3BD}</author>
-    <author>tc={F07C3986-992A-49B4-9099-36179A205B10}</author>
-    <author>tc={7BB92C6B-510F-41CC-A281-B200B1D6EF2F}</author>
-    <author>tc={D461A7FE-4226-4AC9-8F28-8F092FA68E16}</author>
-    <author>tc={78DCD198-61EE-4B44-966D-78CE912CF39D}</author>
-    <author>tc={0D624D39-907B-4540-95DD-A42A5A0D6DEF}</author>
-    <author>tc={EF2EF806-B000-4CE1-97C4-272F2316BB4C}</author>
-    <author>tc={26978B93-E6DC-4F4B-AA2B-D3A72F3B5357}</author>
-    <author>tc={2D69A969-3FF2-4990-8182-9EEEA11AA936}</author>
-    <author>tc={21312E6B-7745-4342-8533-2166A8CDBD06}</author>
-    <author>tc={EA071F7E-C58E-48AD-B264-77B51E1EBC01}</author>
-    <author>tc={CE8386D1-95FD-4C29-BBA1-FD3C9A618362}</author>
-    <author>tc={699F754B-E105-4B79-9FF6-55B295FEA897}</author>
+    <author>tc={41C3AC48-042E-47F1-A500-46A55A824F9E}</author>
+    <author>tc={A50559E2-E51A-4CE1-82AB-E3621C2E055A}</author>
+    <author>tc={4560A49E-57CB-4439-A183-D13E1C0D6821}</author>
+    <author>tc={FB7E7AA3-5DF5-4784-9F39-FF4670A9E9BA}</author>
+    <author>tc={DC1FC7F5-453C-4D72-9E44-C27B2B8F718C}</author>
+    <author>tc={4D1DC485-129D-40CD-8C3B-CC6912223752}</author>
+    <author>tc={84EB5D74-C256-41D4-A632-17FC100BC9CB}</author>
+    <author>tc={09442CFC-A0FA-4B7C-8101-79A0134651F4}</author>
+    <author>tc={A2C016B3-BD5E-496C-841C-5B6C524C2F34}</author>
+    <author>tc={E5DFECBD-B439-4416-B9D0-7525E14C6B39}</author>
+    <author>tc={7033F907-4216-4DF9-9DC4-C0065547B5FD}</author>
+    <author>tc={AD56D3A8-D730-49B7-8598-C20FAB3D5753}</author>
+    <author>tc={C46DE1D5-A322-45AA-B89E-2B6AADF06928}</author>
+    <author>tc={78031AA1-6AFA-4BC4-BA54-198C201B6C8E}</author>
+    <author>tc={758D5103-C497-4320-AEE4-13FBB189C7FE}</author>
+    <author>tc={71010CA6-2C01-42DC-B1E5-8059627991F1}</author>
+    <author>tc={A59E04AD-DEF1-489D-9CFF-45292CDAFED2}</author>
+    <author>tc={948205B6-ECF5-45D0-AF0A-0B7933DBAAED}</author>
+    <author>tc={95D5BD83-6DE4-4DD1-B704-BABCE711898A}</author>
+    <author>tc={6A7AAFBB-EFAA-43F6-BFAE-8B993686BF66}</author>
+    <author>tc={049D4A47-FEA3-4032-883F-09F7A41FB342}</author>
+    <author>tc={0AF1399A-1F60-4AC9-A047-048A06AD2444}</author>
+    <author>tc={97000EFF-DBE0-4FBC-B3AE-689C316FC294}</author>
+    <author>tc={13E32BE6-BC0E-4F80-A782-73D939CDB94A}</author>
+    <author>tc={A1F5E690-87FA-4015-812D-2DE016A78B91}</author>
+    <author>tc={AE3D7F00-844C-4289-BA6A-38360F384520}</author>
   </authors>
   <commentList>
-    <comment ref="AF8" authorId="0" shapeId="0" xr:uid="{64C1BE5F-3B21-46A9-912D-BC6237B8F3BD}">
+    <comment ref="AF8" authorId="0" shapeId="0" xr:uid="{41C3AC48-042E-47F1-A500-46A55A824F9E}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -62,7 +75,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF9" authorId="1" shapeId="0" xr:uid="{F07C3986-992A-49B4-9099-36179A205B10}">
+    <comment ref="AK8" authorId="1" shapeId="0" xr:uid="{A50559E2-E51A-4CE1-82AB-E3621C2E055A}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -71,7 +84,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF10" authorId="2" shapeId="0" xr:uid="{7BB92C6B-510F-41CC-A281-B200B1D6EF2F}">
+    <comment ref="AF9" authorId="2" shapeId="0" xr:uid="{4560A49E-57CB-4439-A183-D13E1C0D6821}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -80,7 +93,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF11" authorId="3" shapeId="0" xr:uid="{D461A7FE-4226-4AC9-8F28-8F092FA68E16}">
+    <comment ref="AK9" authorId="3" shapeId="0" xr:uid="{FB7E7AA3-5DF5-4784-9F39-FF4670A9E9BA}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -89,7 +102,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF12" authorId="4" shapeId="0" xr:uid="{78DCD198-61EE-4B44-966D-78CE912CF39D}">
+    <comment ref="AF10" authorId="4" shapeId="0" xr:uid="{DC1FC7F5-453C-4D72-9E44-C27B2B8F718C}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -98,7 +111,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF13" authorId="5" shapeId="0" xr:uid="{0D624D39-907B-4540-95DD-A42A5A0D6DEF}">
+    <comment ref="AK10" authorId="5" shapeId="0" xr:uid="{4D1DC485-129D-40CD-8C3B-CC6912223752}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -107,7 +120,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF14" authorId="6" shapeId="0" xr:uid="{EF2EF806-B000-4CE1-97C4-272F2316BB4C}">
+    <comment ref="AF11" authorId="6" shapeId="0" xr:uid="{84EB5D74-C256-41D4-A632-17FC100BC9CB}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -116,7 +129,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF15" authorId="7" shapeId="0" xr:uid="{26978B93-E6DC-4F4B-AA2B-D3A72F3B5357}">
+    <comment ref="AK11" authorId="7" shapeId="0" xr:uid="{09442CFC-A0FA-4B7C-8101-79A0134651F4}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -125,7 +138,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF16" authorId="8" shapeId="0" xr:uid="{2D69A969-3FF2-4990-8182-9EEEA11AA936}">
+    <comment ref="AF12" authorId="8" shapeId="0" xr:uid="{A2C016B3-BD5E-496C-841C-5B6C524C2F34}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -134,7 +147,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF17" authorId="9" shapeId="0" xr:uid="{21312E6B-7745-4342-8533-2166A8CDBD06}">
+    <comment ref="AK12" authorId="9" shapeId="0" xr:uid="{E5DFECBD-B439-4416-B9D0-7525E14C6B39}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -143,7 +156,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF18" authorId="10" shapeId="0" xr:uid="{EA071F7E-C58E-48AD-B264-77B51E1EBC01}">
+    <comment ref="AF13" authorId="10" shapeId="0" xr:uid="{7033F907-4216-4DF9-9DC4-C0065547B5FD}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -152,7 +165,7 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF19" authorId="11" shapeId="0" xr:uid="{CE8386D1-95FD-4C29-BBA1-FD3C9A618362}">
+    <comment ref="AK13" authorId="11" shapeId="0" xr:uid="{AD56D3A8-D730-49B7-8598-C20FAB3D5753}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -161,7 +174,124 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
-    <comment ref="AF20" authorId="12" shapeId="0" xr:uid="{699F754B-E105-4B79-9FF6-55B295FEA897}">
+    <comment ref="AF14" authorId="12" shapeId="0" xr:uid="{C46DE1D5-A322-45AA-B89E-2B6AADF06928}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+      </text>
+    </comment>
+    <comment ref="AK14" authorId="13" shapeId="0" xr:uid="{78031AA1-6AFA-4BC4-BA54-198C201B6C8E}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+      </text>
+    </comment>
+    <comment ref="AF15" authorId="14" shapeId="0" xr:uid="{758D5103-C497-4320-AEE4-13FBB189C7FE}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+      </text>
+    </comment>
+    <comment ref="AK15" authorId="15" shapeId="0" xr:uid="{71010CA6-2C01-42DC-B1E5-8059627991F1}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+      </text>
+    </comment>
+    <comment ref="AF16" authorId="16" shapeId="0" xr:uid="{A59E04AD-DEF1-489D-9CFF-45292CDAFED2}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+      </text>
+    </comment>
+    <comment ref="AK16" authorId="17" shapeId="0" xr:uid="{948205B6-ECF5-45D0-AF0A-0B7933DBAAED}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+      </text>
+    </comment>
+    <comment ref="AF17" authorId="18" shapeId="0" xr:uid="{95D5BD83-6DE4-4DD1-B704-BABCE711898A}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+      </text>
+    </comment>
+    <comment ref="AK17" authorId="19" shapeId="0" xr:uid="{6A7AAFBB-EFAA-43F6-BFAE-8B993686BF66}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+      </text>
+    </comment>
+    <comment ref="AF18" authorId="20" shapeId="0" xr:uid="{049D4A47-FEA3-4032-883F-09F7A41FB342}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+      </text>
+    </comment>
+    <comment ref="AK18" authorId="21" shapeId="0" xr:uid="{0AF1399A-1F60-4AC9-A047-048A06AD2444}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+      </text>
+    </comment>
+    <comment ref="AF19" authorId="22" shapeId="0" xr:uid="{97000EFF-DBE0-4FBC-B3AE-689C316FC294}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+      </text>
+    </comment>
+    <comment ref="AK19" authorId="23" shapeId="0" xr:uid="{13E32BE6-BC0E-4F80-A782-73D939CDB94A}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+      </text>
+    </comment>
+    <comment ref="AF20" authorId="24" shapeId="0" xr:uid="{A1F5E690-87FA-4015-812D-2DE016A78B91}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+      </text>
+    </comment>
+    <comment ref="AK20" authorId="25" shapeId="0" xr:uid="{AE3D7F00-844C-4289-BA6A-38360F384520}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -175,7 +305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="76">
   <si>
     <t>PROGRAMAÇÃO
  DOCUMENTAÇÕES</t>
@@ -196,9 +326,6 @@
     <t>CONTRATAÇÃO</t>
   </si>
   <si>
-    <t>ASSINATURA</t>
-  </si>
-  <si>
     <t>PREV.</t>
   </si>
   <si>
@@ -389,13 +516,31 @@
   </si>
   <si>
     <t>SÃO VICENTE III-MERID(E)-09</t>
+  </si>
+  <si>
+    <t>DEMANDA MÍNIMA</t>
+  </si>
+  <si>
+    <t>PRÉ-ASSINATURA</t>
+  </si>
+  <si>
+    <t>M.PREV.INÍCIO</t>
+  </si>
+  <si>
+    <t>M.PREV.TÉRMINO</t>
+  </si>
+  <si>
+    <t>M.REAL.INÍCIO</t>
+  </si>
+  <si>
+    <t>M.REAL.TÉRMINO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,8 +648,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -561,13 +712,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,7 +810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -759,21 +904,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -784,6 +914,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1144,55 +1286,107 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AF8" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{64C1BE5F-3B21-46A9-912D-BC6237B8F3BD}">
+  <threadedComment ref="AF8" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{41C3AC48-042E-47F1-A500-46A55A824F9E}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF9" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{F07C3986-992A-49B4-9099-36179A205B10}">
+  <threadedComment ref="AK8" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{A50559E2-E51A-4CE1-82AB-E3621C2E055A}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF10" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{7BB92C6B-510F-41CC-A281-B200B1D6EF2F}">
+  <threadedComment ref="AF9" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{4560A49E-57CB-4439-A183-D13E1C0D6821}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF11" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{D461A7FE-4226-4AC9-8F28-8F092FA68E16}">
+  <threadedComment ref="AK9" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{FB7E7AA3-5DF5-4784-9F39-FF4670A9E9BA}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF12" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{78DCD198-61EE-4B44-966D-78CE912CF39D}">
+  <threadedComment ref="AF10" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{DC1FC7F5-453C-4D72-9E44-C27B2B8F718C}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF13" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{0D624D39-907B-4540-95DD-A42A5A0D6DEF}">
+  <threadedComment ref="AK10" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{4D1DC485-129D-40CD-8C3B-CC6912223752}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF14" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{EF2EF806-B000-4CE1-97C4-272F2316BB4C}">
+  <threadedComment ref="AF11" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{84EB5D74-C256-41D4-A632-17FC100BC9CB}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF15" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{26978B93-E6DC-4F4B-AA2B-D3A72F3B5357}">
+  <threadedComment ref="AK11" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{09442CFC-A0FA-4B7C-8101-79A0134651F4}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF16" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{2D69A969-3FF2-4990-8182-9EEEA11AA936}">
+  <threadedComment ref="AF12" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{A2C016B3-BD5E-496C-841C-5B6C524C2F34}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF17" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{21312E6B-7745-4342-8533-2166A8CDBD06}">
+  <threadedComment ref="AK12" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{E5DFECBD-B439-4416-B9D0-7525E14C6B39}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF18" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{EA071F7E-C58E-48AD-B264-77B51E1EBC01}">
+  <threadedComment ref="AF13" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{7033F907-4216-4DF9-9DC4-C0065547B5FD}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF19" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{CE8386D1-95FD-4C29-BBA1-FD3C9A618362}">
+  <threadedComment ref="AK13" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{AD56D3A8-D730-49B7-8598-C20FAB3D5753}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
-  <threadedComment ref="AF20" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{699F754B-E105-4B79-9FF6-55B295FEA897}">
+  <threadedComment ref="AF14" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{C46DE1D5-A322-45AA-B89E-2B6AADF06928}">
+    <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
+  </threadedComment>
+  <threadedComment ref="AK14" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{78031AA1-6AFA-4BC4-BA54-198C201B6C8E}">
+    <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
+  </threadedComment>
+  <threadedComment ref="AF15" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{758D5103-C497-4320-AEE4-13FBB189C7FE}">
+    <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
+  </threadedComment>
+  <threadedComment ref="AK15" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{71010CA6-2C01-42DC-B1E5-8059627991F1}">
+    <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
+  </threadedComment>
+  <threadedComment ref="AF16" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{A59E04AD-DEF1-489D-9CFF-45292CDAFED2}">
+    <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
+  </threadedComment>
+  <threadedComment ref="AK16" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{948205B6-ECF5-45D0-AF0A-0B7933DBAAED}">
+    <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
+  </threadedComment>
+  <threadedComment ref="AF17" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{95D5BD83-6DE4-4DD1-B704-BABCE711898A}">
+    <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
+  </threadedComment>
+  <threadedComment ref="AK17" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{6A7AAFBB-EFAA-43F6-BFAE-8B993686BF66}">
+    <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
+  </threadedComment>
+  <threadedComment ref="AF18" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{049D4A47-FEA3-4032-883F-09F7A41FB342}">
+    <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
+  </threadedComment>
+  <threadedComment ref="AK18" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{0AF1399A-1F60-4AC9-A047-048A06AD2444}">
+    <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
+  </threadedComment>
+  <threadedComment ref="AF19" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{97000EFF-DBE0-4FBC-B3AE-689C316FC294}">
+    <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
+  </threadedComment>
+  <threadedComment ref="AK19" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{13E32BE6-BC0E-4F80-A782-73D939CDB94A}">
+    <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
+  </threadedComment>
+  <threadedComment ref="AF20" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{A1F5E690-87FA-4015-812D-2DE016A78B91}">
+    <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
+  </threadedComment>
+  <threadedComment ref="AK20" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{AE3D7F00-844C-4289-BA6A-38360F384520}">
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
@@ -1201,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DB70CC-ACBF-416D-B448-0645472647BA}">
-  <dimension ref="A2:AN27"/>
+  <dimension ref="A2:AS27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AJ8" sqref="AJ8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG24" sqref="AG24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="10.8" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1240,12 +1434,16 @@
     <col min="36" max="36" width="8.44140625" style="5" customWidth="1" outlineLevel="1"/>
     <col min="37" max="38" width="8.44140625" style="2" customWidth="1"/>
     <col min="39" max="39" width="8.44140625" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="6" style="5" customWidth="1"/>
-    <col min="41" max="45" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="46" max="16384" width="8.5546875" style="5"/>
+    <col min="40" max="40" width="1.33203125" style="5" customWidth="1"/>
+    <col min="41" max="41" width="8.44140625" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="42" max="43" width="8.44140625" style="2" customWidth="1"/>
+    <col min="44" max="44" width="8.44140625" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="45" max="45" width="6" style="5" customWidth="1"/>
+    <col min="46" max="50" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="51" max="16384" width="8.5546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:40" ht="11.4" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" ht="11.4" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="I2" s="4">
         <v>17</v>
@@ -1266,247 +1464,281 @@
       </c>
       <c r="AE2" s="2"/>
       <c r="AH2" s="6">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AJ2" s="2"/>
       <c r="AM2" s="6">
+        <v>3</v>
+      </c>
+      <c r="AO2" s="2"/>
+      <c r="AR2" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="K3" s="42" t="s">
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="K3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="P3" s="45" t="s">
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="P3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="U3" s="42" t="s">
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="U3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Z3" s="42" t="s">
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Z3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AE3" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="43"/>
-      <c r="AJ3" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="43"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AE3" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="38"/>
+      <c r="AJ3" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="38"/>
+      <c r="AO3" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP3" s="37"/>
+      <c r="AQ3" s="37"/>
+      <c r="AR3" s="38"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>8</v>
-      </c>
       <c r="K4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>8</v>
-      </c>
       <c r="P4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="S4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>8</v>
-      </c>
       <c r="U4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="W4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="X4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="W4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>8</v>
-      </c>
       <c r="Z4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="10" t="s">
+      <c r="AC4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC4" s="10" t="s">
-        <v>8</v>
-      </c>
       <c r="AE4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AF4" s="10" t="s">
+      <c r="AH4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AG4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH4" s="10" t="s">
-        <v>8</v>
-      </c>
       <c r="AJ4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AK4" s="10" t="s">
+      <c r="AM4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AL4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM4" s="10" t="s">
-        <v>8</v>
+      <c r="AO4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR4" s="10" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="H5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="K5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="M5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="P5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="R5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="U5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="V5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="W5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="X5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="X5" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="Z5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AA5" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="AB5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AC5" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="AE5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AF5" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="AG5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AH5" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="AJ5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AK5" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="AL5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AM5" s="12" t="s">
-        <v>10</v>
+      <c r="AO5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR5" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="S6" s="2"/>
       <c r="U6" s="2"/>
       <c r="X6" s="2"/>
@@ -1516,117 +1748,131 @@
       <c r="AH6" s="2"/>
       <c r="AJ6" s="2"/>
       <c r="AM6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AR6" s="2"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="G7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="H7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="I7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="K7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="L7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="M7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="N7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="P7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="S7" s="14" t="s">
+      <c r="V7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="X7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="V7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="W7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="X7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z7" s="14" t="s">
+      <c r="AA7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AA7" s="14" t="s">
+      <c r="AB7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AB7" s="14" t="s">
+      <c r="AC7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AC7" s="14" t="s">
+      <c r="AE7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AE7" s="14" t="s">
+      <c r="AF7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AF7" s="14" t="s">
+      <c r="AG7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AG7" s="14" t="s">
+      <c r="AH7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AH7" s="14" t="s">
+      <c r="AJ7" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK7" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL7" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AJ7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK7" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL7" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN7" s="15" t="s">
+    </row>
+    <row r="8" spans="1:45" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="18" t="s">
         <v>41</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>42</v>
       </c>
       <c r="E8" s="17">
         <v>255</v>
@@ -1708,48 +1954,64 @@
         <v>45800</v>
       </c>
       <c r="AD8" s="22"/>
-      <c r="AE8" s="37">
+      <c r="AE8" s="43">
         <v>45839</v>
       </c>
       <c r="AF8" s="20">
-        <v>45866</v>
+        <f>IFERROR(WORKDAY(AE8,(AH$2-1)),"-")</f>
+        <v>45861</v>
       </c>
       <c r="AG8" s="25">
-        <f t="shared" ref="AG8:AG20" si="7">WORKDAY.INTL(AC8,1)</f>
-        <v>45803</v>
+        <f t="shared" ref="AG8:AG20" si="7">WORKDAY.INTL(W8,1)</f>
+        <v>45538</v>
       </c>
       <c r="AH8" s="26">
         <v>45834</v>
       </c>
       <c r="AI8" s="22"/>
-      <c r="AJ8" s="23">
-        <f>IFERROR(WORKDAY(AF8,1),"-")</f>
+      <c r="AJ8" s="20">
+        <f>IFERROR(WORKDAY(AK8,(-$AM$2+1)),"-")</f>
+        <v>45862</v>
+      </c>
+      <c r="AK8" s="41">
+        <v>45866</v>
+      </c>
+      <c r="AL8" s="25">
+        <f t="shared" ref="AL8:AL20" si="8">WORKDAY.INTL(AC8,1)</f>
+        <v>45803</v>
+      </c>
+      <c r="AM8" s="26">
+        <v>45834</v>
+      </c>
+      <c r="AN8" s="22"/>
+      <c r="AO8" s="23">
+        <f>IFERROR(WORKDAY(AK8,1),"-")</f>
         <v>45867</v>
       </c>
-      <c r="AK8" s="19">
-        <f>IFERROR(WORKDAY(AJ8,($AM$2-1)),"-")</f>
+      <c r="AP8" s="19">
+        <f>IFERROR(WORKDAY(AO8,($AR$2-1)),"-")</f>
         <v>45887</v>
       </c>
-      <c r="AL8" s="25">
+      <c r="AQ8" s="25">
         <v>45800</v>
       </c>
-      <c r="AM8" s="26">
+      <c r="AR8" s="26">
         <v>45800</v>
       </c>
-      <c r="AN8" s="17">
-        <f t="shared" ref="AN8:AN20" si="8">IFERROR(AM8-AK8,"-")</f>
+      <c r="AS8" s="17">
+        <f t="shared" ref="AS8:AS20" si="9">IFERROR(AR8-AP8,"-")</f>
         <v>-87</v>
       </c>
     </row>
-    <row r="9" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>44</v>
       </c>
       <c r="E9" s="17">
         <v>31</v>
@@ -1759,7 +2021,7 @@
         <v>45660</v>
       </c>
       <c r="G9" s="20">
-        <f t="shared" ref="G9:G20" si="9">IFERROR(WORKDAY(K9,-1),"-")</f>
+        <f t="shared" ref="G9:G20" si="10">IFERROR(WORKDAY(K9,-1),"-")</f>
         <v>45684</v>
       </c>
       <c r="H9" s="21">
@@ -1790,7 +2052,7 @@
         <v>45708</v>
       </c>
       <c r="Q9" s="19">
-        <f t="shared" ref="Q9:Q20" si="10">IFERROR(WORKDAY(Z9,-1),"-")</f>
+        <f t="shared" ref="Q9:Q20" si="11">IFERROR(WORKDAY(Z9,-1),"-")</f>
         <v>45817</v>
       </c>
       <c r="R9" s="27">
@@ -1798,7 +2060,7 @@
         <v>45684</v>
       </c>
       <c r="S9" s="28">
-        <f t="shared" ref="S9:S20" si="11">WORKDAY(R9,$S$2-1)</f>
+        <f t="shared" ref="S9:S20" si="12">WORKDAY(R9,$S$2-1)</f>
         <v>45791</v>
       </c>
       <c r="T9" s="22"/>
@@ -1807,80 +2069,97 @@
         <v>45708</v>
       </c>
       <c r="V9" s="19">
-        <f t="shared" ref="V9:V20" si="12">IFERROR(WORKDAY(Z9,-1),"-")</f>
+        <f t="shared" ref="V9:V20" si="13">IFERROR(WORKDAY(Z9,-1),"-")</f>
         <v>45817</v>
       </c>
       <c r="W9" s="27">
-        <f t="shared" ref="W9:W20" si="13">WORKDAY.INTL(N9,1)</f>
+        <f t="shared" ref="W9:W20" si="14">WORKDAY.INTL(N9,1)</f>
         <v>45684</v>
       </c>
       <c r="X9" s="28">
-        <f t="shared" ref="X9:X20" si="14">WORKDAY(W9,$X$2-1)</f>
+        <f t="shared" ref="X9:X20" si="15">WORKDAY(W9,$X$2-1)</f>
         <v>45791</v>
       </c>
       <c r="Y9" s="22"/>
       <c r="Z9" s="23">
-        <f t="shared" ref="Z9:Z20" si="15">IFERROR(WORKDAY(AA9,(-$AC$2+1)),"-")</f>
+        <f t="shared" ref="Z9:Z20" si="16">IFERROR(WORKDAY(AA9,(-$AC$2+1)),"-")</f>
         <v>45818</v>
       </c>
       <c r="AA9" s="19">
-        <f t="shared" ref="AA9:AA20" si="16">IFERROR(WORKDAY(AE9,-1),"-")</f>
+        <f t="shared" ref="AA9:AA20" si="17">IFERROR(WORKDAY(AE9,-1),"-")</f>
         <v>45838</v>
       </c>
       <c r="AB9" s="27">
-        <f t="shared" ref="AB9:AB20" si="17">WORKDAY.INTL(X9,1)</f>
+        <f t="shared" ref="AB9:AB20" si="18">WORKDAY.INTL(X9,1)</f>
         <v>45792</v>
       </c>
       <c r="AC9" s="28">
-        <f t="shared" ref="AC9:AC20" si="18">WORKDAY(AB9,$AC$2-1)</f>
+        <f t="shared" ref="AC9:AC20" si="19">WORKDAY(AB9,$AC$2-1)</f>
         <v>45812</v>
       </c>
       <c r="AD9" s="22"/>
-      <c r="AE9" s="37">
+      <c r="AE9" s="43">
         <v>45839</v>
       </c>
-      <c r="AF9" s="38">
-        <v>45866</v>
+      <c r="AF9" s="20">
+        <f t="shared" ref="AF9:AF20" si="20">IFERROR(WORKDAY(AE9,(AH$2-1)),"-")</f>
+        <v>45861</v>
       </c>
       <c r="AG9" s="27">
         <f t="shared" si="7"/>
+        <v>45685</v>
+      </c>
+      <c r="AH9" s="28">
+        <f t="shared" ref="AH9:AH20" si="21">IFERROR(WORKDAY(W9,($AR$2)),"-")</f>
+        <v>45705</v>
+      </c>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="20">
+        <f t="shared" ref="AJ9:AJ20" si="22">IFERROR(WORKDAY(AK9,(-$AM$2+1)),"-")</f>
+        <v>45862</v>
+      </c>
+      <c r="AK9" s="41">
+        <v>45866</v>
+      </c>
+      <c r="AL9" s="27">
+        <f t="shared" si="8"/>
         <v>45813</v>
       </c>
-      <c r="AH9" s="28">
-        <f t="shared" ref="AH9:AH20" si="19">IFERROR(WORKDAY(AC9,($AM$2)),"-")</f>
+      <c r="AM9" s="28">
+        <f t="shared" ref="AM9:AM20" si="23">IFERROR(WORKDAY(AC9,($AR$2)),"-")</f>
         <v>45833</v>
       </c>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="23">
-        <f t="shared" ref="AJ9:AJ20" si="20">IFERROR(WORKDAY(AF9,1),"-")</f>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="23">
+        <f t="shared" ref="AO9:AO20" si="24">IFERROR(WORKDAY(AK9,1),"-")</f>
         <v>45867</v>
       </c>
-      <c r="AK9" s="19">
-        <f t="shared" ref="AK9:AK20" si="21">IFERROR(WORKDAY(AJ9,($AM$2-1)),"-")</f>
+      <c r="AP9" s="19">
+        <f t="shared" ref="AP9:AP20" si="25">IFERROR(WORKDAY(AO9,($AR$2-1)),"-")</f>
         <v>45887</v>
       </c>
-      <c r="AL9" s="27">
-        <f t="shared" ref="AL9:AL20" si="22">WORKDAY.INTL(AH9,1)</f>
+      <c r="AQ9" s="27">
+        <f t="shared" ref="AQ9:AQ20" si="26">WORKDAY.INTL(AM9,1)</f>
         <v>45834</v>
       </c>
-      <c r="AM9" s="28">
-        <f t="shared" ref="AM9:AM20" si="23">WORKDAY(AL9,$AC$2-1)</f>
+      <c r="AR9" s="28">
+        <f t="shared" ref="AR9:AR20" si="27">WORKDAY(AQ9,$AC$2-1)</f>
         <v>45854</v>
       </c>
-      <c r="AN9" s="17">
-        <f t="shared" si="8"/>
+      <c r="AS9" s="17">
+        <f t="shared" si="9"/>
         <v>-33</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>45</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>46</v>
       </c>
       <c r="E10" s="17">
         <v>250</v>
@@ -1890,7 +2169,7 @@
         <v>45722</v>
       </c>
       <c r="G10" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45744</v>
       </c>
       <c r="H10" s="21">
@@ -1921,7 +2200,7 @@
         <v>45770</v>
       </c>
       <c r="Q10" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45877</v>
       </c>
       <c r="R10" s="27">
@@ -1929,7 +2208,7 @@
         <v>45708</v>
       </c>
       <c r="S10" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>45817</v>
       </c>
       <c r="T10" s="22"/>
@@ -1938,80 +2217,97 @@
         <v>45770</v>
       </c>
       <c r="V10" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45877</v>
       </c>
       <c r="W10" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>45708</v>
       </c>
       <c r="X10" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>45817</v>
       </c>
       <c r="Y10" s="22"/>
       <c r="Z10" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>45880</v>
       </c>
       <c r="AA10" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45898</v>
       </c>
       <c r="AB10" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>45818</v>
       </c>
       <c r="AC10" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>45838</v>
       </c>
       <c r="AD10" s="22"/>
-      <c r="AE10" s="37">
+      <c r="AE10" s="43">
         <v>45901</v>
       </c>
       <c r="AF10" s="20">
-        <v>45926</v>
+        <f t="shared" si="20"/>
+        <v>45923</v>
       </c>
       <c r="AG10" s="27">
         <f t="shared" si="7"/>
+        <v>45709</v>
+      </c>
+      <c r="AH10" s="28">
+        <f t="shared" si="21"/>
+        <v>45729</v>
+      </c>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="20">
+        <f t="shared" si="22"/>
+        <v>45924</v>
+      </c>
+      <c r="AK10" s="41">
+        <v>45926</v>
+      </c>
+      <c r="AL10" s="27">
+        <f t="shared" si="8"/>
         <v>45839</v>
-      </c>
-      <c r="AH10" s="28">
-        <f t="shared" si="19"/>
-        <v>45859</v>
-      </c>
-      <c r="AI10" s="22"/>
-      <c r="AJ10" s="23">
-        <f t="shared" si="20"/>
-        <v>45929</v>
-      </c>
-      <c r="AK10" s="19">
-        <f t="shared" si="21"/>
-        <v>45947</v>
-      </c>
-      <c r="AL10" s="27">
-        <f t="shared" si="22"/>
-        <v>45860</v>
       </c>
       <c r="AM10" s="28">
         <f t="shared" si="23"/>
+        <v>45859</v>
+      </c>
+      <c r="AN10" s="22"/>
+      <c r="AO10" s="23">
+        <f t="shared" si="24"/>
+        <v>45929</v>
+      </c>
+      <c r="AP10" s="19">
+        <f t="shared" si="25"/>
+        <v>45947</v>
+      </c>
+      <c r="AQ10" s="27">
+        <f t="shared" si="26"/>
+        <v>45860</v>
+      </c>
+      <c r="AR10" s="28">
+        <f t="shared" si="27"/>
         <v>45880</v>
       </c>
-      <c r="AN10" s="17">
-        <f t="shared" si="8"/>
+      <c r="AS10" s="17">
+        <f t="shared" si="9"/>
         <v>-67</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>48</v>
-      </c>
       <c r="D11" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="17">
         <v>362</v>
@@ -2021,7 +2317,7 @@
         <v>45813</v>
       </c>
       <c r="G11" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45835</v>
       </c>
       <c r="H11" s="21">
@@ -2052,7 +2348,7 @@
         <v>45861</v>
       </c>
       <c r="Q11" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45968</v>
       </c>
       <c r="R11" s="27">
@@ -2060,7 +2356,7 @@
         <v>45740</v>
       </c>
       <c r="S11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>45847</v>
       </c>
       <c r="T11" s="22"/>
@@ -2069,80 +2365,97 @@
         <v>45861</v>
       </c>
       <c r="V11" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45968</v>
       </c>
       <c r="W11" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>45740</v>
       </c>
       <c r="X11" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>45847</v>
       </c>
       <c r="Y11" s="22"/>
       <c r="Z11" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>45971</v>
       </c>
       <c r="AA11" s="19">
-        <f t="shared" si="16"/>
+        <f>IFERROR(WORKDAY(AE11,-1),"-")</f>
         <v>45989</v>
       </c>
       <c r="AB11" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>45848</v>
       </c>
       <c r="AC11" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>45868</v>
       </c>
       <c r="AD11" s="22"/>
-      <c r="AE11" s="37">
+      <c r="AE11" s="43">
         <v>45992</v>
       </c>
-      <c r="AF11" s="38">
-        <v>46017</v>
+      <c r="AF11" s="20">
+        <f t="shared" si="20"/>
+        <v>46014</v>
       </c>
       <c r="AG11" s="27">
         <f t="shared" si="7"/>
+        <v>45741</v>
+      </c>
+      <c r="AH11" s="28">
+        <f t="shared" si="21"/>
+        <v>45761</v>
+      </c>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="20">
+        <f t="shared" si="22"/>
+        <v>46015</v>
+      </c>
+      <c r="AK11" s="41">
+        <v>46017</v>
+      </c>
+      <c r="AL11" s="27">
+        <f t="shared" si="8"/>
         <v>45869</v>
-      </c>
-      <c r="AH11" s="28">
-        <f t="shared" si="19"/>
-        <v>45889</v>
-      </c>
-      <c r="AI11" s="22"/>
-      <c r="AJ11" s="23">
-        <f t="shared" si="20"/>
-        <v>46020</v>
-      </c>
-      <c r="AK11" s="19">
-        <f t="shared" si="21"/>
-        <v>46038</v>
-      </c>
-      <c r="AL11" s="27">
-        <f t="shared" si="22"/>
-        <v>45890</v>
       </c>
       <c r="AM11" s="28">
         <f t="shared" si="23"/>
+        <v>45889</v>
+      </c>
+      <c r="AN11" s="22"/>
+      <c r="AO11" s="23">
+        <f t="shared" si="24"/>
+        <v>46020</v>
+      </c>
+      <c r="AP11" s="19">
+        <f t="shared" si="25"/>
+        <v>46038</v>
+      </c>
+      <c r="AQ11" s="27">
+        <f t="shared" si="26"/>
+        <v>45890</v>
+      </c>
+      <c r="AR11" s="28">
+        <f t="shared" si="27"/>
         <v>45910</v>
       </c>
-      <c r="AN11" s="29">
-        <f t="shared" si="8"/>
+      <c r="AS11" s="29">
+        <f t="shared" si="9"/>
         <v>-128</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>50</v>
-      </c>
       <c r="D12" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="17">
         <v>377</v>
@@ -2152,7 +2465,7 @@
         <v>45813</v>
       </c>
       <c r="G12" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45835</v>
       </c>
       <c r="H12" s="21">
@@ -2183,7 +2496,7 @@
         <v>45861</v>
       </c>
       <c r="Q12" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45968</v>
       </c>
       <c r="R12" s="27">
@@ -2191,7 +2504,7 @@
         <v>45803</v>
       </c>
       <c r="S12" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>45910</v>
       </c>
       <c r="T12" s="22"/>
@@ -2200,80 +2513,97 @@
         <v>45861</v>
       </c>
       <c r="V12" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45968</v>
       </c>
       <c r="W12" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>45803</v>
       </c>
       <c r="X12" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>45910</v>
       </c>
       <c r="Y12" s="22"/>
       <c r="Z12" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>45971</v>
       </c>
       <c r="AA12" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45989</v>
       </c>
       <c r="AB12" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>45911</v>
       </c>
       <c r="AC12" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>45931</v>
       </c>
       <c r="AD12" s="22"/>
-      <c r="AE12" s="37">
+      <c r="AE12" s="43">
         <v>45992</v>
       </c>
       <c r="AF12" s="20">
-        <v>46017</v>
+        <f t="shared" si="20"/>
+        <v>46014</v>
       </c>
       <c r="AG12" s="27">
         <f t="shared" si="7"/>
+        <v>45804</v>
+      </c>
+      <c r="AH12" s="28">
+        <f t="shared" si="21"/>
+        <v>45824</v>
+      </c>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="20">
+        <f t="shared" si="22"/>
+        <v>46015</v>
+      </c>
+      <c r="AK12" s="41">
+        <v>46017</v>
+      </c>
+      <c r="AL12" s="27">
+        <f t="shared" si="8"/>
         <v>45932</v>
-      </c>
-      <c r="AH12" s="28">
-        <f t="shared" si="19"/>
-        <v>45952</v>
-      </c>
-      <c r="AI12" s="22"/>
-      <c r="AJ12" s="23">
-        <f t="shared" si="20"/>
-        <v>46020</v>
-      </c>
-      <c r="AK12" s="19">
-        <f t="shared" si="21"/>
-        <v>46038</v>
-      </c>
-      <c r="AL12" s="27">
-        <f t="shared" si="22"/>
-        <v>45953</v>
       </c>
       <c r="AM12" s="28">
         <f t="shared" si="23"/>
+        <v>45952</v>
+      </c>
+      <c r="AN12" s="22"/>
+      <c r="AO12" s="23">
+        <f t="shared" si="24"/>
+        <v>46020</v>
+      </c>
+      <c r="AP12" s="19">
+        <f t="shared" si="25"/>
+        <v>46038</v>
+      </c>
+      <c r="AQ12" s="27">
+        <f t="shared" si="26"/>
+        <v>45953</v>
+      </c>
+      <c r="AR12" s="28">
+        <f t="shared" si="27"/>
         <v>45973</v>
       </c>
-      <c r="AN12" s="29">
-        <f t="shared" si="8"/>
+      <c r="AS12" s="29">
+        <f t="shared" si="9"/>
         <v>-65</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="17">
         <v>145</v>
@@ -2283,7 +2613,7 @@
         <v>45722</v>
       </c>
       <c r="G13" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45744</v>
       </c>
       <c r="H13" s="21">
@@ -2314,7 +2644,7 @@
         <v>45770</v>
       </c>
       <c r="Q13" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45877</v>
       </c>
       <c r="R13" s="27">
@@ -2322,7 +2652,7 @@
         <v>45786</v>
       </c>
       <c r="S13" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>45895</v>
       </c>
       <c r="T13" s="22"/>
@@ -2331,80 +2661,97 @@
         <v>45770</v>
       </c>
       <c r="V13" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45877</v>
       </c>
       <c r="W13" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>45786</v>
       </c>
       <c r="X13" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>45895</v>
       </c>
       <c r="Y13" s="22"/>
       <c r="Z13" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>45880</v>
       </c>
       <c r="AA13" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45898</v>
       </c>
       <c r="AB13" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>45896</v>
       </c>
       <c r="AC13" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>45916</v>
       </c>
       <c r="AD13" s="22"/>
-      <c r="AE13" s="37">
+      <c r="AE13" s="43">
         <v>45901</v>
       </c>
-      <c r="AF13" s="38">
-        <v>45926</v>
+      <c r="AF13" s="20">
+        <f t="shared" si="20"/>
+        <v>45923</v>
       </c>
       <c r="AG13" s="27">
         <f t="shared" si="7"/>
+        <v>45789</v>
+      </c>
+      <c r="AH13" s="28">
+        <f t="shared" si="21"/>
+        <v>45807</v>
+      </c>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="20">
+        <f t="shared" si="22"/>
+        <v>45924</v>
+      </c>
+      <c r="AK13" s="41">
+        <v>45926</v>
+      </c>
+      <c r="AL13" s="27">
+        <f t="shared" si="8"/>
         <v>45917</v>
-      </c>
-      <c r="AH13" s="28">
-        <f t="shared" si="19"/>
-        <v>45937</v>
-      </c>
-      <c r="AI13" s="22"/>
-      <c r="AJ13" s="23">
-        <f t="shared" si="20"/>
-        <v>45929</v>
-      </c>
-      <c r="AK13" s="19">
-        <f t="shared" si="21"/>
-        <v>45947</v>
-      </c>
-      <c r="AL13" s="27">
-        <f t="shared" si="22"/>
-        <v>45938</v>
       </c>
       <c r="AM13" s="28">
         <f t="shared" si="23"/>
+        <v>45937</v>
+      </c>
+      <c r="AN13" s="22"/>
+      <c r="AO13" s="23">
+        <f t="shared" si="24"/>
+        <v>45929</v>
+      </c>
+      <c r="AP13" s="19">
+        <f t="shared" si="25"/>
+        <v>45947</v>
+      </c>
+      <c r="AQ13" s="27">
+        <f t="shared" si="26"/>
+        <v>45938</v>
+      </c>
+      <c r="AR13" s="28">
+        <f t="shared" si="27"/>
         <v>45958</v>
       </c>
-      <c r="AN13" s="17">
-        <f t="shared" si="8"/>
+      <c r="AS13" s="17">
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="18" t="s">
         <v>53</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>54</v>
       </c>
       <c r="E14" s="17">
         <v>61</v>
@@ -2414,7 +2761,7 @@
         <v>45813</v>
       </c>
       <c r="G14" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45835</v>
       </c>
       <c r="H14" s="21">
@@ -2445,7 +2792,7 @@
         <v>45861</v>
       </c>
       <c r="Q14" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45968</v>
       </c>
       <c r="R14" s="27">
@@ -2453,7 +2800,7 @@
         <v>45831</v>
       </c>
       <c r="S14" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>45938</v>
       </c>
       <c r="T14" s="22"/>
@@ -2462,80 +2809,97 @@
         <v>45861</v>
       </c>
       <c r="V14" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45968</v>
       </c>
       <c r="W14" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>45831</v>
       </c>
       <c r="X14" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>45938</v>
       </c>
       <c r="Y14" s="22"/>
       <c r="Z14" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>45971</v>
       </c>
       <c r="AA14" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45989</v>
       </c>
       <c r="AB14" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>45939</v>
       </c>
       <c r="AC14" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>45959</v>
       </c>
       <c r="AD14" s="22"/>
-      <c r="AE14" s="37">
+      <c r="AE14" s="43">
         <v>45992</v>
       </c>
       <c r="AF14" s="20">
-        <v>46017</v>
+        <f t="shared" si="20"/>
+        <v>46014</v>
       </c>
       <c r="AG14" s="27">
         <f t="shared" si="7"/>
+        <v>45832</v>
+      </c>
+      <c r="AH14" s="28">
+        <f t="shared" si="21"/>
+        <v>45852</v>
+      </c>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="20">
+        <f t="shared" si="22"/>
+        <v>46015</v>
+      </c>
+      <c r="AK14" s="41">
+        <v>46017</v>
+      </c>
+      <c r="AL14" s="27">
+        <f t="shared" si="8"/>
         <v>45960</v>
-      </c>
-      <c r="AH14" s="28">
-        <f t="shared" si="19"/>
-        <v>45980</v>
-      </c>
-      <c r="AI14" s="22"/>
-      <c r="AJ14" s="23">
-        <f t="shared" si="20"/>
-        <v>46020</v>
-      </c>
-      <c r="AK14" s="19">
-        <f t="shared" si="21"/>
-        <v>46038</v>
-      </c>
-      <c r="AL14" s="27">
-        <f t="shared" si="22"/>
-        <v>45981</v>
       </c>
       <c r="AM14" s="28">
         <f t="shared" si="23"/>
+        <v>45980</v>
+      </c>
+      <c r="AN14" s="22"/>
+      <c r="AO14" s="23">
+        <f t="shared" si="24"/>
+        <v>46020</v>
+      </c>
+      <c r="AP14" s="19">
+        <f t="shared" si="25"/>
+        <v>46038</v>
+      </c>
+      <c r="AQ14" s="27">
+        <f t="shared" si="26"/>
+        <v>45981</v>
+      </c>
+      <c r="AR14" s="28">
+        <f t="shared" si="27"/>
         <v>46001</v>
       </c>
-      <c r="AN14" s="17">
-        <f t="shared" si="8"/>
+      <c r="AS14" s="17">
+        <f t="shared" si="9"/>
         <v>-37</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="D15" s="18" t="s">
         <v>56</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>57</v>
       </c>
       <c r="E15" s="17">
         <v>128</v>
@@ -2545,7 +2909,7 @@
         <v>45785</v>
       </c>
       <c r="G15" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45807</v>
       </c>
       <c r="H15" s="21">
@@ -2576,7 +2940,7 @@
         <v>45833</v>
       </c>
       <c r="Q15" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45940</v>
       </c>
       <c r="R15" s="27">
@@ -2584,7 +2948,7 @@
         <v>45817</v>
       </c>
       <c r="S15" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>45924</v>
       </c>
       <c r="T15" s="22"/>
@@ -2593,80 +2957,97 @@
         <v>45833</v>
       </c>
       <c r="V15" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45940</v>
       </c>
       <c r="W15" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>45817</v>
       </c>
       <c r="X15" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>45924</v>
       </c>
       <c r="Y15" s="22"/>
       <c r="Z15" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>45943</v>
       </c>
       <c r="AA15" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45961</v>
       </c>
       <c r="AB15" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>45925</v>
       </c>
       <c r="AC15" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>45945</v>
       </c>
       <c r="AD15" s="22"/>
-      <c r="AE15" s="37">
+      <c r="AE15" s="43">
         <v>45962</v>
       </c>
-      <c r="AF15" s="38">
-        <v>45988</v>
+      <c r="AF15" s="20">
+        <f t="shared" si="20"/>
+        <v>45985</v>
       </c>
       <c r="AG15" s="27">
         <f t="shared" si="7"/>
+        <v>45818</v>
+      </c>
+      <c r="AH15" s="28">
+        <f t="shared" si="21"/>
+        <v>45838</v>
+      </c>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="20">
+        <f t="shared" si="22"/>
+        <v>45986</v>
+      </c>
+      <c r="AK15" s="41">
+        <v>45988</v>
+      </c>
+      <c r="AL15" s="27">
+        <f t="shared" si="8"/>
         <v>45946</v>
-      </c>
-      <c r="AH15" s="28">
-        <f t="shared" si="19"/>
-        <v>45966</v>
-      </c>
-      <c r="AI15" s="22"/>
-      <c r="AJ15" s="23">
-        <f t="shared" si="20"/>
-        <v>45989</v>
-      </c>
-      <c r="AK15" s="19">
-        <f t="shared" si="21"/>
-        <v>46009</v>
-      </c>
-      <c r="AL15" s="27">
-        <f t="shared" si="22"/>
-        <v>45967</v>
       </c>
       <c r="AM15" s="28">
         <f t="shared" si="23"/>
+        <v>45966</v>
+      </c>
+      <c r="AN15" s="22"/>
+      <c r="AO15" s="23">
+        <f t="shared" si="24"/>
+        <v>45989</v>
+      </c>
+      <c r="AP15" s="19">
+        <f t="shared" si="25"/>
+        <v>46009</v>
+      </c>
+      <c r="AQ15" s="27">
+        <f t="shared" si="26"/>
+        <v>45967</v>
+      </c>
+      <c r="AR15" s="28">
+        <f t="shared" si="27"/>
         <v>45987</v>
       </c>
-      <c r="AN15" s="17">
-        <f t="shared" si="8"/>
+      <c r="AS15" s="17">
+        <f t="shared" si="9"/>
         <v>-22</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>59</v>
-      </c>
       <c r="D16" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="17">
         <v>166</v>
@@ -2676,7 +3057,7 @@
         <v>45754</v>
       </c>
       <c r="G16" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45776</v>
       </c>
       <c r="H16" s="32"/>
@@ -2698,7 +3079,7 @@
         <v>45800</v>
       </c>
       <c r="Q16" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45909</v>
       </c>
       <c r="R16" s="27">
@@ -2706,7 +3087,7 @@
         <v>2</v>
       </c>
       <c r="S16" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>109</v>
       </c>
       <c r="T16" s="22"/>
@@ -2715,80 +3096,97 @@
         <v>45800</v>
       </c>
       <c r="V16" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45909</v>
       </c>
       <c r="W16" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="X16" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>109</v>
       </c>
       <c r="Y16" s="22"/>
       <c r="Z16" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>45910</v>
       </c>
       <c r="AA16" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45930</v>
       </c>
       <c r="AB16" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>110</v>
       </c>
       <c r="AC16" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>130</v>
       </c>
       <c r="AD16" s="22"/>
-      <c r="AE16" s="37">
+      <c r="AE16" s="43">
         <v>45931</v>
       </c>
       <c r="AF16" s="20">
-        <v>45958</v>
+        <f t="shared" si="20"/>
+        <v>45953</v>
       </c>
       <c r="AG16" s="27">
         <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AH16" s="28">
+        <f t="shared" si="21"/>
+        <v>23</v>
+      </c>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="20">
+        <f t="shared" si="22"/>
+        <v>45954</v>
+      </c>
+      <c r="AK16" s="41">
+        <v>45958</v>
+      </c>
+      <c r="AL16" s="27">
+        <f t="shared" si="8"/>
         <v>131</v>
-      </c>
-      <c r="AH16" s="28">
-        <f t="shared" si="19"/>
-        <v>151</v>
-      </c>
-      <c r="AI16" s="22"/>
-      <c r="AJ16" s="23">
-        <f t="shared" si="20"/>
-        <v>45959</v>
-      </c>
-      <c r="AK16" s="19">
-        <f t="shared" si="21"/>
-        <v>45979</v>
-      </c>
-      <c r="AL16" s="27">
-        <f t="shared" si="22"/>
-        <v>152</v>
       </c>
       <c r="AM16" s="28">
         <f t="shared" si="23"/>
+        <v>151</v>
+      </c>
+      <c r="AN16" s="22"/>
+      <c r="AO16" s="23">
+        <f t="shared" si="24"/>
+        <v>45959</v>
+      </c>
+      <c r="AP16" s="19">
+        <f t="shared" si="25"/>
+        <v>45979</v>
+      </c>
+      <c r="AQ16" s="27">
+        <f t="shared" si="26"/>
+        <v>152</v>
+      </c>
+      <c r="AR16" s="28">
+        <f t="shared" si="27"/>
         <v>172</v>
       </c>
-      <c r="AN16" s="29">
-        <f t="shared" si="8"/>
+      <c r="AS16" s="29">
+        <f t="shared" si="9"/>
         <v>-45807</v>
       </c>
     </row>
-    <row r="17" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="17">
         <v>0</v>
@@ -2798,7 +3196,7 @@
         <v>45876</v>
       </c>
       <c r="G17" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45898</v>
       </c>
       <c r="H17" s="32"/>
@@ -2820,7 +3218,7 @@
         <v>45924</v>
       </c>
       <c r="Q17" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>46031</v>
       </c>
       <c r="R17" s="27">
@@ -2828,7 +3226,7 @@
         <v>2</v>
       </c>
       <c r="S17" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>109</v>
       </c>
       <c r="T17" s="22"/>
@@ -2837,80 +3235,97 @@
         <v>45924</v>
       </c>
       <c r="V17" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>46031</v>
       </c>
       <c r="W17" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="X17" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>109</v>
       </c>
       <c r="Y17" s="22"/>
       <c r="Z17" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>46034</v>
       </c>
       <c r="AA17" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>46052</v>
       </c>
       <c r="AB17" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>110</v>
       </c>
       <c r="AC17" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>130</v>
       </c>
       <c r="AD17" s="22"/>
-      <c r="AE17" s="39">
+      <c r="AE17" s="44">
         <v>46054</v>
       </c>
-      <c r="AF17" s="40">
-        <v>46079</v>
+      <c r="AF17" s="20">
+        <f t="shared" si="20"/>
+        <v>46076</v>
       </c>
       <c r="AG17" s="27">
         <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AH17" s="28">
+        <f t="shared" si="21"/>
+        <v>23</v>
+      </c>
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="20">
+        <f t="shared" si="22"/>
+        <v>46077</v>
+      </c>
+      <c r="AK17" s="42">
+        <v>46079</v>
+      </c>
+      <c r="AL17" s="27">
+        <f t="shared" si="8"/>
         <v>131</v>
-      </c>
-      <c r="AH17" s="28">
-        <f t="shared" si="19"/>
-        <v>151</v>
-      </c>
-      <c r="AI17" s="22"/>
-      <c r="AJ17" s="23">
-        <f t="shared" si="20"/>
-        <v>46080</v>
-      </c>
-      <c r="AK17" s="19">
-        <f t="shared" si="21"/>
-        <v>46100</v>
-      </c>
-      <c r="AL17" s="27">
-        <f t="shared" si="22"/>
-        <v>152</v>
       </c>
       <c r="AM17" s="28">
         <f t="shared" si="23"/>
+        <v>151</v>
+      </c>
+      <c r="AN17" s="22"/>
+      <c r="AO17" s="23">
+        <f t="shared" si="24"/>
+        <v>46080</v>
+      </c>
+      <c r="AP17" s="19">
+        <f t="shared" si="25"/>
+        <v>46100</v>
+      </c>
+      <c r="AQ17" s="27">
+        <f t="shared" si="26"/>
+        <v>152</v>
+      </c>
+      <c r="AR17" s="28">
+        <f t="shared" si="27"/>
         <v>172</v>
       </c>
-      <c r="AN17" s="17">
-        <f t="shared" si="8"/>
+      <c r="AS17" s="17">
+        <f t="shared" si="9"/>
         <v>-45928</v>
       </c>
     </row>
-    <row r="18" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="17">
         <v>0</v>
@@ -2920,7 +3335,7 @@
         <v>45846</v>
       </c>
       <c r="G18" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45868</v>
       </c>
       <c r="H18" s="32"/>
@@ -2942,7 +3357,7 @@
         <v>45894</v>
       </c>
       <c r="Q18" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>46001</v>
       </c>
       <c r="R18" s="27">
@@ -2950,7 +3365,7 @@
         <v>2</v>
       </c>
       <c r="S18" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>109</v>
       </c>
       <c r="T18" s="22"/>
@@ -2959,80 +3374,97 @@
         <v>45894</v>
       </c>
       <c r="V18" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>46001</v>
       </c>
       <c r="W18" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="X18" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>109</v>
       </c>
       <c r="Y18" s="22"/>
       <c r="Z18" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>46002</v>
       </c>
       <c r="AA18" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>46022</v>
       </c>
       <c r="AB18" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>110</v>
       </c>
       <c r="AC18" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>130</v>
       </c>
       <c r="AD18" s="22"/>
-      <c r="AE18" s="39">
+      <c r="AE18" s="44">
         <v>46023</v>
       </c>
-      <c r="AF18" s="41">
-        <v>46050</v>
+      <c r="AF18" s="20">
+        <f t="shared" si="20"/>
+        <v>46045</v>
       </c>
       <c r="AG18" s="27">
         <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AH18" s="28">
+        <f t="shared" si="21"/>
+        <v>23</v>
+      </c>
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="20">
+        <f t="shared" si="22"/>
+        <v>46048</v>
+      </c>
+      <c r="AK18" s="42">
+        <v>46050</v>
+      </c>
+      <c r="AL18" s="27">
+        <f t="shared" si="8"/>
         <v>131</v>
-      </c>
-      <c r="AH18" s="28">
-        <f t="shared" si="19"/>
-        <v>151</v>
-      </c>
-      <c r="AI18" s="22"/>
-      <c r="AJ18" s="23">
-        <f t="shared" si="20"/>
-        <v>46051</v>
-      </c>
-      <c r="AK18" s="19">
-        <f t="shared" si="21"/>
-        <v>46071</v>
-      </c>
-      <c r="AL18" s="27">
-        <f t="shared" si="22"/>
-        <v>152</v>
       </c>
       <c r="AM18" s="28">
         <f t="shared" si="23"/>
+        <v>151</v>
+      </c>
+      <c r="AN18" s="22"/>
+      <c r="AO18" s="23">
+        <f t="shared" si="24"/>
+        <v>46051</v>
+      </c>
+      <c r="AP18" s="19">
+        <f t="shared" si="25"/>
+        <v>46071</v>
+      </c>
+      <c r="AQ18" s="27">
+        <f t="shared" si="26"/>
+        <v>152</v>
+      </c>
+      <c r="AR18" s="28">
+        <f t="shared" si="27"/>
         <v>172</v>
       </c>
-      <c r="AN18" s="17">
-        <f t="shared" si="8"/>
+      <c r="AS18" s="17">
+        <f t="shared" si="9"/>
         <v>-45899</v>
       </c>
     </row>
-    <row r="19" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B19" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="17">
         <v>0</v>
@@ -3042,7 +3474,7 @@
         <v>45936</v>
       </c>
       <c r="G19" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45958</v>
       </c>
       <c r="H19" s="32"/>
@@ -3064,7 +3496,7 @@
         <v>45982</v>
       </c>
       <c r="Q19" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>46091</v>
       </c>
       <c r="R19" s="27">
@@ -3072,7 +3504,7 @@
         <v>2</v>
       </c>
       <c r="S19" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>109</v>
       </c>
       <c r="T19" s="22"/>
@@ -3081,80 +3513,97 @@
         <v>45982</v>
       </c>
       <c r="V19" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>46091</v>
       </c>
       <c r="W19" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="X19" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>109</v>
       </c>
       <c r="Y19" s="22"/>
       <c r="Z19" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>46092</v>
       </c>
       <c r="AA19" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>46112</v>
       </c>
       <c r="AB19" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>110</v>
       </c>
       <c r="AC19" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>130</v>
       </c>
       <c r="AD19" s="22"/>
-      <c r="AE19" s="39">
+      <c r="AE19" s="44">
         <v>46113</v>
       </c>
-      <c r="AF19" s="40">
-        <v>46140</v>
+      <c r="AF19" s="20">
+        <f t="shared" si="20"/>
+        <v>46135</v>
       </c>
       <c r="AG19" s="27">
         <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AH19" s="28">
+        <f t="shared" si="21"/>
+        <v>23</v>
+      </c>
+      <c r="AI19" s="22"/>
+      <c r="AJ19" s="20">
+        <f t="shared" si="22"/>
+        <v>46136</v>
+      </c>
+      <c r="AK19" s="42">
+        <v>46140</v>
+      </c>
+      <c r="AL19" s="27">
+        <f t="shared" si="8"/>
         <v>131</v>
-      </c>
-      <c r="AH19" s="28">
-        <f t="shared" si="19"/>
-        <v>151</v>
-      </c>
-      <c r="AI19" s="22"/>
-      <c r="AJ19" s="23">
-        <f t="shared" si="20"/>
-        <v>46141</v>
-      </c>
-      <c r="AK19" s="19">
-        <f t="shared" si="21"/>
-        <v>46161</v>
-      </c>
-      <c r="AL19" s="27">
-        <f t="shared" si="22"/>
-        <v>152</v>
       </c>
       <c r="AM19" s="28">
         <f t="shared" si="23"/>
+        <v>151</v>
+      </c>
+      <c r="AN19" s="22"/>
+      <c r="AO19" s="23">
+        <f t="shared" si="24"/>
+        <v>46141</v>
+      </c>
+      <c r="AP19" s="19">
+        <f t="shared" si="25"/>
+        <v>46161</v>
+      </c>
+      <c r="AQ19" s="27">
+        <f t="shared" si="26"/>
+        <v>152</v>
+      </c>
+      <c r="AR19" s="28">
+        <f t="shared" si="27"/>
         <v>172</v>
       </c>
-      <c r="AN19" s="17">
-        <f t="shared" si="8"/>
+      <c r="AS19" s="17">
+        <f t="shared" si="9"/>
         <v>-45989</v>
       </c>
     </row>
-    <row r="20" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>64</v>
       </c>
       <c r="E20" s="17">
         <v>0</v>
@@ -3164,7 +3613,7 @@
         <v>45936</v>
       </c>
       <c r="G20" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45958</v>
       </c>
       <c r="H20" s="32"/>
@@ -3186,7 +3635,7 @@
         <v>45982</v>
       </c>
       <c r="Q20" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>46091</v>
       </c>
       <c r="R20" s="27">
@@ -3194,7 +3643,7 @@
         <v>2</v>
       </c>
       <c r="S20" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>109</v>
       </c>
       <c r="T20" s="22"/>
@@ -3203,92 +3652,111 @@
         <v>45982</v>
       </c>
       <c r="V20" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>46091</v>
       </c>
       <c r="W20" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="X20" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>109</v>
       </c>
       <c r="Y20" s="22"/>
       <c r="Z20" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>46092</v>
       </c>
       <c r="AA20" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>46112</v>
       </c>
       <c r="AB20" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>110</v>
       </c>
       <c r="AC20" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>130</v>
       </c>
       <c r="AD20" s="22"/>
-      <c r="AE20" s="39">
+      <c r="AE20" s="44">
         <v>46113</v>
       </c>
-      <c r="AF20" s="41">
-        <v>46140</v>
+      <c r="AF20" s="20">
+        <f t="shared" si="20"/>
+        <v>46135</v>
       </c>
       <c r="AG20" s="27">
         <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AH20" s="28">
+        <f t="shared" si="21"/>
+        <v>23</v>
+      </c>
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="20">
+        <f t="shared" si="22"/>
+        <v>46136</v>
+      </c>
+      <c r="AK20" s="42">
+        <v>46140</v>
+      </c>
+      <c r="AL20" s="27">
+        <f t="shared" si="8"/>
         <v>131</v>
-      </c>
-      <c r="AH20" s="28">
-        <f t="shared" si="19"/>
-        <v>151</v>
-      </c>
-      <c r="AI20" s="22"/>
-      <c r="AJ20" s="23">
-        <f t="shared" si="20"/>
-        <v>46141</v>
-      </c>
-      <c r="AK20" s="19">
-        <f t="shared" si="21"/>
-        <v>46161</v>
-      </c>
-      <c r="AL20" s="27">
-        <f t="shared" si="22"/>
-        <v>152</v>
       </c>
       <c r="AM20" s="28">
         <f t="shared" si="23"/>
+        <v>151</v>
+      </c>
+      <c r="AN20" s="22"/>
+      <c r="AO20" s="23">
+        <f t="shared" si="24"/>
+        <v>46141</v>
+      </c>
+      <c r="AP20" s="19">
+        <f t="shared" si="25"/>
+        <v>46161</v>
+      </c>
+      <c r="AQ20" s="27">
+        <f t="shared" si="26"/>
+        <v>152</v>
+      </c>
+      <c r="AR20" s="28">
+        <f t="shared" si="27"/>
         <v>172</v>
       </c>
-      <c r="AN20" s="17">
-        <f t="shared" si="8"/>
+      <c r="AS20" s="17">
+        <f t="shared" si="9"/>
         <v>-45989</v>
       </c>
     </row>
-    <row r="22" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="AJ22" s="36"/>
+    <row r="22" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AO22" s="36"/>
     </row>
-    <row r="26" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="AJ26" s="36"/>
+    <row r="26" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AO26" s="36"/>
     </row>
-    <row r="27" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:45" x14ac:dyDescent="0.25">
       <c r="AG27" s="35"/>
+      <c r="AL27" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="AE3:AH3"/>
+  <mergeCells count="9">
     <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="AO3:AR3"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="P3:S3"/>
     <mergeCell ref="U3:X3"/>
     <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AE3:AH3"/>
   </mergeCells>
-  <conditionalFormatting sqref="AN8:AN20">
+  <conditionalFormatting sqref="AS8:AS20">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/BASE - VENDA E REGISTRO.xlsx
+++ b/BASE - VENDA E REGISTRO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viana e Moura\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viana e Moura\Dropbox\PLANEJAMENTO\Scripts\MÓDULO VENDAS\MODULO_VENDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6663E612-9C48-4ABE-BD76-2EA1EFDB11DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AA5848-2084-4F3D-B70D-5D57BDAFD5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0382C43D-564D-4A4C-8EAB-6952E70C6A7B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0382C43D-564D-4A4C-8EAB-6952E70C6A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="PLANEJADOR MÓDULOS" sheetId="1" r:id="rId1"/>
@@ -540,7 +540,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,12 +647,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -904,6 +898,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -916,16 +916,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1398,7 +1392,7 @@
   <dimension ref="A2:AS27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG24" sqref="AG24"/>
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="10.8" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1477,60 +1471,60 @@
     </row>
     <row r="3" spans="1:45" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="K3" s="37" t="s">
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="K3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="P3" s="40" t="s">
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="P3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="U3" s="37" t="s">
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="U3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Z3" s="37" t="s">
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Z3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AE3" s="37" t="s">
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AE3" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="38"/>
-      <c r="AJ3" s="37" t="s">
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="40"/>
+      <c r="AJ3" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="38"/>
-      <c r="AO3" s="37" t="s">
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="40"/>
+      <c r="AO3" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="AP3" s="37"/>
-      <c r="AQ3" s="37"/>
-      <c r="AR3" s="38"/>
+      <c r="AP3" s="39"/>
+      <c r="AQ3" s="39"/>
+      <c r="AR3" s="40"/>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -1879,11 +1873,11 @@
       </c>
       <c r="F8" s="19">
         <f t="shared" ref="F8:F20" si="0">IFERROR(WORKDAY(G8,(-$I$2+1)),"-")</f>
-        <v>45660</v>
+        <v>45637</v>
       </c>
       <c r="G8" s="20">
         <f>IFERROR(WORKDAY(K8,-1),"-")</f>
-        <v>45684</v>
+        <v>45659</v>
       </c>
       <c r="H8" s="21">
         <v>45658</v>
@@ -1895,11 +1889,11 @@
       <c r="J8" s="22"/>
       <c r="K8" s="23">
         <f t="shared" ref="K8:K20" si="2">IFERROR(WORKDAY(L8,(-$N$2+1)),"-")</f>
-        <v>45685</v>
+        <v>45660</v>
       </c>
       <c r="L8" s="19">
         <f t="shared" ref="L8:L20" si="3">IFERROR(WORKDAY(P8,-1),"-")</f>
-        <v>45707</v>
+        <v>45684</v>
       </c>
       <c r="M8" s="24">
         <v>45687</v>
@@ -1910,11 +1904,11 @@
       <c r="O8" s="22"/>
       <c r="P8" s="23">
         <f t="shared" ref="P8:P20" si="4">IFERROR(WORKDAY(Q8,(-$S$2+1)),"-")</f>
-        <v>45708</v>
+        <v>45685</v>
       </c>
       <c r="Q8" s="19">
         <f>IFERROR(WORKDAY(Z8,-1),"-")</f>
-        <v>45817</v>
+        <v>45792</v>
       </c>
       <c r="R8" s="24">
         <f t="shared" ref="R8:R20" si="5">WORKDAY.INTL(N8,1)</f>
@@ -1926,11 +1920,11 @@
       <c r="T8" s="22"/>
       <c r="U8" s="23">
         <f t="shared" ref="U8:U20" si="6">IFERROR(WORKDAY(V8,(-$X$2+1)),"-")</f>
-        <v>45708</v>
+        <v>45685</v>
       </c>
       <c r="V8" s="19">
         <f>IFERROR(WORKDAY(Z8,-1),"-")</f>
-        <v>45817</v>
+        <v>45792</v>
       </c>
       <c r="W8" s="24">
         <v>45537</v>
@@ -1941,11 +1935,11 @@
       <c r="Y8" s="22"/>
       <c r="Z8" s="23">
         <f>IFERROR(WORKDAY(AA8,(-$AC$2+1)),"-")</f>
-        <v>45818</v>
+        <v>45793</v>
       </c>
       <c r="AA8" s="19">
         <f>IFERROR(WORKDAY(AE8,-1),"-")</f>
-        <v>45838</v>
+        <v>45813</v>
       </c>
       <c r="AB8" s="24">
         <v>45800</v>
@@ -1954,12 +1948,13 @@
         <v>45800</v>
       </c>
       <c r="AD8" s="22"/>
-      <c r="AE8" s="43">
-        <v>45839</v>
+      <c r="AE8" s="44">
+        <f>IFERROR(WORKDAY(AF8,(-$AH$2+1)),"-")</f>
+        <v>45814</v>
       </c>
       <c r="AF8" s="20">
-        <f>IFERROR(WORKDAY(AE8,(AH$2-1)),"-")</f>
-        <v>45861</v>
+        <f>IFERROR(WORKDAY(AJ8,-1),"-")</f>
+        <v>45838</v>
       </c>
       <c r="AG8" s="25">
         <f t="shared" ref="AG8:AG20" si="7">WORKDAY.INTL(W8,1)</f>
@@ -1969,12 +1964,12 @@
         <v>45834</v>
       </c>
       <c r="AI8" s="22"/>
-      <c r="AJ8" s="20">
-        <f>IFERROR(WORKDAY(AK8,(-$AM$2+1)),"-")</f>
-        <v>45862</v>
-      </c>
-      <c r="AK8" s="41">
-        <v>45866</v>
+      <c r="AJ8" s="37">
+        <v>45839</v>
+      </c>
+      <c r="AK8" s="43">
+        <f>IFERROR(WORKDAY(AJ8,(AM$2-1)),"-")</f>
+        <v>45841</v>
       </c>
       <c r="AL8" s="25">
         <f t="shared" ref="AL8:AL20" si="8">WORKDAY.INTL(AC8,1)</f>
@@ -1986,11 +1981,11 @@
       <c r="AN8" s="22"/>
       <c r="AO8" s="23">
         <f>IFERROR(WORKDAY(AK8,1),"-")</f>
-        <v>45867</v>
+        <v>45842</v>
       </c>
       <c r="AP8" s="19">
         <f>IFERROR(WORKDAY(AO8,($AR$2-1)),"-")</f>
-        <v>45887</v>
+        <v>45862</v>
       </c>
       <c r="AQ8" s="25">
         <v>45800</v>
@@ -2000,7 +1995,7 @@
       </c>
       <c r="AS8" s="17">
         <f t="shared" ref="AS8:AS20" si="9">IFERROR(AR8-AP8,"-")</f>
-        <v>-87</v>
+        <v>-62</v>
       </c>
     </row>
     <row r="9" spans="1:45" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2018,11 +2013,11 @@
       </c>
       <c r="F9" s="19">
         <f t="shared" si="0"/>
-        <v>45660</v>
+        <v>45637</v>
       </c>
       <c r="G9" s="20">
         <f t="shared" ref="G9:G20" si="10">IFERROR(WORKDAY(K9,-1),"-")</f>
-        <v>45684</v>
+        <v>45659</v>
       </c>
       <c r="H9" s="21">
         <v>45658</v>
@@ -2034,11 +2029,11 @@
       <c r="J9" s="22"/>
       <c r="K9" s="23">
         <f t="shared" si="2"/>
-        <v>45685</v>
+        <v>45660</v>
       </c>
       <c r="L9" s="19">
         <f t="shared" si="3"/>
-        <v>45707</v>
+        <v>45684</v>
       </c>
       <c r="M9" s="24">
         <v>45663</v>
@@ -2049,11 +2044,11 @@
       <c r="O9" s="22"/>
       <c r="P9" s="23">
         <f t="shared" si="4"/>
-        <v>45708</v>
+        <v>45685</v>
       </c>
       <c r="Q9" s="19">
         <f t="shared" ref="Q9:Q20" si="11">IFERROR(WORKDAY(Z9,-1),"-")</f>
-        <v>45817</v>
+        <v>45792</v>
       </c>
       <c r="R9" s="27">
         <f t="shared" si="5"/>
@@ -2066,11 +2061,11 @@
       <c r="T9" s="22"/>
       <c r="U9" s="23">
         <f t="shared" si="6"/>
-        <v>45708</v>
+        <v>45685</v>
       </c>
       <c r="V9" s="19">
         <f t="shared" ref="V9:V20" si="13">IFERROR(WORKDAY(Z9,-1),"-")</f>
-        <v>45817</v>
+        <v>45792</v>
       </c>
       <c r="W9" s="27">
         <f t="shared" ref="W9:W20" si="14">WORKDAY.INTL(N9,1)</f>
@@ -2083,11 +2078,11 @@
       <c r="Y9" s="22"/>
       <c r="Z9" s="23">
         <f t="shared" ref="Z9:Z20" si="16">IFERROR(WORKDAY(AA9,(-$AC$2+1)),"-")</f>
-        <v>45818</v>
+        <v>45793</v>
       </c>
       <c r="AA9" s="19">
         <f t="shared" ref="AA9:AA20" si="17">IFERROR(WORKDAY(AE9,-1),"-")</f>
-        <v>45838</v>
+        <v>45813</v>
       </c>
       <c r="AB9" s="27">
         <f t="shared" ref="AB9:AB20" si="18">WORKDAY.INTL(X9,1)</f>
@@ -2098,57 +2093,58 @@
         <v>45812</v>
       </c>
       <c r="AD9" s="22"/>
-      <c r="AE9" s="43">
-        <v>45839</v>
+      <c r="AE9" s="44">
+        <f t="shared" ref="AE9:AE20" si="20">IFERROR(WORKDAY(AF9,(-$AH$2+1)),"-")</f>
+        <v>45814</v>
       </c>
       <c r="AF9" s="20">
-        <f t="shared" ref="AF9:AF20" si="20">IFERROR(WORKDAY(AE9,(AH$2-1)),"-")</f>
-        <v>45861</v>
+        <f t="shared" ref="AF9:AF20" si="21">IFERROR(WORKDAY(AJ9,-1),"-")</f>
+        <v>45838</v>
       </c>
       <c r="AG9" s="27">
         <f t="shared" si="7"/>
         <v>45685</v>
       </c>
       <c r="AH9" s="28">
-        <f t="shared" ref="AH9:AH20" si="21">IFERROR(WORKDAY(W9,($AR$2)),"-")</f>
+        <f t="shared" ref="AH9:AH20" si="22">IFERROR(WORKDAY(W9,($AR$2)),"-")</f>
         <v>45705</v>
       </c>
       <c r="AI9" s="22"/>
-      <c r="AJ9" s="20">
-        <f t="shared" ref="AJ9:AJ20" si="22">IFERROR(WORKDAY(AK9,(-$AM$2+1)),"-")</f>
-        <v>45862</v>
-      </c>
-      <c r="AK9" s="41">
-        <v>45866</v>
+      <c r="AJ9" s="37">
+        <v>45839</v>
+      </c>
+      <c r="AK9" s="43">
+        <f t="shared" ref="AK9:AK20" si="23">IFERROR(WORKDAY(AJ9,(AM$2-1)),"-")</f>
+        <v>45841</v>
       </c>
       <c r="AL9" s="27">
         <f t="shared" si="8"/>
         <v>45813</v>
       </c>
       <c r="AM9" s="28">
-        <f t="shared" ref="AM9:AM20" si="23">IFERROR(WORKDAY(AC9,($AR$2)),"-")</f>
+        <f t="shared" ref="AM9:AM20" si="24">IFERROR(WORKDAY(AC9,($AR$2)),"-")</f>
         <v>45833</v>
       </c>
       <c r="AN9" s="22"/>
       <c r="AO9" s="23">
-        <f t="shared" ref="AO9:AO20" si="24">IFERROR(WORKDAY(AK9,1),"-")</f>
-        <v>45867</v>
+        <f t="shared" ref="AO9:AO20" si="25">IFERROR(WORKDAY(AK9,1),"-")</f>
+        <v>45842</v>
       </c>
       <c r="AP9" s="19">
-        <f t="shared" ref="AP9:AP20" si="25">IFERROR(WORKDAY(AO9,($AR$2-1)),"-")</f>
-        <v>45887</v>
+        <f t="shared" ref="AP9:AP20" si="26">IFERROR(WORKDAY(AO9,($AR$2-1)),"-")</f>
+        <v>45862</v>
       </c>
       <c r="AQ9" s="27">
-        <f t="shared" ref="AQ9:AQ20" si="26">WORKDAY.INTL(AM9,1)</f>
+        <f t="shared" ref="AQ9:AQ20" si="27">WORKDAY.INTL(AM9,1)</f>
         <v>45834</v>
       </c>
       <c r="AR9" s="28">
-        <f t="shared" ref="AR9:AR20" si="27">WORKDAY(AQ9,$AC$2-1)</f>
+        <f t="shared" ref="AR9:AR20" si="28">WORKDAY(AQ9,$AC$2-1)</f>
         <v>45854</v>
       </c>
       <c r="AS9" s="17">
         <f t="shared" si="9"/>
-        <v>-33</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="10" spans="1:45" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2166,11 +2162,11 @@
       </c>
       <c r="F10" s="19">
         <f t="shared" si="0"/>
-        <v>45722</v>
+        <v>45699</v>
       </c>
       <c r="G10" s="20">
         <f t="shared" si="10"/>
-        <v>45744</v>
+        <v>45721</v>
       </c>
       <c r="H10" s="21">
         <v>45658</v>
@@ -2182,11 +2178,11 @@
       <c r="J10" s="22"/>
       <c r="K10" s="23">
         <f t="shared" si="2"/>
-        <v>45747</v>
+        <v>45722</v>
       </c>
       <c r="L10" s="19">
         <f t="shared" si="3"/>
-        <v>45769</v>
+        <v>45744</v>
       </c>
       <c r="M10" s="24">
         <v>45687</v>
@@ -2197,11 +2193,11 @@
       <c r="O10" s="22"/>
       <c r="P10" s="23">
         <f t="shared" si="4"/>
-        <v>45770</v>
+        <v>45747</v>
       </c>
       <c r="Q10" s="19">
         <f t="shared" si="11"/>
-        <v>45877</v>
+        <v>45854</v>
       </c>
       <c r="R10" s="27">
         <f t="shared" si="5"/>
@@ -2214,11 +2210,11 @@
       <c r="T10" s="22"/>
       <c r="U10" s="23">
         <f t="shared" si="6"/>
-        <v>45770</v>
+        <v>45747</v>
       </c>
       <c r="V10" s="19">
         <f t="shared" si="13"/>
-        <v>45877</v>
+        <v>45854</v>
       </c>
       <c r="W10" s="27">
         <f t="shared" si="14"/>
@@ -2231,11 +2227,11 @@
       <c r="Y10" s="22"/>
       <c r="Z10" s="23">
         <f t="shared" si="16"/>
-        <v>45880</v>
+        <v>45855</v>
       </c>
       <c r="AA10" s="19">
         <f t="shared" si="17"/>
-        <v>45898</v>
+        <v>45875</v>
       </c>
       <c r="AB10" s="27">
         <f t="shared" si="18"/>
@@ -2246,57 +2242,58 @@
         <v>45838</v>
       </c>
       <c r="AD10" s="22"/>
-      <c r="AE10" s="43">
-        <v>45901</v>
+      <c r="AE10" s="44">
+        <f t="shared" si="20"/>
+        <v>45876</v>
       </c>
       <c r="AF10" s="20">
-        <f t="shared" si="20"/>
-        <v>45923</v>
+        <f t="shared" si="21"/>
+        <v>45898</v>
       </c>
       <c r="AG10" s="27">
         <f t="shared" si="7"/>
         <v>45709</v>
       </c>
       <c r="AH10" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>45729</v>
       </c>
       <c r="AI10" s="22"/>
-      <c r="AJ10" s="20">
-        <f t="shared" si="22"/>
-        <v>45924</v>
-      </c>
-      <c r="AK10" s="41">
-        <v>45926</v>
+      <c r="AJ10" s="37">
+        <v>45901</v>
+      </c>
+      <c r="AK10" s="43">
+        <f t="shared" si="23"/>
+        <v>45903</v>
       </c>
       <c r="AL10" s="27">
         <f t="shared" si="8"/>
         <v>45839</v>
       </c>
       <c r="AM10" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>45859</v>
       </c>
       <c r="AN10" s="22"/>
       <c r="AO10" s="23">
-        <f t="shared" si="24"/>
-        <v>45929</v>
+        <f t="shared" si="25"/>
+        <v>45904</v>
       </c>
       <c r="AP10" s="19">
-        <f t="shared" si="25"/>
-        <v>45947</v>
+        <f t="shared" si="26"/>
+        <v>45924</v>
       </c>
       <c r="AQ10" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>45860</v>
       </c>
       <c r="AR10" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>45880</v>
       </c>
       <c r="AS10" s="17">
         <f t="shared" si="9"/>
-        <v>-67</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
@@ -2314,11 +2311,11 @@
       </c>
       <c r="F11" s="19">
         <f t="shared" si="0"/>
-        <v>45813</v>
+        <v>45790</v>
       </c>
       <c r="G11" s="20">
         <f t="shared" si="10"/>
-        <v>45835</v>
+        <v>45812</v>
       </c>
       <c r="H11" s="21">
         <v>45716</v>
@@ -2330,11 +2327,11 @@
       <c r="J11" s="22"/>
       <c r="K11" s="23">
         <f t="shared" si="2"/>
-        <v>45838</v>
+        <v>45813</v>
       </c>
       <c r="L11" s="19">
         <f t="shared" si="3"/>
-        <v>45860</v>
+        <v>45835</v>
       </c>
       <c r="M11" s="24">
         <v>45700</v>
@@ -2345,11 +2342,11 @@
       <c r="O11" s="22"/>
       <c r="P11" s="23">
         <f t="shared" si="4"/>
-        <v>45861</v>
+        <v>45838</v>
       </c>
       <c r="Q11" s="19">
         <f t="shared" si="11"/>
-        <v>45968</v>
+        <v>45945</v>
       </c>
       <c r="R11" s="27">
         <f t="shared" si="5"/>
@@ -2362,11 +2359,11 @@
       <c r="T11" s="22"/>
       <c r="U11" s="23">
         <f t="shared" si="6"/>
-        <v>45861</v>
+        <v>45838</v>
       </c>
       <c r="V11" s="19">
         <f t="shared" si="13"/>
-        <v>45968</v>
+        <v>45945</v>
       </c>
       <c r="W11" s="27">
         <f t="shared" si="14"/>
@@ -2379,11 +2376,11 @@
       <c r="Y11" s="22"/>
       <c r="Z11" s="23">
         <f t="shared" si="16"/>
-        <v>45971</v>
+        <v>45946</v>
       </c>
       <c r="AA11" s="19">
         <f>IFERROR(WORKDAY(AE11,-1),"-")</f>
-        <v>45989</v>
+        <v>45966</v>
       </c>
       <c r="AB11" s="27">
         <f t="shared" si="18"/>
@@ -2394,57 +2391,58 @@
         <v>45868</v>
       </c>
       <c r="AD11" s="22"/>
-      <c r="AE11" s="43">
-        <v>45992</v>
+      <c r="AE11" s="44">
+        <f t="shared" si="20"/>
+        <v>45967</v>
       </c>
       <c r="AF11" s="20">
-        <f t="shared" si="20"/>
-        <v>46014</v>
+        <f t="shared" si="21"/>
+        <v>45989</v>
       </c>
       <c r="AG11" s="27">
         <f t="shared" si="7"/>
         <v>45741</v>
       </c>
       <c r="AH11" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>45761</v>
       </c>
       <c r="AI11" s="22"/>
-      <c r="AJ11" s="20">
-        <f t="shared" si="22"/>
-        <v>46015</v>
-      </c>
-      <c r="AK11" s="41">
-        <v>46017</v>
+      <c r="AJ11" s="37">
+        <v>45992</v>
+      </c>
+      <c r="AK11" s="43">
+        <f t="shared" si="23"/>
+        <v>45994</v>
       </c>
       <c r="AL11" s="27">
         <f t="shared" si="8"/>
         <v>45869</v>
       </c>
       <c r="AM11" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>45889</v>
       </c>
       <c r="AN11" s="22"/>
       <c r="AO11" s="23">
-        <f t="shared" si="24"/>
-        <v>46020</v>
+        <f t="shared" si="25"/>
+        <v>45995</v>
       </c>
       <c r="AP11" s="19">
-        <f t="shared" si="25"/>
-        <v>46038</v>
+        <f t="shared" si="26"/>
+        <v>46015</v>
       </c>
       <c r="AQ11" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>45890</v>
       </c>
       <c r="AR11" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>45910</v>
       </c>
       <c r="AS11" s="29">
         <f t="shared" si="9"/>
-        <v>-128</v>
+        <v>-105</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
@@ -2462,11 +2460,11 @@
       </c>
       <c r="F12" s="19">
         <f t="shared" si="0"/>
-        <v>45813</v>
+        <v>45790</v>
       </c>
       <c r="G12" s="20">
         <f t="shared" si="10"/>
-        <v>45835</v>
+        <v>45812</v>
       </c>
       <c r="H12" s="21">
         <v>45716</v>
@@ -2478,11 +2476,11 @@
       <c r="J12" s="22"/>
       <c r="K12" s="23">
         <f t="shared" si="2"/>
-        <v>45838</v>
+        <v>45813</v>
       </c>
       <c r="L12" s="19">
         <f t="shared" si="3"/>
-        <v>45860</v>
+        <v>45835</v>
       </c>
       <c r="M12" s="24">
         <v>45761</v>
@@ -2493,11 +2491,11 @@
       <c r="O12" s="22"/>
       <c r="P12" s="23">
         <f t="shared" si="4"/>
-        <v>45861</v>
+        <v>45838</v>
       </c>
       <c r="Q12" s="19">
         <f t="shared" si="11"/>
-        <v>45968</v>
+        <v>45945</v>
       </c>
       <c r="R12" s="27">
         <f t="shared" si="5"/>
@@ -2510,11 +2508,11 @@
       <c r="T12" s="22"/>
       <c r="U12" s="23">
         <f t="shared" si="6"/>
-        <v>45861</v>
+        <v>45838</v>
       </c>
       <c r="V12" s="19">
         <f t="shared" si="13"/>
-        <v>45968</v>
+        <v>45945</v>
       </c>
       <c r="W12" s="27">
         <f t="shared" si="14"/>
@@ -2527,11 +2525,11 @@
       <c r="Y12" s="22"/>
       <c r="Z12" s="23">
         <f t="shared" si="16"/>
-        <v>45971</v>
+        <v>45946</v>
       </c>
       <c r="AA12" s="19">
         <f t="shared" si="17"/>
-        <v>45989</v>
+        <v>45966</v>
       </c>
       <c r="AB12" s="27">
         <f t="shared" si="18"/>
@@ -2542,57 +2540,58 @@
         <v>45931</v>
       </c>
       <c r="AD12" s="22"/>
-      <c r="AE12" s="43">
-        <v>45992</v>
+      <c r="AE12" s="44">
+        <f t="shared" si="20"/>
+        <v>45967</v>
       </c>
       <c r="AF12" s="20">
-        <f t="shared" si="20"/>
-        <v>46014</v>
+        <f t="shared" si="21"/>
+        <v>45989</v>
       </c>
       <c r="AG12" s="27">
         <f t="shared" si="7"/>
         <v>45804</v>
       </c>
       <c r="AH12" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>45824</v>
       </c>
       <c r="AI12" s="22"/>
-      <c r="AJ12" s="20">
-        <f t="shared" si="22"/>
-        <v>46015</v>
-      </c>
-      <c r="AK12" s="41">
-        <v>46017</v>
+      <c r="AJ12" s="37">
+        <v>45992</v>
+      </c>
+      <c r="AK12" s="43">
+        <f t="shared" si="23"/>
+        <v>45994</v>
       </c>
       <c r="AL12" s="27">
         <f t="shared" si="8"/>
         <v>45932</v>
       </c>
       <c r="AM12" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>45952</v>
       </c>
       <c r="AN12" s="22"/>
       <c r="AO12" s="23">
-        <f t="shared" si="24"/>
-        <v>46020</v>
+        <f t="shared" si="25"/>
+        <v>45995</v>
       </c>
       <c r="AP12" s="19">
-        <f t="shared" si="25"/>
-        <v>46038</v>
+        <f t="shared" si="26"/>
+        <v>46015</v>
       </c>
       <c r="AQ12" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>45953</v>
       </c>
       <c r="AR12" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>45973</v>
       </c>
       <c r="AS12" s="29">
         <f t="shared" si="9"/>
-        <v>-65</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
@@ -2610,11 +2609,11 @@
       </c>
       <c r="F13" s="19">
         <f t="shared" si="0"/>
-        <v>45722</v>
+        <v>45699</v>
       </c>
       <c r="G13" s="20">
         <f t="shared" si="10"/>
-        <v>45744</v>
+        <v>45721</v>
       </c>
       <c r="H13" s="21">
         <v>45658</v>
@@ -2626,11 +2625,11 @@
       <c r="J13" s="22"/>
       <c r="K13" s="23">
         <f t="shared" si="2"/>
-        <v>45747</v>
+        <v>45722</v>
       </c>
       <c r="L13" s="19">
         <f t="shared" si="3"/>
-        <v>45769</v>
+        <v>45744</v>
       </c>
       <c r="M13" s="24">
         <v>45740</v>
@@ -2641,11 +2640,11 @@
       <c r="O13" s="22"/>
       <c r="P13" s="23">
         <f t="shared" si="4"/>
-        <v>45770</v>
+        <v>45747</v>
       </c>
       <c r="Q13" s="19">
         <f t="shared" si="11"/>
-        <v>45877</v>
+        <v>45854</v>
       </c>
       <c r="R13" s="27">
         <f t="shared" si="5"/>
@@ -2658,11 +2657,11 @@
       <c r="T13" s="22"/>
       <c r="U13" s="23">
         <f t="shared" si="6"/>
-        <v>45770</v>
+        <v>45747</v>
       </c>
       <c r="V13" s="19">
         <f t="shared" si="13"/>
-        <v>45877</v>
+        <v>45854</v>
       </c>
       <c r="W13" s="27">
         <f t="shared" si="14"/>
@@ -2675,11 +2674,11 @@
       <c r="Y13" s="22"/>
       <c r="Z13" s="23">
         <f t="shared" si="16"/>
-        <v>45880</v>
+        <v>45855</v>
       </c>
       <c r="AA13" s="19">
         <f t="shared" si="17"/>
-        <v>45898</v>
+        <v>45875</v>
       </c>
       <c r="AB13" s="27">
         <f t="shared" si="18"/>
@@ -2690,57 +2689,58 @@
         <v>45916</v>
       </c>
       <c r="AD13" s="22"/>
-      <c r="AE13" s="43">
-        <v>45901</v>
+      <c r="AE13" s="44">
+        <f t="shared" si="20"/>
+        <v>45876</v>
       </c>
       <c r="AF13" s="20">
-        <f t="shared" si="20"/>
-        <v>45923</v>
+        <f t="shared" si="21"/>
+        <v>45898</v>
       </c>
       <c r="AG13" s="27">
         <f t="shared" si="7"/>
         <v>45789</v>
       </c>
       <c r="AH13" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>45807</v>
       </c>
       <c r="AI13" s="22"/>
-      <c r="AJ13" s="20">
-        <f t="shared" si="22"/>
-        <v>45924</v>
-      </c>
-      <c r="AK13" s="41">
-        <v>45926</v>
+      <c r="AJ13" s="37">
+        <v>45901</v>
+      </c>
+      <c r="AK13" s="43">
+        <f t="shared" si="23"/>
+        <v>45903</v>
       </c>
       <c r="AL13" s="27">
         <f t="shared" si="8"/>
         <v>45917</v>
       </c>
       <c r="AM13" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>45937</v>
       </c>
       <c r="AN13" s="22"/>
       <c r="AO13" s="23">
-        <f t="shared" si="24"/>
-        <v>45929</v>
+        <f t="shared" si="25"/>
+        <v>45904</v>
       </c>
       <c r="AP13" s="19">
-        <f t="shared" si="25"/>
-        <v>45947</v>
+        <f t="shared" si="26"/>
+        <v>45924</v>
       </c>
       <c r="AQ13" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>45938</v>
       </c>
       <c r="AR13" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>45958</v>
       </c>
       <c r="AS13" s="17">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
@@ -2758,11 +2758,11 @@
       </c>
       <c r="F14" s="19">
         <f t="shared" si="0"/>
-        <v>45813</v>
+        <v>45790</v>
       </c>
       <c r="G14" s="20">
         <f t="shared" si="10"/>
-        <v>45835</v>
+        <v>45812</v>
       </c>
       <c r="H14" s="21">
         <v>45658</v>
@@ -2774,11 +2774,11 @@
       <c r="J14" s="22"/>
       <c r="K14" s="23">
         <f t="shared" si="2"/>
-        <v>45838</v>
+        <v>45813</v>
       </c>
       <c r="L14" s="19">
         <f t="shared" si="3"/>
-        <v>45860</v>
+        <v>45835</v>
       </c>
       <c r="M14" s="30">
         <v>45817</v>
@@ -2789,11 +2789,11 @@
       <c r="O14" s="22"/>
       <c r="P14" s="23">
         <f t="shared" si="4"/>
-        <v>45861</v>
+        <v>45838</v>
       </c>
       <c r="Q14" s="19">
         <f t="shared" si="11"/>
-        <v>45968</v>
+        <v>45945</v>
       </c>
       <c r="R14" s="27">
         <f t="shared" si="5"/>
@@ -2806,11 +2806,11 @@
       <c r="T14" s="22"/>
       <c r="U14" s="23">
         <f t="shared" si="6"/>
-        <v>45861</v>
+        <v>45838</v>
       </c>
       <c r="V14" s="19">
         <f t="shared" si="13"/>
-        <v>45968</v>
+        <v>45945</v>
       </c>
       <c r="W14" s="27">
         <f t="shared" si="14"/>
@@ -2823,11 +2823,11 @@
       <c r="Y14" s="22"/>
       <c r="Z14" s="23">
         <f t="shared" si="16"/>
-        <v>45971</v>
+        <v>45946</v>
       </c>
       <c r="AA14" s="19">
         <f t="shared" si="17"/>
-        <v>45989</v>
+        <v>45966</v>
       </c>
       <c r="AB14" s="27">
         <f t="shared" si="18"/>
@@ -2838,57 +2838,58 @@
         <v>45959</v>
       </c>
       <c r="AD14" s="22"/>
-      <c r="AE14" s="43">
-        <v>45992</v>
+      <c r="AE14" s="44">
+        <f t="shared" si="20"/>
+        <v>45967</v>
       </c>
       <c r="AF14" s="20">
-        <f t="shared" si="20"/>
-        <v>46014</v>
+        <f t="shared" si="21"/>
+        <v>45989</v>
       </c>
       <c r="AG14" s="27">
         <f t="shared" si="7"/>
         <v>45832</v>
       </c>
       <c r="AH14" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>45852</v>
       </c>
       <c r="AI14" s="22"/>
-      <c r="AJ14" s="20">
-        <f t="shared" si="22"/>
-        <v>46015</v>
-      </c>
-      <c r="AK14" s="41">
-        <v>46017</v>
+      <c r="AJ14" s="37">
+        <v>45992</v>
+      </c>
+      <c r="AK14" s="43">
+        <f t="shared" si="23"/>
+        <v>45994</v>
       </c>
       <c r="AL14" s="27">
         <f t="shared" si="8"/>
         <v>45960</v>
       </c>
       <c r="AM14" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>45980</v>
       </c>
       <c r="AN14" s="22"/>
       <c r="AO14" s="23">
-        <f t="shared" si="24"/>
-        <v>46020</v>
+        <f t="shared" si="25"/>
+        <v>45995</v>
       </c>
       <c r="AP14" s="19">
-        <f t="shared" si="25"/>
-        <v>46038</v>
+        <f t="shared" si="26"/>
+        <v>46015</v>
       </c>
       <c r="AQ14" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>45981</v>
       </c>
       <c r="AR14" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>46001</v>
       </c>
       <c r="AS14" s="17">
         <f t="shared" si="9"/>
-        <v>-37</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
@@ -2906,11 +2907,11 @@
       </c>
       <c r="F15" s="19">
         <f t="shared" si="0"/>
-        <v>45785</v>
+        <v>45762</v>
       </c>
       <c r="G15" s="20">
         <f t="shared" si="10"/>
-        <v>45807</v>
+        <v>45784</v>
       </c>
       <c r="H15" s="21">
         <v>45658</v>
@@ -2922,11 +2923,11 @@
       <c r="J15" s="22"/>
       <c r="K15" s="23">
         <f t="shared" si="2"/>
-        <v>45810</v>
+        <v>45785</v>
       </c>
       <c r="L15" s="19">
         <f t="shared" si="3"/>
-        <v>45832</v>
+        <v>45807</v>
       </c>
       <c r="M15" s="24">
         <v>45767</v>
@@ -2937,11 +2938,11 @@
       <c r="O15" s="22"/>
       <c r="P15" s="23">
         <f t="shared" si="4"/>
-        <v>45833</v>
+        <v>45810</v>
       </c>
       <c r="Q15" s="19">
         <f t="shared" si="11"/>
-        <v>45940</v>
+        <v>45917</v>
       </c>
       <c r="R15" s="27">
         <f t="shared" si="5"/>
@@ -2954,11 +2955,11 @@
       <c r="T15" s="22"/>
       <c r="U15" s="23">
         <f t="shared" si="6"/>
-        <v>45833</v>
+        <v>45810</v>
       </c>
       <c r="V15" s="19">
         <f t="shared" si="13"/>
-        <v>45940</v>
+        <v>45917</v>
       </c>
       <c r="W15" s="27">
         <f t="shared" si="14"/>
@@ -2971,11 +2972,11 @@
       <c r="Y15" s="22"/>
       <c r="Z15" s="23">
         <f t="shared" si="16"/>
-        <v>45943</v>
+        <v>45918</v>
       </c>
       <c r="AA15" s="19">
         <f t="shared" si="17"/>
-        <v>45961</v>
+        <v>45938</v>
       </c>
       <c r="AB15" s="27">
         <f t="shared" si="18"/>
@@ -2986,57 +2987,58 @@
         <v>45945</v>
       </c>
       <c r="AD15" s="22"/>
-      <c r="AE15" s="43">
-        <v>45962</v>
+      <c r="AE15" s="44">
+        <f t="shared" si="20"/>
+        <v>45939</v>
       </c>
       <c r="AF15" s="20">
-        <f t="shared" si="20"/>
-        <v>45985</v>
+        <f t="shared" si="21"/>
+        <v>45961</v>
       </c>
       <c r="AG15" s="27">
         <f t="shared" si="7"/>
         <v>45818</v>
       </c>
       <c r="AH15" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>45838</v>
       </c>
       <c r="AI15" s="22"/>
-      <c r="AJ15" s="20">
-        <f t="shared" si="22"/>
-        <v>45986</v>
-      </c>
-      <c r="AK15" s="41">
-        <v>45988</v>
+      <c r="AJ15" s="37">
+        <v>45962</v>
+      </c>
+      <c r="AK15" s="43">
+        <f t="shared" si="23"/>
+        <v>45965</v>
       </c>
       <c r="AL15" s="27">
         <f t="shared" si="8"/>
         <v>45946</v>
       </c>
       <c r="AM15" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>45966</v>
       </c>
       <c r="AN15" s="22"/>
       <c r="AO15" s="23">
-        <f t="shared" si="24"/>
-        <v>45989</v>
+        <f t="shared" si="25"/>
+        <v>45966</v>
       </c>
       <c r="AP15" s="19">
-        <f t="shared" si="25"/>
-        <v>46009</v>
+        <f t="shared" si="26"/>
+        <v>45986</v>
       </c>
       <c r="AQ15" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>45967</v>
       </c>
       <c r="AR15" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>45987</v>
       </c>
       <c r="AS15" s="17">
         <f t="shared" si="9"/>
-        <v>-22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
@@ -3054,33 +3056,33 @@
       </c>
       <c r="F16" s="19">
         <f t="shared" si="0"/>
-        <v>45754</v>
+        <v>45729</v>
       </c>
       <c r="G16" s="20">
         <f t="shared" si="10"/>
-        <v>45776</v>
+        <v>45751</v>
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="32"/>
       <c r="J16" s="22"/>
       <c r="K16" s="23">
         <f t="shared" si="2"/>
-        <v>45777</v>
+        <v>45754</v>
       </c>
       <c r="L16" s="19">
         <f t="shared" si="3"/>
-        <v>45799</v>
+        <v>45776</v>
       </c>
       <c r="M16" s="33"/>
       <c r="N16" s="32"/>
       <c r="O16" s="22"/>
       <c r="P16" s="23">
         <f t="shared" si="4"/>
-        <v>45800</v>
+        <v>45777</v>
       </c>
       <c r="Q16" s="19">
         <f t="shared" si="11"/>
-        <v>45909</v>
+        <v>45884</v>
       </c>
       <c r="R16" s="27">
         <f t="shared" si="5"/>
@@ -3093,11 +3095,11 @@
       <c r="T16" s="22"/>
       <c r="U16" s="23">
         <f t="shared" si="6"/>
-        <v>45800</v>
+        <v>45777</v>
       </c>
       <c r="V16" s="19">
         <f t="shared" si="13"/>
-        <v>45909</v>
+        <v>45884</v>
       </c>
       <c r="W16" s="27">
         <f t="shared" si="14"/>
@@ -3110,11 +3112,11 @@
       <c r="Y16" s="22"/>
       <c r="Z16" s="23">
         <f t="shared" si="16"/>
-        <v>45910</v>
+        <v>45887</v>
       </c>
       <c r="AA16" s="19">
         <f t="shared" si="17"/>
-        <v>45930</v>
+        <v>45905</v>
       </c>
       <c r="AB16" s="27">
         <f t="shared" si="18"/>
@@ -3125,57 +3127,58 @@
         <v>130</v>
       </c>
       <c r="AD16" s="22"/>
-      <c r="AE16" s="43">
-        <v>45931</v>
+      <c r="AE16" s="44">
+        <f t="shared" si="20"/>
+        <v>45908</v>
       </c>
       <c r="AF16" s="20">
-        <f t="shared" si="20"/>
-        <v>45953</v>
+        <f t="shared" si="21"/>
+        <v>45930</v>
       </c>
       <c r="AG16" s="27">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AH16" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
       <c r="AI16" s="22"/>
-      <c r="AJ16" s="20">
-        <f t="shared" si="22"/>
-        <v>45954</v>
-      </c>
-      <c r="AK16" s="41">
-        <v>45958</v>
+      <c r="AJ16" s="37">
+        <v>45931</v>
+      </c>
+      <c r="AK16" s="43">
+        <f t="shared" si="23"/>
+        <v>45933</v>
       </c>
       <c r="AL16" s="27">
         <f t="shared" si="8"/>
         <v>131</v>
       </c>
       <c r="AM16" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>151</v>
       </c>
       <c r="AN16" s="22"/>
       <c r="AO16" s="23">
-        <f t="shared" si="24"/>
-        <v>45959</v>
+        <f t="shared" si="25"/>
+        <v>45936</v>
       </c>
       <c r="AP16" s="19">
-        <f t="shared" si="25"/>
-        <v>45979</v>
+        <f t="shared" si="26"/>
+        <v>45954</v>
       </c>
       <c r="AQ16" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>152</v>
       </c>
       <c r="AR16" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>172</v>
       </c>
       <c r="AS16" s="29">
         <f t="shared" si="9"/>
-        <v>-45807</v>
+        <v>-45782</v>
       </c>
     </row>
     <row r="17" spans="2:45" x14ac:dyDescent="0.25">
@@ -3193,33 +3196,33 @@
       </c>
       <c r="F17" s="19">
         <f t="shared" si="0"/>
-        <v>45876</v>
+        <v>45853</v>
       </c>
       <c r="G17" s="20">
         <f t="shared" si="10"/>
-        <v>45898</v>
+        <v>45875</v>
       </c>
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
       <c r="J17" s="22"/>
       <c r="K17" s="23">
         <f t="shared" si="2"/>
-        <v>45901</v>
+        <v>45876</v>
       </c>
       <c r="L17" s="19">
         <f t="shared" si="3"/>
-        <v>45923</v>
+        <v>45898</v>
       </c>
       <c r="M17" s="33"/>
       <c r="N17" s="32"/>
       <c r="O17" s="22"/>
       <c r="P17" s="23">
         <f t="shared" si="4"/>
-        <v>45924</v>
+        <v>45901</v>
       </c>
       <c r="Q17" s="19">
         <f t="shared" si="11"/>
-        <v>46031</v>
+        <v>46008</v>
       </c>
       <c r="R17" s="27">
         <f t="shared" si="5"/>
@@ -3232,11 +3235,11 @@
       <c r="T17" s="22"/>
       <c r="U17" s="23">
         <f t="shared" si="6"/>
-        <v>45924</v>
+        <v>45901</v>
       </c>
       <c r="V17" s="19">
         <f t="shared" si="13"/>
-        <v>46031</v>
+        <v>46008</v>
       </c>
       <c r="W17" s="27">
         <f t="shared" si="14"/>
@@ -3249,11 +3252,11 @@
       <c r="Y17" s="22"/>
       <c r="Z17" s="23">
         <f t="shared" si="16"/>
-        <v>46034</v>
+        <v>46009</v>
       </c>
       <c r="AA17" s="19">
         <f t="shared" si="17"/>
-        <v>46052</v>
+        <v>46029</v>
       </c>
       <c r="AB17" s="27">
         <f t="shared" si="18"/>
@@ -3265,56 +3268,57 @@
       </c>
       <c r="AD17" s="22"/>
       <c r="AE17" s="44">
-        <v>46054</v>
+        <f t="shared" si="20"/>
+        <v>46030</v>
       </c>
       <c r="AF17" s="20">
-        <f t="shared" si="20"/>
-        <v>46076</v>
+        <f t="shared" si="21"/>
+        <v>46052</v>
       </c>
       <c r="AG17" s="27">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AH17" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
       <c r="AI17" s="22"/>
-      <c r="AJ17" s="20">
-        <f t="shared" si="22"/>
-        <v>46077</v>
-      </c>
-      <c r="AK17" s="42">
-        <v>46079</v>
+      <c r="AJ17" s="38">
+        <v>46054</v>
+      </c>
+      <c r="AK17" s="43">
+        <f t="shared" si="23"/>
+        <v>46056</v>
       </c>
       <c r="AL17" s="27">
         <f t="shared" si="8"/>
         <v>131</v>
       </c>
       <c r="AM17" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>151</v>
       </c>
       <c r="AN17" s="22"/>
       <c r="AO17" s="23">
-        <f t="shared" si="24"/>
-        <v>46080</v>
+        <f t="shared" si="25"/>
+        <v>46057</v>
       </c>
       <c r="AP17" s="19">
-        <f t="shared" si="25"/>
-        <v>46100</v>
+        <f t="shared" si="26"/>
+        <v>46077</v>
       </c>
       <c r="AQ17" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>152</v>
       </c>
       <c r="AR17" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>172</v>
       </c>
       <c r="AS17" s="17">
         <f t="shared" si="9"/>
-        <v>-45928</v>
+        <v>-45905</v>
       </c>
     </row>
     <row r="18" spans="2:45" x14ac:dyDescent="0.25">
@@ -3332,33 +3336,33 @@
       </c>
       <c r="F18" s="19">
         <f t="shared" si="0"/>
-        <v>45846</v>
+        <v>45821</v>
       </c>
       <c r="G18" s="20">
         <f t="shared" si="10"/>
-        <v>45868</v>
+        <v>45845</v>
       </c>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
       <c r="J18" s="22"/>
       <c r="K18" s="23">
         <f t="shared" si="2"/>
-        <v>45869</v>
+        <v>45846</v>
       </c>
       <c r="L18" s="19">
         <f t="shared" si="3"/>
-        <v>45891</v>
+        <v>45868</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="32"/>
       <c r="O18" s="22"/>
       <c r="P18" s="23">
         <f t="shared" si="4"/>
-        <v>45894</v>
+        <v>45869</v>
       </c>
       <c r="Q18" s="19">
         <f t="shared" si="11"/>
-        <v>46001</v>
+        <v>45978</v>
       </c>
       <c r="R18" s="27">
         <f t="shared" si="5"/>
@@ -3371,11 +3375,11 @@
       <c r="T18" s="22"/>
       <c r="U18" s="23">
         <f t="shared" si="6"/>
-        <v>45894</v>
+        <v>45869</v>
       </c>
       <c r="V18" s="19">
         <f t="shared" si="13"/>
-        <v>46001</v>
+        <v>45978</v>
       </c>
       <c r="W18" s="27">
         <f t="shared" si="14"/>
@@ -3388,11 +3392,11 @@
       <c r="Y18" s="22"/>
       <c r="Z18" s="23">
         <f t="shared" si="16"/>
-        <v>46002</v>
+        <v>45979</v>
       </c>
       <c r="AA18" s="19">
         <f t="shared" si="17"/>
-        <v>46022</v>
+        <v>45999</v>
       </c>
       <c r="AB18" s="27">
         <f t="shared" si="18"/>
@@ -3404,56 +3408,57 @@
       </c>
       <c r="AD18" s="22"/>
       <c r="AE18" s="44">
-        <v>46023</v>
+        <f t="shared" si="20"/>
+        <v>46000</v>
       </c>
       <c r="AF18" s="20">
-        <f t="shared" si="20"/>
-        <v>46045</v>
+        <f t="shared" si="21"/>
+        <v>46022</v>
       </c>
       <c r="AG18" s="27">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AH18" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
       <c r="AI18" s="22"/>
-      <c r="AJ18" s="20">
-        <f t="shared" si="22"/>
-        <v>46048</v>
-      </c>
-      <c r="AK18" s="42">
-        <v>46050</v>
+      <c r="AJ18" s="38">
+        <v>46023</v>
+      </c>
+      <c r="AK18" s="43">
+        <f t="shared" si="23"/>
+        <v>46027</v>
       </c>
       <c r="AL18" s="27">
         <f t="shared" si="8"/>
         <v>131</v>
       </c>
       <c r="AM18" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>151</v>
       </c>
       <c r="AN18" s="22"/>
       <c r="AO18" s="23">
-        <f t="shared" si="24"/>
-        <v>46051</v>
+        <f t="shared" si="25"/>
+        <v>46028</v>
       </c>
       <c r="AP18" s="19">
-        <f t="shared" si="25"/>
-        <v>46071</v>
+        <f t="shared" si="26"/>
+        <v>46048</v>
       </c>
       <c r="AQ18" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>152</v>
       </c>
       <c r="AR18" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>172</v>
       </c>
       <c r="AS18" s="17">
         <f t="shared" si="9"/>
-        <v>-45899</v>
+        <v>-45876</v>
       </c>
     </row>
     <row r="19" spans="2:45" x14ac:dyDescent="0.25">
@@ -3471,33 +3476,33 @@
       </c>
       <c r="F19" s="19">
         <f t="shared" si="0"/>
-        <v>45936</v>
+        <v>45911</v>
       </c>
       <c r="G19" s="20">
         <f t="shared" si="10"/>
-        <v>45958</v>
+        <v>45933</v>
       </c>
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
       <c r="J19" s="22"/>
       <c r="K19" s="23">
         <f t="shared" si="2"/>
-        <v>45959</v>
+        <v>45936</v>
       </c>
       <c r="L19" s="19">
         <f t="shared" si="3"/>
-        <v>45981</v>
+        <v>45958</v>
       </c>
       <c r="M19" s="33"/>
       <c r="N19" s="32"/>
       <c r="O19" s="22"/>
       <c r="P19" s="23">
         <f t="shared" si="4"/>
-        <v>45982</v>
+        <v>45959</v>
       </c>
       <c r="Q19" s="19">
         <f t="shared" si="11"/>
-        <v>46091</v>
+        <v>46066</v>
       </c>
       <c r="R19" s="27">
         <f t="shared" si="5"/>
@@ -3510,11 +3515,11 @@
       <c r="T19" s="22"/>
       <c r="U19" s="23">
         <f t="shared" si="6"/>
-        <v>45982</v>
+        <v>45959</v>
       </c>
       <c r="V19" s="19">
         <f t="shared" si="13"/>
-        <v>46091</v>
+        <v>46066</v>
       </c>
       <c r="W19" s="27">
         <f t="shared" si="14"/>
@@ -3527,11 +3532,11 @@
       <c r="Y19" s="22"/>
       <c r="Z19" s="23">
         <f t="shared" si="16"/>
-        <v>46092</v>
+        <v>46069</v>
       </c>
       <c r="AA19" s="19">
         <f t="shared" si="17"/>
-        <v>46112</v>
+        <v>46087</v>
       </c>
       <c r="AB19" s="27">
         <f t="shared" si="18"/>
@@ -3543,56 +3548,57 @@
       </c>
       <c r="AD19" s="22"/>
       <c r="AE19" s="44">
-        <v>46113</v>
+        <f t="shared" si="20"/>
+        <v>46090</v>
       </c>
       <c r="AF19" s="20">
-        <f t="shared" si="20"/>
-        <v>46135</v>
+        <f t="shared" si="21"/>
+        <v>46112</v>
       </c>
       <c r="AG19" s="27">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AH19" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
       <c r="AI19" s="22"/>
-      <c r="AJ19" s="20">
-        <f t="shared" si="22"/>
-        <v>46136</v>
-      </c>
-      <c r="AK19" s="42">
-        <v>46140</v>
+      <c r="AJ19" s="38">
+        <v>46113</v>
+      </c>
+      <c r="AK19" s="43">
+        <f t="shared" si="23"/>
+        <v>46115</v>
       </c>
       <c r="AL19" s="27">
         <f t="shared" si="8"/>
         <v>131</v>
       </c>
       <c r="AM19" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>151</v>
       </c>
       <c r="AN19" s="22"/>
       <c r="AO19" s="23">
-        <f t="shared" si="24"/>
-        <v>46141</v>
+        <f t="shared" si="25"/>
+        <v>46118</v>
       </c>
       <c r="AP19" s="19">
-        <f t="shared" si="25"/>
-        <v>46161</v>
+        <f t="shared" si="26"/>
+        <v>46136</v>
       </c>
       <c r="AQ19" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>152</v>
       </c>
       <c r="AR19" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>172</v>
       </c>
       <c r="AS19" s="17">
         <f t="shared" si="9"/>
-        <v>-45989</v>
+        <v>-45964</v>
       </c>
     </row>
     <row r="20" spans="2:45" x14ac:dyDescent="0.25">
@@ -3610,33 +3616,33 @@
       </c>
       <c r="F20" s="19">
         <f t="shared" si="0"/>
-        <v>45936</v>
+        <v>45911</v>
       </c>
       <c r="G20" s="20">
         <f t="shared" si="10"/>
-        <v>45958</v>
+        <v>45933</v>
       </c>
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
       <c r="J20" s="22"/>
       <c r="K20" s="23">
         <f t="shared" si="2"/>
-        <v>45959</v>
+        <v>45936</v>
       </c>
       <c r="L20" s="19">
         <f t="shared" si="3"/>
-        <v>45981</v>
+        <v>45958</v>
       </c>
       <c r="M20" s="33"/>
       <c r="N20" s="32"/>
       <c r="O20" s="22"/>
       <c r="P20" s="23">
         <f t="shared" si="4"/>
-        <v>45982</v>
+        <v>45959</v>
       </c>
       <c r="Q20" s="19">
         <f t="shared" si="11"/>
-        <v>46091</v>
+        <v>46066</v>
       </c>
       <c r="R20" s="27">
         <f t="shared" si="5"/>
@@ -3649,11 +3655,11 @@
       <c r="T20" s="22"/>
       <c r="U20" s="23">
         <f t="shared" si="6"/>
-        <v>45982</v>
+        <v>45959</v>
       </c>
       <c r="V20" s="19">
         <f t="shared" si="13"/>
-        <v>46091</v>
+        <v>46066</v>
       </c>
       <c r="W20" s="27">
         <f t="shared" si="14"/>
@@ -3666,11 +3672,11 @@
       <c r="Y20" s="22"/>
       <c r="Z20" s="23">
         <f t="shared" si="16"/>
-        <v>46092</v>
+        <v>46069</v>
       </c>
       <c r="AA20" s="19">
         <f t="shared" si="17"/>
-        <v>46112</v>
+        <v>46087</v>
       </c>
       <c r="AB20" s="27">
         <f t="shared" si="18"/>
@@ -3682,56 +3688,57 @@
       </c>
       <c r="AD20" s="22"/>
       <c r="AE20" s="44">
-        <v>46113</v>
+        <f t="shared" si="20"/>
+        <v>46090</v>
       </c>
       <c r="AF20" s="20">
-        <f t="shared" si="20"/>
-        <v>46135</v>
+        <f t="shared" si="21"/>
+        <v>46112</v>
       </c>
       <c r="AG20" s="27">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AH20" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
       <c r="AI20" s="22"/>
-      <c r="AJ20" s="20">
-        <f t="shared" si="22"/>
-        <v>46136</v>
-      </c>
-      <c r="AK20" s="42">
-        <v>46140</v>
+      <c r="AJ20" s="38">
+        <v>46113</v>
+      </c>
+      <c r="AK20" s="43">
+        <f t="shared" si="23"/>
+        <v>46115</v>
       </c>
       <c r="AL20" s="27">
         <f t="shared" si="8"/>
         <v>131</v>
       </c>
       <c r="AM20" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>151</v>
       </c>
       <c r="AN20" s="22"/>
       <c r="AO20" s="23">
-        <f t="shared" si="24"/>
-        <v>46141</v>
+        <f t="shared" si="25"/>
+        <v>46118</v>
       </c>
       <c r="AP20" s="19">
-        <f t="shared" si="25"/>
-        <v>46161</v>
+        <f t="shared" si="26"/>
+        <v>46136</v>
       </c>
       <c r="AQ20" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>152</v>
       </c>
       <c r="AR20" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>172</v>
       </c>
       <c r="AS20" s="17">
         <f t="shared" si="9"/>
-        <v>-45989</v>
+        <v>-45964</v>
       </c>
     </row>
     <row r="22" spans="2:45" x14ac:dyDescent="0.25">

--- a/BASE - VENDA E REGISTRO.xlsx
+++ b/BASE - VENDA E REGISTRO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viana e Moura\Dropbox\PLANEJAMENTO\Scripts\MÓDULO VENDAS\MODULO_VENDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AA5848-2084-4F3D-B70D-5D57BDAFD5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347ADB0F-6D45-4B44-9FF0-EECCE933D171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0382C43D-564D-4A4C-8EAB-6952E70C6A7B}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0382C43D-564D-4A4C-8EAB-6952E70C6A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="PLANEJADOR MÓDULOS" sheetId="1" r:id="rId1"/>
@@ -904,6 +904,12 @@
     <xf numFmtId="14" fontId="14" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -914,12 +920,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1391,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DB70CC-ACBF-416D-B448-0645472647BA}">
   <dimension ref="A2:AS27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AH30" sqref="AH30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="10.8" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1471,60 +1471,60 @@
     </row>
     <row r="3" spans="1:45" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42" t="s">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="K3" s="39" t="s">
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="K3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="P3" s="42" t="s">
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="P3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="U3" s="39" t="s">
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="U3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Z3" s="39" t="s">
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Z3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AE3" s="39" t="s">
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AE3" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="40"/>
-      <c r="AJ3" s="39" t="s">
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="42"/>
+      <c r="AJ3" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="40"/>
-      <c r="AO3" s="39" t="s">
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="42"/>
+      <c r="AO3" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="AP3" s="39"/>
-      <c r="AQ3" s="39"/>
-      <c r="AR3" s="40"/>
+      <c r="AP3" s="41"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="42"/>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -1948,7 +1948,7 @@
         <v>45800</v>
       </c>
       <c r="AD8" s="22"/>
-      <c r="AE8" s="44">
+      <c r="AE8" s="40">
         <f>IFERROR(WORKDAY(AF8,(-$AH$2+1)),"-")</f>
         <v>45814</v>
       </c>
@@ -1967,7 +1967,7 @@
       <c r="AJ8" s="37">
         <v>45839</v>
       </c>
-      <c r="AK8" s="43">
+      <c r="AK8" s="39">
         <f>IFERROR(WORKDAY(AJ8,(AM$2-1)),"-")</f>
         <v>45841</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>45812</v>
       </c>
       <c r="AD9" s="22"/>
-      <c r="AE9" s="44">
+      <c r="AE9" s="40">
         <f t="shared" ref="AE9:AE20" si="20">IFERROR(WORKDAY(AF9,(-$AH$2+1)),"-")</f>
         <v>45814</v>
       </c>
@@ -2113,7 +2113,7 @@
       <c r="AJ9" s="37">
         <v>45839</v>
       </c>
-      <c r="AK9" s="43">
+      <c r="AK9" s="39">
         <f t="shared" ref="AK9:AK20" si="23">IFERROR(WORKDAY(AJ9,(AM$2-1)),"-")</f>
         <v>45841</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>45838</v>
       </c>
       <c r="AD10" s="22"/>
-      <c r="AE10" s="44">
+      <c r="AE10" s="40">
         <f t="shared" si="20"/>
         <v>45876</v>
       </c>
@@ -2262,7 +2262,7 @@
       <c r="AJ10" s="37">
         <v>45901</v>
       </c>
-      <c r="AK10" s="43">
+      <c r="AK10" s="39">
         <f t="shared" si="23"/>
         <v>45903</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>45868</v>
       </c>
       <c r="AD11" s="22"/>
-      <c r="AE11" s="44">
+      <c r="AE11" s="40">
         <f t="shared" si="20"/>
         <v>45967</v>
       </c>
@@ -2411,7 +2411,7 @@
       <c r="AJ11" s="37">
         <v>45992</v>
       </c>
-      <c r="AK11" s="43">
+      <c r="AK11" s="39">
         <f t="shared" si="23"/>
         <v>45994</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>45931</v>
       </c>
       <c r="AD12" s="22"/>
-      <c r="AE12" s="44">
+      <c r="AE12" s="40">
         <f t="shared" si="20"/>
         <v>45967</v>
       </c>
@@ -2560,7 +2560,7 @@
       <c r="AJ12" s="37">
         <v>45992</v>
       </c>
-      <c r="AK12" s="43">
+      <c r="AK12" s="39">
         <f t="shared" si="23"/>
         <v>45994</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>45916</v>
       </c>
       <c r="AD13" s="22"/>
-      <c r="AE13" s="44">
+      <c r="AE13" s="40">
         <f t="shared" si="20"/>
         <v>45876</v>
       </c>
@@ -2709,7 +2709,7 @@
       <c r="AJ13" s="37">
         <v>45901</v>
       </c>
-      <c r="AK13" s="43">
+      <c r="AK13" s="39">
         <f t="shared" si="23"/>
         <v>45903</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>45959</v>
       </c>
       <c r="AD14" s="22"/>
-      <c r="AE14" s="44">
+      <c r="AE14" s="40">
         <f t="shared" si="20"/>
         <v>45967</v>
       </c>
@@ -2858,7 +2858,7 @@
       <c r="AJ14" s="37">
         <v>45992</v>
       </c>
-      <c r="AK14" s="43">
+      <c r="AK14" s="39">
         <f t="shared" si="23"/>
         <v>45994</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>45945</v>
       </c>
       <c r="AD15" s="22"/>
-      <c r="AE15" s="44">
+      <c r="AE15" s="40">
         <f t="shared" si="20"/>
         <v>45939</v>
       </c>
@@ -3007,7 +3007,7 @@
       <c r="AJ15" s="37">
         <v>45962</v>
       </c>
-      <c r="AK15" s="43">
+      <c r="AK15" s="39">
         <f t="shared" si="23"/>
         <v>45965</v>
       </c>
@@ -3056,33 +3056,33 @@
       </c>
       <c r="F16" s="19">
         <f t="shared" si="0"/>
-        <v>45729</v>
+        <v>45821</v>
       </c>
       <c r="G16" s="20">
         <f t="shared" si="10"/>
-        <v>45751</v>
+        <v>45845</v>
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="32"/>
       <c r="J16" s="22"/>
       <c r="K16" s="23">
         <f t="shared" si="2"/>
-        <v>45754</v>
+        <v>45846</v>
       </c>
       <c r="L16" s="19">
         <f t="shared" si="3"/>
-        <v>45776</v>
+        <v>45868</v>
       </c>
       <c r="M16" s="33"/>
       <c r="N16" s="32"/>
       <c r="O16" s="22"/>
       <c r="P16" s="23">
         <f t="shared" si="4"/>
-        <v>45777</v>
+        <v>45869</v>
       </c>
       <c r="Q16" s="19">
         <f t="shared" si="11"/>
-        <v>45884</v>
+        <v>45978</v>
       </c>
       <c r="R16" s="27">
         <f t="shared" si="5"/>
@@ -3095,11 +3095,11 @@
       <c r="T16" s="22"/>
       <c r="U16" s="23">
         <f t="shared" si="6"/>
-        <v>45777</v>
+        <v>45869</v>
       </c>
       <c r="V16" s="19">
         <f t="shared" si="13"/>
-        <v>45884</v>
+        <v>45978</v>
       </c>
       <c r="W16" s="27">
         <f t="shared" si="14"/>
@@ -3112,11 +3112,11 @@
       <c r="Y16" s="22"/>
       <c r="Z16" s="23">
         <f t="shared" si="16"/>
-        <v>45887</v>
+        <v>45979</v>
       </c>
       <c r="AA16" s="19">
         <f t="shared" si="17"/>
-        <v>45905</v>
+        <v>45999</v>
       </c>
       <c r="AB16" s="27">
         <f t="shared" si="18"/>
@@ -3127,13 +3127,13 @@
         <v>130</v>
       </c>
       <c r="AD16" s="22"/>
-      <c r="AE16" s="44">
+      <c r="AE16" s="40">
         <f t="shared" si="20"/>
-        <v>45908</v>
+        <v>46000</v>
       </c>
       <c r="AF16" s="20">
         <f t="shared" si="21"/>
-        <v>45930</v>
+        <v>46022</v>
       </c>
       <c r="AG16" s="27">
         <f t="shared" si="7"/>
@@ -3145,11 +3145,11 @@
       </c>
       <c r="AI16" s="22"/>
       <c r="AJ16" s="37">
-        <v>45931</v>
-      </c>
-      <c r="AK16" s="43">
+        <v>46023</v>
+      </c>
+      <c r="AK16" s="39">
         <f t="shared" si="23"/>
-        <v>45933</v>
+        <v>46027</v>
       </c>
       <c r="AL16" s="27">
         <f t="shared" si="8"/>
@@ -3162,11 +3162,11 @@
       <c r="AN16" s="22"/>
       <c r="AO16" s="23">
         <f t="shared" si="25"/>
-        <v>45936</v>
+        <v>46028</v>
       </c>
       <c r="AP16" s="19">
         <f t="shared" si="26"/>
-        <v>45954</v>
+        <v>46048</v>
       </c>
       <c r="AQ16" s="27">
         <f t="shared" si="27"/>
@@ -3178,7 +3178,7 @@
       </c>
       <c r="AS16" s="29">
         <f t="shared" si="9"/>
-        <v>-45782</v>
+        <v>-45876</v>
       </c>
     </row>
     <row r="17" spans="2:45" x14ac:dyDescent="0.25">
@@ -3267,7 +3267,7 @@
         <v>130</v>
       </c>
       <c r="AD17" s="22"/>
-      <c r="AE17" s="44">
+      <c r="AE17" s="40">
         <f t="shared" si="20"/>
         <v>46030</v>
       </c>
@@ -3287,7 +3287,7 @@
       <c r="AJ17" s="38">
         <v>46054</v>
       </c>
-      <c r="AK17" s="43">
+      <c r="AK17" s="39">
         <f t="shared" si="23"/>
         <v>46056</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>130</v>
       </c>
       <c r="AD18" s="22"/>
-      <c r="AE18" s="44">
+      <c r="AE18" s="40">
         <f t="shared" si="20"/>
         <v>46000</v>
       </c>
@@ -3427,7 +3427,7 @@
       <c r="AJ18" s="38">
         <v>46023</v>
       </c>
-      <c r="AK18" s="43">
+      <c r="AK18" s="39">
         <f t="shared" si="23"/>
         <v>46027</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>130</v>
       </c>
       <c r="AD19" s="22"/>
-      <c r="AE19" s="44">
+      <c r="AE19" s="40">
         <f t="shared" si="20"/>
         <v>46090</v>
       </c>
@@ -3567,7 +3567,7 @@
       <c r="AJ19" s="38">
         <v>46113</v>
       </c>
-      <c r="AK19" s="43">
+      <c r="AK19" s="39">
         <f t="shared" si="23"/>
         <v>46115</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>130</v>
       </c>
       <c r="AD20" s="22"/>
-      <c r="AE20" s="44">
+      <c r="AE20" s="40">
         <f t="shared" si="20"/>
         <v>46090</v>
       </c>
@@ -3707,7 +3707,7 @@
       <c r="AJ20" s="38">
         <v>46113</v>
       </c>
-      <c r="AK20" s="43">
+      <c r="AK20" s="39">
         <f t="shared" si="23"/>
         <v>46115</v>
       </c>

--- a/BASE - VENDA E REGISTRO.xlsx
+++ b/BASE - VENDA E REGISTRO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viana e Moura\Dropbox\PLANEJAMENTO\Scripts\MÓDULO VENDAS\MODULO_VENDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347ADB0F-6D45-4B44-9FF0-EECCE933D171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1208B250-5C77-4D9A-9141-B451E97E4069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0382C43D-564D-4A4C-8EAB-6952E70C6A7B}"/>
   </bookViews>
@@ -64,6 +64,22 @@
     <author>tc={13E32BE6-BC0E-4F80-A782-73D939CDB94A}</author>
     <author>tc={A1F5E690-87FA-4015-812D-2DE016A78B91}</author>
     <author>tc={AE3D7F00-844C-4289-BA6A-38360F384520}</author>
+    <author>tc={CA7BC9D9-67C8-45E8-AE1C-13BD1AC1D363}</author>
+    <author>tc={C95E8A26-F895-420E-A7D4-CCB9C95A33A0}</author>
+    <author>tc={251DDF0D-A940-43E3-B842-21F42A8A1907}</author>
+    <author>tc={15B2933E-C4C4-4974-989A-DEAB65DDC875}</author>
+    <author>tc={A58A54C9-DD83-4ADD-A44E-ADAC0FD30842}</author>
+    <author>tc={D9D2EF40-EB96-4299-A341-24B4D15BCBDA}</author>
+    <author>tc={FE06A3F7-F951-4760-A189-4AE443214237}</author>
+    <author>tc={E48D1464-35B8-4597-A1D2-23E80F692593}</author>
+    <author>tc={7EBDAE9A-FA9D-4E99-9E2D-92129565A9B5}</author>
+    <author>tc={EA08393C-1C97-4F9E-B562-D19376C999EA}</author>
+    <author>tc={3E67D7D1-4770-4242-84C5-ECC70FFADAB4}</author>
+    <author>tc={5C4C5287-2680-46A2-BC0A-4FAEA4640C8E}</author>
+    <author>tc={B62C7C21-D01C-4302-80B2-B6346348AFE9}</author>
+    <author>tc={25706FBD-76F3-469C-8B16-D5FC6200F483}</author>
+    <author>tc={2C4885D1-FFA6-4C58-B30D-2C16B028A7FF}</author>
+    <author>tc={A513626A-AA4D-428A-A95E-C9073947276C}</author>
   </authors>
   <commentList>
     <comment ref="AF8" authorId="0" shapeId="0" xr:uid="{41C3AC48-042E-47F1-A500-46A55A824F9E}">
@@ -300,12 +316,156 @@
 Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
       </text>
     </comment>
+    <comment ref="AF21" authorId="26" shapeId="0" xr:uid="{CA7BC9D9-67C8-45E8-AE1C-13BD1AC1D363}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+      </text>
+    </comment>
+    <comment ref="AK21" authorId="27" shapeId="0" xr:uid="{C95E8A26-F895-420E-A7D4-CCB9C95A33A0}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+      </text>
+    </comment>
+    <comment ref="AF22" authorId="28" shapeId="0" xr:uid="{251DDF0D-A940-43E3-B842-21F42A8A1907}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+      </text>
+    </comment>
+    <comment ref="AK22" authorId="29" shapeId="0" xr:uid="{15B2933E-C4C4-4974-989A-DEAB65DDC875}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+      </text>
+    </comment>
+    <comment ref="AF23" authorId="30" shapeId="0" xr:uid="{A58A54C9-DD83-4ADD-A44E-ADAC0FD30842}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+      </text>
+    </comment>
+    <comment ref="AK23" authorId="31" shapeId="0" xr:uid="{D9D2EF40-EB96-4299-A341-24B4D15BCBDA}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+      </text>
+    </comment>
+    <comment ref="AF24" authorId="32" shapeId="0" xr:uid="{FE06A3F7-F951-4760-A189-4AE443214237}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+      </text>
+    </comment>
+    <comment ref="AK24" authorId="33" shapeId="0" xr:uid="{E48D1464-35B8-4597-A1D2-23E80F692593}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+      </text>
+    </comment>
+    <comment ref="AF25" authorId="34" shapeId="0" xr:uid="{7EBDAE9A-FA9D-4E99-9E2D-92129565A9B5}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+      </text>
+    </comment>
+    <comment ref="AK25" authorId="35" shapeId="0" xr:uid="{EA08393C-1C97-4F9E-B562-D19376C999EA}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+      </text>
+    </comment>
+    <comment ref="AF26" authorId="36" shapeId="0" xr:uid="{3E67D7D1-4770-4242-84C5-ECC70FFADAB4}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+      </text>
+    </comment>
+    <comment ref="AK26" authorId="37" shapeId="0" xr:uid="{5C4C5287-2680-46A2-BC0A-4FAEA4640C8E}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+      </text>
+    </comment>
+    <comment ref="AF27" authorId="38" shapeId="0" xr:uid="{B62C7C21-D01C-4302-80B2-B6346348AFE9}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+      </text>
+    </comment>
+    <comment ref="AK27" authorId="39" shapeId="0" xr:uid="{25706FBD-76F3-469C-8B16-D5FC6200F483}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+      </text>
+    </comment>
+    <comment ref="AF28" authorId="40" shapeId="0" xr:uid="{2C4885D1-FFA6-4C58-B30D-2C16B028A7FF}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+      </text>
+    </comment>
+    <comment ref="AK28" authorId="41" shapeId="0" xr:uid="{A513626A-AA4D-428A-A95E-C9073947276C}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="87">
   <si>
     <t>PROGRAMAÇÃO
  DOCUMENTAÇÕES</t>
@@ -534,6 +694,39 @@
   </si>
   <si>
     <t>M.REAL.TÉRMINO</t>
+  </si>
+  <si>
+    <t>CONDOMINIO VIDEIRAS-01</t>
+  </si>
+  <si>
+    <t>CONDOMINIO VIDEIRAS-02</t>
+  </si>
+  <si>
+    <t>NOVO MALHADA-01</t>
+  </si>
+  <si>
+    <t>CONDOMINIO JARDIM DAS ORQUÍDEAS-01</t>
+  </si>
+  <si>
+    <t>JARDIM DA SERRA-02</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>OLÉ PASSARINHOS-04</t>
+  </si>
+  <si>
+    <t>OLÉ PASSARINHOS-05</t>
+  </si>
+  <si>
+    <t>RIAMBURGO-01</t>
+  </si>
+  <si>
+    <t>Módulo 04</t>
+  </si>
+  <si>
+    <t>Módulo 05</t>
   </si>
 </sst>
 </file>
@@ -804,7 +997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -921,6 +1114,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1384,15 +1580,79 @@
     <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
 Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
   </threadedComment>
+  <threadedComment ref="AF21" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{CA7BC9D9-67C8-45E8-AE1C-13BD1AC1D363}">
+    <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
+  </threadedComment>
+  <threadedComment ref="AK21" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{C95E8A26-F895-420E-A7D4-CCB9C95A33A0}">
+    <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
+  </threadedComment>
+  <threadedComment ref="AF22" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{251DDF0D-A940-43E3-B842-21F42A8A1907}">
+    <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
+  </threadedComment>
+  <threadedComment ref="AK22" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{15B2933E-C4C4-4974-989A-DEAB65DDC875}">
+    <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
+  </threadedComment>
+  <threadedComment ref="AF23" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{A58A54C9-DD83-4ADD-A44E-ADAC0FD30842}">
+    <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
+  </threadedComment>
+  <threadedComment ref="AK23" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{D9D2EF40-EB96-4299-A341-24B4D15BCBDA}">
+    <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
+  </threadedComment>
+  <threadedComment ref="AF24" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{FE06A3F7-F951-4760-A189-4AE443214237}">
+    <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
+  </threadedComment>
+  <threadedComment ref="AK24" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{E48D1464-35B8-4597-A1D2-23E80F692593}">
+    <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
+  </threadedComment>
+  <threadedComment ref="AF25" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{7EBDAE9A-FA9D-4E99-9E2D-92129565A9B5}">
+    <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
+  </threadedComment>
+  <threadedComment ref="AK25" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{EA08393C-1C97-4F9E-B562-D19376C999EA}">
+    <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
+  </threadedComment>
+  <threadedComment ref="AF26" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{3E67D7D1-4770-4242-84C5-ECC70FFADAB4}">
+    <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
+  </threadedComment>
+  <threadedComment ref="AK26" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{5C4C5287-2680-46A2-BC0A-4FAEA4640C8E}">
+    <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
+  </threadedComment>
+  <threadedComment ref="AF27" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{B62C7C21-D01C-4302-80B2-B6346348AFE9}">
+    <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
+  </threadedComment>
+  <threadedComment ref="AK27" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{25706FBD-76F3-469C-8B16-D5FC6200F483}">
+    <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
+  </threadedComment>
+  <threadedComment ref="AF28" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{2C4885D1-FFA6-4C58-B30D-2C16B028A7FF}">
+    <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
+  </threadedComment>
+  <threadedComment ref="AK28" dT="2025-01-14T13:00:05.34" personId="{9F70A249-6AF1-4E03-9815-FD339961AF79}" id="{A513626A-AA4D-428A-A95E-C9073947276C}">
+    <text xml:space="preserve">Informação do macrofluxo: O que verificar? 
+Sempre checar como está o prazo do memorial de incorporação com LEG. </text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DB70CC-ACBF-416D-B448-0645472647BA}">
-  <dimension ref="A2:AS27"/>
+  <dimension ref="A2:AS31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AH30" sqref="AH30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="10.8" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3476,33 +3736,33 @@
       </c>
       <c r="F19" s="19">
         <f t="shared" si="0"/>
-        <v>45911</v>
+        <v>45881</v>
       </c>
       <c r="G19" s="20">
         <f t="shared" si="10"/>
-        <v>45933</v>
+        <v>45903</v>
       </c>
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
       <c r="J19" s="22"/>
       <c r="K19" s="23">
         <f t="shared" si="2"/>
-        <v>45936</v>
+        <v>45904</v>
       </c>
       <c r="L19" s="19">
         <f t="shared" si="3"/>
-        <v>45958</v>
+        <v>45926</v>
       </c>
       <c r="M19" s="33"/>
       <c r="N19" s="32"/>
       <c r="O19" s="22"/>
       <c r="P19" s="23">
         <f t="shared" si="4"/>
-        <v>45959</v>
+        <v>45929</v>
       </c>
       <c r="Q19" s="19">
         <f t="shared" si="11"/>
-        <v>46066</v>
+        <v>46036</v>
       </c>
       <c r="R19" s="27">
         <f t="shared" si="5"/>
@@ -3515,11 +3775,11 @@
       <c r="T19" s="22"/>
       <c r="U19" s="23">
         <f t="shared" si="6"/>
-        <v>45959</v>
+        <v>45929</v>
       </c>
       <c r="V19" s="19">
         <f t="shared" si="13"/>
-        <v>46066</v>
+        <v>46036</v>
       </c>
       <c r="W19" s="27">
         <f t="shared" si="14"/>
@@ -3532,11 +3792,11 @@
       <c r="Y19" s="22"/>
       <c r="Z19" s="23">
         <f t="shared" si="16"/>
-        <v>46069</v>
+        <v>46037</v>
       </c>
       <c r="AA19" s="19">
         <f t="shared" si="17"/>
-        <v>46087</v>
+        <v>46057</v>
       </c>
       <c r="AB19" s="27">
         <f t="shared" si="18"/>
@@ -3549,11 +3809,11 @@
       <c r="AD19" s="22"/>
       <c r="AE19" s="40">
         <f t="shared" si="20"/>
-        <v>46090</v>
+        <v>46058</v>
       </c>
       <c r="AF19" s="20">
         <f t="shared" si="21"/>
-        <v>46112</v>
+        <v>46080</v>
       </c>
       <c r="AG19" s="27">
         <f t="shared" si="7"/>
@@ -3565,11 +3825,11 @@
       </c>
       <c r="AI19" s="22"/>
       <c r="AJ19" s="38">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="AK19" s="39">
         <f t="shared" si="23"/>
-        <v>46115</v>
+        <v>46084</v>
       </c>
       <c r="AL19" s="27">
         <f t="shared" si="8"/>
@@ -3582,11 +3842,11 @@
       <c r="AN19" s="22"/>
       <c r="AO19" s="23">
         <f t="shared" si="25"/>
-        <v>46118</v>
+        <v>46085</v>
       </c>
       <c r="AP19" s="19">
         <f t="shared" si="26"/>
-        <v>46136</v>
+        <v>46105</v>
       </c>
       <c r="AQ19" s="27">
         <f t="shared" si="27"/>
@@ -3598,7 +3858,7 @@
       </c>
       <c r="AS19" s="17">
         <f t="shared" si="9"/>
-        <v>-45964</v>
+        <v>-45933</v>
       </c>
     </row>
     <row r="20" spans="2:45" x14ac:dyDescent="0.25">
@@ -3741,15 +4001,1133 @@
         <v>-45964</v>
       </c>
     </row>
+    <row r="21" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="17">
+        <v>235</v>
+      </c>
+      <c r="F21" s="19">
+        <f t="shared" ref="F21:F28" si="29">IFERROR(WORKDAY(G21,(-$I$2+1)),"-")</f>
+        <v>46064</v>
+      </c>
+      <c r="G21" s="20">
+        <f t="shared" ref="G21:G28" si="30">IFERROR(WORKDAY(K21,-1),"-")</f>
+        <v>46086</v>
+      </c>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="23">
+        <f t="shared" ref="K21:K28" si="31">IFERROR(WORKDAY(L21,(-$N$2+1)),"-")</f>
+        <v>46087</v>
+      </c>
+      <c r="L21" s="19">
+        <f t="shared" ref="L21:L28" si="32">IFERROR(WORKDAY(P21,-1),"-")</f>
+        <v>46111</v>
+      </c>
+      <c r="M21" s="33"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="23">
+        <f t="shared" ref="P21:P28" si="33">IFERROR(WORKDAY(Q21,(-$S$2+1)),"-")</f>
+        <v>46112</v>
+      </c>
+      <c r="Q21" s="19">
+        <f t="shared" ref="Q21:Q28" si="34">IFERROR(WORKDAY(Z21,-1),"-")</f>
+        <v>46219</v>
+      </c>
+      <c r="R21" s="27">
+        <f t="shared" ref="R21:R28" si="35">WORKDAY.INTL(N21,1)</f>
+        <v>2</v>
+      </c>
+      <c r="S21" s="28">
+        <f t="shared" ref="S21:S28" si="36">WORKDAY(R21,$S$2-1)</f>
+        <v>109</v>
+      </c>
+      <c r="T21" s="22"/>
+      <c r="U21" s="23">
+        <f t="shared" ref="U21:U28" si="37">IFERROR(WORKDAY(V21,(-$X$2+1)),"-")</f>
+        <v>46112</v>
+      </c>
+      <c r="V21" s="19">
+        <f t="shared" ref="V21:V28" si="38">IFERROR(WORKDAY(Z21,-1),"-")</f>
+        <v>46219</v>
+      </c>
+      <c r="W21" s="27">
+        <f t="shared" ref="W21:W28" si="39">WORKDAY.INTL(N21,1)</f>
+        <v>2</v>
+      </c>
+      <c r="X21" s="28">
+        <f t="shared" ref="X21:X28" si="40">WORKDAY(W21,$X$2-1)</f>
+        <v>109</v>
+      </c>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="23">
+        <f t="shared" ref="Z21:Z28" si="41">IFERROR(WORKDAY(AA21,(-$AC$2+1)),"-")</f>
+        <v>46220</v>
+      </c>
+      <c r="AA21" s="19">
+        <f t="shared" ref="AA21:AA28" si="42">IFERROR(WORKDAY(AE21,-1),"-")</f>
+        <v>46240</v>
+      </c>
+      <c r="AB21" s="27">
+        <f t="shared" ref="AB21:AB28" si="43">WORKDAY.INTL(X21,1)</f>
+        <v>110</v>
+      </c>
+      <c r="AC21" s="28">
+        <f t="shared" ref="AC21:AC28" si="44">WORKDAY(AB21,$AC$2-1)</f>
+        <v>130</v>
+      </c>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="40">
+        <f t="shared" ref="AE21:AE28" si="45">IFERROR(WORKDAY(AF21,(-$AH$2+1)),"-")</f>
+        <v>46241</v>
+      </c>
+      <c r="AF21" s="20">
+        <f t="shared" ref="AF21:AF28" si="46">IFERROR(WORKDAY(AJ21,-1),"-")</f>
+        <v>46265</v>
+      </c>
+      <c r="AG21" s="27">
+        <f t="shared" ref="AG21:AG28" si="47">WORKDAY.INTL(W21,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AH21" s="28">
+        <f t="shared" ref="AH21:AH28" si="48">IFERROR(WORKDAY(W21,($AR$2)),"-")</f>
+        <v>23</v>
+      </c>
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="38">
+        <v>46266</v>
+      </c>
+      <c r="AK21" s="39">
+        <f t="shared" ref="AK21:AK28" si="49">IFERROR(WORKDAY(AJ21,(AM$2-1)),"-")</f>
+        <v>46268</v>
+      </c>
+      <c r="AL21" s="27">
+        <f t="shared" ref="AL21:AL28" si="50">WORKDAY.INTL(AC21,1)</f>
+        <v>131</v>
+      </c>
+      <c r="AM21" s="28">
+        <f t="shared" ref="AM21:AM28" si="51">IFERROR(WORKDAY(AC21,($AR$2)),"-")</f>
+        <v>151</v>
+      </c>
+      <c r="AN21" s="22"/>
+      <c r="AO21" s="23">
+        <f t="shared" ref="AO21:AO28" si="52">IFERROR(WORKDAY(AK21,1),"-")</f>
+        <v>46269</v>
+      </c>
+      <c r="AP21" s="19">
+        <f t="shared" ref="AP21:AP28" si="53">IFERROR(WORKDAY(AO21,($AR$2-1)),"-")</f>
+        <v>46289</v>
+      </c>
+      <c r="AQ21" s="27">
+        <f t="shared" ref="AQ21:AQ28" si="54">WORKDAY.INTL(AM21,1)</f>
+        <v>152</v>
+      </c>
+      <c r="AR21" s="28">
+        <f t="shared" ref="AR21:AR28" si="55">WORKDAY(AQ21,$AC$2-1)</f>
+        <v>172</v>
+      </c>
+      <c r="AS21" s="17">
+        <f t="shared" ref="AS21:AS28" si="56">IFERROR(AR21-AP21,"-")</f>
+        <v>-46117</v>
+      </c>
+    </row>
     <row r="22" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="AO22" s="36"/>
+      <c r="B22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="17">
+        <v>234</v>
+      </c>
+      <c r="F22" s="19">
+        <f t="shared" si="29"/>
+        <v>46126</v>
+      </c>
+      <c r="G22" s="20">
+        <f t="shared" si="30"/>
+        <v>46148</v>
+      </c>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23">
+        <f t="shared" si="31"/>
+        <v>46149</v>
+      </c>
+      <c r="L22" s="19">
+        <f t="shared" si="32"/>
+        <v>46171</v>
+      </c>
+      <c r="M22" s="33"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="23">
+        <f t="shared" si="33"/>
+        <v>46174</v>
+      </c>
+      <c r="Q22" s="19">
+        <f t="shared" si="34"/>
+        <v>46281</v>
+      </c>
+      <c r="R22" s="27">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="S22" s="28">
+        <f t="shared" si="36"/>
+        <v>109</v>
+      </c>
+      <c r="T22" s="22"/>
+      <c r="U22" s="23">
+        <f t="shared" si="37"/>
+        <v>46174</v>
+      </c>
+      <c r="V22" s="19">
+        <f t="shared" si="38"/>
+        <v>46281</v>
+      </c>
+      <c r="W22" s="27">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="X22" s="28">
+        <f t="shared" si="40"/>
+        <v>109</v>
+      </c>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="23">
+        <f t="shared" si="41"/>
+        <v>46282</v>
+      </c>
+      <c r="AA22" s="19">
+        <f t="shared" si="42"/>
+        <v>46302</v>
+      </c>
+      <c r="AB22" s="27">
+        <f t="shared" si="43"/>
+        <v>110</v>
+      </c>
+      <c r="AC22" s="28">
+        <f t="shared" si="44"/>
+        <v>130</v>
+      </c>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="40">
+        <f t="shared" si="45"/>
+        <v>46303</v>
+      </c>
+      <c r="AF22" s="20">
+        <f t="shared" si="46"/>
+        <v>46325</v>
+      </c>
+      <c r="AG22" s="27">
+        <f t="shared" si="47"/>
+        <v>3</v>
+      </c>
+      <c r="AH22" s="28">
+        <f t="shared" si="48"/>
+        <v>23</v>
+      </c>
+      <c r="AI22" s="22"/>
+      <c r="AJ22" s="38">
+        <v>46327</v>
+      </c>
+      <c r="AK22" s="39">
+        <f t="shared" si="49"/>
+        <v>46329</v>
+      </c>
+      <c r="AL22" s="27">
+        <f t="shared" si="50"/>
+        <v>131</v>
+      </c>
+      <c r="AM22" s="28">
+        <f t="shared" si="51"/>
+        <v>151</v>
+      </c>
+      <c r="AN22" s="22"/>
+      <c r="AO22" s="23">
+        <f t="shared" si="52"/>
+        <v>46330</v>
+      </c>
+      <c r="AP22" s="19">
+        <f t="shared" si="53"/>
+        <v>46350</v>
+      </c>
+      <c r="AQ22" s="27">
+        <f t="shared" si="54"/>
+        <v>152</v>
+      </c>
+      <c r="AR22" s="28">
+        <f t="shared" si="55"/>
+        <v>172</v>
+      </c>
+      <c r="AS22" s="17">
+        <f t="shared" si="56"/>
+        <v>-46178</v>
+      </c>
+    </row>
+    <row r="23" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="17">
+        <v>344</v>
+      </c>
+      <c r="F23" s="19">
+        <f t="shared" si="29"/>
+        <v>46126</v>
+      </c>
+      <c r="G23" s="20">
+        <f t="shared" si="30"/>
+        <v>46148</v>
+      </c>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="23">
+        <f t="shared" si="31"/>
+        <v>46149</v>
+      </c>
+      <c r="L23" s="19">
+        <f t="shared" si="32"/>
+        <v>46171</v>
+      </c>
+      <c r="M23" s="33"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="23">
+        <f t="shared" si="33"/>
+        <v>46174</v>
+      </c>
+      <c r="Q23" s="19">
+        <f t="shared" si="34"/>
+        <v>46281</v>
+      </c>
+      <c r="R23" s="27">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="S23" s="28">
+        <f t="shared" si="36"/>
+        <v>109</v>
+      </c>
+      <c r="T23" s="22"/>
+      <c r="U23" s="23">
+        <f t="shared" si="37"/>
+        <v>46174</v>
+      </c>
+      <c r="V23" s="19">
+        <f t="shared" si="38"/>
+        <v>46281</v>
+      </c>
+      <c r="W23" s="27">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="X23" s="28">
+        <f t="shared" si="40"/>
+        <v>109</v>
+      </c>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="23">
+        <f t="shared" si="41"/>
+        <v>46282</v>
+      </c>
+      <c r="AA23" s="19">
+        <f t="shared" si="42"/>
+        <v>46302</v>
+      </c>
+      <c r="AB23" s="27">
+        <f t="shared" si="43"/>
+        <v>110</v>
+      </c>
+      <c r="AC23" s="28">
+        <f t="shared" si="44"/>
+        <v>130</v>
+      </c>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="40">
+        <f t="shared" si="45"/>
+        <v>46303</v>
+      </c>
+      <c r="AF23" s="20">
+        <f t="shared" si="46"/>
+        <v>46325</v>
+      </c>
+      <c r="AG23" s="27">
+        <f t="shared" si="47"/>
+        <v>3</v>
+      </c>
+      <c r="AH23" s="28">
+        <f t="shared" si="48"/>
+        <v>23</v>
+      </c>
+      <c r="AI23" s="22"/>
+      <c r="AJ23" s="38">
+        <v>46327</v>
+      </c>
+      <c r="AK23" s="39">
+        <f t="shared" si="49"/>
+        <v>46329</v>
+      </c>
+      <c r="AL23" s="27">
+        <f t="shared" si="50"/>
+        <v>131</v>
+      </c>
+      <c r="AM23" s="28">
+        <f t="shared" si="51"/>
+        <v>151</v>
+      </c>
+      <c r="AN23" s="22"/>
+      <c r="AO23" s="23">
+        <f t="shared" si="52"/>
+        <v>46330</v>
+      </c>
+      <c r="AP23" s="19">
+        <f t="shared" si="53"/>
+        <v>46350</v>
+      </c>
+      <c r="AQ23" s="27">
+        <f t="shared" si="54"/>
+        <v>152</v>
+      </c>
+      <c r="AR23" s="28">
+        <f t="shared" si="55"/>
+        <v>172</v>
+      </c>
+      <c r="AS23" s="17">
+        <f t="shared" si="56"/>
+        <v>-46178</v>
+      </c>
+    </row>
+    <row r="24" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="17">
+        <v>259</v>
+      </c>
+      <c r="F24" s="19">
+        <f t="shared" si="29"/>
+        <v>46035</v>
+      </c>
+      <c r="G24" s="20">
+        <f t="shared" si="30"/>
+        <v>46057</v>
+      </c>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="23">
+        <f t="shared" si="31"/>
+        <v>46058</v>
+      </c>
+      <c r="L24" s="19">
+        <f t="shared" si="32"/>
+        <v>46080</v>
+      </c>
+      <c r="M24" s="33"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="23">
+        <f t="shared" si="33"/>
+        <v>46083</v>
+      </c>
+      <c r="Q24" s="19">
+        <f t="shared" si="34"/>
+        <v>46190</v>
+      </c>
+      <c r="R24" s="27">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="S24" s="28">
+        <f t="shared" si="36"/>
+        <v>109</v>
+      </c>
+      <c r="T24" s="22"/>
+      <c r="U24" s="23">
+        <f t="shared" si="37"/>
+        <v>46083</v>
+      </c>
+      <c r="V24" s="19">
+        <f t="shared" si="38"/>
+        <v>46190</v>
+      </c>
+      <c r="W24" s="27">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="X24" s="28">
+        <f t="shared" si="40"/>
+        <v>109</v>
+      </c>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="23">
+        <f t="shared" si="41"/>
+        <v>46191</v>
+      </c>
+      <c r="AA24" s="19">
+        <f t="shared" si="42"/>
+        <v>46211</v>
+      </c>
+      <c r="AB24" s="27">
+        <f t="shared" si="43"/>
+        <v>110</v>
+      </c>
+      <c r="AC24" s="28">
+        <f t="shared" si="44"/>
+        <v>130</v>
+      </c>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="40">
+        <f t="shared" si="45"/>
+        <v>46212</v>
+      </c>
+      <c r="AF24" s="20">
+        <f t="shared" si="46"/>
+        <v>46234</v>
+      </c>
+      <c r="AG24" s="27">
+        <f t="shared" si="47"/>
+        <v>3</v>
+      </c>
+      <c r="AH24" s="28">
+        <f t="shared" si="48"/>
+        <v>23</v>
+      </c>
+      <c r="AI24" s="22"/>
+      <c r="AJ24" s="38">
+        <v>46235</v>
+      </c>
+      <c r="AK24" s="39">
+        <f t="shared" si="49"/>
+        <v>46238</v>
+      </c>
+      <c r="AL24" s="27">
+        <f t="shared" si="50"/>
+        <v>131</v>
+      </c>
+      <c r="AM24" s="28">
+        <f t="shared" si="51"/>
+        <v>151</v>
+      </c>
+      <c r="AN24" s="22"/>
+      <c r="AO24" s="23">
+        <f t="shared" si="52"/>
+        <v>46239</v>
+      </c>
+      <c r="AP24" s="19">
+        <f t="shared" si="53"/>
+        <v>46259</v>
+      </c>
+      <c r="AQ24" s="27">
+        <f t="shared" si="54"/>
+        <v>152</v>
+      </c>
+      <c r="AR24" s="28">
+        <f t="shared" si="55"/>
+        <v>172</v>
+      </c>
+      <c r="AS24" s="17">
+        <f t="shared" si="56"/>
+        <v>-46087</v>
+      </c>
+    </row>
+    <row r="25" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="17">
+        <v>164</v>
+      </c>
+      <c r="F25" s="19">
+        <f t="shared" si="29"/>
+        <v>46126</v>
+      </c>
+      <c r="G25" s="20">
+        <f t="shared" si="30"/>
+        <v>46148</v>
+      </c>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="23">
+        <f t="shared" si="31"/>
+        <v>46149</v>
+      </c>
+      <c r="L25" s="19">
+        <f t="shared" si="32"/>
+        <v>46171</v>
+      </c>
+      <c r="M25" s="33"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="23">
+        <f t="shared" si="33"/>
+        <v>46174</v>
+      </c>
+      <c r="Q25" s="19">
+        <f t="shared" si="34"/>
+        <v>46281</v>
+      </c>
+      <c r="R25" s="27">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="S25" s="28">
+        <f t="shared" si="36"/>
+        <v>109</v>
+      </c>
+      <c r="T25" s="22"/>
+      <c r="U25" s="23">
+        <f t="shared" si="37"/>
+        <v>46174</v>
+      </c>
+      <c r="V25" s="19">
+        <f t="shared" si="38"/>
+        <v>46281</v>
+      </c>
+      <c r="W25" s="27">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="X25" s="28">
+        <f t="shared" si="40"/>
+        <v>109</v>
+      </c>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="23">
+        <f t="shared" si="41"/>
+        <v>46282</v>
+      </c>
+      <c r="AA25" s="19">
+        <f t="shared" si="42"/>
+        <v>46302</v>
+      </c>
+      <c r="AB25" s="27">
+        <f t="shared" si="43"/>
+        <v>110</v>
+      </c>
+      <c r="AC25" s="28">
+        <f t="shared" si="44"/>
+        <v>130</v>
+      </c>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="40">
+        <f t="shared" si="45"/>
+        <v>46303</v>
+      </c>
+      <c r="AF25" s="20">
+        <f t="shared" si="46"/>
+        <v>46325</v>
+      </c>
+      <c r="AG25" s="27">
+        <f t="shared" si="47"/>
+        <v>3</v>
+      </c>
+      <c r="AH25" s="28">
+        <f t="shared" si="48"/>
+        <v>23</v>
+      </c>
+      <c r="AI25" s="22"/>
+      <c r="AJ25" s="38">
+        <v>46327</v>
+      </c>
+      <c r="AK25" s="39">
+        <f t="shared" si="49"/>
+        <v>46329</v>
+      </c>
+      <c r="AL25" s="27">
+        <f t="shared" si="50"/>
+        <v>131</v>
+      </c>
+      <c r="AM25" s="28">
+        <f t="shared" si="51"/>
+        <v>151</v>
+      </c>
+      <c r="AN25" s="22"/>
+      <c r="AO25" s="23">
+        <f t="shared" si="52"/>
+        <v>46330</v>
+      </c>
+      <c r="AP25" s="19">
+        <f t="shared" si="53"/>
+        <v>46350</v>
+      </c>
+      <c r="AQ25" s="27">
+        <f t="shared" si="54"/>
+        <v>152</v>
+      </c>
+      <c r="AR25" s="28">
+        <f t="shared" si="55"/>
+        <v>172</v>
+      </c>
+      <c r="AS25" s="17">
+        <f t="shared" si="56"/>
+        <v>-46178</v>
+      </c>
     </row>
     <row r="26" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="AO26" s="36"/>
+      <c r="B26" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="17">
+        <v>229</v>
+      </c>
+      <c r="F26" s="19">
+        <f t="shared" si="29"/>
+        <v>45881</v>
+      </c>
+      <c r="G26" s="20">
+        <f t="shared" si="30"/>
+        <v>45903</v>
+      </c>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="23">
+        <f t="shared" si="31"/>
+        <v>45904</v>
+      </c>
+      <c r="L26" s="19">
+        <f t="shared" si="32"/>
+        <v>45926</v>
+      </c>
+      <c r="M26" s="33"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="23">
+        <f t="shared" si="33"/>
+        <v>45929</v>
+      </c>
+      <c r="Q26" s="19">
+        <f t="shared" si="34"/>
+        <v>46036</v>
+      </c>
+      <c r="R26" s="27">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="S26" s="28">
+        <f t="shared" si="36"/>
+        <v>109</v>
+      </c>
+      <c r="T26" s="22"/>
+      <c r="U26" s="23">
+        <f t="shared" si="37"/>
+        <v>45929</v>
+      </c>
+      <c r="V26" s="19">
+        <f t="shared" si="38"/>
+        <v>46036</v>
+      </c>
+      <c r="W26" s="27">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="X26" s="28">
+        <f t="shared" si="40"/>
+        <v>109</v>
+      </c>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="23">
+        <f t="shared" si="41"/>
+        <v>46037</v>
+      </c>
+      <c r="AA26" s="19">
+        <f t="shared" si="42"/>
+        <v>46057</v>
+      </c>
+      <c r="AB26" s="27">
+        <f t="shared" si="43"/>
+        <v>110</v>
+      </c>
+      <c r="AC26" s="28">
+        <f t="shared" si="44"/>
+        <v>130</v>
+      </c>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="40">
+        <f t="shared" si="45"/>
+        <v>46058</v>
+      </c>
+      <c r="AF26" s="20">
+        <f t="shared" si="46"/>
+        <v>46080</v>
+      </c>
+      <c r="AG26" s="27">
+        <f t="shared" si="47"/>
+        <v>3</v>
+      </c>
+      <c r="AH26" s="28">
+        <f t="shared" si="48"/>
+        <v>23</v>
+      </c>
+      <c r="AI26" s="22"/>
+      <c r="AJ26" s="38">
+        <v>46082</v>
+      </c>
+      <c r="AK26" s="39">
+        <f t="shared" si="49"/>
+        <v>46084</v>
+      </c>
+      <c r="AL26" s="27">
+        <f t="shared" si="50"/>
+        <v>131</v>
+      </c>
+      <c r="AM26" s="28">
+        <f t="shared" si="51"/>
+        <v>151</v>
+      </c>
+      <c r="AN26" s="22"/>
+      <c r="AO26" s="23">
+        <f t="shared" si="52"/>
+        <v>46085</v>
+      </c>
+      <c r="AP26" s="19">
+        <f t="shared" si="53"/>
+        <v>46105</v>
+      </c>
+      <c r="AQ26" s="27">
+        <f t="shared" si="54"/>
+        <v>152</v>
+      </c>
+      <c r="AR26" s="28">
+        <f t="shared" si="55"/>
+        <v>172</v>
+      </c>
+      <c r="AS26" s="17">
+        <f t="shared" si="56"/>
+        <v>-45933</v>
+      </c>
     </row>
     <row r="27" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="AG27" s="35"/>
-      <c r="AL27" s="35"/>
+      <c r="B27" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="17">
+        <v>183</v>
+      </c>
+      <c r="F27" s="19">
+        <f t="shared" si="29"/>
+        <v>46035</v>
+      </c>
+      <c r="G27" s="20">
+        <f t="shared" si="30"/>
+        <v>46057</v>
+      </c>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="23">
+        <f t="shared" si="31"/>
+        <v>46058</v>
+      </c>
+      <c r="L27" s="19">
+        <f t="shared" si="32"/>
+        <v>46080</v>
+      </c>
+      <c r="M27" s="33"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="23">
+        <f t="shared" si="33"/>
+        <v>46083</v>
+      </c>
+      <c r="Q27" s="19">
+        <f t="shared" si="34"/>
+        <v>46190</v>
+      </c>
+      <c r="R27" s="27">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="S27" s="28">
+        <f t="shared" si="36"/>
+        <v>109</v>
+      </c>
+      <c r="T27" s="22"/>
+      <c r="U27" s="23">
+        <f t="shared" si="37"/>
+        <v>46083</v>
+      </c>
+      <c r="V27" s="19">
+        <f t="shared" si="38"/>
+        <v>46190</v>
+      </c>
+      <c r="W27" s="27">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="X27" s="28">
+        <f t="shared" si="40"/>
+        <v>109</v>
+      </c>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="23">
+        <f t="shared" si="41"/>
+        <v>46191</v>
+      </c>
+      <c r="AA27" s="19">
+        <f t="shared" si="42"/>
+        <v>46211</v>
+      </c>
+      <c r="AB27" s="27">
+        <f t="shared" si="43"/>
+        <v>110</v>
+      </c>
+      <c r="AC27" s="28">
+        <f t="shared" si="44"/>
+        <v>130</v>
+      </c>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="40">
+        <f t="shared" si="45"/>
+        <v>46212</v>
+      </c>
+      <c r="AF27" s="20">
+        <f t="shared" si="46"/>
+        <v>46234</v>
+      </c>
+      <c r="AG27" s="27">
+        <f t="shared" si="47"/>
+        <v>3</v>
+      </c>
+      <c r="AH27" s="28">
+        <f t="shared" si="48"/>
+        <v>23</v>
+      </c>
+      <c r="AI27" s="22"/>
+      <c r="AJ27" s="38">
+        <v>46235</v>
+      </c>
+      <c r="AK27" s="39">
+        <f t="shared" si="49"/>
+        <v>46238</v>
+      </c>
+      <c r="AL27" s="27">
+        <f t="shared" si="50"/>
+        <v>131</v>
+      </c>
+      <c r="AM27" s="28">
+        <f t="shared" si="51"/>
+        <v>151</v>
+      </c>
+      <c r="AN27" s="22"/>
+      <c r="AO27" s="23">
+        <f t="shared" si="52"/>
+        <v>46239</v>
+      </c>
+      <c r="AP27" s="19">
+        <f t="shared" si="53"/>
+        <v>46259</v>
+      </c>
+      <c r="AQ27" s="27">
+        <f t="shared" si="54"/>
+        <v>152</v>
+      </c>
+      <c r="AR27" s="28">
+        <f t="shared" si="55"/>
+        <v>172</v>
+      </c>
+      <c r="AS27" s="17">
+        <f t="shared" si="56"/>
+        <v>-46087</v>
+      </c>
+    </row>
+    <row r="28" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B28" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="17">
+        <v>250</v>
+      </c>
+      <c r="F28" s="19">
+        <f t="shared" si="29"/>
+        <v>46155</v>
+      </c>
+      <c r="G28" s="20">
+        <f t="shared" si="30"/>
+        <v>46177</v>
+      </c>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="23">
+        <f t="shared" si="31"/>
+        <v>46178</v>
+      </c>
+      <c r="L28" s="19">
+        <f t="shared" si="32"/>
+        <v>46202</v>
+      </c>
+      <c r="M28" s="33"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="23">
+        <f t="shared" si="33"/>
+        <v>46203</v>
+      </c>
+      <c r="Q28" s="19">
+        <f t="shared" si="34"/>
+        <v>46310</v>
+      </c>
+      <c r="R28" s="27">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="S28" s="28">
+        <f t="shared" si="36"/>
+        <v>109</v>
+      </c>
+      <c r="T28" s="22"/>
+      <c r="U28" s="23">
+        <f t="shared" si="37"/>
+        <v>46203</v>
+      </c>
+      <c r="V28" s="19">
+        <f t="shared" si="38"/>
+        <v>46310</v>
+      </c>
+      <c r="W28" s="27">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="X28" s="28">
+        <f t="shared" si="40"/>
+        <v>109</v>
+      </c>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="23">
+        <f t="shared" si="41"/>
+        <v>46311</v>
+      </c>
+      <c r="AA28" s="19">
+        <f t="shared" si="42"/>
+        <v>46331</v>
+      </c>
+      <c r="AB28" s="27">
+        <f t="shared" si="43"/>
+        <v>110</v>
+      </c>
+      <c r="AC28" s="28">
+        <f t="shared" si="44"/>
+        <v>130</v>
+      </c>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="40">
+        <f t="shared" si="45"/>
+        <v>46332</v>
+      </c>
+      <c r="AF28" s="20">
+        <f t="shared" si="46"/>
+        <v>46356</v>
+      </c>
+      <c r="AG28" s="27">
+        <f t="shared" si="47"/>
+        <v>3</v>
+      </c>
+      <c r="AH28" s="28">
+        <f t="shared" si="48"/>
+        <v>23</v>
+      </c>
+      <c r="AI28" s="22"/>
+      <c r="AJ28" s="38">
+        <v>46357</v>
+      </c>
+      <c r="AK28" s="39">
+        <f t="shared" si="49"/>
+        <v>46359</v>
+      </c>
+      <c r="AL28" s="27">
+        <f t="shared" si="50"/>
+        <v>131</v>
+      </c>
+      <c r="AM28" s="28">
+        <f t="shared" si="51"/>
+        <v>151</v>
+      </c>
+      <c r="AN28" s="22"/>
+      <c r="AO28" s="23">
+        <f t="shared" si="52"/>
+        <v>46360</v>
+      </c>
+      <c r="AP28" s="19">
+        <f t="shared" si="53"/>
+        <v>46380</v>
+      </c>
+      <c r="AQ28" s="27">
+        <f t="shared" si="54"/>
+        <v>152</v>
+      </c>
+      <c r="AR28" s="28">
+        <f t="shared" si="55"/>
+        <v>172</v>
+      </c>
+      <c r="AS28" s="17">
+        <f t="shared" si="56"/>
+        <v>-46208</v>
+      </c>
+    </row>
+    <row r="30" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AO30" s="36"/>
+    </row>
+    <row r="31" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="E31" s="45"/>
+      <c r="AG31" s="35"/>
+      <c r="AL31" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3763,7 +5141,7 @@
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="AE3:AH3"/>
   </mergeCells>
-  <conditionalFormatting sqref="AS8:AS20">
+  <conditionalFormatting sqref="AS8:AS28">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/BASE - VENDA E REGISTRO.xlsx
+++ b/BASE - VENDA E REGISTRO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viana e Moura\Dropbox\PLANEJAMENTO\Scripts\MÓDULO VENDAS\MODULO_VENDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1208B250-5C77-4D9A-9141-B451E97E4069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DADA79-CD10-4DA4-A428-3C0BAB4F18B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0382C43D-564D-4A4C-8EAB-6952E70C6A7B}"/>
   </bookViews>
@@ -1103,6 +1103,9 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1114,9 +1117,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1651,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DB70CC-ACBF-416D-B448-0645472647BA}">
   <dimension ref="A2:AS31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AK9" sqref="AK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="10.8" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="AJ2" s="2"/>
       <c r="AM2" s="6">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AO2" s="2"/>
       <c r="AR2" s="6">
@@ -1731,60 +1731,60 @@
     </row>
     <row r="3" spans="1:45" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44" t="s">
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="K3" s="41" t="s">
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="K3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="P3" s="44" t="s">
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="P3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="U3" s="41" t="s">
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="U3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Z3" s="41" t="s">
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Z3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AE3" s="41" t="s">
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AE3" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="42"/>
-      <c r="AJ3" s="41" t="s">
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="43"/>
+      <c r="AJ3" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="42"/>
-      <c r="AO3" s="41" t="s">
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="43"/>
+      <c r="AO3" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="AP3" s="41"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="42"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="43"/>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="AK8" s="39">
         <f>IFERROR(WORKDAY(AJ8,(AM$2-1)),"-")</f>
-        <v>45841</v>
+        <v>45866</v>
       </c>
       <c r="AL8" s="25">
         <f t="shared" ref="AL8:AL20" si="8">WORKDAY.INTL(AC8,1)</f>
@@ -2241,11 +2241,11 @@
       <c r="AN8" s="22"/>
       <c r="AO8" s="23">
         <f>IFERROR(WORKDAY(AK8,1),"-")</f>
-        <v>45842</v>
+        <v>45867</v>
       </c>
       <c r="AP8" s="19">
         <f>IFERROR(WORKDAY(AO8,($AR$2-1)),"-")</f>
-        <v>45862</v>
+        <v>45887</v>
       </c>
       <c r="AQ8" s="25">
         <v>45800</v>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="AS8" s="17">
         <f t="shared" ref="AS8:AS20" si="9">IFERROR(AR8-AP8,"-")</f>
-        <v>-62</v>
+        <v>-87</v>
       </c>
     </row>
     <row r="9" spans="1:45" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="AK9" s="39">
         <f t="shared" ref="AK9:AK20" si="23">IFERROR(WORKDAY(AJ9,(AM$2-1)),"-")</f>
-        <v>45841</v>
+        <v>45866</v>
       </c>
       <c r="AL9" s="27">
         <f t="shared" si="8"/>
@@ -2388,11 +2388,11 @@
       <c r="AN9" s="22"/>
       <c r="AO9" s="23">
         <f t="shared" ref="AO9:AO20" si="25">IFERROR(WORKDAY(AK9,1),"-")</f>
-        <v>45842</v>
+        <v>45867</v>
       </c>
       <c r="AP9" s="19">
         <f t="shared" ref="AP9:AP20" si="26">IFERROR(WORKDAY(AO9,($AR$2-1)),"-")</f>
-        <v>45862</v>
+        <v>45887</v>
       </c>
       <c r="AQ9" s="27">
         <f t="shared" ref="AQ9:AQ20" si="27">WORKDAY.INTL(AM9,1)</f>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="AS9" s="17">
         <f t="shared" si="9"/>
-        <v>-8</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="10" spans="1:45" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="AK10" s="39">
         <f t="shared" si="23"/>
-        <v>45903</v>
+        <v>45926</v>
       </c>
       <c r="AL10" s="27">
         <f t="shared" si="8"/>
@@ -2537,11 +2537,11 @@
       <c r="AN10" s="22"/>
       <c r="AO10" s="23">
         <f t="shared" si="25"/>
-        <v>45904</v>
+        <v>45929</v>
       </c>
       <c r="AP10" s="19">
         <f t="shared" si="26"/>
-        <v>45924</v>
+        <v>45947</v>
       </c>
       <c r="AQ10" s="27">
         <f t="shared" si="27"/>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="AS10" s="17">
         <f t="shared" si="9"/>
-        <v>-44</v>
+        <v>-67</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
@@ -2673,7 +2673,7 @@
       </c>
       <c r="AK11" s="39">
         <f t="shared" si="23"/>
-        <v>45994</v>
+        <v>46017</v>
       </c>
       <c r="AL11" s="27">
         <f t="shared" si="8"/>
@@ -2686,11 +2686,11 @@
       <c r="AN11" s="22"/>
       <c r="AO11" s="23">
         <f t="shared" si="25"/>
-        <v>45995</v>
+        <v>46020</v>
       </c>
       <c r="AP11" s="19">
         <f t="shared" si="26"/>
-        <v>46015</v>
+        <v>46038</v>
       </c>
       <c r="AQ11" s="27">
         <f t="shared" si="27"/>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="AS11" s="29">
         <f t="shared" si="9"/>
-        <v>-105</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="AK12" s="39">
         <f t="shared" si="23"/>
-        <v>45994</v>
+        <v>46017</v>
       </c>
       <c r="AL12" s="27">
         <f t="shared" si="8"/>
@@ -2835,11 +2835,11 @@
       <c r="AN12" s="22"/>
       <c r="AO12" s="23">
         <f t="shared" si="25"/>
-        <v>45995</v>
+        <v>46020</v>
       </c>
       <c r="AP12" s="19">
         <f t="shared" si="26"/>
-        <v>46015</v>
+        <v>46038</v>
       </c>
       <c r="AQ12" s="27">
         <f t="shared" si="27"/>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="AS12" s="29">
         <f t="shared" si="9"/>
-        <v>-42</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="AK13" s="39">
         <f t="shared" si="23"/>
-        <v>45903</v>
+        <v>45926</v>
       </c>
       <c r="AL13" s="27">
         <f t="shared" si="8"/>
@@ -2984,11 +2984,11 @@
       <c r="AN13" s="22"/>
       <c r="AO13" s="23">
         <f t="shared" si="25"/>
-        <v>45904</v>
+        <v>45929</v>
       </c>
       <c r="AP13" s="19">
         <f t="shared" si="26"/>
-        <v>45924</v>
+        <v>45947</v>
       </c>
       <c r="AQ13" s="27">
         <f t="shared" si="27"/>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="AS13" s="17">
         <f t="shared" si="9"/>
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="AK14" s="39">
         <f t="shared" si="23"/>
-        <v>45994</v>
+        <v>46017</v>
       </c>
       <c r="AL14" s="27">
         <f t="shared" si="8"/>
@@ -3133,11 +3133,11 @@
       <c r="AN14" s="22"/>
       <c r="AO14" s="23">
         <f t="shared" si="25"/>
-        <v>45995</v>
+        <v>46020</v>
       </c>
       <c r="AP14" s="19">
         <f t="shared" si="26"/>
-        <v>46015</v>
+        <v>46038</v>
       </c>
       <c r="AQ14" s="27">
         <f t="shared" si="27"/>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="AS14" s="17">
         <f t="shared" si="9"/>
-        <v>-14</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
@@ -3269,7 +3269,7 @@
       </c>
       <c r="AK15" s="39">
         <f t="shared" si="23"/>
-        <v>45965</v>
+        <v>45988</v>
       </c>
       <c r="AL15" s="27">
         <f t="shared" si="8"/>
@@ -3282,11 +3282,11 @@
       <c r="AN15" s="22"/>
       <c r="AO15" s="23">
         <f t="shared" si="25"/>
-        <v>45966</v>
+        <v>45989</v>
       </c>
       <c r="AP15" s="19">
         <f t="shared" si="26"/>
-        <v>45986</v>
+        <v>46009</v>
       </c>
       <c r="AQ15" s="27">
         <f t="shared" si="27"/>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="AS15" s="17">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="AK16" s="39">
         <f t="shared" si="23"/>
-        <v>46027</v>
+        <v>46050</v>
       </c>
       <c r="AL16" s="27">
         <f t="shared" si="8"/>
@@ -3422,11 +3422,11 @@
       <c r="AN16" s="22"/>
       <c r="AO16" s="23">
         <f t="shared" si="25"/>
-        <v>46028</v>
+        <v>46051</v>
       </c>
       <c r="AP16" s="19">
         <f t="shared" si="26"/>
-        <v>46048</v>
+        <v>46071</v>
       </c>
       <c r="AQ16" s="27">
         <f t="shared" si="27"/>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="AS16" s="29">
         <f t="shared" si="9"/>
-        <v>-45876</v>
+        <v>-45899</v>
       </c>
     </row>
     <row r="17" spans="2:45" x14ac:dyDescent="0.25">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="AK17" s="39">
         <f t="shared" si="23"/>
-        <v>46056</v>
+        <v>46079</v>
       </c>
       <c r="AL17" s="27">
         <f t="shared" si="8"/>
@@ -3562,11 +3562,11 @@
       <c r="AN17" s="22"/>
       <c r="AO17" s="23">
         <f t="shared" si="25"/>
-        <v>46057</v>
+        <v>46080</v>
       </c>
       <c r="AP17" s="19">
         <f t="shared" si="26"/>
-        <v>46077</v>
+        <v>46100</v>
       </c>
       <c r="AQ17" s="27">
         <f t="shared" si="27"/>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="AS17" s="17">
         <f t="shared" si="9"/>
-        <v>-45905</v>
+        <v>-45928</v>
       </c>
     </row>
     <row r="18" spans="2:45" x14ac:dyDescent="0.25">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="AK18" s="39">
         <f t="shared" si="23"/>
-        <v>46027</v>
+        <v>46050</v>
       </c>
       <c r="AL18" s="27">
         <f t="shared" si="8"/>
@@ -3702,11 +3702,11 @@
       <c r="AN18" s="22"/>
       <c r="AO18" s="23">
         <f t="shared" si="25"/>
-        <v>46028</v>
+        <v>46051</v>
       </c>
       <c r="AP18" s="19">
         <f t="shared" si="26"/>
-        <v>46048</v>
+        <v>46071</v>
       </c>
       <c r="AQ18" s="27">
         <f t="shared" si="27"/>
@@ -3718,7 +3718,7 @@
       </c>
       <c r="AS18" s="17">
         <f t="shared" si="9"/>
-        <v>-45876</v>
+        <v>-45899</v>
       </c>
     </row>
     <row r="19" spans="2:45" x14ac:dyDescent="0.25">
@@ -3829,7 +3829,7 @@
       </c>
       <c r="AK19" s="39">
         <f t="shared" si="23"/>
-        <v>46084</v>
+        <v>46107</v>
       </c>
       <c r="AL19" s="27">
         <f t="shared" si="8"/>
@@ -3842,11 +3842,11 @@
       <c r="AN19" s="22"/>
       <c r="AO19" s="23">
         <f t="shared" si="25"/>
-        <v>46085</v>
+        <v>46108</v>
       </c>
       <c r="AP19" s="19">
         <f t="shared" si="26"/>
-        <v>46105</v>
+        <v>46128</v>
       </c>
       <c r="AQ19" s="27">
         <f t="shared" si="27"/>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="AS19" s="17">
         <f t="shared" si="9"/>
-        <v>-45933</v>
+        <v>-45956</v>
       </c>
     </row>
     <row r="20" spans="2:45" x14ac:dyDescent="0.25">
@@ -3969,7 +3969,7 @@
       </c>
       <c r="AK20" s="39">
         <f t="shared" si="23"/>
-        <v>46115</v>
+        <v>46140</v>
       </c>
       <c r="AL20" s="27">
         <f t="shared" si="8"/>
@@ -3982,11 +3982,11 @@
       <c r="AN20" s="22"/>
       <c r="AO20" s="23">
         <f t="shared" si="25"/>
-        <v>46118</v>
+        <v>46141</v>
       </c>
       <c r="AP20" s="19">
         <f t="shared" si="26"/>
-        <v>46136</v>
+        <v>46161</v>
       </c>
       <c r="AQ20" s="27">
         <f t="shared" si="27"/>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="AS20" s="17">
         <f t="shared" si="9"/>
-        <v>-45964</v>
+        <v>-45989</v>
       </c>
     </row>
     <row r="21" spans="2:45" x14ac:dyDescent="0.25">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="AK21" s="39">
         <f t="shared" ref="AK21:AK28" si="49">IFERROR(WORKDAY(AJ21,(AM$2-1)),"-")</f>
-        <v>46268</v>
+        <v>46293</v>
       </c>
       <c r="AL21" s="27">
         <f t="shared" ref="AL21:AL28" si="50">WORKDAY.INTL(AC21,1)</f>
@@ -4122,11 +4122,11 @@
       <c r="AN21" s="22"/>
       <c r="AO21" s="23">
         <f t="shared" ref="AO21:AO28" si="52">IFERROR(WORKDAY(AK21,1),"-")</f>
-        <v>46269</v>
+        <v>46294</v>
       </c>
       <c r="AP21" s="19">
         <f t="shared" ref="AP21:AP28" si="53">IFERROR(WORKDAY(AO21,($AR$2-1)),"-")</f>
-        <v>46289</v>
+        <v>46314</v>
       </c>
       <c r="AQ21" s="27">
         <f t="shared" ref="AQ21:AQ28" si="54">WORKDAY.INTL(AM21,1)</f>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="AS21" s="17">
         <f t="shared" ref="AS21:AS28" si="56">IFERROR(AR21-AP21,"-")</f>
-        <v>-46117</v>
+        <v>-46142</v>
       </c>
     </row>
     <row r="22" spans="2:45" x14ac:dyDescent="0.25">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="AK22" s="39">
         <f t="shared" si="49"/>
-        <v>46329</v>
+        <v>46352</v>
       </c>
       <c r="AL22" s="27">
         <f t="shared" si="50"/>
@@ -4262,11 +4262,11 @@
       <c r="AN22" s="22"/>
       <c r="AO22" s="23">
         <f t="shared" si="52"/>
-        <v>46330</v>
+        <v>46353</v>
       </c>
       <c r="AP22" s="19">
         <f t="shared" si="53"/>
-        <v>46350</v>
+        <v>46373</v>
       </c>
       <c r="AQ22" s="27">
         <f t="shared" si="54"/>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="AS22" s="17">
         <f t="shared" si="56"/>
-        <v>-46178</v>
+        <v>-46201</v>
       </c>
     </row>
     <row r="23" spans="2:45" x14ac:dyDescent="0.25">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="AK23" s="39">
         <f t="shared" si="49"/>
-        <v>46329</v>
+        <v>46352</v>
       </c>
       <c r="AL23" s="27">
         <f t="shared" si="50"/>
@@ -4402,11 +4402,11 @@
       <c r="AN23" s="22"/>
       <c r="AO23" s="23">
         <f t="shared" si="52"/>
-        <v>46330</v>
+        <v>46353</v>
       </c>
       <c r="AP23" s="19">
         <f t="shared" si="53"/>
-        <v>46350</v>
+        <v>46373</v>
       </c>
       <c r="AQ23" s="27">
         <f t="shared" si="54"/>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="AS23" s="17">
         <f t="shared" si="56"/>
-        <v>-46178</v>
+        <v>-46201</v>
       </c>
     </row>
     <row r="24" spans="2:45" x14ac:dyDescent="0.25">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="AK24" s="39">
         <f t="shared" si="49"/>
-        <v>46238</v>
+        <v>46261</v>
       </c>
       <c r="AL24" s="27">
         <f t="shared" si="50"/>
@@ -4542,11 +4542,11 @@
       <c r="AN24" s="22"/>
       <c r="AO24" s="23">
         <f t="shared" si="52"/>
-        <v>46239</v>
+        <v>46262</v>
       </c>
       <c r="AP24" s="19">
         <f t="shared" si="53"/>
-        <v>46259</v>
+        <v>46282</v>
       </c>
       <c r="AQ24" s="27">
         <f t="shared" si="54"/>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="AS24" s="17">
         <f t="shared" si="56"/>
-        <v>-46087</v>
+        <v>-46110</v>
       </c>
     </row>
     <row r="25" spans="2:45" x14ac:dyDescent="0.25">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="AK25" s="39">
         <f t="shared" si="49"/>
-        <v>46329</v>
+        <v>46352</v>
       </c>
       <c r="AL25" s="27">
         <f t="shared" si="50"/>
@@ -4682,11 +4682,11 @@
       <c r="AN25" s="22"/>
       <c r="AO25" s="23">
         <f t="shared" si="52"/>
-        <v>46330</v>
+        <v>46353</v>
       </c>
       <c r="AP25" s="19">
         <f t="shared" si="53"/>
-        <v>46350</v>
+        <v>46373</v>
       </c>
       <c r="AQ25" s="27">
         <f t="shared" si="54"/>
@@ -4698,7 +4698,7 @@
       </c>
       <c r="AS25" s="17">
         <f t="shared" si="56"/>
-        <v>-46178</v>
+        <v>-46201</v>
       </c>
     </row>
     <row r="26" spans="2:45" x14ac:dyDescent="0.25">
@@ -4809,7 +4809,7 @@
       </c>
       <c r="AK26" s="39">
         <f t="shared" si="49"/>
-        <v>46084</v>
+        <v>46107</v>
       </c>
       <c r="AL26" s="27">
         <f t="shared" si="50"/>
@@ -4822,11 +4822,11 @@
       <c r="AN26" s="22"/>
       <c r="AO26" s="23">
         <f t="shared" si="52"/>
-        <v>46085</v>
+        <v>46108</v>
       </c>
       <c r="AP26" s="19">
         <f t="shared" si="53"/>
-        <v>46105</v>
+        <v>46128</v>
       </c>
       <c r="AQ26" s="27">
         <f t="shared" si="54"/>
@@ -4838,7 +4838,7 @@
       </c>
       <c r="AS26" s="17">
         <f t="shared" si="56"/>
-        <v>-45933</v>
+        <v>-45956</v>
       </c>
     </row>
     <row r="27" spans="2:45" x14ac:dyDescent="0.25">
@@ -4949,7 +4949,7 @@
       </c>
       <c r="AK27" s="39">
         <f t="shared" si="49"/>
-        <v>46238</v>
+        <v>46261</v>
       </c>
       <c r="AL27" s="27">
         <f t="shared" si="50"/>
@@ -4962,11 +4962,11 @@
       <c r="AN27" s="22"/>
       <c r="AO27" s="23">
         <f t="shared" si="52"/>
-        <v>46239</v>
+        <v>46262</v>
       </c>
       <c r="AP27" s="19">
         <f t="shared" si="53"/>
-        <v>46259</v>
+        <v>46282</v>
       </c>
       <c r="AQ27" s="27">
         <f t="shared" si="54"/>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="AS27" s="17">
         <f t="shared" si="56"/>
-        <v>-46087</v>
+        <v>-46110</v>
       </c>
     </row>
     <row r="28" spans="2:45" x14ac:dyDescent="0.25">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="AK28" s="39">
         <f t="shared" si="49"/>
-        <v>46359</v>
+        <v>46384</v>
       </c>
       <c r="AL28" s="27">
         <f t="shared" si="50"/>
@@ -5102,11 +5102,11 @@
       <c r="AN28" s="22"/>
       <c r="AO28" s="23">
         <f t="shared" si="52"/>
-        <v>46360</v>
+        <v>46385</v>
       </c>
       <c r="AP28" s="19">
         <f t="shared" si="53"/>
-        <v>46380</v>
+        <v>46405</v>
       </c>
       <c r="AQ28" s="27">
         <f t="shared" si="54"/>
@@ -5118,14 +5118,14 @@
       </c>
       <c r="AS28" s="17">
         <f t="shared" si="56"/>
-        <v>-46208</v>
+        <v>-46233</v>
       </c>
     </row>
     <row r="30" spans="2:45" x14ac:dyDescent="0.25">
       <c r="AO30" s="36"/>
     </row>
     <row r="31" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="E31" s="45"/>
+      <c r="E31" s="41"/>
       <c r="AG31" s="35"/>
       <c r="AL31" s="35"/>
     </row>

--- a/BASE - VENDA E REGISTRO.xlsx
+++ b/BASE - VENDA E REGISTRO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viana e Moura\Dropbox\PLANEJAMENTO\Scripts\MÓDULO VENDAS\MODULO_VENDAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viana e Moura\Dropbox\PLANEJAMENTO\Scripts\MODULO_VENDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DADA79-CD10-4DA4-A428-3C0BAB4F18B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83323A64-7DD7-4488-819C-75BF7297722F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0382C43D-564D-4A4C-8EAB-6952E70C6A7B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0382C43D-564D-4A4C-8EAB-6952E70C6A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="PLANEJADOR MÓDULOS" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="89">
   <si>
     <t>PROGRAMAÇÃO
  DOCUMENTAÇÕES</t>
@@ -727,13 +727,19 @@
   </si>
   <si>
     <t>Módulo 05</t>
+  </si>
+  <si>
+    <t>VG</t>
+  </si>
+  <si>
+    <t>VIEIRA GARDEN-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -820,13 +826,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF0070C0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="8"/>
       <color theme="1"/>
@@ -842,7 +841,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -900,6 +899,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,7 +1002,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1084,26 +1089,17 @@
     <xf numFmtId="14" fontId="11" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1116,6 +1112,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1651,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DB70CC-ACBF-416D-B448-0645472647BA}">
   <dimension ref="A2:AS31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AK9" sqref="AK9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="10.8" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1667,32 +1693,32 @@
     <col min="10" max="10" width="1.5546875" style="5" customWidth="1"/>
     <col min="11" max="11" width="12" style="5" customWidth="1" outlineLevel="1"/>
     <col min="12" max="13" width="8.44140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="1.33203125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="12" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="1.33203125" style="5" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="12" style="5" customWidth="1" outlineLevel="1"/>
     <col min="17" max="18" width="8.6640625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="12.5546875" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="1.33203125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="1.33203125" style="5" customWidth="1" collapsed="1"/>
     <col min="21" max="21" width="12.5546875" style="5" customWidth="1" outlineLevel="1"/>
     <col min="22" max="23" width="8.6640625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="12.5546875" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="1.33203125" style="5" customWidth="1"/>
+    <col min="24" max="24" width="12.5546875" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="1.33203125" style="5" customWidth="1" collapsed="1"/>
     <col min="26" max="26" width="12.5546875" style="5" customWidth="1" outlineLevel="1"/>
     <col min="27" max="28" width="8.44140625" style="2" customWidth="1"/>
-    <col min="29" max="29" width="8.44140625" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="1.33203125" style="5" customWidth="1"/>
+    <col min="29" max="29" width="8.44140625" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="1.33203125" style="5" customWidth="1" collapsed="1"/>
     <col min="31" max="31" width="8.44140625" style="5" customWidth="1" outlineLevel="1"/>
     <col min="32" max="33" width="8.44140625" style="2" customWidth="1"/>
-    <col min="34" max="34" width="8.44140625" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="1.33203125" style="5" customWidth="1"/>
+    <col min="34" max="34" width="8.44140625" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="1.33203125" style="5" customWidth="1" collapsed="1"/>
     <col min="36" max="36" width="8.44140625" style="5" customWidth="1" outlineLevel="1"/>
     <col min="37" max="38" width="8.44140625" style="2" customWidth="1"/>
     <col min="39" max="39" width="8.44140625" style="5" customWidth="1" outlineLevel="1"/>
     <col min="40" max="40" width="1.33203125" style="5" customWidth="1"/>
     <col min="41" max="41" width="8.44140625" style="5" customWidth="1" outlineLevel="1"/>
     <col min="42" max="43" width="8.44140625" style="2" customWidth="1"/>
-    <col min="44" max="44" width="8.44140625" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="45" max="45" width="6" style="5" customWidth="1"/>
+    <col min="44" max="44" width="8.44140625" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="45" max="45" width="6" style="5" customWidth="1" collapsed="1"/>
     <col min="46" max="50" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="51" max="16384" width="8.5546875" style="5"/>
   </cols>
@@ -1722,69 +1748,72 @@
       </c>
       <c r="AJ2" s="2"/>
       <c r="AM2" s="6">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AO2" s="2"/>
+      <c r="AQ2" s="6">
+        <v>15</v>
+      </c>
       <c r="AR2" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:45" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="K3" s="42" t="s">
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="K3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="P3" s="45" t="s">
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="P3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="U3" s="42" t="s">
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="U3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Z3" s="42" t="s">
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Z3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AE3" s="42" t="s">
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AE3" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="43"/>
-      <c r="AJ3" s="42" t="s">
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="40"/>
+      <c r="AJ3" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="43"/>
-      <c r="AO3" s="42" t="s">
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="40"/>
+      <c r="AO3" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="AP3" s="42"/>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="43"/>
+      <c r="AP3" s="39"/>
+      <c r="AQ3" s="39"/>
+      <c r="AR3" s="40"/>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -2208,7 +2237,7 @@
         <v>45800</v>
       </c>
       <c r="AD8" s="22"/>
-      <c r="AE8" s="40">
+      <c r="AE8" s="37">
         <f>IFERROR(WORKDAY(AF8,(-$AH$2+1)),"-")</f>
         <v>45814</v>
       </c>
@@ -2224,12 +2253,12 @@
         <v>45834</v>
       </c>
       <c r="AI8" s="22"/>
-      <c r="AJ8" s="37">
+      <c r="AJ8" s="43">
         <v>45839</v>
       </c>
-      <c r="AK8" s="39">
+      <c r="AK8" s="36">
         <f>IFERROR(WORKDAY(AJ8,(AM$2-1)),"-")</f>
-        <v>45866</v>
+        <v>45841</v>
       </c>
       <c r="AL8" s="25">
         <f t="shared" ref="AL8:AL20" si="8">WORKDAY.INTL(AC8,1)</f>
@@ -2241,11 +2270,11 @@
       <c r="AN8" s="22"/>
       <c r="AO8" s="23">
         <f>IFERROR(WORKDAY(AK8,1),"-")</f>
-        <v>45867</v>
+        <v>45842</v>
       </c>
       <c r="AP8" s="19">
-        <f>IFERROR(WORKDAY(AO8,($AR$2-1)),"-")</f>
-        <v>45887</v>
+        <f>IFERROR(WORKDAY(AO8,($AQ$2-1)),"-")</f>
+        <v>45862</v>
       </c>
       <c r="AQ8" s="25">
         <v>45800</v>
@@ -2255,20 +2284,20 @@
       </c>
       <c r="AS8" s="17">
         <f t="shared" ref="AS8:AS20" si="9">IFERROR(AR8-AP8,"-")</f>
-        <v>-87</v>
+        <v>-62</v>
       </c>
     </row>
     <row r="9" spans="1:45" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="45">
         <v>31</v>
       </c>
       <c r="F9" s="19">
@@ -2353,7 +2382,7 @@
         <v>45812</v>
       </c>
       <c r="AD9" s="22"/>
-      <c r="AE9" s="40">
+      <c r="AE9" s="37">
         <f t="shared" ref="AE9:AE20" si="20">IFERROR(WORKDAY(AF9,(-$AH$2+1)),"-")</f>
         <v>45814</v>
       </c>
@@ -2370,12 +2399,12 @@
         <v>45705</v>
       </c>
       <c r="AI9" s="22"/>
-      <c r="AJ9" s="37">
+      <c r="AJ9" s="43">
         <v>45839</v>
       </c>
-      <c r="AK9" s="39">
+      <c r="AK9" s="36">
         <f t="shared" ref="AK9:AK20" si="23">IFERROR(WORKDAY(AJ9,(AM$2-1)),"-")</f>
-        <v>45866</v>
+        <v>45841</v>
       </c>
       <c r="AL9" s="27">
         <f t="shared" si="8"/>
@@ -2388,11 +2417,11 @@
       <c r="AN9" s="22"/>
       <c r="AO9" s="23">
         <f t="shared" ref="AO9:AO20" si="25">IFERROR(WORKDAY(AK9,1),"-")</f>
-        <v>45867</v>
+        <v>45842</v>
       </c>
       <c r="AP9" s="19">
-        <f t="shared" ref="AP9:AP20" si="26">IFERROR(WORKDAY(AO9,($AR$2-1)),"-")</f>
-        <v>45887</v>
+        <f t="shared" ref="AP9:AP29" si="26">IFERROR(WORKDAY(AO9,($AQ$2-1)),"-")</f>
+        <v>45862</v>
       </c>
       <c r="AQ9" s="27">
         <f t="shared" ref="AQ9:AQ20" si="27">WORKDAY.INTL(AM9,1)</f>
@@ -2404,7 +2433,7 @@
       </c>
       <c r="AS9" s="17">
         <f t="shared" si="9"/>
-        <v>-33</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="10" spans="1:45" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2502,7 +2531,7 @@
         <v>45838</v>
       </c>
       <c r="AD10" s="22"/>
-      <c r="AE10" s="40">
+      <c r="AE10" s="37">
         <f t="shared" si="20"/>
         <v>45876</v>
       </c>
@@ -2519,12 +2548,12 @@
         <v>45729</v>
       </c>
       <c r="AI10" s="22"/>
-      <c r="AJ10" s="37">
+      <c r="AJ10" s="43">
         <v>45901</v>
       </c>
-      <c r="AK10" s="39">
+      <c r="AK10" s="36">
         <f t="shared" si="23"/>
-        <v>45926</v>
+        <v>45903</v>
       </c>
       <c r="AL10" s="27">
         <f t="shared" si="8"/>
@@ -2537,11 +2566,11 @@
       <c r="AN10" s="22"/>
       <c r="AO10" s="23">
         <f t="shared" si="25"/>
-        <v>45929</v>
+        <v>45904</v>
       </c>
       <c r="AP10" s="19">
         <f t="shared" si="26"/>
-        <v>45947</v>
+        <v>45924</v>
       </c>
       <c r="AQ10" s="27">
         <f t="shared" si="27"/>
@@ -2553,20 +2582,20 @@
       </c>
       <c r="AS10" s="17">
         <f t="shared" si="9"/>
-        <v>-67</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="45">
         <v>362</v>
       </c>
       <c r="F11" s="19">
@@ -2651,7 +2680,7 @@
         <v>45868</v>
       </c>
       <c r="AD11" s="22"/>
-      <c r="AE11" s="40">
+      <c r="AE11" s="37">
         <f t="shared" si="20"/>
         <v>45967</v>
       </c>
@@ -2668,12 +2697,12 @@
         <v>45761</v>
       </c>
       <c r="AI11" s="22"/>
-      <c r="AJ11" s="37">
+      <c r="AJ11" s="43">
         <v>45992</v>
       </c>
-      <c r="AK11" s="39">
+      <c r="AK11" s="36">
         <f t="shared" si="23"/>
-        <v>46017</v>
+        <v>45994</v>
       </c>
       <c r="AL11" s="27">
         <f t="shared" si="8"/>
@@ -2686,11 +2715,11 @@
       <c r="AN11" s="22"/>
       <c r="AO11" s="23">
         <f t="shared" si="25"/>
-        <v>46020</v>
+        <v>45995</v>
       </c>
       <c r="AP11" s="19">
         <f t="shared" si="26"/>
-        <v>46038</v>
+        <v>46015</v>
       </c>
       <c r="AQ11" s="27">
         <f t="shared" si="27"/>
@@ -2702,7 +2731,7 @@
       </c>
       <c r="AS11" s="29">
         <f t="shared" si="9"/>
-        <v>-128</v>
+        <v>-105</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
@@ -2800,7 +2829,7 @@
         <v>45931</v>
       </c>
       <c r="AD12" s="22"/>
-      <c r="AE12" s="40">
+      <c r="AE12" s="37">
         <f t="shared" si="20"/>
         <v>45967</v>
       </c>
@@ -2817,12 +2846,12 @@
         <v>45824</v>
       </c>
       <c r="AI12" s="22"/>
-      <c r="AJ12" s="37">
+      <c r="AJ12" s="43">
         <v>45992</v>
       </c>
-      <c r="AK12" s="39">
+      <c r="AK12" s="36">
         <f t="shared" si="23"/>
-        <v>46017</v>
+        <v>45994</v>
       </c>
       <c r="AL12" s="27">
         <f t="shared" si="8"/>
@@ -2835,11 +2864,11 @@
       <c r="AN12" s="22"/>
       <c r="AO12" s="23">
         <f t="shared" si="25"/>
-        <v>46020</v>
+        <v>45995</v>
       </c>
       <c r="AP12" s="19">
         <f t="shared" si="26"/>
-        <v>46038</v>
+        <v>46015</v>
       </c>
       <c r="AQ12" s="27">
         <f t="shared" si="27"/>
@@ -2851,20 +2880,20 @@
       </c>
       <c r="AS12" s="29">
         <f t="shared" si="9"/>
-        <v>-65</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="45">
         <v>145</v>
       </c>
       <c r="F13" s="19">
@@ -2949,7 +2978,7 @@
         <v>45916</v>
       </c>
       <c r="AD13" s="22"/>
-      <c r="AE13" s="40">
+      <c r="AE13" s="37">
         <f t="shared" si="20"/>
         <v>45876</v>
       </c>
@@ -2966,12 +2995,12 @@
         <v>45807</v>
       </c>
       <c r="AI13" s="22"/>
-      <c r="AJ13" s="37">
+      <c r="AJ13" s="43">
         <v>45901</v>
       </c>
-      <c r="AK13" s="39">
+      <c r="AK13" s="36">
         <f t="shared" si="23"/>
-        <v>45926</v>
+        <v>45903</v>
       </c>
       <c r="AL13" s="27">
         <f t="shared" si="8"/>
@@ -2984,11 +3013,11 @@
       <c r="AN13" s="22"/>
       <c r="AO13" s="23">
         <f t="shared" si="25"/>
-        <v>45929</v>
+        <v>45904</v>
       </c>
       <c r="AP13" s="19">
         <f t="shared" si="26"/>
-        <v>45947</v>
+        <v>45924</v>
       </c>
       <c r="AQ13" s="27">
         <f t="shared" si="27"/>
@@ -3000,7 +3029,7 @@
       </c>
       <c r="AS13" s="17">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
@@ -3098,7 +3127,7 @@
         <v>45959</v>
       </c>
       <c r="AD14" s="22"/>
-      <c r="AE14" s="40">
+      <c r="AE14" s="37">
         <f t="shared" si="20"/>
         <v>45967</v>
       </c>
@@ -3115,12 +3144,12 @@
         <v>45852</v>
       </c>
       <c r="AI14" s="22"/>
-      <c r="AJ14" s="37">
+      <c r="AJ14" s="43">
         <v>45992</v>
       </c>
-      <c r="AK14" s="39">
+      <c r="AK14" s="36">
         <f t="shared" si="23"/>
-        <v>46017</v>
+        <v>45994</v>
       </c>
       <c r="AL14" s="27">
         <f t="shared" si="8"/>
@@ -3133,11 +3162,11 @@
       <c r="AN14" s="22"/>
       <c r="AO14" s="23">
         <f t="shared" si="25"/>
-        <v>46020</v>
+        <v>45995</v>
       </c>
       <c r="AP14" s="19">
         <f t="shared" si="26"/>
-        <v>46038</v>
+        <v>46015</v>
       </c>
       <c r="AQ14" s="27">
         <f t="shared" si="27"/>
@@ -3149,20 +3178,20 @@
       </c>
       <c r="AS14" s="17">
         <f t="shared" si="9"/>
-        <v>-37</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="45">
         <v>128</v>
       </c>
       <c r="F15" s="19">
@@ -3247,7 +3276,7 @@
         <v>45945</v>
       </c>
       <c r="AD15" s="22"/>
-      <c r="AE15" s="40">
+      <c r="AE15" s="37">
         <f t="shared" si="20"/>
         <v>45939</v>
       </c>
@@ -3264,12 +3293,12 @@
         <v>45838</v>
       </c>
       <c r="AI15" s="22"/>
-      <c r="AJ15" s="37">
+      <c r="AJ15" s="43">
         <v>45962</v>
       </c>
-      <c r="AK15" s="39">
+      <c r="AK15" s="36">
         <f t="shared" si="23"/>
-        <v>45988</v>
+        <v>45965</v>
       </c>
       <c r="AL15" s="27">
         <f t="shared" si="8"/>
@@ -3282,11 +3311,11 @@
       <c r="AN15" s="22"/>
       <c r="AO15" s="23">
         <f t="shared" si="25"/>
-        <v>45989</v>
+        <v>45966</v>
       </c>
       <c r="AP15" s="19">
         <f t="shared" si="26"/>
-        <v>46009</v>
+        <v>45986</v>
       </c>
       <c r="AQ15" s="27">
         <f t="shared" si="27"/>
@@ -3298,7 +3327,7 @@
       </c>
       <c r="AS15" s="17">
         <f t="shared" si="9"/>
-        <v>-22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
@@ -3387,7 +3416,7 @@
         <v>130</v>
       </c>
       <c r="AD16" s="22"/>
-      <c r="AE16" s="40">
+      <c r="AE16" s="37">
         <f t="shared" si="20"/>
         <v>46000</v>
       </c>
@@ -3404,12 +3433,12 @@
         <v>23</v>
       </c>
       <c r="AI16" s="22"/>
-      <c r="AJ16" s="37">
+      <c r="AJ16" s="43">
         <v>46023</v>
       </c>
-      <c r="AK16" s="39">
+      <c r="AK16" s="36">
         <f t="shared" si="23"/>
-        <v>46050</v>
+        <v>46027</v>
       </c>
       <c r="AL16" s="27">
         <f t="shared" si="8"/>
@@ -3422,11 +3451,11 @@
       <c r="AN16" s="22"/>
       <c r="AO16" s="23">
         <f t="shared" si="25"/>
-        <v>46051</v>
+        <v>46028</v>
       </c>
       <c r="AP16" s="19">
         <f t="shared" si="26"/>
-        <v>46071</v>
+        <v>46048</v>
       </c>
       <c r="AQ16" s="27">
         <f t="shared" si="27"/>
@@ -3438,51 +3467,51 @@
       </c>
       <c r="AS16" s="29">
         <f t="shared" si="9"/>
-        <v>-45899</v>
+        <v>-45876</v>
       </c>
     </row>
     <row r="17" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="17">
-        <v>0</v>
+      <c r="E17" s="45">
+        <v>255</v>
       </c>
       <c r="F17" s="19">
         <f t="shared" si="0"/>
-        <v>45853</v>
+        <v>45821</v>
       </c>
       <c r="G17" s="20">
         <f t="shared" si="10"/>
-        <v>45875</v>
+        <v>45845</v>
       </c>
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
       <c r="J17" s="22"/>
       <c r="K17" s="23">
         <f t="shared" si="2"/>
-        <v>45876</v>
+        <v>45846</v>
       </c>
       <c r="L17" s="19">
         <f t="shared" si="3"/>
-        <v>45898</v>
+        <v>45868</v>
       </c>
       <c r="M17" s="33"/>
       <c r="N17" s="32"/>
       <c r="O17" s="22"/>
       <c r="P17" s="23">
         <f t="shared" si="4"/>
-        <v>45901</v>
+        <v>45869</v>
       </c>
       <c r="Q17" s="19">
         <f t="shared" si="11"/>
-        <v>46008</v>
+        <v>45978</v>
       </c>
       <c r="R17" s="27">
         <f t="shared" si="5"/>
@@ -3495,11 +3524,11 @@
       <c r="T17" s="22"/>
       <c r="U17" s="23">
         <f t="shared" si="6"/>
-        <v>45901</v>
+        <v>45869</v>
       </c>
       <c r="V17" s="19">
         <f t="shared" si="13"/>
-        <v>46008</v>
+        <v>45978</v>
       </c>
       <c r="W17" s="27">
         <f t="shared" si="14"/>
@@ -3512,11 +3541,11 @@
       <c r="Y17" s="22"/>
       <c r="Z17" s="23">
         <f t="shared" si="16"/>
-        <v>46009</v>
+        <v>45979</v>
       </c>
       <c r="AA17" s="19">
         <f t="shared" si="17"/>
-        <v>46029</v>
+        <v>45999</v>
       </c>
       <c r="AB17" s="27">
         <f t="shared" si="18"/>
@@ -3527,13 +3556,13 @@
         <v>130</v>
       </c>
       <c r="AD17" s="22"/>
-      <c r="AE17" s="40">
+      <c r="AE17" s="37">
         <f t="shared" si="20"/>
-        <v>46030</v>
+        <v>46000</v>
       </c>
       <c r="AF17" s="20">
         <f t="shared" si="21"/>
-        <v>46052</v>
+        <v>46022</v>
       </c>
       <c r="AG17" s="27">
         <f t="shared" si="7"/>
@@ -3544,12 +3573,12 @@
         <v>23</v>
       </c>
       <c r="AI17" s="22"/>
-      <c r="AJ17" s="38">
-        <v>46054</v>
-      </c>
-      <c r="AK17" s="39">
+      <c r="AJ17" s="44">
+        <v>46023</v>
+      </c>
+      <c r="AK17" s="36">
         <f t="shared" si="23"/>
-        <v>46079</v>
+        <v>46027</v>
       </c>
       <c r="AL17" s="27">
         <f t="shared" si="8"/>
@@ -3562,11 +3591,11 @@
       <c r="AN17" s="22"/>
       <c r="AO17" s="23">
         <f t="shared" si="25"/>
-        <v>46080</v>
+        <v>46028</v>
       </c>
       <c r="AP17" s="19">
         <f t="shared" si="26"/>
-        <v>46100</v>
+        <v>46048</v>
       </c>
       <c r="AQ17" s="27">
         <f t="shared" si="27"/>
@@ -3578,21 +3607,21 @@
       </c>
       <c r="AS17" s="17">
         <f t="shared" si="9"/>
-        <v>-45928</v>
+        <v>-45876</v>
       </c>
     </row>
     <row r="18" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="48" t="s">
         <v>60</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="17">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="F18" s="19">
         <f t="shared" si="0"/>
@@ -3667,7 +3696,7 @@
         <v>130</v>
       </c>
       <c r="AD18" s="22"/>
-      <c r="AE18" s="40">
+      <c r="AE18" s="37">
         <f t="shared" si="20"/>
         <v>46000</v>
       </c>
@@ -3684,12 +3713,12 @@
         <v>23</v>
       </c>
       <c r="AI18" s="22"/>
-      <c r="AJ18" s="38">
+      <c r="AJ18" s="44">
         <v>46023</v>
       </c>
-      <c r="AK18" s="39">
+      <c r="AK18" s="36">
         <f t="shared" si="23"/>
-        <v>46050</v>
+        <v>46027</v>
       </c>
       <c r="AL18" s="27">
         <f t="shared" si="8"/>
@@ -3702,11 +3731,11 @@
       <c r="AN18" s="22"/>
       <c r="AO18" s="23">
         <f t="shared" si="25"/>
-        <v>46051</v>
+        <v>46028</v>
       </c>
       <c r="AP18" s="19">
         <f t="shared" si="26"/>
-        <v>46071</v>
+        <v>46048</v>
       </c>
       <c r="AQ18" s="27">
         <f t="shared" si="27"/>
@@ -3718,51 +3747,51 @@
       </c>
       <c r="AS18" s="17">
         <f t="shared" si="9"/>
-        <v>-45899</v>
+        <v>-45876</v>
       </c>
     </row>
     <row r="19" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="17">
-        <v>0</v>
+      <c r="E19" s="45">
+        <v>248</v>
       </c>
       <c r="F19" s="19">
         <f t="shared" si="0"/>
-        <v>45881</v>
+        <v>45943</v>
       </c>
       <c r="G19" s="20">
         <f t="shared" si="10"/>
-        <v>45903</v>
+        <v>45965</v>
       </c>
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
       <c r="J19" s="22"/>
       <c r="K19" s="23">
         <f t="shared" si="2"/>
-        <v>45904</v>
+        <v>45966</v>
       </c>
       <c r="L19" s="19">
         <f t="shared" si="3"/>
-        <v>45926</v>
+        <v>45988</v>
       </c>
       <c r="M19" s="33"/>
       <c r="N19" s="32"/>
       <c r="O19" s="22"/>
       <c r="P19" s="23">
         <f t="shared" si="4"/>
-        <v>45929</v>
+        <v>45989</v>
       </c>
       <c r="Q19" s="19">
         <f t="shared" si="11"/>
-        <v>46036</v>
+        <v>46098</v>
       </c>
       <c r="R19" s="27">
         <f t="shared" si="5"/>
@@ -3775,11 +3804,11 @@
       <c r="T19" s="22"/>
       <c r="U19" s="23">
         <f t="shared" si="6"/>
-        <v>45929</v>
+        <v>45989</v>
       </c>
       <c r="V19" s="19">
         <f t="shared" si="13"/>
-        <v>46036</v>
+        <v>46098</v>
       </c>
       <c r="W19" s="27">
         <f t="shared" si="14"/>
@@ -3792,11 +3821,11 @@
       <c r="Y19" s="22"/>
       <c r="Z19" s="23">
         <f t="shared" si="16"/>
-        <v>46037</v>
+        <v>46099</v>
       </c>
       <c r="AA19" s="19">
         <f t="shared" si="17"/>
-        <v>46057</v>
+        <v>46119</v>
       </c>
       <c r="AB19" s="27">
         <f t="shared" si="18"/>
@@ -3807,13 +3836,13 @@
         <v>130</v>
       </c>
       <c r="AD19" s="22"/>
-      <c r="AE19" s="40">
+      <c r="AE19" s="37">
         <f t="shared" si="20"/>
-        <v>46058</v>
+        <v>46120</v>
       </c>
       <c r="AF19" s="20">
         <f t="shared" si="21"/>
-        <v>46080</v>
+        <v>46142</v>
       </c>
       <c r="AG19" s="27">
         <f t="shared" si="7"/>
@@ -3824,12 +3853,12 @@
         <v>23</v>
       </c>
       <c r="AI19" s="22"/>
-      <c r="AJ19" s="38">
-        <v>46082</v>
-      </c>
-      <c r="AK19" s="39">
+      <c r="AJ19" s="44">
+        <v>46143</v>
+      </c>
+      <c r="AK19" s="36">
         <f t="shared" si="23"/>
-        <v>46107</v>
+        <v>46147</v>
       </c>
       <c r="AL19" s="27">
         <f t="shared" si="8"/>
@@ -3842,11 +3871,11 @@
       <c r="AN19" s="22"/>
       <c r="AO19" s="23">
         <f t="shared" si="25"/>
-        <v>46108</v>
+        <v>46148</v>
       </c>
       <c r="AP19" s="19">
         <f t="shared" si="26"/>
-        <v>46128</v>
+        <v>46168</v>
       </c>
       <c r="AQ19" s="27">
         <f t="shared" si="27"/>
@@ -3858,51 +3887,51 @@
       </c>
       <c r="AS19" s="17">
         <f t="shared" si="9"/>
-        <v>-45956</v>
+        <v>-45996</v>
       </c>
     </row>
     <row r="20" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="51" t="s">
         <v>62</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>63</v>
       </c>
       <c r="E20" s="17">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="F20" s="19">
         <f t="shared" si="0"/>
-        <v>45911</v>
+        <v>45881</v>
       </c>
       <c r="G20" s="20">
         <f t="shared" si="10"/>
-        <v>45933</v>
+        <v>45903</v>
       </c>
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
       <c r="J20" s="22"/>
       <c r="K20" s="23">
         <f t="shared" si="2"/>
-        <v>45936</v>
+        <v>45904</v>
       </c>
       <c r="L20" s="19">
         <f t="shared" si="3"/>
-        <v>45958</v>
+        <v>45926</v>
       </c>
       <c r="M20" s="33"/>
       <c r="N20" s="32"/>
       <c r="O20" s="22"/>
       <c r="P20" s="23">
         <f t="shared" si="4"/>
-        <v>45959</v>
+        <v>45929</v>
       </c>
       <c r="Q20" s="19">
         <f t="shared" si="11"/>
-        <v>46066</v>
+        <v>46036</v>
       </c>
       <c r="R20" s="27">
         <f t="shared" si="5"/>
@@ -3915,11 +3944,11 @@
       <c r="T20" s="22"/>
       <c r="U20" s="23">
         <f t="shared" si="6"/>
-        <v>45959</v>
+        <v>45929</v>
       </c>
       <c r="V20" s="19">
         <f t="shared" si="13"/>
-        <v>46066</v>
+        <v>46036</v>
       </c>
       <c r="W20" s="27">
         <f t="shared" si="14"/>
@@ -3932,11 +3961,11 @@
       <c r="Y20" s="22"/>
       <c r="Z20" s="23">
         <f t="shared" si="16"/>
-        <v>46069</v>
+        <v>46037</v>
       </c>
       <c r="AA20" s="19">
         <f t="shared" si="17"/>
-        <v>46087</v>
+        <v>46057</v>
       </c>
       <c r="AB20" s="27">
         <f t="shared" si="18"/>
@@ -3947,13 +3976,13 @@
         <v>130</v>
       </c>
       <c r="AD20" s="22"/>
-      <c r="AE20" s="40">
+      <c r="AE20" s="37">
         <f t="shared" si="20"/>
-        <v>46090</v>
+        <v>46058</v>
       </c>
       <c r="AF20" s="20">
         <f t="shared" si="21"/>
-        <v>46112</v>
+        <v>46080</v>
       </c>
       <c r="AG20" s="27">
         <f t="shared" si="7"/>
@@ -3964,12 +3993,12 @@
         <v>23</v>
       </c>
       <c r="AI20" s="22"/>
-      <c r="AJ20" s="38">
-        <v>46113</v>
-      </c>
-      <c r="AK20" s="39">
+      <c r="AJ20" s="44">
+        <v>46082</v>
+      </c>
+      <c r="AK20" s="36">
         <f t="shared" si="23"/>
-        <v>46140</v>
+        <v>46084</v>
       </c>
       <c r="AL20" s="27">
         <f t="shared" si="8"/>
@@ -3982,11 +4011,11 @@
       <c r="AN20" s="22"/>
       <c r="AO20" s="23">
         <f t="shared" si="25"/>
-        <v>46141</v>
+        <v>46085</v>
       </c>
       <c r="AP20" s="19">
         <f t="shared" si="26"/>
-        <v>46161</v>
+        <v>46105</v>
       </c>
       <c r="AQ20" s="27">
         <f t="shared" si="27"/>
@@ -3998,20 +4027,20 @@
       </c>
       <c r="AS20" s="17">
         <f t="shared" si="9"/>
-        <v>-45989</v>
+        <v>-45933</v>
       </c>
     </row>
     <row r="21" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="45">
         <v>235</v>
       </c>
       <c r="F21" s="19">
@@ -4087,7 +4116,7 @@
         <v>130</v>
       </c>
       <c r="AD21" s="22"/>
-      <c r="AE21" s="40">
+      <c r="AE21" s="37">
         <f t="shared" ref="AE21:AE28" si="45">IFERROR(WORKDAY(AF21,(-$AH$2+1)),"-")</f>
         <v>46241</v>
       </c>
@@ -4104,12 +4133,12 @@
         <v>23</v>
       </c>
       <c r="AI21" s="22"/>
-      <c r="AJ21" s="38">
+      <c r="AJ21" s="44">
         <v>46266</v>
       </c>
-      <c r="AK21" s="39">
+      <c r="AK21" s="36">
         <f t="shared" ref="AK21:AK28" si="49">IFERROR(WORKDAY(AJ21,(AM$2-1)),"-")</f>
-        <v>46293</v>
+        <v>46268</v>
       </c>
       <c r="AL21" s="27">
         <f t="shared" ref="AL21:AL28" si="50">WORKDAY.INTL(AC21,1)</f>
@@ -4122,30 +4151,30 @@
       <c r="AN21" s="22"/>
       <c r="AO21" s="23">
         <f t="shared" ref="AO21:AO28" si="52">IFERROR(WORKDAY(AK21,1),"-")</f>
-        <v>46294</v>
+        <v>46269</v>
       </c>
       <c r="AP21" s="19">
-        <f t="shared" ref="AP21:AP28" si="53">IFERROR(WORKDAY(AO21,($AR$2-1)),"-")</f>
-        <v>46314</v>
+        <f t="shared" si="26"/>
+        <v>46289</v>
       </c>
       <c r="AQ21" s="27">
-        <f t="shared" ref="AQ21:AQ28" si="54">WORKDAY.INTL(AM21,1)</f>
+        <f t="shared" ref="AQ21:AQ28" si="53">WORKDAY.INTL(AM21,1)</f>
         <v>152</v>
       </c>
       <c r="AR21" s="28">
-        <f t="shared" ref="AR21:AR28" si="55">WORKDAY(AQ21,$AC$2-1)</f>
+        <f t="shared" ref="AR21:AR28" si="54">WORKDAY(AQ21,$AC$2-1)</f>
         <v>172</v>
       </c>
       <c r="AS21" s="17">
-        <f t="shared" ref="AS21:AS28" si="56">IFERROR(AR21-AP21,"-")</f>
-        <v>-46142</v>
+        <f t="shared" ref="AS21:AS28" si="55">IFERROR(AR21-AP21,"-")</f>
+        <v>-46117</v>
       </c>
     </row>
     <row r="22" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B22" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="48" t="s">
         <v>77</v>
       </c>
       <c r="D22" s="18" t="s">
@@ -4227,7 +4256,7 @@
         <v>130</v>
       </c>
       <c r="AD22" s="22"/>
-      <c r="AE22" s="40">
+      <c r="AE22" s="37">
         <f t="shared" si="45"/>
         <v>46303</v>
       </c>
@@ -4244,12 +4273,12 @@
         <v>23</v>
       </c>
       <c r="AI22" s="22"/>
-      <c r="AJ22" s="38">
+      <c r="AJ22" s="44">
         <v>46327</v>
       </c>
-      <c r="AK22" s="39">
+      <c r="AK22" s="36">
         <f t="shared" si="49"/>
-        <v>46352</v>
+        <v>46329</v>
       </c>
       <c r="AL22" s="27">
         <f t="shared" si="50"/>
@@ -4262,67 +4291,67 @@
       <c r="AN22" s="22"/>
       <c r="AO22" s="23">
         <f t="shared" si="52"/>
-        <v>46353</v>
+        <v>46330</v>
       </c>
       <c r="AP22" s="19">
+        <f t="shared" si="26"/>
+        <v>46350</v>
+      </c>
+      <c r="AQ22" s="27">
         <f t="shared" si="53"/>
-        <v>46373</v>
-      </c>
-      <c r="AQ22" s="27">
+        <v>152</v>
+      </c>
+      <c r="AR22" s="28">
         <f t="shared" si="54"/>
-        <v>152</v>
-      </c>
-      <c r="AR22" s="28">
+        <v>172</v>
+      </c>
+      <c r="AS22" s="17">
         <f t="shared" si="55"/>
-        <v>172</v>
-      </c>
-      <c r="AS22" s="17">
-        <f t="shared" si="56"/>
-        <v>-46201</v>
+        <v>-46178</v>
       </c>
     </row>
     <row r="23" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="45">
         <v>344</v>
       </c>
       <c r="F23" s="19">
         <f t="shared" si="29"/>
-        <v>46126</v>
+        <v>46064</v>
       </c>
       <c r="G23" s="20">
         <f t="shared" si="30"/>
-        <v>46148</v>
+        <v>46086</v>
       </c>
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
       <c r="J23" s="22"/>
       <c r="K23" s="23">
         <f t="shared" si="31"/>
-        <v>46149</v>
+        <v>46087</v>
       </c>
       <c r="L23" s="19">
         <f t="shared" si="32"/>
-        <v>46171</v>
+        <v>46111</v>
       </c>
       <c r="M23" s="33"/>
       <c r="N23" s="32"/>
       <c r="O23" s="22"/>
       <c r="P23" s="23">
         <f t="shared" si="33"/>
-        <v>46174</v>
+        <v>46112</v>
       </c>
       <c r="Q23" s="19">
         <f t="shared" si="34"/>
-        <v>46281</v>
+        <v>46219</v>
       </c>
       <c r="R23" s="27">
         <f t="shared" si="35"/>
@@ -4335,11 +4364,11 @@
       <c r="T23" s="22"/>
       <c r="U23" s="23">
         <f t="shared" si="37"/>
-        <v>46174</v>
+        <v>46112</v>
       </c>
       <c r="V23" s="19">
         <f t="shared" si="38"/>
-        <v>46281</v>
+        <v>46219</v>
       </c>
       <c r="W23" s="27">
         <f t="shared" si="39"/>
@@ -4352,11 +4381,11 @@
       <c r="Y23" s="22"/>
       <c r="Z23" s="23">
         <f t="shared" si="41"/>
-        <v>46282</v>
+        <v>46220</v>
       </c>
       <c r="AA23" s="19">
         <f t="shared" si="42"/>
-        <v>46302</v>
+        <v>46240</v>
       </c>
       <c r="AB23" s="27">
         <f t="shared" si="43"/>
@@ -4367,13 +4396,13 @@
         <v>130</v>
       </c>
       <c r="AD23" s="22"/>
-      <c r="AE23" s="40">
+      <c r="AE23" s="37">
         <f t="shared" si="45"/>
-        <v>46303</v>
+        <v>46241</v>
       </c>
       <c r="AF23" s="20">
         <f t="shared" si="46"/>
-        <v>46325</v>
+        <v>46265</v>
       </c>
       <c r="AG23" s="27">
         <f t="shared" si="47"/>
@@ -4384,12 +4413,12 @@
         <v>23</v>
       </c>
       <c r="AI23" s="22"/>
-      <c r="AJ23" s="38">
-        <v>46327</v>
-      </c>
-      <c r="AK23" s="39">
+      <c r="AJ23" s="44">
+        <v>46266</v>
+      </c>
+      <c r="AK23" s="36">
         <f t="shared" si="49"/>
-        <v>46352</v>
+        <v>46268</v>
       </c>
       <c r="AL23" s="27">
         <f t="shared" si="50"/>
@@ -4402,30 +4431,30 @@
       <c r="AN23" s="22"/>
       <c r="AO23" s="23">
         <f t="shared" si="52"/>
-        <v>46353</v>
+        <v>46269</v>
       </c>
       <c r="AP23" s="19">
+        <f t="shared" si="26"/>
+        <v>46289</v>
+      </c>
+      <c r="AQ23" s="27">
         <f t="shared" si="53"/>
-        <v>46373</v>
-      </c>
-      <c r="AQ23" s="27">
+        <v>152</v>
+      </c>
+      <c r="AR23" s="28">
         <f t="shared" si="54"/>
-        <v>152</v>
-      </c>
-      <c r="AR23" s="28">
+        <v>172</v>
+      </c>
+      <c r="AS23" s="17">
         <f t="shared" si="55"/>
-        <v>172</v>
-      </c>
-      <c r="AS23" s="17">
-        <f t="shared" si="56"/>
-        <v>-46201</v>
+        <v>-46117</v>
       </c>
     </row>
     <row r="24" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B24" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="51" t="s">
         <v>79</v>
       </c>
       <c r="D24" s="18" t="s">
@@ -4507,7 +4536,7 @@
         <v>130</v>
       </c>
       <c r="AD24" s="22"/>
-      <c r="AE24" s="40">
+      <c r="AE24" s="37">
         <f t="shared" si="45"/>
         <v>46212</v>
       </c>
@@ -4524,12 +4553,12 @@
         <v>23</v>
       </c>
       <c r="AI24" s="22"/>
-      <c r="AJ24" s="38">
+      <c r="AJ24" s="44">
         <v>46235</v>
       </c>
-      <c r="AK24" s="39">
+      <c r="AK24" s="36">
         <f t="shared" si="49"/>
-        <v>46261</v>
+        <v>46238</v>
       </c>
       <c r="AL24" s="27">
         <f t="shared" si="50"/>
@@ -4542,36 +4571,36 @@
       <c r="AN24" s="22"/>
       <c r="AO24" s="23">
         <f t="shared" si="52"/>
-        <v>46262</v>
+        <v>46239</v>
       </c>
       <c r="AP24" s="19">
+        <f t="shared" si="26"/>
+        <v>46259</v>
+      </c>
+      <c r="AQ24" s="27">
         <f t="shared" si="53"/>
-        <v>46282</v>
-      </c>
-      <c r="AQ24" s="27">
+        <v>152</v>
+      </c>
+      <c r="AR24" s="28">
         <f t="shared" si="54"/>
-        <v>152</v>
-      </c>
-      <c r="AR24" s="28">
+        <v>172</v>
+      </c>
+      <c r="AS24" s="17">
         <f t="shared" si="55"/>
-        <v>172</v>
-      </c>
-      <c r="AS24" s="17">
-        <f t="shared" si="56"/>
-        <v>-46110</v>
+        <v>-46087</v>
       </c>
     </row>
     <row r="25" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="45">
         <v>164</v>
       </c>
       <c r="F25" s="19">
@@ -4647,7 +4676,7 @@
         <v>130</v>
       </c>
       <c r="AD25" s="22"/>
-      <c r="AE25" s="40">
+      <c r="AE25" s="37">
         <f t="shared" si="45"/>
         <v>46303</v>
       </c>
@@ -4664,12 +4693,12 @@
         <v>23</v>
       </c>
       <c r="AI25" s="22"/>
-      <c r="AJ25" s="38">
+      <c r="AJ25" s="44">
         <v>46327</v>
       </c>
-      <c r="AK25" s="39">
+      <c r="AK25" s="36">
         <f t="shared" si="49"/>
-        <v>46352</v>
+        <v>46329</v>
       </c>
       <c r="AL25" s="27">
         <f t="shared" si="50"/>
@@ -4682,30 +4711,30 @@
       <c r="AN25" s="22"/>
       <c r="AO25" s="23">
         <f t="shared" si="52"/>
-        <v>46353</v>
+        <v>46330</v>
       </c>
       <c r="AP25" s="19">
+        <f t="shared" si="26"/>
+        <v>46350</v>
+      </c>
+      <c r="AQ25" s="27">
         <f t="shared" si="53"/>
-        <v>46373</v>
-      </c>
-      <c r="AQ25" s="27">
+        <v>152</v>
+      </c>
+      <c r="AR25" s="28">
         <f t="shared" si="54"/>
-        <v>152</v>
-      </c>
-      <c r="AR25" s="28">
+        <v>172</v>
+      </c>
+      <c r="AS25" s="17">
         <f t="shared" si="55"/>
-        <v>172</v>
-      </c>
-      <c r="AS25" s="17">
-        <f t="shared" si="56"/>
-        <v>-46201</v>
+        <v>-46178</v>
       </c>
     </row>
     <row r="26" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B26" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="51" t="s">
         <v>82</v>
       </c>
       <c r="D26" s="18" t="s">
@@ -4787,7 +4816,7 @@
         <v>130</v>
       </c>
       <c r="AD26" s="22"/>
-      <c r="AE26" s="40">
+      <c r="AE26" s="37">
         <f t="shared" si="45"/>
         <v>46058</v>
       </c>
@@ -4804,12 +4833,12 @@
         <v>23</v>
       </c>
       <c r="AI26" s="22"/>
-      <c r="AJ26" s="38">
+      <c r="AJ26" s="44">
         <v>46082</v>
       </c>
-      <c r="AK26" s="39">
+      <c r="AK26" s="36">
         <f t="shared" si="49"/>
-        <v>46107</v>
+        <v>46084</v>
       </c>
       <c r="AL26" s="27">
         <f t="shared" si="50"/>
@@ -4822,36 +4851,36 @@
       <c r="AN26" s="22"/>
       <c r="AO26" s="23">
         <f t="shared" si="52"/>
-        <v>46108</v>
+        <v>46085</v>
       </c>
       <c r="AP26" s="19">
+        <f t="shared" si="26"/>
+        <v>46105</v>
+      </c>
+      <c r="AQ26" s="27">
         <f t="shared" si="53"/>
-        <v>46128</v>
-      </c>
-      <c r="AQ26" s="27">
+        <v>152</v>
+      </c>
+      <c r="AR26" s="28">
         <f t="shared" si="54"/>
-        <v>152</v>
-      </c>
-      <c r="AR26" s="28">
+        <v>172</v>
+      </c>
+      <c r="AS26" s="17">
         <f t="shared" si="55"/>
-        <v>172</v>
-      </c>
-      <c r="AS26" s="17">
-        <f t="shared" si="56"/>
-        <v>-45956</v>
+        <v>-45933</v>
       </c>
     </row>
     <row r="27" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="45">
         <v>183</v>
       </c>
       <c r="F27" s="19">
@@ -4927,7 +4956,7 @@
         <v>130</v>
       </c>
       <c r="AD27" s="22"/>
-      <c r="AE27" s="40">
+      <c r="AE27" s="37">
         <f t="shared" si="45"/>
         <v>46212</v>
       </c>
@@ -4944,12 +4973,12 @@
         <v>23</v>
       </c>
       <c r="AI27" s="22"/>
-      <c r="AJ27" s="38">
+      <c r="AJ27" s="44">
         <v>46235</v>
       </c>
-      <c r="AK27" s="39">
+      <c r="AK27" s="36">
         <f t="shared" si="49"/>
-        <v>46261</v>
+        <v>46238</v>
       </c>
       <c r="AL27" s="27">
         <f t="shared" si="50"/>
@@ -4962,30 +4991,30 @@
       <c r="AN27" s="22"/>
       <c r="AO27" s="23">
         <f t="shared" si="52"/>
-        <v>46262</v>
+        <v>46239</v>
       </c>
       <c r="AP27" s="19">
+        <f t="shared" si="26"/>
+        <v>46259</v>
+      </c>
+      <c r="AQ27" s="27">
         <f t="shared" si="53"/>
-        <v>46282</v>
-      </c>
-      <c r="AQ27" s="27">
+        <v>152</v>
+      </c>
+      <c r="AR27" s="28">
         <f t="shared" si="54"/>
-        <v>152</v>
-      </c>
-      <c r="AR27" s="28">
+        <v>172</v>
+      </c>
+      <c r="AS27" s="17">
         <f t="shared" si="55"/>
-        <v>172</v>
-      </c>
-      <c r="AS27" s="17">
-        <f t="shared" si="56"/>
-        <v>-46110</v>
+        <v>-46087</v>
       </c>
     </row>
     <row r="28" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B28" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="48" t="s">
         <v>84</v>
       </c>
       <c r="D28" s="18" t="s">
@@ -5067,7 +5096,7 @@
         <v>130</v>
       </c>
       <c r="AD28" s="22"/>
-      <c r="AE28" s="40">
+      <c r="AE28" s="37">
         <f t="shared" si="45"/>
         <v>46332</v>
       </c>
@@ -5084,12 +5113,12 @@
         <v>23</v>
       </c>
       <c r="AI28" s="22"/>
-      <c r="AJ28" s="38">
+      <c r="AJ28" s="44">
         <v>46357</v>
       </c>
-      <c r="AK28" s="39">
+      <c r="AK28" s="36">
         <f t="shared" si="49"/>
-        <v>46384</v>
+        <v>46359</v>
       </c>
       <c r="AL28" s="27">
         <f t="shared" si="50"/>
@@ -5102,32 +5131,172 @@
       <c r="AN28" s="22"/>
       <c r="AO28" s="23">
         <f t="shared" si="52"/>
-        <v>46385</v>
+        <v>46360</v>
       </c>
       <c r="AP28" s="19">
+        <f t="shared" si="26"/>
+        <v>46380</v>
+      </c>
+      <c r="AQ28" s="27">
         <f t="shared" si="53"/>
-        <v>46405</v>
-      </c>
-      <c r="AQ28" s="27">
+        <v>152</v>
+      </c>
+      <c r="AR28" s="28">
         <f t="shared" si="54"/>
+        <v>172</v>
+      </c>
+      <c r="AS28" s="17">
+        <f t="shared" si="55"/>
+        <v>-46208</v>
+      </c>
+    </row>
+    <row r="29" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B29" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="17">
+        <v>250</v>
+      </c>
+      <c r="F29" s="19">
+        <f>IFERROR(WORKDAY(G29,(-$I$2+1)),"-")</f>
+        <v>45972</v>
+      </c>
+      <c r="G29" s="20">
+        <f t="shared" ref="G29" si="56">IFERROR(WORKDAY(K29,-1),"-")</f>
+        <v>45994</v>
+      </c>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="23">
+        <f t="shared" ref="K29" si="57">IFERROR(WORKDAY(L29,(-$N$2+1)),"-")</f>
+        <v>45995</v>
+      </c>
+      <c r="L29" s="19">
+        <f t="shared" ref="L29" si="58">IFERROR(WORKDAY(P29,-1),"-")</f>
+        <v>46017</v>
+      </c>
+      <c r="M29" s="33"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="23">
+        <f t="shared" ref="P29" si="59">IFERROR(WORKDAY(Q29,(-$S$2+1)),"-")</f>
+        <v>46020</v>
+      </c>
+      <c r="Q29" s="19">
+        <f t="shared" ref="Q29" si="60">IFERROR(WORKDAY(Z29,-1),"-")</f>
+        <v>46127</v>
+      </c>
+      <c r="R29" s="27">
+        <f t="shared" ref="R29" si="61">WORKDAY.INTL(N29,1)</f>
+        <v>2</v>
+      </c>
+      <c r="S29" s="28">
+        <f t="shared" ref="S29" si="62">WORKDAY(R29,$S$2-1)</f>
+        <v>109</v>
+      </c>
+      <c r="T29" s="22"/>
+      <c r="U29" s="23">
+        <f t="shared" ref="U29" si="63">IFERROR(WORKDAY(V29,(-$X$2+1)),"-")</f>
+        <v>46020</v>
+      </c>
+      <c r="V29" s="19">
+        <f t="shared" ref="V29" si="64">IFERROR(WORKDAY(Z29,-1),"-")</f>
+        <v>46127</v>
+      </c>
+      <c r="W29" s="27">
+        <f t="shared" ref="W29" si="65">WORKDAY.INTL(N29,1)</f>
+        <v>2</v>
+      </c>
+      <c r="X29" s="28">
+        <f t="shared" ref="X29" si="66">WORKDAY(W29,$X$2-1)</f>
+        <v>109</v>
+      </c>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="23">
+        <f t="shared" ref="Z29" si="67">IFERROR(WORKDAY(AA29,(-$AC$2+1)),"-")</f>
+        <v>46128</v>
+      </c>
+      <c r="AA29" s="19">
+        <f t="shared" ref="AA29" si="68">IFERROR(WORKDAY(AE29,-1),"-")</f>
+        <v>46148</v>
+      </c>
+      <c r="AB29" s="27">
+        <f t="shared" ref="AB29" si="69">WORKDAY.INTL(X29,1)</f>
+        <v>110</v>
+      </c>
+      <c r="AC29" s="28">
+        <f t="shared" ref="AC29" si="70">WORKDAY(AB29,$AC$2-1)</f>
+        <v>130</v>
+      </c>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="37">
+        <f t="shared" ref="AE29" si="71">IFERROR(WORKDAY(AF29,(-$AH$2+1)),"-")</f>
+        <v>46149</v>
+      </c>
+      <c r="AF29" s="20">
+        <f t="shared" ref="AF29" si="72">IFERROR(WORKDAY(AJ29,-1),"-")</f>
+        <v>46171</v>
+      </c>
+      <c r="AG29" s="27">
+        <f t="shared" ref="AG29" si="73">WORKDAY.INTL(W29,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AH29" s="28">
+        <f t="shared" ref="AH29" si="74">IFERROR(WORKDAY(W29,($AR$2)),"-")</f>
+        <v>23</v>
+      </c>
+      <c r="AI29" s="22"/>
+      <c r="AJ29" s="44">
+        <v>46174</v>
+      </c>
+      <c r="AK29" s="36">
+        <f t="shared" ref="AK29" si="75">IFERROR(WORKDAY(AJ29,(AM$2-1)),"-")</f>
+        <v>46176</v>
+      </c>
+      <c r="AL29" s="27">
+        <f t="shared" ref="AL29" si="76">WORKDAY.INTL(AC29,1)</f>
+        <v>131</v>
+      </c>
+      <c r="AM29" s="28">
+        <f t="shared" ref="AM29" si="77">IFERROR(WORKDAY(AC29,($AR$2)),"-")</f>
+        <v>151</v>
+      </c>
+      <c r="AN29" s="22"/>
+      <c r="AO29" s="23">
+        <f t="shared" ref="AO29" si="78">IFERROR(WORKDAY(AK29,1),"-")</f>
+        <v>46177</v>
+      </c>
+      <c r="AP29" s="19">
+        <f t="shared" si="26"/>
+        <v>46197</v>
+      </c>
+      <c r="AQ29" s="27">
+        <f t="shared" ref="AQ29" si="79">WORKDAY.INTL(AM29,1)</f>
         <v>152</v>
       </c>
-      <c r="AR28" s="28">
-        <f t="shared" si="55"/>
+      <c r="AR29" s="28">
+        <f t="shared" ref="AR29" si="80">WORKDAY(AQ29,$AC$2-1)</f>
         <v>172</v>
       </c>
-      <c r="AS28" s="17">
-        <f t="shared" si="56"/>
-        <v>-46233</v>
+      <c r="AS29" s="17">
+        <f t="shared" ref="AS29" si="81">IFERROR(AR29-AP29,"-")</f>
+        <v>-46025</v>
       </c>
     </row>
     <row r="30" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="AO30" s="36"/>
+      <c r="AO30" s="35"/>
     </row>
     <row r="31" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="E31" s="41"/>
-      <c r="AG31" s="35"/>
-      <c r="AL31" s="35"/>
+      <c r="E31" s="38"/>
+      <c r="AG31" s="34"/>
+      <c r="AL31" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5141,7 +5310,8 @@
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="AE3:AH3"/>
   </mergeCells>
-  <conditionalFormatting sqref="AS8:AS28">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="AS8:AS29">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
